--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611318FE-1960-4C9C-90CE-2E3157D6A57B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB01986-C6DA-4B94-B9A0-600AF288F5B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -4727,9 +4727,6 @@
     <t>PCA, Significance tests</t>
   </si>
   <si>
-    <t xml:space="preserve">Algae _ Prototoans _ Hydrozoans _ Bryozoans _ Polychaetes _ Bivalves </t>
-  </si>
-  <si>
     <t>Abundance of ALDFG (abandoned, lost or otherwise discharged fishing gears)</t>
   </si>
   <si>
@@ -4909,6 +4906,9 @@
   </si>
   <si>
     <t>Artisanal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algae _ Protozoans _ Hydrozoans _ Bryozoans _ Polychaetes _ Bivalves </t>
   </si>
 </sst>
 </file>
@@ -5385,8 +5385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF87" sqref="AF87"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH89" sqref="AH89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6499,13 +6499,13 @@
         <v>140</v>
       </c>
       <c r="AL9" t="s">
-        <v>752</v>
+        <v>812</v>
       </c>
       <c r="AM9" s="4" t="s">
         <v>231</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
@@ -6514,7 +6514,7 @@
         <v>113</v>
       </c>
       <c r="AU9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AV9" t="s">
         <v>199</v>
@@ -6523,7 +6523,7 @@
         <v>207</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
@@ -6658,7 +6658,7 @@
         <v>216</v>
       </c>
       <c r="Z11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -6683,7 +6683,7 @@
         <v>132</v>
       </c>
       <c r="AL11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AM11" s="4" t="s">
         <v>232</v>
@@ -6704,7 +6704,7 @@
         <v>175</v>
       </c>
       <c r="AU11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AV11" t="s">
         <v>237</v>
@@ -6713,7 +6713,7 @@
         <v>208</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
@@ -6787,10 +6787,10 @@
         <v>113</v>
       </c>
       <c r="Y12" t="s">
+        <v>760</v>
+      </c>
+      <c r="Z12" t="s">
         <v>761</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>762</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -6802,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AF12" t="s">
         <v>291</v>
@@ -6817,13 +6817,13 @@
         <v>140</v>
       </c>
       <c r="AL12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AM12" s="4" t="s">
         <v>231</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -6832,7 +6832,7 @@
         <v>113</v>
       </c>
       <c r="AU12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AV12" t="s">
         <v>206</v>
@@ -6841,7 +6841,7 @@
         <v>207</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13" spans="1:50" ht="129.6" x14ac:dyDescent="0.3">
@@ -6915,7 +6915,7 @@
         <v>215</v>
       </c>
       <c r="Z13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -6958,7 +6958,7 @@
         <v>208</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.3">
@@ -7087,7 +7087,7 @@
         <v>216</v>
       </c>
       <c r="Z15" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -7099,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AF15" t="s">
@@ -7112,7 +7112,7 @@
         <v>116</v>
       </c>
       <c r="AL15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AM15" s="4" t="s">
         <v>232</v>
@@ -7121,7 +7121,7 @@
         <v>162</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -7142,7 +7142,7 @@
         <v>210</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:50" ht="115.2" x14ac:dyDescent="0.3">
@@ -7216,7 +7216,7 @@
         <v>216</v>
       </c>
       <c r="Z16" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -7238,13 +7238,13 @@
         <v>117</v>
       </c>
       <c r="AL16" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AM16" s="4" t="s">
         <v>234</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -7256,7 +7256,7 @@
         <v>176</v>
       </c>
       <c r="AU16" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AV16" t="s">
         <v>199</v>
@@ -7265,7 +7265,7 @@
         <v>208</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:50" ht="43.2" x14ac:dyDescent="0.3">
@@ -7339,7 +7339,7 @@
         <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -7361,13 +7361,13 @@
         <v>120</v>
       </c>
       <c r="AL17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AM17" s="4" t="s">
         <v>234</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -7379,7 +7379,7 @@
         <v>176</v>
       </c>
       <c r="AU17" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AV17" t="s">
         <v>199</v>
@@ -7388,7 +7388,7 @@
         <v>208</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
@@ -7502,7 +7502,7 @@
         <v>175</v>
       </c>
       <c r="AU18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AV18" t="s">
         <v>199</v>
@@ -7511,7 +7511,7 @@
         <v>207</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.3">
@@ -7646,7 +7646,7 @@
         <v>216</v>
       </c>
       <c r="Z20" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7671,7 +7671,7 @@
         <v>140</v>
       </c>
       <c r="AL20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AM20" s="4" t="s">
         <v>232</v>
@@ -7680,7 +7680,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -7701,7 +7701,7 @@
         <v>208</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.3">
@@ -7836,7 +7836,7 @@
         <v>69</v>
       </c>
       <c r="Z22" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7858,7 +7858,7 @@
         <v>120</v>
       </c>
       <c r="AL22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AM22" s="4" t="s">
         <v>232</v>
@@ -7867,7 +7867,7 @@
         <v>160</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7876,7 +7876,7 @@
         <v>113</v>
       </c>
       <c r="AU22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AV22" t="s">
         <v>200</v>
@@ -7885,7 +7885,7 @@
         <v>208</v>
       </c>
       <c r="AX22" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
@@ -7959,7 +7959,7 @@
         <v>69</v>
       </c>
       <c r="Z23" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7984,7 +7984,7 @@
         <v>233</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7993,7 +7993,7 @@
         <v>113</v>
       </c>
       <c r="AU23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AV23" t="s">
         <v>113</v>
@@ -8002,7 +8002,7 @@
         <v>208</v>
       </c>
       <c r="AX23" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="24" spans="1:50" ht="187.2" x14ac:dyDescent="0.3">
@@ -8076,7 +8076,7 @@
         <v>218</v>
       </c>
       <c r="Z24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -8098,7 +8098,7 @@
         <v>116</v>
       </c>
       <c r="AL24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AM24" s="4" t="s">
         <v>232</v>
@@ -8107,7 +8107,7 @@
         <v>162</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -8128,7 +8128,7 @@
         <v>207</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="25" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
@@ -8202,7 +8202,7 @@
         <v>69</v>
       </c>
       <c r="Z25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -8224,7 +8224,7 @@
         <v>124</v>
       </c>
       <c r="AL25" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AM25" s="4" t="s">
         <v>232</v>
@@ -8233,13 +8233,13 @@
         <v>160</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
       <c r="AU25" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AV25" t="s">
         <v>206</v>
@@ -8248,7 +8248,7 @@
         <v>208</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="26" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
@@ -8322,7 +8322,7 @@
         <v>69</v>
       </c>
       <c r="Z26" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -8347,7 +8347,7 @@
         <v>132</v>
       </c>
       <c r="AL26" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AM26" s="4" t="s">
         <v>232</v>
@@ -8371,7 +8371,7 @@
         <v>208</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:50" ht="100.8" x14ac:dyDescent="0.3">
@@ -8445,7 +8445,7 @@
         <v>215</v>
       </c>
       <c r="Z27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8473,7 +8473,7 @@
         <v>162</v>
       </c>
       <c r="AO27" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -8485,7 +8485,7 @@
         <v>176</v>
       </c>
       <c r="AU27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AV27" t="s">
         <v>205</v>
@@ -8494,7 +8494,7 @@
         <v>208</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="1:50" ht="129.6" x14ac:dyDescent="0.3">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF35" t="s">
         <v>275</v>
@@ -9616,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF36" t="s">
         <v>275</v>
@@ -10228,7 +10228,7 @@
         <v>483</v>
       </c>
       <c r="AQ41" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AU41" t="s">
         <v>524</v>
@@ -10353,7 +10353,7 @@
         <v>483</v>
       </c>
       <c r="AQ42" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AU42" t="s">
         <v>524</v>
@@ -10478,7 +10478,7 @@
         <v>483</v>
       </c>
       <c r="AQ43" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AU43" t="s">
         <v>528</v>
@@ -10603,7 +10603,7 @@
         <v>483</v>
       </c>
       <c r="AQ44" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AU44" t="s">
         <v>528</v>
@@ -10728,7 +10728,7 @@
         <v>483</v>
       </c>
       <c r="AQ45" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AU45" t="s">
         <v>529</v>
@@ -10853,7 +10853,7 @@
         <v>483</v>
       </c>
       <c r="AQ46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AU46" t="s">
         <v>529</v>
@@ -10978,7 +10978,7 @@
         <v>483</v>
       </c>
       <c r="AQ47" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AU47" t="s">
         <v>531</v>
@@ -11103,7 +11103,7 @@
         <v>483</v>
       </c>
       <c r="AQ48" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AU48" t="s">
         <v>531</v>
@@ -16163,7 +16163,7 @@
         <v>233</v>
       </c>
       <c r="AQ8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AV8" t="s">
         <v>204</v>
@@ -17629,12 +17629,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17752,15 +17749,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17782,16 +17789,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB01986-C6DA-4B94-B9A0-600AF288F5B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0670B709-A251-4626-92D5-01F37E034CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="813">
   <si>
     <t>SearchID</t>
   </si>
@@ -5055,7 +5055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5076,6 +5076,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5385,96 +5386,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH89" sqref="AH89"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="24" max="25" width="32.6640625" customWidth="1"/>
-    <col min="30" max="30" width="17.88671875" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" style="4" customWidth="1"/>
-    <col min="40" max="40" width="15.88671875" customWidth="1"/>
-    <col min="41" max="41" width="15.88671875" style="4" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" customWidth="1"/>
+    <col min="24" max="25" width="32.6328125" customWidth="1"/>
+    <col min="30" max="30" width="17.90625" customWidth="1"/>
+    <col min="34" max="35" width="17.6328125" customWidth="1"/>
+    <col min="36" max="36" width="18.6328125" customWidth="1"/>
+    <col min="37" max="37" width="19.08984375" customWidth="1"/>
+    <col min="38" max="38" width="17.6328125" customWidth="1"/>
+    <col min="39" max="39" width="14.36328125" style="4" customWidth="1"/>
+    <col min="40" max="40" width="15.90625" customWidth="1"/>
+    <col min="41" max="41" width="15.90625" style="4" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.08984375" customWidth="1"/>
+    <col min="47" max="47" width="18.6328125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
-    <col min="50" max="50" width="44.77734375" customWidth="1"/>
+    <col min="50" max="50" width="44.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="15" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="16" t="s">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="18" t="s">
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="12" t="s">
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="13" t="s">
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>276</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>284</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>292</v>
       </c>
@@ -6587,7 +6588,7 @@
       </c>
       <c r="AX10" s="4"/>
     </row>
-    <row r="11" spans="1:50" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>309</v>
       </c>
@@ -6844,7 +6845,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>318</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>325</v>
       </c>
@@ -7022,7 +7023,7 @@
       </c>
       <c r="AX14" s="4"/>
     </row>
-    <row r="15" spans="1:50" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -7145,7 +7146,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>343</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>351</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>360</v>
       </c>
@@ -7575,7 +7576,7 @@
       </c>
       <c r="AX19" s="4"/>
     </row>
-    <row r="20" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -7704,7 +7705,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>378</v>
       </c>
@@ -7765,7 +7766,7 @@
       </c>
       <c r="AX21" s="4"/>
     </row>
-    <row r="22" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>387</v>
       </c>
@@ -7888,7 +7889,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="24" spans="1:50" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>396</v>
       </c>
@@ -8131,7 +8132,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>402</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>412</v>
       </c>
@@ -8368,13 +8369,13 @@
         <v>238</v>
       </c>
       <c r="AW26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX26" s="4" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>421</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>431</v>
       </c>
@@ -8626,7 +8627,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>431</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:50" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>431</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>431</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="32" spans="1:50" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>431</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>431</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>456</v>
       </c>
@@ -9408,7 +9409,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>456</v>
       </c>
@@ -9533,7 +9534,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>456</v>
       </c>
@@ -9661,7 +9662,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="144" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>472</v>
       </c>
@@ -9786,7 +9787,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="216" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>486</v>
       </c>
@@ -9923,7 +9924,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="39" spans="1:50" ht="216" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>486</v>
       </c>
@@ -10057,7 +10058,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>502</v>
       </c>
@@ -10118,7 +10119,7 @@
       </c>
       <c r="AX40" s="4"/>
     </row>
-    <row r="41" spans="1:50" ht="144" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>511</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="144" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>511</v>
       </c>
@@ -10368,7 +10369,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="43" spans="1:50" ht="144" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>511</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:50" ht="144" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>511</v>
       </c>
@@ -10618,7 +10619,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="45" spans="1:50" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>511</v>
       </c>
@@ -10743,7 +10744,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:50" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>511</v>
       </c>
@@ -10868,7 +10869,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:50" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>511</v>
       </c>
@@ -10993,7 +10994,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="48" spans="1:50" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>511</v>
       </c>
@@ -11118,7 +11119,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="144" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>533</v>
       </c>
@@ -11243,7 +11244,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="144" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>533</v>
       </c>
@@ -11368,7 +11369,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>533</v>
       </c>
@@ -11491,7 +11492,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>533</v>
       </c>
@@ -11614,7 +11615,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>533</v>
       </c>
@@ -11743,7 +11744,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>533</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>533</v>
       </c>
@@ -11989,7 +11990,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>559</v>
       </c>
@@ -12087,8 +12088,11 @@
       <c r="AL56" t="s">
         <v>567</v>
       </c>
-      <c r="AM56" s="4" t="s">
-        <v>159</v>
+      <c r="AM56" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>162</v>
       </c>
       <c r="AO56" s="4" t="s">
         <v>667</v>
@@ -12115,7 +12119,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>559</v>
       </c>
@@ -12213,8 +12217,11 @@
       <c r="AL57" t="s">
         <v>567</v>
       </c>
-      <c r="AM57" s="4" t="s">
-        <v>159</v>
+      <c r="AM57" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>162</v>
       </c>
       <c r="AO57" s="4" t="s">
         <v>667</v>
@@ -12241,7 +12248,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>655</v>
       </c>
@@ -12367,7 +12374,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>655</v>
       </c>
@@ -12493,7 +12500,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>655</v>
       </c>
@@ -12619,7 +12626,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>655</v>
       </c>
@@ -12745,7 +12752,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="62" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>570</v>
       </c>
@@ -12877,7 +12884,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="63" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>570</v>
       </c>
@@ -13009,7 +13016,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="64" spans="1:50" ht="144" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>570</v>
       </c>
@@ -13141,7 +13148,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>579</v>
       </c>
@@ -13201,7 +13208,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:50" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>588</v>
       </c>
@@ -13327,7 +13334,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="67" spans="1:50" ht="288" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>588</v>
       </c>
@@ -13456,7 +13463,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="68" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>596</v>
       </c>
@@ -13587,7 +13594,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="69" spans="1:50" ht="144" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>605</v>
       </c>
@@ -13721,7 +13728,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="70" spans="1:50" ht="144" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>605</v>
       </c>
@@ -13855,7 +13862,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>613</v>
       </c>
@@ -13915,7 +13922,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="1:50" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>621</v>
       </c>
@@ -14038,7 +14045,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:50" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>630</v>
       </c>
@@ -14178,7 +14185,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="74" spans="1:50" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>630</v>
       </c>
@@ -14318,7 +14325,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="75" spans="1:50" ht="216" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>639</v>
       </c>
@@ -14453,7 +14460,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="1:50" ht="216" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>639</v>
       </c>
@@ -14588,7 +14595,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="77" spans="1:50" ht="216" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>639</v>
       </c>
@@ -14723,7 +14730,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="78" spans="1:50" ht="216" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>639</v>
       </c>
@@ -14858,7 +14865,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="79" spans="1:50" ht="216" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>646</v>
       </c>
@@ -14990,7 +14997,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:50" ht="72" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>646</v>
       </c>
@@ -15122,7 +15129,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="81" spans="1:50" ht="72" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>646</v>
       </c>
@@ -15254,7 +15261,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="82" spans="1:50" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>646</v>
       </c>
@@ -15386,7 +15393,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="83" spans="1:50" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>646</v>
       </c>
@@ -15646,75 +15653,75 @@
       <selection activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="15" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="16" t="s">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -15722,7 +15729,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -15874,7 +15881,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -15931,7 +15938,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -15988,7 +15995,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -16044,7 +16051,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -16089,7 +16096,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -16131,7 +16138,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -16169,7 +16176,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -16207,7 +16214,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -16239,7 +16246,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -16274,7 +16281,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -16306,7 +16313,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -16341,7 +16348,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -16370,7 +16377,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -16399,7 +16406,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -16419,7 +16426,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -16427,22 +16434,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -16477,7 +16484,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -16503,7 +16510,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -16526,7 +16533,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -16537,7 +16544,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -16548,7 +16555,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -16556,12 +16563,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -16584,7 +16591,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -16610,7 +16617,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -16636,7 +16643,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -16656,7 +16663,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -16671,7 +16678,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -16685,7 +16692,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -16693,10 +16700,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -16724,85 +16731,85 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.77734375" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.90625" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="19.36328125" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="18.6328125" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" customWidth="1"/>
+    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="15" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="13" t="s">
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -16903,7 +16910,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16969,7 +16976,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -17020,7 +17027,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -17074,7 +17081,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -17116,7 +17123,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -17161,7 +17168,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -17199,7 +17206,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -17237,7 +17244,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -17272,7 +17279,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -17304,7 +17311,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -17336,7 +17343,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -17365,7 +17372,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -17388,7 +17395,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -17414,7 +17421,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -17431,7 +17438,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -17442,7 +17449,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -17456,7 +17463,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -17470,7 +17477,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -17481,7 +17488,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -17495,7 +17502,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -17506,7 +17513,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -17517,7 +17524,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -17525,7 +17532,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -17533,7 +17540,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -17541,7 +17548,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -17555,7 +17562,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -17566,7 +17573,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -17577,7 +17584,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -17588,7 +17595,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -17596,7 +17603,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -17604,12 +17611,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -17760,14 +17767,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0670B709-A251-4626-92D5-01F37E034CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE58DCB-78F2-4AFF-974D-CBF9469D08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$84</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="812">
   <si>
     <t>SearchID</t>
   </si>
@@ -4524,10 +4524,6 @@
 periods withlwithout fisheries shows
 a highly significant difference in the percentage
 of pellets containing discards (Table 1).</t>
-  </si>
-  <si>
-    <t>Larus
-audouinii _ Larus cachinnans</t>
   </si>
   <si>
     <t>G Test _ Mann Whitney U Test</t>
@@ -4602,9 +4598,6 @@
 R = 0.65, P &lt; 0.002; dredging, R = 0.88, P &lt; 0.002).</t>
   </si>
   <si>
-    <t>Abudance</t>
-  </si>
-  <si>
     <t>Macropodia spp. _ lnachus dorsettensis _ Pecten maximus _  Nudibranch indet. _ Asterias rubens _ Astropecten irregularis _ Porania pulvillus _ Anseropoda placenta _ Ophiura ophiura _ Ophiura albida _ Ophio thrix fragilis _ Psammechinus miliaris</t>
   </si>
   <si>
@@ -4909,6 +4902,9 @@
   </si>
   <si>
     <t xml:space="preserve">Algae _ Protozoans _ Hydrozoans _ Bryozoans _ Polychaetes _ Bivalves </t>
+  </si>
+  <si>
+    <t>Larus audouinii _ Larus cachinnans</t>
   </si>
 </sst>
 </file>
@@ -5384,10 +5380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX83"/>
+  <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AW26" sqref="AW26"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AT90" sqref="AT90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5698,7 +5694,7 @@
         <v>215</v>
       </c>
       <c r="Z3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5723,7 +5719,7 @@
         <v>145</v>
       </c>
       <c r="AL3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AM3" s="4" t="s">
         <v>232</v>
@@ -5732,10 +5728,10 @@
         <v>161</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AP3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -5744,7 +5740,7 @@
         <v>239</v>
       </c>
       <c r="AU3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AV3" t="s">
         <v>202</v>
@@ -5753,7 +5749,7 @@
         <v>209</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5827,7 +5823,7 @@
         <v>69</v>
       </c>
       <c r="Z4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5852,7 +5848,7 @@
         <v>130</v>
       </c>
       <c r="AL4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AM4" s="4" t="s">
         <v>232</v>
@@ -5861,7 +5857,7 @@
         <v>160</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5882,7 +5878,7 @@
         <v>208</v>
       </c>
       <c r="AX4" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5953,7 +5949,7 @@
         <v>69</v>
       </c>
       <c r="Z5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -5981,7 +5977,7 @@
         <v>148</v>
       </c>
       <c r="AL5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AM5" s="4" t="s">
         <v>232</v>
@@ -5990,7 +5986,7 @@
         <v>161</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -6011,7 +6007,7 @@
         <v>208</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6085,10 +6081,10 @@
         <v>113</v>
       </c>
       <c r="Y6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="Z6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -6128,7 +6124,7 @@
         <v>161</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -6146,7 +6142,7 @@
         <v>209</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6220,7 +6216,7 @@
         <v>69</v>
       </c>
       <c r="Z7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -6242,7 +6238,7 @@
         <v>124</v>
       </c>
       <c r="AL7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AM7" s="4" t="s">
         <v>232</v>
@@ -6251,7 +6247,7 @@
         <v>160</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -6266,7 +6262,7 @@
         <v>207</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6340,10 +6336,10 @@
         <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="Z8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -6368,7 +6364,7 @@
         <v>147</v>
       </c>
       <c r="AL8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AM8" s="4" t="s">
         <v>232</v>
@@ -6377,7 +6373,7 @@
         <v>160</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -6389,7 +6385,7 @@
         <v>181</v>
       </c>
       <c r="AU8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AV8" t="s">
         <v>238</v>
@@ -6398,7 +6394,7 @@
         <v>207</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6472,10 +6468,10 @@
         <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="Z9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AA9">
         <v>2</v>
@@ -6500,13 +6496,13 @@
         <v>140</v>
       </c>
       <c r="AL9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AM9" s="4" t="s">
         <v>231</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
@@ -6515,7 +6511,7 @@
         <v>113</v>
       </c>
       <c r="AU9" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AV9" t="s">
         <v>199</v>
@@ -6524,7 +6520,7 @@
         <v>207</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6659,7 +6655,7 @@
         <v>216</v>
       </c>
       <c r="Z11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -6684,7 +6680,7 @@
         <v>132</v>
       </c>
       <c r="AL11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AM11" s="4" t="s">
         <v>232</v>
@@ -6693,7 +6689,7 @@
         <v>161</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -6705,7 +6701,7 @@
         <v>175</v>
       </c>
       <c r="AU11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AV11" t="s">
         <v>237</v>
@@ -6714,7 +6710,7 @@
         <v>208</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6788,10 +6784,10 @@
         <v>113</v>
       </c>
       <c r="Y12" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="Z12" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -6803,7 +6799,7 @@
         <v>2</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AF12" t="s">
         <v>291</v>
@@ -6818,13 +6814,13 @@
         <v>140</v>
       </c>
       <c r="AL12" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AM12" s="4" t="s">
         <v>231</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -6833,7 +6829,7 @@
         <v>113</v>
       </c>
       <c r="AU12" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AV12" t="s">
         <v>206</v>
@@ -6842,7 +6838,7 @@
         <v>207</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6916,7 +6912,7 @@
         <v>215</v>
       </c>
       <c r="Z13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -6944,7 +6940,7 @@
         <v>160</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
@@ -6959,7 +6955,7 @@
         <v>208</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7088,7 +7084,7 @@
         <v>216</v>
       </c>
       <c r="Z15" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -7100,7 +7096,7 @@
         <v>3</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AF15" t="s">
@@ -7113,7 +7109,7 @@
         <v>116</v>
       </c>
       <c r="AL15" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AM15" s="4" t="s">
         <v>232</v>
@@ -7122,7 +7118,7 @@
         <v>162</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -7143,7 +7139,7 @@
         <v>210</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7217,7 +7213,7 @@
         <v>216</v>
       </c>
       <c r="Z16" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -7239,13 +7235,13 @@
         <v>117</v>
       </c>
       <c r="AL16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AM16" s="4" t="s">
         <v>234</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -7257,7 +7253,7 @@
         <v>176</v>
       </c>
       <c r="AU16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AV16" t="s">
         <v>199</v>
@@ -7266,7 +7262,7 @@
         <v>208</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7340,7 +7336,7 @@
         <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -7362,13 +7358,13 @@
         <v>120</v>
       </c>
       <c r="AL17" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AM17" s="4" t="s">
         <v>234</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -7380,7 +7376,7 @@
         <v>176</v>
       </c>
       <c r="AU17" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AV17" t="s">
         <v>199</v>
@@ -7389,7 +7385,7 @@
         <v>208</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7463,7 +7459,7 @@
         <v>69</v>
       </c>
       <c r="Z18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -7491,7 +7487,7 @@
         <v>162</v>
       </c>
       <c r="AO18" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -7503,7 +7499,7 @@
         <v>175</v>
       </c>
       <c r="AU18" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AV18" t="s">
         <v>199</v>
@@ -7512,7 +7508,7 @@
         <v>207</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="19" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7647,7 +7643,7 @@
         <v>216</v>
       </c>
       <c r="Z20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7672,7 +7668,7 @@
         <v>140</v>
       </c>
       <c r="AL20" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AM20" s="4" t="s">
         <v>232</v>
@@ -7681,7 +7677,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -7693,7 +7689,7 @@
         <v>176</v>
       </c>
       <c r="AU20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AV20" t="s">
         <v>206</v>
@@ -7702,7 +7698,7 @@
         <v>208</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7837,7 +7833,7 @@
         <v>69</v>
       </c>
       <c r="Z22" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7859,7 +7855,7 @@
         <v>120</v>
       </c>
       <c r="AL22" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AM22" s="4" t="s">
         <v>232</v>
@@ -7868,7 +7864,7 @@
         <v>160</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7877,7 +7873,7 @@
         <v>113</v>
       </c>
       <c r="AU22" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AV22" t="s">
         <v>200</v>
@@ -7886,7 +7882,7 @@
         <v>208</v>
       </c>
       <c r="AX22" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7960,7 +7956,7 @@
         <v>69</v>
       </c>
       <c r="Z23" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7985,7 +7981,7 @@
         <v>233</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7994,7 +7990,7 @@
         <v>113</v>
       </c>
       <c r="AU23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AV23" t="s">
         <v>113</v>
@@ -8003,7 +7999,7 @@
         <v>208</v>
       </c>
       <c r="AX23" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -8077,7 +8073,7 @@
         <v>218</v>
       </c>
       <c r="Z24" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -8099,7 +8095,7 @@
         <v>116</v>
       </c>
       <c r="AL24" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AM24" s="4" t="s">
         <v>232</v>
@@ -8108,7 +8104,7 @@
         <v>162</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -8129,7 +8125,7 @@
         <v>207</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -8203,7 +8199,7 @@
         <v>69</v>
       </c>
       <c r="Z25" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -8225,7 +8221,7 @@
         <v>124</v>
       </c>
       <c r="AL25" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AM25" s="4" t="s">
         <v>232</v>
@@ -8234,13 +8230,13 @@
         <v>160</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
       <c r="AU25" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="AV25" t="s">
         <v>206</v>
@@ -8249,48 +8245,48 @@
         <v>208</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B26" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D26" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E26">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F26" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G26" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="H26" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="I26" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="J26" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K26" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L26" t="s">
         <v>248</v>
       </c>
       <c r="M26" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="N26" t="s">
         <v>251</v>
@@ -8299,31 +8295,31 @@
         <v>252</v>
       </c>
       <c r="P26" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="Q26" t="s">
         <v>21</v>
       </c>
       <c r="S26" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T26" t="s">
         <v>46</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
         <v>41</v>
       </c>
       <c r="W26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X26" t="s">
         <v>69</v>
       </c>
       <c r="Z26" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -8332,88 +8328,85 @@
         <v>2</v>
       </c>
       <c r="AC26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE26" s="4"/>
       <c r="AF26" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AH26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL26" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="AM26" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO26" s="4" t="s">
-        <v>728</v>
+        <v>797</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
       </c>
       <c r="AU26" t="s">
-        <v>238</v>
+        <v>798</v>
       </c>
       <c r="AV26" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="AW26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="27" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D27" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E27">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F27" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G27" t="s">
-        <v>425</v>
+        <v>314</v>
       </c>
       <c r="H27" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="I27" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="J27" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K27" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L27" t="s">
         <v>248</v>
       </c>
       <c r="M27" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="N27" t="s">
         <v>251</v>
@@ -8422,13 +8415,13 @@
         <v>252</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q27" t="s">
         <v>21</v>
       </c>
       <c r="S27" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T27" t="s">
         <v>46</v>
@@ -8437,16 +8430,16 @@
         <v>57</v>
       </c>
       <c r="V27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s">
         <v>51</v>
       </c>
       <c r="X27" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8455,17 +8448,23 @@
         <v>2</v>
       </c>
       <c r="AC27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE27" s="4"/>
       <c r="AF27" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH27" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>801</v>
       </c>
       <c r="AM27" s="4" t="s">
         <v>232</v>
@@ -8474,69 +8473,63 @@
         <v>162</v>
       </c>
       <c r="AO27" s="4" t="s">
-        <v>806</v>
+        <v>726</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
-      <c r="AR27" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>176</v>
-      </c>
       <c r="AU27" t="s">
-        <v>807</v>
+        <v>238</v>
       </c>
       <c r="AV27" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="AW27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="28" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D28" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E28">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F28" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G28" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>426</v>
       </c>
       <c r="I28" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="J28" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K28" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L28" t="s">
         <v>248</v>
       </c>
       <c r="M28" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N28" t="s">
         <v>251</v>
@@ -8545,37 +8538,37 @@
         <v>252</v>
       </c>
       <c r="P28" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q28" t="s">
         <v>21</v>
       </c>
       <c r="S28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T28" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X28" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="Z28" t="s">
-        <v>441</v>
+        <v>803</v>
       </c>
       <c r="AA28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC28">
         <v>3</v>
@@ -8590,41 +8583,35 @@
       <c r="AH28" t="s">
         <v>120</v>
       </c>
-      <c r="AI28" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>442</v>
-      </c>
       <c r="AM28" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>162</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>672</v>
+        <v>804</v>
       </c>
       <c r="AQ28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR28" t="s">
-        <v>174</v>
+        <v>239</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>176</v>
       </c>
       <c r="AU28" t="s">
-        <v>443</v>
+        <v>805</v>
       </c>
       <c r="AV28" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AW28" t="s">
         <v>208</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>444</v>
+        <v>806</v>
       </c>
     </row>
     <row r="29" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -8735,16 +8722,13 @@
         <v>233</v>
       </c>
       <c r="AO29" s="4" t="s">
-        <v>445</v>
+        <v>672</v>
       </c>
       <c r="AQ29" t="s">
         <v>165</v>
       </c>
       <c r="AR29" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="AU29" t="s">
         <v>443</v>
@@ -8756,7 +8740,7 @@
         <v>208</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -8830,7 +8814,7 @@
         <v>72</v>
       </c>
       <c r="Z30" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AA30">
         <v>3</v>
@@ -8867,16 +8851,19 @@
         <v>233</v>
       </c>
       <c r="AO30" s="4" t="s">
-        <v>672</v>
+        <v>445</v>
       </c>
       <c r="AQ30" t="s">
         <v>165</v>
       </c>
       <c r="AR30" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>211</v>
       </c>
       <c r="AU30" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AV30" t="s">
         <v>213</v>
@@ -8885,7 +8872,7 @@
         <v>208</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -8996,19 +8983,16 @@
         <v>233</v>
       </c>
       <c r="AO31" s="4" t="s">
-        <v>445</v>
+        <v>672</v>
       </c>
       <c r="AQ31" t="s">
         <v>165</v>
       </c>
       <c r="AR31" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="AU31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AV31" t="s">
         <v>213</v>
@@ -9017,7 +9001,7 @@
         <v>208</v>
       </c>
       <c r="AX31" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9128,25 +9112,28 @@
         <v>233</v>
       </c>
       <c r="AO32" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AQ32" t="s">
         <v>165</v>
       </c>
       <c r="AR32" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>211</v>
       </c>
       <c r="AU32" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AV32" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AW32" t="s">
         <v>208</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9257,16 +9244,13 @@
         <v>233</v>
       </c>
       <c r="AO33" s="4" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="AQ33" t="s">
         <v>165</v>
       </c>
       <c r="AR33" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="AU33" t="s">
         <v>453</v>
@@ -9278,48 +9262,48 @@
         <v>208</v>
       </c>
       <c r="AX33" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="B34" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D34" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E34">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F34" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="G34" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="H34" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I34" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="J34" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="K34" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="L34" t="s">
         <v>248</v>
       </c>
       <c r="M34" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="N34" t="s">
         <v>251</v>
@@ -9328,85 +9312,89 @@
         <v>252</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q34" t="s">
         <v>21</v>
       </c>
       <c r="S34" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s">
         <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W34" t="s">
         <v>55</v>
       </c>
       <c r="X34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z34" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC34">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="4" t="s">
-        <v>466</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE34" s="4"/>
       <c r="AF34" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH34" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>150</v>
       </c>
       <c r="AL34" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO34" s="4" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="AQ34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS34" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="AU34" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AV34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AW34" t="s">
         <v>208</v>
       </c>
       <c r="AX34" s="4" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9492,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>809</v>
+        <v>466</v>
       </c>
       <c r="AF35" t="s">
         <v>275</v>
@@ -9504,7 +9492,7 @@
         <v>124</v>
       </c>
       <c r="AL35" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AM35" s="4" t="s">
         <v>232</v>
@@ -9519,7 +9507,10 @@
         <v>164</v>
       </c>
       <c r="AR35" t="s">
-        <v>239</v>
+        <v>169</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>181</v>
       </c>
       <c r="AU35" t="s">
         <v>469</v>
@@ -9617,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AF36" t="s">
         <v>275</v>
@@ -9644,10 +9635,7 @@
         <v>164</v>
       </c>
       <c r="AR36" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="AU36" t="s">
         <v>469</v>
@@ -9664,43 +9652,43 @@
     </row>
     <row r="37" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B37" t="s">
         <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D37" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="E37">
         <v>2010</v>
       </c>
       <c r="F37" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="G37" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="H37" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="I37" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="J37" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K37" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="L37" t="s">
         <v>248</v>
       </c>
       <c r="M37" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="N37" t="s">
         <v>251</v>
@@ -9715,7 +9703,7 @@
         <v>21</v>
       </c>
       <c r="S37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T37" t="s">
         <v>45</v>
@@ -9724,19 +9712,19 @@
         <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W37" t="s">
         <v>55</v>
       </c>
       <c r="X37" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="AA37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB37">
         <v>2</v>
@@ -9745,87 +9733,90 @@
         <v>1</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>481</v>
+        <v>808</v>
       </c>
       <c r="AF37" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="AG37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="AL37" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="AM37" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO37" s="4" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="AQ37" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>189</v>
       </c>
       <c r="AU37" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="AV37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AW37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX37" s="4" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B38" t="s">
         <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D38" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E38">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F38" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="G38" t="s">
-        <v>280</v>
+        <v>476</v>
       </c>
       <c r="H38" t="s">
         <v>297</v>
       </c>
       <c r="I38" t="s">
-        <v>490</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="K38" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="L38" t="s">
         <v>248</v>
       </c>
       <c r="M38" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="N38" t="s">
         <v>251</v>
@@ -9840,7 +9831,7 @@
         <v>21</v>
       </c>
       <c r="S38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T38" t="s">
         <v>45</v>
@@ -9849,16 +9840,16 @@
         <v>55</v>
       </c>
       <c r="V38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W38" t="s">
         <v>55</v>
       </c>
       <c r="X38" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z38" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9870,25 +9861,22 @@
         <v>1</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="AF38" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AG38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI38" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AL38" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AM38" s="4" t="s">
         <v>232</v>
@@ -9897,31 +9885,22 @@
         <v>162</v>
       </c>
       <c r="AO38" s="4" t="s">
-        <v>162</v>
+        <v>483</v>
       </c>
       <c r="AQ38" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>497</v>
+        <v>150</v>
       </c>
       <c r="AU38" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AV38" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AW38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX38" s="4" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10016,19 +9995,22 @@
         <v>107</v>
       </c>
       <c r="AH39" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="AI39" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>155</v>
       </c>
       <c r="AL39" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AM39" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO39" s="4" t="s">
         <v>162</v>
@@ -10055,48 +10037,48 @@
         <v>208</v>
       </c>
       <c r="AX39" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B40" t="s">
         <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="D40" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="E40">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F40" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="G40" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="H40" t="s">
-        <v>506</v>
+        <v>297</v>
       </c>
       <c r="I40" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="J40" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="K40" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="L40" t="s">
         <v>248</v>
       </c>
       <c r="M40" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="N40" t="s">
         <v>251</v>
@@ -10105,144 +10087,153 @@
         <v>252</v>
       </c>
       <c r="P40" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q40" t="s">
         <v>21</v>
       </c>
-      <c r="R40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE40" s="4"/>
+      <c r="S40" t="s">
+        <v>35</v>
+      </c>
+      <c r="T40" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" t="s">
+        <v>55</v>
+      </c>
+      <c r="V40" t="s">
+        <v>44</v>
+      </c>
+      <c r="W40" t="s">
+        <v>55</v>
+      </c>
+      <c r="X40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <v>2</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="AF40" t="s">
         <v>267</v>
       </c>
-      <c r="AX40" s="4"/>
+      <c r="AG40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>500</v>
+      </c>
+      <c r="AM40" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>497</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX40" s="4" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="41" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B41" t="s">
         <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D41" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E41">
         <v>2008</v>
       </c>
       <c r="F41" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G41" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="H41" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="I41" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J41" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K41" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L41" t="s">
         <v>248</v>
       </c>
       <c r="M41" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N41" t="s">
         <v>251</v>
       </c>
       <c r="O41" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P41" t="s">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="Q41" t="s">
         <v>21</v>
       </c>
-      <c r="S41" t="s">
-        <v>31</v>
-      </c>
-      <c r="T41" t="s">
-        <v>45</v>
-      </c>
-      <c r="U41" t="s">
-        <v>56</v>
-      </c>
-      <c r="V41" t="s">
-        <v>41</v>
-      </c>
-      <c r="W41" t="s">
-        <v>55</v>
-      </c>
-      <c r="X41" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>521</v>
-      </c>
-      <c r="AA41">
-        <v>2</v>
-      </c>
-      <c r="AB41">
-        <v>2</v>
-      </c>
-      <c r="AC41">
-        <v>2</v>
-      </c>
-      <c r="AE41" s="4" t="s">
-        <v>522</v>
-      </c>
+      <c r="R41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE41" s="4"/>
       <c r="AF41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>523</v>
-      </c>
-      <c r="AM41" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO41" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>811</v>
-      </c>
-      <c r="AU41" t="s">
-        <v>524</v>
-      </c>
-      <c r="AV41" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW41" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX41" s="4" t="s">
-        <v>525</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AX41" s="4"/>
     </row>
     <row r="42" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -10342,19 +10333,19 @@
         <v>144</v>
       </c>
       <c r="AL42" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AM42" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO42" s="4" t="s">
         <v>483</v>
       </c>
       <c r="AQ42" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AU42" t="s">
         <v>524</v>
@@ -10366,7 +10357,7 @@
         <v>207</v>
       </c>
       <c r="AX42" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10467,31 +10458,31 @@
         <v>144</v>
       </c>
       <c r="AL43" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AM43" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO43" s="4" t="s">
         <v>483</v>
       </c>
       <c r="AQ43" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AU43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AV43" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW43" t="s">
         <v>207</v>
       </c>
       <c r="AX43" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10592,19 +10583,19 @@
         <v>144</v>
       </c>
       <c r="AL44" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AM44" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO44" s="4" t="s">
         <v>483</v>
       </c>
       <c r="AQ44" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AU44" t="s">
         <v>528</v>
@@ -10684,13 +10675,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z45" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="AA45">
         <v>2</v>
@@ -10717,31 +10708,31 @@
         <v>144</v>
       </c>
       <c r="AL45" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AM45" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO45" s="4" t="s">
         <v>483</v>
       </c>
       <c r="AQ45" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AU45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AV45" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW45" t="s">
         <v>207</v>
       </c>
       <c r="AX45" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10842,19 +10833,19 @@
         <v>144</v>
       </c>
       <c r="AL46" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AM46" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO46" s="4" t="s">
         <v>483</v>
       </c>
       <c r="AQ46" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AU46" t="s">
         <v>529</v>
@@ -10967,31 +10958,31 @@
         <v>144</v>
       </c>
       <c r="AL47" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AM47" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN47" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO47" s="4" t="s">
         <v>483</v>
       </c>
       <c r="AQ47" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AU47" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AV47" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW47" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX47" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11092,19 +11083,19 @@
         <v>144</v>
       </c>
       <c r="AL48" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AM48" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO48" s="4" t="s">
         <v>483</v>
       </c>
       <c r="AQ48" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AU48" t="s">
         <v>531</v>
@@ -11121,127 +11112,127 @@
     </row>
     <row r="49" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="B49" t="s">
         <v>243</v>
       </c>
       <c r="C49" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="D49" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="E49">
         <v>2008</v>
       </c>
       <c r="F49" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="G49" t="s">
-        <v>537</v>
+        <v>296</v>
       </c>
       <c r="H49" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="I49" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="J49" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="K49" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="L49" t="s">
         <v>248</v>
       </c>
       <c r="M49" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="N49" t="s">
         <v>251</v>
       </c>
       <c r="O49" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="P49" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q49" t="s">
         <v>21</v>
       </c>
       <c r="S49" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V49" t="s">
         <v>41</v>
       </c>
       <c r="W49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X49" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z49" t="s">
-        <v>543</v>
+        <v>447</v>
       </c>
       <c r="AA49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="AF49" t="s">
         <v>275</v>
       </c>
       <c r="AG49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH49" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI49" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AL49" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="AM49" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO49" s="4" t="s">
         <v>483</v>
       </c>
       <c r="AQ49" t="s">
-        <v>164</v>
+        <v>809</v>
       </c>
       <c r="AU49" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="AV49" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW49" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX49" s="4" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11339,10 +11330,10 @@
         <v>220</v>
       </c>
       <c r="AI50" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AL50" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM50" s="4" t="s">
         <v>232</v>
@@ -11440,7 +11431,7 @@
         <v>215</v>
       </c>
       <c r="Z51" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AA51">
         <v>3</v>
@@ -11449,9 +11440,11 @@
         <v>3</v>
       </c>
       <c r="AC51">
-        <v>2</v>
-      </c>
-      <c r="AE51" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>544</v>
+      </c>
       <c r="AF51" t="s">
         <v>275</v>
       </c>
@@ -11459,19 +11452,19 @@
         <v>110</v>
       </c>
       <c r="AH51" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI51" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AL51" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AM51" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO51" s="4" t="s">
         <v>483</v>
@@ -11480,7 +11473,7 @@
         <v>164</v>
       </c>
       <c r="AU51" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AV51" t="s">
         <v>199</v>
@@ -11489,7 +11482,7 @@
         <v>207</v>
       </c>
       <c r="AX51" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11588,13 +11581,13 @@
         <v>149</v>
       </c>
       <c r="AL52" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AM52" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO52" s="4" t="s">
         <v>483</v>
@@ -11705,25 +11698,19 @@
         <v>110</v>
       </c>
       <c r="AH53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI53" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL53" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AM53" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO53" s="4" t="s">
         <v>483</v>
@@ -11741,7 +11728,7 @@
         <v>207</v>
       </c>
       <c r="AX53" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11815,7 +11802,7 @@
         <v>215</v>
       </c>
       <c r="Z54" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AA54">
         <v>3</v>
@@ -11834,13 +11821,19 @@
         <v>110</v>
       </c>
       <c r="AH54" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI54" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>150</v>
       </c>
       <c r="AL54" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="AM54" s="4" t="s">
         <v>232</v>
@@ -11855,16 +11848,16 @@
         <v>164</v>
       </c>
       <c r="AU54" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AV54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW54" t="s">
         <v>207</v>
       </c>
       <c r="AX54" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11960,10 +11953,10 @@
         <v>220</v>
       </c>
       <c r="AI55" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AL55" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AM55" s="4" t="s">
         <v>232</v>
@@ -11992,43 +11985,43 @@
     </row>
     <row r="56" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="B56" t="s">
         <v>243</v>
       </c>
       <c r="C56" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="D56" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="E56">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F56" t="s">
-        <v>346</v>
+        <v>536</v>
       </c>
       <c r="G56" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="H56" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="I56" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="J56" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="K56" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="L56" t="s">
         <v>248</v>
       </c>
       <c r="M56" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="N56" t="s">
         <v>251</v>
@@ -12043,7 +12036,7 @@
         <v>21</v>
       </c>
       <c r="S56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T56" t="s">
         <v>46</v>
@@ -12052,22 +12045,22 @@
         <v>59</v>
       </c>
       <c r="V56" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W56" t="s">
         <v>55</v>
       </c>
       <c r="X56" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z56" t="s">
-        <v>663</v>
+        <v>556</v>
       </c>
       <c r="AA56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC56">
         <v>2</v>
@@ -12077,46 +12070,40 @@
         <v>275</v>
       </c>
       <c r="AG56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH56" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL56" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM56" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AM56" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO56" s="4" t="s">
-        <v>667</v>
+        <v>483</v>
       </c>
       <c r="AQ56" t="s">
         <v>164</v>
       </c>
-      <c r="AR56" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS56" t="s">
-        <v>175</v>
-      </c>
       <c r="AU56" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="AV56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX56" s="4" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12233,7 +12220,7 @@
         <v>239</v>
       </c>
       <c r="AS57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU57" t="s">
         <v>568</v>
@@ -12250,37 +12237,43 @@
     </row>
     <row r="58" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>655</v>
+        <v>559</v>
       </c>
       <c r="B58" t="s">
         <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>656</v>
+        <v>560</v>
       </c>
       <c r="D58" t="s">
-        <v>657</v>
+        <v>561</v>
       </c>
       <c r="E58">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F58" t="s">
-        <v>434</v>
-      </c>
-      <c r="G58">
-        <v>318</v>
-      </c>
-      <c r="I58">
-        <v>31</v>
-      </c>
-      <c r="J58">
-        <v>45</v>
+        <v>346</v>
+      </c>
+      <c r="G58" t="s">
+        <v>562</v>
+      </c>
+      <c r="H58" t="s">
+        <v>506</v>
+      </c>
+      <c r="I58" t="s">
+        <v>563</v>
+      </c>
+      <c r="J58" t="s">
+        <v>564</v>
       </c>
       <c r="K58" t="s">
-        <v>658</v>
+        <v>565</v>
+      </c>
+      <c r="L58" t="s">
+        <v>248</v>
       </c>
       <c r="M58" t="s">
-        <v>659</v>
+        <v>566</v>
       </c>
       <c r="N58" t="s">
         <v>251</v>
@@ -12289,7 +12282,7 @@
         <v>252</v>
       </c>
       <c r="P58" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q58" t="s">
         <v>21</v>
@@ -12301,56 +12294,53 @@
         <v>46</v>
       </c>
       <c r="U58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V58" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X58" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z58" s="4" t="s">
-        <v>664</v>
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>663</v>
       </c>
       <c r="AA58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE58" s="4"/>
-      <c r="AF58" s="11">
-        <v>4.3</v>
+      <c r="AF58" t="s">
+        <v>275</v>
       </c>
       <c r="AG58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI58" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK58" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AL58" t="s">
-        <v>681</v>
-      </c>
-      <c r="AM58" s="4" t="s">
-        <v>233</v>
+        <v>567</v>
+      </c>
+      <c r="AM58" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>162</v>
       </c>
       <c r="AO58" s="4" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="AQ58" t="s">
         <v>164</v>
@@ -12359,19 +12349,19 @@
         <v>239</v>
       </c>
       <c r="AS58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU58" t="s">
-        <v>661</v>
+        <v>568</v>
       </c>
       <c r="AV58" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX58" s="4" t="s">
-        <v>662</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12461,7 +12451,7 @@
         <v>120</v>
       </c>
       <c r="AI59" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AJ59" t="s">
         <v>113</v>
@@ -12470,7 +12460,7 @@
         <v>148</v>
       </c>
       <c r="AL59" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AM59" s="4" t="s">
         <v>233</v>
@@ -12611,7 +12601,7 @@
         <v>239</v>
       </c>
       <c r="AS60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU60" t="s">
         <v>661</v>
@@ -12713,7 +12703,7 @@
         <v>120</v>
       </c>
       <c r="AI61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AJ61" t="s">
         <v>113</v>
@@ -12722,7 +12712,7 @@
         <v>148</v>
       </c>
       <c r="AL61" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AM61" s="4" t="s">
         <v>233</v>
@@ -12754,43 +12744,37 @@
     </row>
     <row r="62" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="B62" t="s">
         <v>243</v>
       </c>
       <c r="C62" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
       <c r="D62" t="s">
-        <v>572</v>
+        <v>657</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F62" t="s">
-        <v>573</v>
-      </c>
-      <c r="G62" t="s">
-        <v>574</v>
-      </c>
-      <c r="H62" t="s">
-        <v>280</v>
-      </c>
-      <c r="I62" t="s">
-        <v>575</v>
-      </c>
-      <c r="J62" t="s">
-        <v>576</v>
+        <v>434</v>
+      </c>
+      <c r="G62">
+        <v>318</v>
+      </c>
+      <c r="I62">
+        <v>31</v>
+      </c>
+      <c r="J62">
+        <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>577</v>
-      </c>
-      <c r="L62" t="s">
-        <v>248</v>
+        <v>658</v>
       </c>
       <c r="M62" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="N62" t="s">
         <v>251</v>
@@ -12799,31 +12783,31 @@
         <v>252</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q62" t="s">
         <v>21</v>
       </c>
       <c r="S62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T62" t="s">
+        <v>46</v>
+      </c>
+      <c r="U62" t="s">
+        <v>57</v>
+      </c>
+      <c r="V62" t="s">
         <v>41</v>
       </c>
-      <c r="U62" t="s">
-        <v>52</v>
-      </c>
-      <c r="V62" t="s">
-        <v>44</v>
-      </c>
       <c r="W62" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X62" t="s">
         <v>216</v>
       </c>
       <c r="Z62" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AA62">
         <v>3</v>
@@ -12835,11 +12819,11 @@
         <v>3</v>
       </c>
       <c r="AE62" s="4"/>
-      <c r="AF62" t="s">
-        <v>335</v>
+      <c r="AF62" s="11">
+        <v>4.3</v>
       </c>
       <c r="AG62" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH62" t="s">
         <v>120</v>
@@ -12851,37 +12835,37 @@
         <v>113</v>
       </c>
       <c r="AK62" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL62" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="AM62" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO62" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="AQ62" t="s">
         <v>164</v>
       </c>
       <c r="AR62" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS62" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AU62" t="s">
-        <v>524</v>
+        <v>661</v>
       </c>
       <c r="AV62" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX62" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="63" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12977,7 +12961,7 @@
         <v>120</v>
       </c>
       <c r="AI63" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AJ63" t="s">
         <v>113</v>
@@ -12986,7 +12970,7 @@
         <v>141</v>
       </c>
       <c r="AL63" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM63" s="4" t="s">
         <v>233</v>
@@ -13109,7 +13093,7 @@
         <v>120</v>
       </c>
       <c r="AI64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AJ64" t="s">
         <v>113</v>
@@ -13117,8 +13101,8 @@
       <c r="AK64" t="s">
         <v>141</v>
       </c>
-      <c r="AL64" s="4" t="s">
-        <v>669</v>
+      <c r="AL64" t="s">
+        <v>670</v>
       </c>
       <c r="AM64" s="4" t="s">
         <v>233</v>
@@ -13142,51 +13126,51 @@
         <v>199</v>
       </c>
       <c r="AW64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX64" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="65" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B65" t="s">
         <v>243</v>
       </c>
       <c r="C65" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D65" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="E65">
         <v>2005</v>
       </c>
       <c r="F65" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G65" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H65" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="I65" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="J65" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="K65" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="L65" t="s">
         <v>248</v>
       </c>
       <c r="M65" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="N65" t="s">
         <v>251</v>
@@ -13200,59 +13184,131 @@
       <c r="Q65" t="s">
         <v>21</v>
       </c>
-      <c r="R65" t="s">
-        <v>84</v>
+      <c r="S65" t="s">
+        <v>26</v>
+      </c>
+      <c r="T65" t="s">
+        <v>41</v>
+      </c>
+      <c r="U65" t="s">
+        <v>52</v>
+      </c>
+      <c r="V65" t="s">
+        <v>44</v>
+      </c>
+      <c r="W65" t="s">
+        <v>51</v>
+      </c>
+      <c r="X65" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z65" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA65">
+        <v>3</v>
+      </c>
+      <c r="AB65">
+        <v>3</v>
+      </c>
+      <c r="AC65">
+        <v>3</v>
       </c>
       <c r="AE65" s="4"/>
       <c r="AF65" t="s">
-        <v>253</v>
+        <v>335</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL65" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="AM65" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO65" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>524</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX65" s="4" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="66" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B66" t="s">
         <v>243</v>
       </c>
       <c r="C66" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D66" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="E66">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F66" t="s">
         <v>582</v>
       </c>
       <c r="G66" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H66" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="I66" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="J66" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="K66" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="L66" t="s">
         <v>248</v>
       </c>
       <c r="M66" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="N66" t="s">
         <v>251</v>
       </c>
       <c r="O66" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P66" t="s">
         <v>248</v>
@@ -13260,78 +13316,12 @@
       <c r="Q66" t="s">
         <v>21</v>
       </c>
-      <c r="S66" t="s">
-        <v>26</v>
-      </c>
-      <c r="T66" t="s">
-        <v>42</v>
-      </c>
-      <c r="U66" t="s">
-        <v>56</v>
-      </c>
-      <c r="V66" t="s">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s">
-        <v>52</v>
-      </c>
-      <c r="X66" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z66" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA66">
-        <v>2</v>
-      </c>
-      <c r="AB66">
-        <v>2</v>
-      </c>
-      <c r="AC66">
-        <v>2</v>
+      <c r="R66" t="s">
+        <v>84</v>
       </c>
       <c r="AE66" s="4"/>
       <c r="AF66" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM66" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO66" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="AQ66" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR66" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS66" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU66" t="s">
-        <v>674</v>
-      </c>
-      <c r="AV66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW66" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX66" s="4" t="s">
-        <v>676</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13416,9 +13406,6 @@
       <c r="AC67">
         <v>2</v>
       </c>
-      <c r="AD67" s="4" t="s">
-        <v>684</v>
-      </c>
       <c r="AE67" s="4"/>
       <c r="AF67" t="s">
         <v>335</v>
@@ -13430,10 +13417,10 @@
         <v>121</v>
       </c>
       <c r="AI67" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AK67" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AM67" s="4" t="s">
         <v>233</v>
@@ -13457,120 +13444,118 @@
         <v>113</v>
       </c>
       <c r="AW67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX67" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="68" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B68" t="s">
         <v>243</v>
       </c>
       <c r="C68" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D68" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E68">
         <v>2003</v>
       </c>
       <c r="F68" t="s">
-        <v>390</v>
+        <v>582</v>
       </c>
       <c r="G68" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H68" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="I68" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="J68" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="K68" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="L68" t="s">
         <v>248</v>
       </c>
       <c r="M68" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="N68" t="s">
         <v>251</v>
       </c>
       <c r="O68" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="P68" t="s">
-        <v>604</v>
+        <v>248</v>
       </c>
       <c r="Q68" t="s">
         <v>21</v>
       </c>
       <c r="S68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T68" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U68" t="s">
         <v>56</v>
       </c>
       <c r="V68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X68" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z68" s="4" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="AA68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC68">
         <v>2</v>
       </c>
-      <c r="AE68" s="4" t="s">
-        <v>682</v>
-      </c>
+      <c r="AD68" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE68" s="4"/>
       <c r="AF68" t="s">
         <v>335</v>
       </c>
       <c r="AG68" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI68" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AK68" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL68" t="s">
-        <v>680</v>
+        <v>146</v>
       </c>
       <c r="AM68" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO68" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="AQ68" t="s">
         <v>164</v>
@@ -13579,60 +13564,60 @@
         <v>239</v>
       </c>
       <c r="AS68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU68" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="AV68" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="AW68" t="s">
         <v>208</v>
       </c>
       <c r="AX68" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="69" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B69" t="s">
         <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D69" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="E69">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F69" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="G69" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="H69" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="I69" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="J69" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="K69" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="L69" t="s">
         <v>248</v>
       </c>
       <c r="M69" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="N69" t="s">
         <v>251</v>
@@ -13650,58 +13635,58 @@
         <v>24</v>
       </c>
       <c r="T69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U69" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W69" t="s">
         <v>51</v>
       </c>
       <c r="X69" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y69" s="4" t="s">
-        <v>685</v>
+        <v>80</v>
       </c>
       <c r="Z69" s="4" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="AA69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC69">
         <v>2</v>
       </c>
-      <c r="AD69" s="4" t="s">
-        <v>693</v>
-      </c>
       <c r="AE69" s="4" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF69" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="AG69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH69" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL69" s="4" t="s">
-        <v>688</v>
+        <v>120</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>680</v>
       </c>
       <c r="AM69" s="4" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO69" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="AQ69" t="s">
         <v>164</v>
@@ -13710,22 +13695,19 @@
         <v>239</v>
       </c>
       <c r="AS69" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT69" t="s">
-        <v>690</v>
+        <v>176</v>
       </c>
       <c r="AU69" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="AV69" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AW69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX69" s="4" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="70" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13850,57 +13832,57 @@
         <v>690</v>
       </c>
       <c r="AU70" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AV70" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AW70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX70" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="71" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B71" t="s">
         <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D71" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E71">
         <v>2000</v>
       </c>
       <c r="F71" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G71" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H71" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="I71" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="J71" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="K71" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="L71" t="s">
         <v>248</v>
       </c>
       <c r="M71" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N71" t="s">
         <v>251</v>
@@ -13909,58 +13891,132 @@
         <v>252</v>
       </c>
       <c r="P71" t="s">
-        <v>334</v>
+        <v>604</v>
       </c>
       <c r="Q71" t="s">
         <v>21</v>
       </c>
-      <c r="R71" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE71" s="4"/>
+      <c r="S71" t="s">
+        <v>24</v>
+      </c>
+      <c r="T71" t="s">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s">
+        <v>53</v>
+      </c>
+      <c r="V71" t="s">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s">
+        <v>51</v>
+      </c>
+      <c r="X71" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y71" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="Z71" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="AA71">
+        <v>2</v>
+      </c>
+      <c r="AB71">
+        <v>2</v>
+      </c>
+      <c r="AC71">
+        <v>2</v>
+      </c>
+      <c r="AD71" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AE71" s="4" t="s">
+        <v>687</v>
+      </c>
       <c r="AF71" t="s">
         <v>253</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL71" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="AM71" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO71" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>690</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>694</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX71" s="4" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B72" t="s">
         <v>243</v>
       </c>
       <c r="C72" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="D72" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E72">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F72" t="s">
-        <v>624</v>
+        <v>390</v>
       </c>
       <c r="G72" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="H72" t="s">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="I72" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="J72" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="K72" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="L72" t="s">
         <v>248</v>
       </c>
       <c r="M72" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="N72" t="s">
         <v>251</v>
@@ -13969,121 +14025,58 @@
         <v>252</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q72" t="s">
         <v>21</v>
       </c>
-      <c r="S72" t="s">
-        <v>31</v>
-      </c>
-      <c r="T72" t="s">
-        <v>41</v>
-      </c>
-      <c r="U72" t="s">
-        <v>56</v>
-      </c>
-      <c r="V72" t="s">
-        <v>42</v>
-      </c>
-      <c r="W72" t="s">
-        <v>56</v>
-      </c>
-      <c r="X72" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z72" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA72">
-        <v>2</v>
-      </c>
-      <c r="AB72">
-        <v>2</v>
-      </c>
-      <c r="AC72">
-        <v>2</v>
+      <c r="R72" t="s">
+        <v>84</v>
       </c>
       <c r="AE72" s="4"/>
       <c r="AF72" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH72" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL72" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="AM72" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO72" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="AQ72" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR72" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS72" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU72" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="AV72" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW72" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX72" s="4" t="s">
-        <v>700</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B73" t="s">
         <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D73" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E73">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F73" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="G73" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="H73" t="s">
-        <v>635</v>
+        <v>281</v>
       </c>
       <c r="I73" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="J73" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="K73" t="s">
-        <v>248</v>
+        <v>628</v>
       </c>
       <c r="L73" t="s">
         <v>248</v>
       </c>
       <c r="M73" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="N73" t="s">
         <v>251</v>
@@ -14098,91 +14091,74 @@
         <v>21</v>
       </c>
       <c r="S73" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T73" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X73" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB73">
         <v>2</v>
       </c>
       <c r="AC73">
-        <v>1</v>
-      </c>
-      <c r="AD73" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="AE73" s="4" t="s">
-        <v>706</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AE73" s="4"/>
       <c r="AF73" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG73" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AH73" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="AL73" s="4" t="s">
-        <v>702</v>
+        <v>811</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AO73" s="4" t="s">
-        <v>162</v>
+        <v>697</v>
       </c>
       <c r="AQ73" t="s">
         <v>164</v>
       </c>
       <c r="AR73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS73" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>703</v>
-      </c>
-      <c r="AU73" t="s">
-        <v>704</v>
+        <v>181</v>
+      </c>
+      <c r="AU73" s="4" t="s">
+        <v>698</v>
       </c>
       <c r="AV73" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="AW73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX73" s="4" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -14238,7 +14214,7 @@
         <v>21</v>
       </c>
       <c r="S74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T74" t="s">
         <v>46</v>
@@ -14256,7 +14232,7 @@
         <v>69</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AA74">
         <v>1</v>
@@ -14268,10 +14244,10 @@
         <v>1</v>
       </c>
       <c r="AD74" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="AE74" s="4" t="s">
         <v>705</v>
-      </c>
-      <c r="AE74" s="4" t="s">
-        <v>706</v>
       </c>
       <c r="AF74" t="s">
         <v>267</v>
@@ -14289,7 +14265,7 @@
         <v>155</v>
       </c>
       <c r="AL74" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AM74" s="4" t="s">
         <v>232</v>
@@ -14310,10 +14286,10 @@
         <v>190</v>
       </c>
       <c r="AT74" t="s">
+        <v>702</v>
+      </c>
+      <c r="AU74" t="s">
         <v>703</v>
-      </c>
-      <c r="AU74" t="s">
-        <v>704</v>
       </c>
       <c r="AV74" t="s">
         <v>237</v>
@@ -14322,54 +14298,54 @@
         <v>208</v>
       </c>
       <c r="AX74" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B75" t="s">
         <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D75" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E75">
         <v>1996</v>
       </c>
       <c r="F75" t="s">
-        <v>459</v>
+        <v>633</v>
       </c>
       <c r="G75" t="s">
-        <v>321</v>
+        <v>634</v>
       </c>
       <c r="H75" t="s">
-        <v>416</v>
+        <v>635</v>
       </c>
       <c r="I75" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="J75" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K75" t="s">
-        <v>644</v>
+        <v>248</v>
       </c>
       <c r="L75" t="s">
         <v>248</v>
       </c>
       <c r="M75" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="N75" t="s">
         <v>251</v>
       </c>
       <c r="O75" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P75" t="s">
         <v>248</v>
@@ -14378,86 +14354,91 @@
         <v>21</v>
       </c>
       <c r="S75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T75" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U75" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W75" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X75" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z75" s="4" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="AA75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB75">
         <v>2</v>
       </c>
       <c r="AC75">
-        <v>2</v>
-      </c>
-      <c r="AE75" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD75" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="AE75" s="4" t="s">
+        <v>705</v>
+      </c>
       <c r="AF75" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG75" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH75" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI75" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ75" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK75" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL75" s="4" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="AM75" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO75" s="4" t="s">
-        <v>468</v>
+        <v>162</v>
       </c>
       <c r="AQ75" t="s">
         <v>164</v>
       </c>
       <c r="AR75" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS75" t="s">
-        <v>176</v>
+        <v>190</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>702</v>
       </c>
       <c r="AU75" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="AV75" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW75" t="s">
         <v>208</v>
       </c>
       <c r="AX75" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -14531,7 +14512,7 @@
         <v>216</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA76">
         <v>2</v>
@@ -14562,7 +14543,7 @@
         <v>150</v>
       </c>
       <c r="AL76" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AM76" s="4" t="s">
         <v>232</v>
@@ -14583,16 +14564,16 @@
         <v>176</v>
       </c>
       <c r="AU76" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="AV76" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW76" t="s">
         <v>208</v>
       </c>
       <c r="AX76" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="77" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -14666,7 +14647,7 @@
         <v>216</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA77">
         <v>2</v>
@@ -14697,7 +14678,7 @@
         <v>150</v>
       </c>
       <c r="AL77" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AM77" s="4" t="s">
         <v>232</v>
@@ -14712,16 +14693,16 @@
         <v>164</v>
       </c>
       <c r="AR77" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU77" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AV77" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW77" t="s">
         <v>208</v>
@@ -14801,7 +14782,7 @@
         <v>216</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA78">
         <v>2</v>
@@ -14832,7 +14813,7 @@
         <v>150</v>
       </c>
       <c r="AL78" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AM78" s="4" t="s">
         <v>232</v>
@@ -14853,90 +14834,90 @@
         <v>178</v>
       </c>
       <c r="AU78" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="AV78" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW78" t="s">
         <v>208</v>
       </c>
       <c r="AX78" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="79" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B79" t="s">
         <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D79" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E79">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F79" t="s">
-        <v>649</v>
+        <v>459</v>
       </c>
       <c r="G79" t="s">
-        <v>599</v>
+        <v>321</v>
       </c>
       <c r="H79" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="I79" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="J79" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="K79" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="L79" t="s">
         <v>248</v>
       </c>
       <c r="M79" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="N79" t="s">
         <v>251</v>
       </c>
       <c r="O79" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="P79" t="s">
-        <v>654</v>
+        <v>248</v>
       </c>
       <c r="Q79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S79" t="s">
         <v>25</v>
       </c>
       <c r="T79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U79" t="s">
         <v>48</v>
       </c>
       <c r="V79" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W79" t="s">
         <v>48</v>
       </c>
       <c r="X79" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z79" s="4" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="AA79">
         <v>2</v>
@@ -14958,13 +14939,16 @@
         <v>120</v>
       </c>
       <c r="AI79" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>113</v>
       </c>
       <c r="AK79" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL79" s="4" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="AM79" s="4" t="s">
         <v>232</v>
@@ -14973,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="AO79" s="4" t="s">
-        <v>715</v>
+        <v>468</v>
       </c>
       <c r="AQ79" t="s">
         <v>164</v>
@@ -14985,16 +14969,16 @@
         <v>178</v>
       </c>
       <c r="AU79" t="s">
-        <v>468</v>
+        <v>709</v>
       </c>
       <c r="AV79" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AW79" t="s">
         <v>208</v>
       </c>
       <c r="AX79" s="4" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="80" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15068,7 +15052,7 @@
         <v>69</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AA80">
         <v>2</v>
@@ -15102,10 +15086,10 @@
         <v>232</v>
       </c>
       <c r="AN80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO80" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AQ80" t="s">
         <v>164</v>
@@ -15126,7 +15110,7 @@
         <v>208</v>
       </c>
       <c r="AX80" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="81" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15200,7 +15184,7 @@
         <v>69</v>
       </c>
       <c r="Z81" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AA81">
         <v>2</v>
@@ -15219,25 +15203,25 @@
         <v>107</v>
       </c>
       <c r="AH81" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AI81" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AK81" t="s">
         <v>148</v>
       </c>
       <c r="AL81" s="4" t="s">
-        <v>717</v>
+        <v>680</v>
       </c>
       <c r="AM81" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO81" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AQ81" t="s">
         <v>164</v>
@@ -15258,7 +15242,7 @@
         <v>208</v>
       </c>
       <c r="AX81" s="4" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="82" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15329,10 +15313,10 @@
         <v>48</v>
       </c>
       <c r="X82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z82" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AA82">
         <v>2</v>
@@ -15351,16 +15335,16 @@
         <v>107</v>
       </c>
       <c r="AH82" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI82" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AK82" t="s">
         <v>148</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="AM82" s="4" t="s">
         <v>232</v>
@@ -15369,7 +15353,7 @@
         <v>161</v>
       </c>
       <c r="AO82" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AQ82" t="s">
         <v>164</v>
@@ -15390,7 +15374,7 @@
         <v>208</v>
       </c>
       <c r="AX82" s="4" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="83" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15463,8 +15447,8 @@
       <c r="X83" t="s">
         <v>72</v>
       </c>
-      <c r="Z83" t="s">
-        <v>724</v>
+      <c r="Z83" s="4" t="s">
+        <v>719</v>
       </c>
       <c r="AA83">
         <v>2</v>
@@ -15475,6 +15459,7 @@
       <c r="AC83">
         <v>2</v>
       </c>
+      <c r="AE83" s="4"/>
       <c r="AF83" t="s">
         <v>335</v>
       </c>
@@ -15482,22 +15467,25 @@
         <v>107</v>
       </c>
       <c r="AH83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI83" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AK83" t="s">
         <v>148</v>
       </c>
       <c r="AL83" s="4" t="s">
-        <v>722</v>
+        <v>681</v>
       </c>
       <c r="AM83" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>161</v>
       </c>
       <c r="AO83" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AQ83" t="s">
         <v>164</v>
@@ -15509,16 +15497,144 @@
         <v>178</v>
       </c>
       <c r="AU83" t="s">
-        <v>723</v>
+        <v>468</v>
       </c>
       <c r="AV83" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="AW83" t="s">
         <v>208</v>
       </c>
       <c r="AX83" s="4" t="s">
-        <v>725</v>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="84" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>646</v>
+      </c>
+      <c r="B84" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" t="s">
+        <v>647</v>
+      </c>
+      <c r="D84" t="s">
+        <v>648</v>
+      </c>
+      <c r="E84">
+        <v>2003</v>
+      </c>
+      <c r="F84" t="s">
+        <v>649</v>
+      </c>
+      <c r="G84" t="s">
+        <v>599</v>
+      </c>
+      <c r="H84" t="s">
+        <v>297</v>
+      </c>
+      <c r="I84" t="s">
+        <v>650</v>
+      </c>
+      <c r="J84" t="s">
+        <v>651</v>
+      </c>
+      <c r="K84" t="s">
+        <v>652</v>
+      </c>
+      <c r="L84" t="s">
+        <v>248</v>
+      </c>
+      <c r="M84" t="s">
+        <v>653</v>
+      </c>
+      <c r="N84" t="s">
+        <v>251</v>
+      </c>
+      <c r="O84" t="s">
+        <v>252</v>
+      </c>
+      <c r="P84" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>22</v>
+      </c>
+      <c r="S84" t="s">
+        <v>25</v>
+      </c>
+      <c r="T84" t="s">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s">
+        <v>48</v>
+      </c>
+      <c r="V84" t="s">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s">
+        <v>48</v>
+      </c>
+      <c r="X84" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>722</v>
+      </c>
+      <c r="AA84">
+        <v>2</v>
+      </c>
+      <c r="AB84">
+        <v>2</v>
+      </c>
+      <c r="AC84">
+        <v>2</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL84" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="AM84" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO84" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>721</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX84" s="4" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -16170,7 +16286,7 @@
         <v>233</v>
       </c>
       <c r="AQ8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AV8" t="s">
         <v>204</v>
@@ -17636,12 +17752,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -17755,6 +17865,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17765,21 +17881,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17795,6 +17896,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE58DCB-78F2-4AFF-974D-CBF9469D08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08542F34-F42B-4E07-A84F-FE66F4176110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$86</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="812">
   <si>
     <t>SearchID</t>
   </si>
@@ -5380,10 +5380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX84"/>
+  <dimension ref="A1:AX86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AT90" sqref="AT90"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AH92" sqref="AH92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8218,7 +8218,7 @@
         <v>112</v>
       </c>
       <c r="AH25" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AL25" t="s">
         <v>796</v>
@@ -8338,7 +8338,7 @@
         <v>112</v>
       </c>
       <c r="AH26" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s">
         <v>796</v>
@@ -8359,7 +8359,7 @@
         <v>798</v>
       </c>
       <c r="AV26" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AW26" t="s">
         <v>208</v>
@@ -8370,43 +8370,43 @@
     </row>
     <row r="27" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D27" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E27">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F27" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G27" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="H27" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="I27" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="J27" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K27" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L27" t="s">
         <v>248</v>
       </c>
       <c r="M27" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="N27" t="s">
         <v>251</v>
@@ -8415,31 +8415,31 @@
         <v>252</v>
       </c>
       <c r="P27" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="Q27" t="s">
         <v>21</v>
       </c>
       <c r="S27" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T27" t="s">
         <v>46</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
         <v>41</v>
       </c>
       <c r="W27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X27" t="s">
         <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8448,88 +8448,85 @@
         <v>2</v>
       </c>
       <c r="AC27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" s="4"/>
       <c r="AF27" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AH27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="AL27" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="AM27" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO27" s="4" t="s">
-        <v>726</v>
+        <v>797</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
       <c r="AU27" t="s">
-        <v>238</v>
+        <v>798</v>
       </c>
       <c r="AV27" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="AW27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E28">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F28" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G28" t="s">
-        <v>425</v>
+        <v>364</v>
       </c>
       <c r="H28" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="I28" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="J28" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="K28" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="L28" t="s">
         <v>248</v>
       </c>
       <c r="M28" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="N28" t="s">
         <v>251</v>
@@ -8538,7 +8535,7 @@
         <v>252</v>
       </c>
       <c r="P28" t="s">
-        <v>248</v>
+        <v>411</v>
       </c>
       <c r="Q28" t="s">
         <v>21</v>
@@ -8550,19 +8547,19 @@
         <v>46</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X28" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z28" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8575,84 +8572,81 @@
       </c>
       <c r="AE28" s="4"/>
       <c r="AF28" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH28" t="s">
-        <v>120</v>
+        <v>220</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>796</v>
       </c>
       <c r="AM28" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
-      <c r="AR28" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>176</v>
-      </c>
       <c r="AU28" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="AV28" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AW28" t="s">
         <v>208</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="29" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D29" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="E29">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F29" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="G29" t="s">
-        <v>435</v>
+        <v>314</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="I29" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="J29" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="K29" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="L29" t="s">
         <v>248</v>
       </c>
       <c r="M29" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="N29" t="s">
         <v>251</v>
@@ -8661,7 +8655,7 @@
         <v>252</v>
       </c>
       <c r="P29" t="s">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="Q29" t="s">
         <v>21</v>
@@ -8670,118 +8664,112 @@
         <v>31</v>
       </c>
       <c r="T29" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" t="s">
+        <v>57</v>
+      </c>
+      <c r="V29" t="s">
         <v>41</v>
       </c>
-      <c r="U29" t="s">
-        <v>55</v>
-      </c>
-      <c r="V29" t="s">
-        <v>43</v>
-      </c>
       <c r="W29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z29" t="s">
-        <v>441</v>
+        <v>800</v>
       </c>
       <c r="AA29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE29" s="4"/>
       <c r="AF29" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="AL29" t="s">
-        <v>442</v>
+        <v>801</v>
       </c>
       <c r="AM29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>162</v>
       </c>
       <c r="AO29" s="4" t="s">
-        <v>672</v>
+        <v>726</v>
       </c>
       <c r="AQ29" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AU29" t="s">
-        <v>443</v>
+        <v>238</v>
       </c>
       <c r="AV29" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="AW29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>444</v>
+        <v>802</v>
       </c>
     </row>
     <row r="30" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D30" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E30">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F30" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G30" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>426</v>
       </c>
       <c r="I30" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="J30" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K30" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L30" t="s">
         <v>248</v>
       </c>
       <c r="M30" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N30" t="s">
         <v>251</v>
@@ -8790,37 +8778,37 @@
         <v>252</v>
       </c>
       <c r="P30" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X30" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="Z30" t="s">
-        <v>441</v>
+        <v>803</v>
       </c>
       <c r="AA30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC30">
         <v>3</v>
@@ -8835,44 +8823,35 @@
       <c r="AH30" t="s">
         <v>120</v>
       </c>
-      <c r="AI30" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>442</v>
-      </c>
       <c r="AM30" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>162</v>
       </c>
       <c r="AO30" s="4" t="s">
-        <v>445</v>
+        <v>804</v>
       </c>
       <c r="AQ30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR30" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS30" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="AU30" t="s">
-        <v>443</v>
+        <v>805</v>
       </c>
       <c r="AV30" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AW30" t="s">
         <v>208</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>446</v>
+        <v>806</v>
       </c>
     </row>
     <row r="31" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -8946,7 +8925,7 @@
         <v>72</v>
       </c>
       <c r="Z31" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AA31">
         <v>3</v>
@@ -8992,7 +8971,7 @@
         <v>174</v>
       </c>
       <c r="AU31" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AV31" t="s">
         <v>213</v>
@@ -9001,7 +8980,7 @@
         <v>208</v>
       </c>
       <c r="AX31" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9075,7 +9054,7 @@
         <v>72</v>
       </c>
       <c r="Z32" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AA32">
         <v>3</v>
@@ -9124,7 +9103,7 @@
         <v>211</v>
       </c>
       <c r="AU32" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AV32" t="s">
         <v>213</v>
@@ -9133,7 +9112,7 @@
         <v>208</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9244,7 +9223,7 @@
         <v>233</v>
       </c>
       <c r="AO33" s="4" t="s">
-        <v>452</v>
+        <v>672</v>
       </c>
       <c r="AQ33" t="s">
         <v>165</v>
@@ -9253,16 +9232,16 @@
         <v>174</v>
       </c>
       <c r="AU33" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AV33" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AW33" t="s">
         <v>208</v>
       </c>
       <c r="AX33" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9385,57 +9364,57 @@
         <v>211</v>
       </c>
       <c r="AU34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AV34" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AW34" t="s">
         <v>208</v>
       </c>
       <c r="AX34" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="B35" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D35" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E35">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F35" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="G35" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="H35" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I35" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="J35" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="K35" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="L35" t="s">
         <v>248</v>
       </c>
       <c r="M35" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="N35" t="s">
         <v>251</v>
@@ -9444,126 +9423,127 @@
         <v>252</v>
       </c>
       <c r="P35" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q35" t="s">
         <v>21</v>
       </c>
       <c r="S35" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s">
         <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W35" t="s">
         <v>55</v>
       </c>
       <c r="X35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC35">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="4" t="s">
-        <v>466</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE35" s="4"/>
       <c r="AF35" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH35" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>150</v>
       </c>
       <c r="AL35" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="AM35" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO35" s="4" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AQ35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR35" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AU35" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AV35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AW35" t="s">
         <v>208</v>
       </c>
       <c r="AX35" s="4" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="B36" t="s">
         <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D36" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E36">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F36" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="G36" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="H36" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I36" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="J36" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="K36" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="L36" t="s">
         <v>248</v>
       </c>
       <c r="M36" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="N36" t="s">
         <v>251</v>
@@ -9572,82 +9552,89 @@
         <v>252</v>
       </c>
       <c r="P36" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q36" t="s">
         <v>21</v>
       </c>
       <c r="S36" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s">
         <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W36" t="s">
         <v>55</v>
       </c>
       <c r="X36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z36" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC36">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="4" t="s">
-        <v>807</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE36" s="4"/>
       <c r="AF36" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH36" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>150</v>
       </c>
       <c r="AL36" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="AM36" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO36" s="4" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="AQ36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR36" t="s">
-        <v>239</v>
+        <v>170</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>211</v>
       </c>
       <c r="AU36" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AV36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AW36" t="s">
         <v>208</v>
       </c>
       <c r="AX36" s="4" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9733,7 +9720,7 @@
         <v>1</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>808</v>
+        <v>466</v>
       </c>
       <c r="AF37" t="s">
         <v>275</v>
@@ -9745,7 +9732,7 @@
         <v>124</v>
       </c>
       <c r="AL37" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AM37" s="4" t="s">
         <v>232</v>
@@ -9760,10 +9747,10 @@
         <v>164</v>
       </c>
       <c r="AR37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS37" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AU37" t="s">
         <v>469</v>
@@ -9780,43 +9767,43 @@
     </row>
     <row r="38" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B38" t="s">
         <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D38" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="E38">
         <v>2010</v>
       </c>
       <c r="F38" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="G38" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="H38" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="I38" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="J38" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K38" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="L38" t="s">
         <v>248</v>
       </c>
       <c r="M38" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="N38" t="s">
         <v>251</v>
@@ -9831,7 +9818,7 @@
         <v>21</v>
       </c>
       <c r="S38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T38" t="s">
         <v>45</v>
@@ -9840,19 +9827,19 @@
         <v>55</v>
       </c>
       <c r="V38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W38" t="s">
         <v>55</v>
       </c>
       <c r="X38" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="AA38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB38">
         <v>2</v>
@@ -9861,87 +9848,87 @@
         <v>1</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>481</v>
+        <v>807</v>
       </c>
       <c r="AF38" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="AL38" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="AM38" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO38" s="4" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="AQ38" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>239</v>
       </c>
       <c r="AU38" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="AV38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AW38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX38" s="4" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="B39" t="s">
         <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="D39" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F39" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="G39" t="s">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="H39" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="I39" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="J39" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="K39" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="L39" t="s">
         <v>248</v>
       </c>
       <c r="M39" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="N39" t="s">
         <v>251</v>
@@ -9956,7 +9943,7 @@
         <v>21</v>
       </c>
       <c r="S39" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="T39" t="s">
         <v>45</v>
@@ -9965,19 +9952,19 @@
         <v>55</v>
       </c>
       <c r="V39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W39" t="s">
         <v>55</v>
       </c>
       <c r="X39" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="AA39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB39">
         <v>2</v>
@@ -9986,34 +9973,28 @@
         <v>1</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>495</v>
+        <v>808</v>
       </c>
       <c r="AF39" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH39" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="AL39" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="AM39" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO39" s="4" t="s">
-        <v>162</v>
+        <v>468</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
@@ -10022,63 +10003,60 @@
         <v>170</v>
       </c>
       <c r="AS39" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>497</v>
+        <v>189</v>
       </c>
       <c r="AU39" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="AV39" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW39" t="s">
         <v>208</v>
       </c>
       <c r="AX39" s="4" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B40" t="s">
         <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D40" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E40">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F40" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="G40" t="s">
-        <v>280</v>
+        <v>476</v>
       </c>
       <c r="H40" t="s">
         <v>297</v>
       </c>
       <c r="I40" t="s">
-        <v>490</v>
+        <v>383</v>
       </c>
       <c r="J40" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="K40" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="L40" t="s">
         <v>248</v>
       </c>
       <c r="M40" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="N40" t="s">
         <v>251</v>
@@ -10093,7 +10071,7 @@
         <v>21</v>
       </c>
       <c r="S40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T40" t="s">
         <v>45</v>
@@ -10102,16 +10080,16 @@
         <v>55</v>
       </c>
       <c r="V40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W40" t="s">
         <v>55</v>
       </c>
       <c r="X40" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z40" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -10123,96 +10101,87 @@
         <v>1</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="AF40" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH40" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI40" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AL40" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="AM40" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO40" s="4" t="s">
-        <v>162</v>
+        <v>483</v>
       </c>
       <c r="AQ40" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>497</v>
+        <v>150</v>
       </c>
       <c r="AU40" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AV40" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AW40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX40" s="4" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B41" t="s">
         <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="D41" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="E41">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F41" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="G41" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="H41" t="s">
-        <v>506</v>
+        <v>297</v>
       </c>
       <c r="I41" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="J41" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="K41" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="L41" t="s">
         <v>248</v>
       </c>
       <c r="M41" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="N41" t="s">
         <v>251</v>
@@ -10221,83 +10190,159 @@
         <v>252</v>
       </c>
       <c r="P41" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q41" t="s">
         <v>21</v>
       </c>
-      <c r="R41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE41" s="4"/>
+      <c r="S41" t="s">
+        <v>35</v>
+      </c>
+      <c r="T41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U41" t="s">
+        <v>55</v>
+      </c>
+      <c r="V41" t="s">
+        <v>44</v>
+      </c>
+      <c r="W41" t="s">
+        <v>55</v>
+      </c>
+      <c r="X41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="AF41" t="s">
         <v>267</v>
       </c>
-      <c r="AX41" s="4"/>
+      <c r="AG41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>496</v>
+      </c>
+      <c r="AM41" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>497</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX41" s="4" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="42" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="B42" t="s">
         <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="D42" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="E42">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F42" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="G42" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H42" t="s">
-        <v>515</v>
+        <v>297</v>
       </c>
       <c r="I42" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="J42" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="K42" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="L42" t="s">
         <v>248</v>
       </c>
       <c r="M42" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="N42" t="s">
         <v>251</v>
       </c>
       <c r="O42" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P42" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="Q42" t="s">
         <v>21</v>
       </c>
       <c r="S42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T42" t="s">
         <v>45</v>
       </c>
       <c r="U42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W42" t="s">
         <v>55</v>
@@ -10306,7 +10351,7 @@
         <v>69</v>
       </c>
       <c r="Z42" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="AA42">
         <v>2</v>
@@ -10315,175 +10360,120 @@
         <v>2</v>
       </c>
       <c r="AC42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE42" s="4" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="AF42" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AG42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH42" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI42" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AL42" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="AM42" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO42" s="4" t="s">
-        <v>483</v>
+        <v>162</v>
       </c>
       <c r="AQ42" t="s">
-        <v>809</v>
+        <v>164</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>497</v>
       </c>
       <c r="AU42" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="AV42" t="s">
         <v>199</v>
       </c>
       <c r="AW42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX42" s="4" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B43" t="s">
         <v>243</v>
       </c>
       <c r="C43" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D43" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E43">
         <v>2008</v>
       </c>
       <c r="F43" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G43" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="H43" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="I43" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J43" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K43" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L43" t="s">
         <v>248</v>
       </c>
       <c r="M43" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N43" t="s">
         <v>251</v>
       </c>
       <c r="O43" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P43" t="s">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="Q43" t="s">
         <v>21</v>
       </c>
-      <c r="S43" t="s">
-        <v>31</v>
-      </c>
-      <c r="T43" t="s">
-        <v>45</v>
-      </c>
-      <c r="U43" t="s">
-        <v>56</v>
-      </c>
-      <c r="V43" t="s">
-        <v>41</v>
-      </c>
-      <c r="W43" t="s">
-        <v>55</v>
-      </c>
-      <c r="X43" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>521</v>
-      </c>
-      <c r="AA43">
-        <v>2</v>
-      </c>
-      <c r="AB43">
-        <v>2</v>
-      </c>
-      <c r="AC43">
-        <v>2</v>
-      </c>
-      <c r="AE43" s="4" t="s">
-        <v>522</v>
-      </c>
+      <c r="R43" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE43" s="4"/>
       <c r="AF43" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>526</v>
-      </c>
-      <c r="AM43" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO43" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="AQ43" t="s">
-        <v>809</v>
-      </c>
-      <c r="AU43" t="s">
-        <v>524</v>
-      </c>
-      <c r="AV43" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW43" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX43" s="4" t="s">
-        <v>527</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AX43" s="4"/>
     </row>
     <row r="44" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -10598,10 +10588,10 @@
         <v>809</v>
       </c>
       <c r="AU44" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AV44" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW44" t="s">
         <v>207</v>
@@ -10723,16 +10713,16 @@
         <v>809</v>
       </c>
       <c r="AU45" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AV45" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW45" t="s">
         <v>207</v>
       </c>
       <c r="AX45" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10800,13 +10790,13 @@
         <v>41</v>
       </c>
       <c r="W46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z46" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="AA46">
         <v>2</v>
@@ -10848,16 +10838,16 @@
         <v>809</v>
       </c>
       <c r="AU46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AV46" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW46" t="s">
         <v>207</v>
       </c>
       <c r="AX46" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10925,13 +10915,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z47" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -10973,16 +10963,16 @@
         <v>809</v>
       </c>
       <c r="AU47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AV47" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW47" t="s">
         <v>207</v>
       </c>
       <c r="AX47" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11098,16 +11088,16 @@
         <v>809</v>
       </c>
       <c r="AU48" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AV48" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX48" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11223,266 +11213,266 @@
         <v>809</v>
       </c>
       <c r="AU49" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AV49" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX49" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="B50" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="D50" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="E50">
         <v>2008</v>
       </c>
       <c r="F50" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="G50" t="s">
-        <v>537</v>
+        <v>296</v>
       </c>
       <c r="H50" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="I50" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="J50" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="K50" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="L50" t="s">
         <v>248</v>
       </c>
       <c r="M50" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="N50" t="s">
         <v>251</v>
       </c>
       <c r="O50" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q50" t="s">
         <v>21</v>
       </c>
       <c r="S50" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V50" t="s">
         <v>41</v>
       </c>
       <c r="W50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X50" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z50" t="s">
-        <v>543</v>
+        <v>447</v>
       </c>
       <c r="AA50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE50" s="4" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="AF50" t="s">
         <v>275</v>
       </c>
       <c r="AG50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH50" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI50" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AL50" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="AM50" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO50" s="4" t="s">
         <v>483</v>
       </c>
       <c r="AQ50" t="s">
-        <v>164</v>
+        <v>809</v>
       </c>
       <c r="AU50" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="AV50" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW50" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX50" s="4" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="B51" t="s">
         <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="D51" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="E51">
         <v>2008</v>
       </c>
       <c r="F51" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="G51" t="s">
-        <v>537</v>
+        <v>296</v>
       </c>
       <c r="H51" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="I51" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="J51" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="K51" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="L51" t="s">
         <v>248</v>
       </c>
       <c r="M51" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="N51" t="s">
         <v>251</v>
       </c>
       <c r="O51" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q51" t="s">
         <v>21</v>
       </c>
       <c r="S51" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V51" t="s">
         <v>41</v>
       </c>
       <c r="W51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X51" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z51" t="s">
-        <v>543</v>
+        <v>447</v>
       </c>
       <c r="AA51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE51" s="4" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="AF51" t="s">
         <v>275</v>
       </c>
       <c r="AG51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH51" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL51" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="AM51" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO51" s="4" t="s">
         <v>483</v>
       </c>
       <c r="AQ51" t="s">
-        <v>164</v>
+        <v>809</v>
       </c>
       <c r="AU51" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="AV51" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX51" s="4" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11556,7 +11546,7 @@
         <v>215</v>
       </c>
       <c r="Z52" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AA52">
         <v>3</v>
@@ -11565,9 +11555,11 @@
         <v>3</v>
       </c>
       <c r="AC52">
-        <v>2</v>
-      </c>
-      <c r="AE52" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE52" s="4" t="s">
+        <v>544</v>
+      </c>
       <c r="AF52" t="s">
         <v>275</v>
       </c>
@@ -11575,19 +11567,19 @@
         <v>110</v>
       </c>
       <c r="AH52" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI52" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AL52" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AM52" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO52" s="4" t="s">
         <v>483</v>
@@ -11596,7 +11588,7 @@
         <v>164</v>
       </c>
       <c r="AU52" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AV52" t="s">
         <v>199</v>
@@ -11605,7 +11597,7 @@
         <v>207</v>
       </c>
       <c r="AX52" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11679,7 +11671,7 @@
         <v>215</v>
       </c>
       <c r="Z53" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AA53">
         <v>3</v>
@@ -11688,9 +11680,11 @@
         <v>3</v>
       </c>
       <c r="AC53">
-        <v>2</v>
-      </c>
-      <c r="AE53" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE53" s="4" t="s">
+        <v>544</v>
+      </c>
       <c r="AF53" t="s">
         <v>275</v>
       </c>
@@ -11698,19 +11692,19 @@
         <v>110</v>
       </c>
       <c r="AH53" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AL53" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AM53" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO53" s="4" t="s">
         <v>483</v>
@@ -11719,7 +11713,7 @@
         <v>164</v>
       </c>
       <c r="AU53" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AV53" t="s">
         <v>199</v>
@@ -11728,7 +11722,7 @@
         <v>207</v>
       </c>
       <c r="AX53" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11821,25 +11815,19 @@
         <v>110</v>
       </c>
       <c r="AH54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI54" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL54" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AM54" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO54" s="4" t="s">
         <v>483</v>
@@ -11857,7 +11845,7 @@
         <v>207</v>
       </c>
       <c r="AX54" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11931,7 +11919,7 @@
         <v>215</v>
       </c>
       <c r="Z55" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AA55">
         <v>3</v>
@@ -11950,19 +11938,19 @@
         <v>110</v>
       </c>
       <c r="AH55" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI55" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AL55" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="AM55" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO55" s="4" t="s">
         <v>483</v>
@@ -11971,16 +11959,16 @@
         <v>164</v>
       </c>
       <c r="AU55" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AV55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW55" t="s">
         <v>207</v>
       </c>
       <c r="AX55" s="4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12054,7 +12042,7 @@
         <v>215</v>
       </c>
       <c r="Z56" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AA56">
         <v>3</v>
@@ -12073,13 +12061,19 @@
         <v>110</v>
       </c>
       <c r="AH56" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI56" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>150</v>
       </c>
       <c r="AL56" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="AM56" s="4" t="s">
         <v>232</v>
@@ -12094,57 +12088,57 @@
         <v>164</v>
       </c>
       <c r="AU56" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AV56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW56" t="s">
         <v>207</v>
       </c>
       <c r="AX56" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="B57" t="s">
         <v>243</v>
       </c>
       <c r="C57" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="D57" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="E57">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F57" t="s">
-        <v>346</v>
+        <v>536</v>
       </c>
       <c r="G57" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="H57" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="I57" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="J57" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="K57" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="L57" t="s">
         <v>248</v>
       </c>
       <c r="M57" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="N57" t="s">
         <v>251</v>
@@ -12159,7 +12153,7 @@
         <v>21</v>
       </c>
       <c r="S57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T57" t="s">
         <v>46</v>
@@ -12168,22 +12162,22 @@
         <v>59</v>
       </c>
       <c r="V57" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W57" t="s">
         <v>55</v>
       </c>
       <c r="X57" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z57" t="s">
-        <v>663</v>
+        <v>556</v>
       </c>
       <c r="AA57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC57">
         <v>2</v>
@@ -12193,87 +12187,81 @@
         <v>275</v>
       </c>
       <c r="AG57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH57" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI57" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AL57" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM57" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="AM57" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO57" s="4" t="s">
-        <v>667</v>
+        <v>483</v>
       </c>
       <c r="AQ57" t="s">
         <v>164</v>
       </c>
-      <c r="AR57" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS57" t="s">
-        <v>175</v>
-      </c>
       <c r="AU57" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="AV57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX57" s="4" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="B58" t="s">
         <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="D58" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="E58">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F58" t="s">
-        <v>346</v>
+        <v>536</v>
       </c>
       <c r="G58" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="H58" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="I58" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="J58" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="K58" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="L58" t="s">
         <v>248</v>
       </c>
       <c r="M58" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="N58" t="s">
         <v>251</v>
@@ -12288,7 +12276,7 @@
         <v>21</v>
       </c>
       <c r="S58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T58" t="s">
         <v>46</v>
@@ -12297,22 +12285,22 @@
         <v>59</v>
       </c>
       <c r="V58" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W58" t="s">
         <v>55</v>
       </c>
       <c r="X58" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z58" t="s">
-        <v>663</v>
+        <v>556</v>
       </c>
       <c r="AA58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC58">
         <v>2</v>
@@ -12322,81 +12310,81 @@
         <v>275</v>
       </c>
       <c r="AG58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH58" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL58" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM58" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AM58" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO58" s="4" t="s">
-        <v>667</v>
+        <v>483</v>
       </c>
       <c r="AQ58" t="s">
         <v>164</v>
       </c>
-      <c r="AR58" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS58" t="s">
-        <v>176</v>
-      </c>
       <c r="AU58" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="AV58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX58" s="4" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="59" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>655</v>
+        <v>559</v>
       </c>
       <c r="B59" t="s">
         <v>243</v>
       </c>
       <c r="C59" t="s">
-        <v>656</v>
+        <v>560</v>
       </c>
       <c r="D59" t="s">
-        <v>657</v>
+        <v>561</v>
       </c>
       <c r="E59">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F59" t="s">
-        <v>434</v>
-      </c>
-      <c r="G59">
-        <v>318</v>
-      </c>
-      <c r="I59">
-        <v>31</v>
-      </c>
-      <c r="J59">
-        <v>45</v>
+        <v>346</v>
+      </c>
+      <c r="G59" t="s">
+        <v>562</v>
+      </c>
+      <c r="H59" t="s">
+        <v>506</v>
+      </c>
+      <c r="I59" t="s">
+        <v>563</v>
+      </c>
+      <c r="J59" t="s">
+        <v>564</v>
       </c>
       <c r="K59" t="s">
-        <v>658</v>
+        <v>565</v>
+      </c>
+      <c r="L59" t="s">
+        <v>248</v>
       </c>
       <c r="M59" t="s">
-        <v>659</v>
+        <v>566</v>
       </c>
       <c r="N59" t="s">
         <v>251</v>
@@ -12405,7 +12393,7 @@
         <v>252</v>
       </c>
       <c r="P59" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q59" t="s">
         <v>21</v>
@@ -12417,56 +12405,53 @@
         <v>46</v>
       </c>
       <c r="U59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X59" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z59" s="4" t="s">
-        <v>664</v>
+        <v>80</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>663</v>
       </c>
       <c r="AA59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE59" s="4"/>
-      <c r="AF59" s="11">
-        <v>4.3</v>
+      <c r="AF59" t="s">
+        <v>275</v>
       </c>
       <c r="AG59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI59" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AL59" t="s">
-        <v>681</v>
-      </c>
-      <c r="AM59" s="4" t="s">
-        <v>233</v>
+        <v>567</v>
+      </c>
+      <c r="AM59" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>162</v>
       </c>
       <c r="AO59" s="4" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="AQ59" t="s">
         <v>164</v>
@@ -12478,51 +12463,57 @@
         <v>175</v>
       </c>
       <c r="AU59" t="s">
-        <v>661</v>
+        <v>568</v>
       </c>
       <c r="AV59" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX59" s="4" t="s">
-        <v>662</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>655</v>
+        <v>559</v>
       </c>
       <c r="B60" t="s">
         <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>656</v>
+        <v>560</v>
       </c>
       <c r="D60" t="s">
-        <v>657</v>
+        <v>561</v>
       </c>
       <c r="E60">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F60" t="s">
-        <v>434</v>
-      </c>
-      <c r="G60">
-        <v>318</v>
-      </c>
-      <c r="I60">
-        <v>31</v>
-      </c>
-      <c r="J60">
-        <v>45</v>
+        <v>346</v>
+      </c>
+      <c r="G60" t="s">
+        <v>562</v>
+      </c>
+      <c r="H60" t="s">
+        <v>506</v>
+      </c>
+      <c r="I60" t="s">
+        <v>563</v>
+      </c>
+      <c r="J60" t="s">
+        <v>564</v>
       </c>
       <c r="K60" t="s">
-        <v>658</v>
+        <v>565</v>
+      </c>
+      <c r="L60" t="s">
+        <v>248</v>
       </c>
       <c r="M60" t="s">
-        <v>659</v>
+        <v>566</v>
       </c>
       <c r="N60" t="s">
         <v>251</v>
@@ -12531,7 +12522,7 @@
         <v>252</v>
       </c>
       <c r="P60" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q60" t="s">
         <v>21</v>
@@ -12543,56 +12534,53 @@
         <v>46</v>
       </c>
       <c r="U60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V60" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X60" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z60" s="4" t="s">
-        <v>664</v>
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>663</v>
       </c>
       <c r="AA60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE60" s="4"/>
-      <c r="AF60" s="11">
-        <v>4.3</v>
+      <c r="AF60" t="s">
+        <v>275</v>
       </c>
       <c r="AG60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI60" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AL60" t="s">
-        <v>680</v>
-      </c>
-      <c r="AM60" s="4" t="s">
-        <v>233</v>
+        <v>567</v>
+      </c>
+      <c r="AM60" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>162</v>
       </c>
       <c r="AO60" s="4" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="AQ60" t="s">
         <v>164</v>
@@ -12601,19 +12589,19 @@
         <v>239</v>
       </c>
       <c r="AS60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU60" t="s">
-        <v>661</v>
+        <v>568</v>
       </c>
       <c r="AV60" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX60" s="4" t="s">
-        <v>662</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12703,7 +12691,7 @@
         <v>120</v>
       </c>
       <c r="AI61" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AJ61" t="s">
         <v>113</v>
@@ -12712,7 +12700,7 @@
         <v>148</v>
       </c>
       <c r="AL61" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AM61" s="4" t="s">
         <v>233</v>
@@ -12727,7 +12715,7 @@
         <v>239</v>
       </c>
       <c r="AS61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU61" t="s">
         <v>661</v>
@@ -12829,7 +12817,7 @@
         <v>120</v>
       </c>
       <c r="AI62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AJ62" t="s">
         <v>113</v>
@@ -12838,7 +12826,7 @@
         <v>148</v>
       </c>
       <c r="AL62" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AM62" s="4" t="s">
         <v>233</v>
@@ -12853,7 +12841,7 @@
         <v>239</v>
       </c>
       <c r="AS62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU62" t="s">
         <v>661</v>
@@ -12870,43 +12858,37 @@
     </row>
     <row r="63" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="B63" t="s">
         <v>243</v>
       </c>
       <c r="C63" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
       <c r="D63" t="s">
-        <v>572</v>
+        <v>657</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F63" t="s">
-        <v>573</v>
-      </c>
-      <c r="G63" t="s">
-        <v>574</v>
-      </c>
-      <c r="H63" t="s">
-        <v>280</v>
-      </c>
-      <c r="I63" t="s">
-        <v>575</v>
-      </c>
-      <c r="J63" t="s">
-        <v>576</v>
+        <v>434</v>
+      </c>
+      <c r="G63">
+        <v>318</v>
+      </c>
+      <c r="I63">
+        <v>31</v>
+      </c>
+      <c r="J63">
+        <v>45</v>
       </c>
       <c r="K63" t="s">
-        <v>577</v>
-      </c>
-      <c r="L63" t="s">
-        <v>248</v>
+        <v>658</v>
       </c>
       <c r="M63" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="N63" t="s">
         <v>251</v>
@@ -12915,31 +12897,31 @@
         <v>252</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q63" t="s">
         <v>21</v>
       </c>
       <c r="S63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T63" t="s">
+        <v>46</v>
+      </c>
+      <c r="U63" t="s">
+        <v>57</v>
+      </c>
+      <c r="V63" t="s">
         <v>41</v>
       </c>
-      <c r="U63" t="s">
-        <v>52</v>
-      </c>
-      <c r="V63" t="s">
-        <v>44</v>
-      </c>
       <c r="W63" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X63" t="s">
         <v>216</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AA63">
         <v>3</v>
@@ -12951,94 +12933,88 @@
         <v>3</v>
       </c>
       <c r="AE63" s="4"/>
-      <c r="AF63" t="s">
-        <v>335</v>
+      <c r="AF63" s="11">
+        <v>4.3</v>
       </c>
       <c r="AG63" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH63" t="s">
         <v>120</v>
       </c>
       <c r="AI63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AJ63" t="s">
         <v>113</v>
       </c>
       <c r="AK63" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL63" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="AM63" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO63" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="AQ63" t="s">
         <v>164</v>
       </c>
       <c r="AR63" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS63" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AU63" t="s">
-        <v>524</v>
+        <v>661</v>
       </c>
       <c r="AV63" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX63" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="B64" t="s">
         <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
       <c r="D64" t="s">
-        <v>572</v>
+        <v>657</v>
       </c>
       <c r="E64">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F64" t="s">
-        <v>573</v>
-      </c>
-      <c r="G64" t="s">
-        <v>574</v>
-      </c>
-      <c r="H64" t="s">
-        <v>280</v>
-      </c>
-      <c r="I64" t="s">
-        <v>575</v>
-      </c>
-      <c r="J64" t="s">
-        <v>576</v>
+        <v>434</v>
+      </c>
+      <c r="G64">
+        <v>318</v>
+      </c>
+      <c r="I64">
+        <v>31</v>
+      </c>
+      <c r="J64">
+        <v>45</v>
       </c>
       <c r="K64" t="s">
-        <v>577</v>
-      </c>
-      <c r="L64" t="s">
-        <v>248</v>
+        <v>658</v>
       </c>
       <c r="M64" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="N64" t="s">
         <v>251</v>
@@ -13047,31 +13023,31 @@
         <v>252</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q64" t="s">
         <v>21</v>
       </c>
       <c r="S64" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T64" t="s">
+        <v>46</v>
+      </c>
+      <c r="U64" t="s">
+        <v>57</v>
+      </c>
+      <c r="V64" t="s">
         <v>41</v>
       </c>
-      <c r="U64" t="s">
-        <v>52</v>
-      </c>
-      <c r="V64" t="s">
-        <v>44</v>
-      </c>
       <c r="W64" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X64" t="s">
         <v>216</v>
       </c>
       <c r="Z64" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AA64">
         <v>3</v>
@@ -13083,53 +13059,53 @@
         <v>3</v>
       </c>
       <c r="AE64" s="4"/>
-      <c r="AF64" t="s">
-        <v>335</v>
+      <c r="AF64" s="11">
+        <v>4.3</v>
       </c>
       <c r="AG64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH64" t="s">
         <v>120</v>
       </c>
       <c r="AI64" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AJ64" t="s">
         <v>113</v>
       </c>
       <c r="AK64" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL64" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="AM64" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO64" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="AQ64" t="s">
         <v>164</v>
       </c>
       <c r="AR64" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AU64" t="s">
-        <v>524</v>
+        <v>661</v>
       </c>
       <c r="AV64" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX64" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13233,8 +13209,8 @@
       <c r="AK65" t="s">
         <v>141</v>
       </c>
-      <c r="AL65" s="4" t="s">
-        <v>669</v>
+      <c r="AL65" t="s">
+        <v>671</v>
       </c>
       <c r="AM65" s="4" t="s">
         <v>233</v>
@@ -13258,51 +13234,51 @@
         <v>199</v>
       </c>
       <c r="AW65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX65" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B66" t="s">
         <v>243</v>
       </c>
       <c r="C66" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D66" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="E66">
         <v>2005</v>
       </c>
       <c r="F66" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G66" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H66" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="I66" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="J66" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="K66" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="L66" t="s">
         <v>248</v>
       </c>
       <c r="M66" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="N66" t="s">
         <v>251</v>
@@ -13316,59 +13292,131 @@
       <c r="Q66" t="s">
         <v>21</v>
       </c>
-      <c r="R66" t="s">
-        <v>84</v>
+      <c r="S66" t="s">
+        <v>26</v>
+      </c>
+      <c r="T66" t="s">
+        <v>41</v>
+      </c>
+      <c r="U66" t="s">
+        <v>52</v>
+      </c>
+      <c r="V66" t="s">
+        <v>44</v>
+      </c>
+      <c r="W66" t="s">
+        <v>51</v>
+      </c>
+      <c r="X66" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z66" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA66">
+        <v>3</v>
+      </c>
+      <c r="AB66">
+        <v>3</v>
+      </c>
+      <c r="AC66">
+        <v>3</v>
       </c>
       <c r="AE66" s="4"/>
       <c r="AF66" t="s">
-        <v>253</v>
+        <v>335</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>670</v>
+      </c>
+      <c r="AM66" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO66" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>524</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX66" s="4" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="B67" t="s">
         <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="D67" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="E67">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F67" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G67" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="H67" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="I67" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="J67" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="K67" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="L67" t="s">
         <v>248</v>
       </c>
       <c r="M67" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="N67" t="s">
         <v>251</v>
       </c>
       <c r="O67" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P67" t="s">
         <v>248</v>
@@ -13380,31 +13428,31 @@
         <v>26</v>
       </c>
       <c r="T67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U67" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V67" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X67" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="Z67" s="4" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="AA67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE67" s="4"/>
       <c r="AF67" t="s">
@@ -13414,87 +13462,93 @@
         <v>107</v>
       </c>
       <c r="AH67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI67" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>113</v>
       </c>
       <c r="AK67" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="AL67" s="4" t="s">
+        <v>669</v>
       </c>
       <c r="AM67" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO67" s="4" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="AQ67" t="s">
         <v>164</v>
       </c>
       <c r="AR67" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS67" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AU67" t="s">
-        <v>674</v>
+        <v>524</v>
       </c>
       <c r="AV67" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW67" t="s">
         <v>209</v>
       </c>
       <c r="AX67" s="4" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B68" t="s">
         <v>243</v>
       </c>
       <c r="C68" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D68" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="E68">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F68" t="s">
         <v>582</v>
       </c>
       <c r="G68" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H68" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="I68" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="J68" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="K68" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="L68" t="s">
         <v>248</v>
       </c>
       <c r="M68" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="N68" t="s">
         <v>251</v>
       </c>
       <c r="O68" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P68" t="s">
         <v>248</v>
@@ -13502,191 +13556,117 @@
       <c r="Q68" t="s">
         <v>21</v>
       </c>
-      <c r="S68" t="s">
-        <v>26</v>
-      </c>
-      <c r="T68" t="s">
-        <v>42</v>
-      </c>
-      <c r="U68" t="s">
-        <v>56</v>
-      </c>
-      <c r="V68" t="s">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s">
-        <v>52</v>
-      </c>
-      <c r="X68" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z68" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA68">
-        <v>2</v>
-      </c>
-      <c r="AB68">
-        <v>2</v>
-      </c>
-      <c r="AC68">
-        <v>2</v>
-      </c>
-      <c r="AD68" s="4" t="s">
-        <v>684</v>
+      <c r="R68" t="s">
+        <v>84</v>
       </c>
       <c r="AE68" s="4"/>
       <c r="AF68" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM68" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO68" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="AQ68" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR68" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS68" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU68" t="s">
-        <v>674</v>
-      </c>
-      <c r="AV68" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW68" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX68" s="4" t="s">
-        <v>677</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B69" t="s">
         <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D69" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E69">
         <v>2003</v>
       </c>
       <c r="F69" t="s">
-        <v>390</v>
+        <v>582</v>
       </c>
       <c r="G69" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H69" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="I69" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="J69" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="K69" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="L69" t="s">
         <v>248</v>
       </c>
       <c r="M69" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="N69" t="s">
         <v>251</v>
       </c>
       <c r="O69" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="P69" t="s">
-        <v>604</v>
+        <v>248</v>
       </c>
       <c r="Q69" t="s">
         <v>21</v>
       </c>
       <c r="S69" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T69" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U69" t="s">
         <v>56</v>
       </c>
       <c r="V69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X69" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z69" s="4" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="AA69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC69">
         <v>2</v>
       </c>
-      <c r="AE69" s="4" t="s">
-        <v>682</v>
-      </c>
+      <c r="AE69" s="4"/>
       <c r="AF69" t="s">
         <v>335</v>
       </c>
       <c r="AG69" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK69" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>680</v>
+        <v>134</v>
       </c>
       <c r="AM69" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO69" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="AQ69" t="s">
         <v>164</v>
@@ -13695,96 +13675,93 @@
         <v>239</v>
       </c>
       <c r="AS69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU69" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="AV69" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="AW69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX69" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="70" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="B70" t="s">
         <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="D70" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="E70">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F70" t="s">
-        <v>434</v>
+        <v>582</v>
       </c>
       <c r="G70" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="H70" t="s">
         <v>248</v>
       </c>
       <c r="I70" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="J70" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="K70" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="L70" t="s">
         <v>248</v>
       </c>
       <c r="M70" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="N70" t="s">
         <v>251</v>
       </c>
       <c r="O70" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="P70" t="s">
-        <v>604</v>
+        <v>248</v>
       </c>
       <c r="Q70" t="s">
         <v>21</v>
       </c>
       <c r="S70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U70" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X70" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y70" s="4" t="s">
-        <v>685</v>
+        <v>72</v>
       </c>
       <c r="Z70" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="AA70">
         <v>2</v>
@@ -13796,28 +13773,29 @@
         <v>2</v>
       </c>
       <c r="AD70" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="AE70" s="4" t="s">
-        <v>687</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="AE70" s="4"/>
       <c r="AF70" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="AG70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH70" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL70" s="4" t="s">
-        <v>688</v>
+        <v>121</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>146</v>
       </c>
       <c r="AM70" s="4" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO70" s="4" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="AQ70" t="s">
         <v>164</v>
@@ -13828,61 +13806,58 @@
       <c r="AS70" t="s">
         <v>175</v>
       </c>
-      <c r="AT70" t="s">
-        <v>690</v>
-      </c>
       <c r="AU70" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="AV70" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="AW70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX70" s="4" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="71" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B71" t="s">
         <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D71" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="E71">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F71" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="G71" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="H71" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="I71" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="J71" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="K71" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="L71" t="s">
         <v>248</v>
       </c>
       <c r="M71" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="N71" t="s">
         <v>251</v>
@@ -13900,58 +13875,58 @@
         <v>24</v>
       </c>
       <c r="T71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U71" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W71" t="s">
         <v>51</v>
       </c>
       <c r="X71" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y71" s="4" t="s">
-        <v>685</v>
+        <v>80</v>
       </c>
       <c r="Z71" s="4" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="AA71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC71">
         <v>2</v>
       </c>
-      <c r="AD71" s="4" t="s">
-        <v>693</v>
-      </c>
       <c r="AE71" s="4" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF71" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="AG71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH71" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL71" s="4" t="s">
-        <v>688</v>
+        <v>120</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>680</v>
       </c>
       <c r="AM71" s="4" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO71" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="AQ71" t="s">
         <v>164</v>
@@ -13960,63 +13935,60 @@
         <v>239</v>
       </c>
       <c r="AS71" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT71" t="s">
-        <v>690</v>
+        <v>176</v>
       </c>
       <c r="AU71" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AV71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AW71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX71" s="4" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
     </row>
     <row r="72" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B72" t="s">
         <v>243</v>
       </c>
       <c r="C72" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D72" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E72">
         <v>2000</v>
       </c>
       <c r="F72" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G72" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H72" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="I72" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="J72" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="K72" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="L72" t="s">
         <v>248</v>
       </c>
       <c r="M72" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N72" t="s">
         <v>251</v>
@@ -14025,58 +13997,132 @@
         <v>252</v>
       </c>
       <c r="P72" t="s">
-        <v>334</v>
+        <v>604</v>
       </c>
       <c r="Q72" t="s">
         <v>21</v>
       </c>
-      <c r="R72" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE72" s="4"/>
+      <c r="S72" t="s">
+        <v>24</v>
+      </c>
+      <c r="T72" t="s">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s">
+        <v>53</v>
+      </c>
+      <c r="V72" t="s">
+        <v>39</v>
+      </c>
+      <c r="W72" t="s">
+        <v>51</v>
+      </c>
+      <c r="X72" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y72" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="Z72" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="AA72">
+        <v>2</v>
+      </c>
+      <c r="AB72">
+        <v>2</v>
+      </c>
+      <c r="AC72">
+        <v>2</v>
+      </c>
+      <c r="AD72" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AE72" s="4" t="s">
+        <v>687</v>
+      </c>
       <c r="AF72" t="s">
         <v>253</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL72" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="AM72" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO72" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>690</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>691</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX72" s="4" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="73" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B73" t="s">
         <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="D73" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="E73">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F73" t="s">
-        <v>624</v>
+        <v>434</v>
       </c>
       <c r="G73" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="H73" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="I73" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="J73" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="K73" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="L73" t="s">
         <v>248</v>
       </c>
       <c r="M73" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="N73" t="s">
         <v>251</v>
@@ -14085,31 +14131,34 @@
         <v>252</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>604</v>
       </c>
       <c r="Q73" t="s">
         <v>21</v>
       </c>
       <c r="S73" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T73" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U73" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V73" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W73" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X73" t="s">
-        <v>75</v>
+        <v>216</v>
+      </c>
+      <c r="Y73" s="4" t="s">
+        <v>685</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="AA73">
         <v>2</v>
@@ -14120,36 +14169,44 @@
       <c r="AC73">
         <v>2</v>
       </c>
-      <c r="AE73" s="4"/>
+      <c r="AD73" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AE73" s="4" t="s">
+        <v>687</v>
+      </c>
       <c r="AF73" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="AG73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AH73" t="s">
         <v>116</v>
       </c>
       <c r="AL73" s="4" t="s">
-        <v>811</v>
+        <v>688</v>
       </c>
       <c r="AM73" s="4" t="s">
         <v>159</v>
       </c>
       <c r="AO73" s="4" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="AQ73" t="s">
         <v>164</v>
       </c>
       <c r="AR73" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="AS73" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU73" s="4" t="s">
-        <v>698</v>
+        <v>175</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>690</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>694</v>
       </c>
       <c r="AV73" t="s">
         <v>203</v>
@@ -14158,48 +14215,48 @@
         <v>209</v>
       </c>
       <c r="AX73" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="B74" t="s">
         <v>243</v>
       </c>
       <c r="C74" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="D74" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="E74">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="F74" t="s">
-        <v>633</v>
+        <v>390</v>
       </c>
       <c r="G74" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="H74" t="s">
-        <v>635</v>
+        <v>416</v>
       </c>
       <c r="I74" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="J74" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="K74" t="s">
-        <v>248</v>
+        <v>619</v>
       </c>
       <c r="L74" t="s">
         <v>248</v>
       </c>
       <c r="M74" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="N74" t="s">
         <v>251</v>
@@ -14208,138 +14265,58 @@
         <v>252</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q74" t="s">
         <v>21</v>
       </c>
-      <c r="S74" t="s">
-        <v>24</v>
-      </c>
-      <c r="T74" t="s">
-        <v>46</v>
-      </c>
-      <c r="U74" t="s">
-        <v>57</v>
-      </c>
-      <c r="V74" t="s">
-        <v>45</v>
-      </c>
-      <c r="W74" t="s">
-        <v>55</v>
-      </c>
-      <c r="X74" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z74" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="AA74">
-        <v>1</v>
-      </c>
-      <c r="AB74">
-        <v>2</v>
-      </c>
-      <c r="AC74">
-        <v>1</v>
-      </c>
-      <c r="AD74" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="AE74" s="4" t="s">
-        <v>705</v>
-      </c>
+      <c r="R74" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE74" s="4"/>
       <c r="AF74" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL74" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="AM74" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN74" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO74" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR74" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS74" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT74" t="s">
-        <v>702</v>
-      </c>
-      <c r="AU74" t="s">
-        <v>703</v>
-      </c>
-      <c r="AV74" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW74" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX74" s="4" t="s">
-        <v>706</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B75" t="s">
         <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D75" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E75">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F75" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="G75" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="H75" t="s">
-        <v>635</v>
+        <v>281</v>
       </c>
       <c r="I75" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="J75" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="K75" t="s">
-        <v>248</v>
+        <v>628</v>
       </c>
       <c r="L75" t="s">
         <v>248</v>
       </c>
       <c r="M75" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="N75" t="s">
         <v>251</v>
@@ -14354,138 +14331,121 @@
         <v>21</v>
       </c>
       <c r="S75" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T75" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X75" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z75" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB75">
         <v>2</v>
       </c>
       <c r="AC75">
-        <v>1</v>
-      </c>
-      <c r="AD75" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="AE75" s="4" t="s">
-        <v>705</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AE75" s="4"/>
       <c r="AF75" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG75" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AH75" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI75" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ75" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="AL75" s="4" t="s">
-        <v>701</v>
+        <v>811</v>
       </c>
       <c r="AM75" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN75" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AO75" s="4" t="s">
-        <v>162</v>
+        <v>697</v>
       </c>
       <c r="AQ75" t="s">
         <v>164</v>
       </c>
       <c r="AR75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS75" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT75" t="s">
-        <v>702</v>
-      </c>
-      <c r="AU75" t="s">
-        <v>703</v>
+        <v>181</v>
+      </c>
+      <c r="AU75" s="4" t="s">
+        <v>698</v>
       </c>
       <c r="AV75" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="AW75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX75" s="4" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="76" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B76" t="s">
         <v>243</v>
       </c>
       <c r="C76" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D76" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E76">
         <v>1996</v>
       </c>
       <c r="F76" t="s">
-        <v>459</v>
+        <v>633</v>
       </c>
       <c r="G76" t="s">
-        <v>321</v>
+        <v>634</v>
       </c>
       <c r="H76" t="s">
-        <v>416</v>
+        <v>635</v>
       </c>
       <c r="I76" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="J76" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K76" t="s">
-        <v>644</v>
+        <v>248</v>
       </c>
       <c r="L76" t="s">
         <v>248</v>
       </c>
       <c r="M76" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="N76" t="s">
         <v>251</v>
       </c>
       <c r="O76" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P76" t="s">
         <v>248</v>
@@ -14494,133 +14454,138 @@
         <v>21</v>
       </c>
       <c r="S76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T76" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U76" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W76" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X76" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="AA76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB76">
         <v>2</v>
       </c>
       <c r="AC76">
-        <v>2</v>
-      </c>
-      <c r="AE76" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD76" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="AE76" s="4" t="s">
+        <v>705</v>
+      </c>
       <c r="AF76" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH76" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI76" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ76" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL76" s="4" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="AM76" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO76" s="4" t="s">
-        <v>468</v>
+        <v>162</v>
       </c>
       <c r="AQ76" t="s">
         <v>164</v>
       </c>
       <c r="AR76" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS76" t="s">
-        <v>176</v>
+        <v>190</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>702</v>
       </c>
       <c r="AU76" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="AV76" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW76" t="s">
         <v>208</v>
       </c>
       <c r="AX76" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="77" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B77" t="s">
         <v>243</v>
       </c>
       <c r="C77" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D77" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E77">
         <v>1996</v>
       </c>
       <c r="F77" t="s">
-        <v>459</v>
+        <v>633</v>
       </c>
       <c r="G77" t="s">
-        <v>321</v>
+        <v>634</v>
       </c>
       <c r="H77" t="s">
-        <v>416</v>
+        <v>635</v>
       </c>
       <c r="I77" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="J77" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K77" t="s">
-        <v>644</v>
+        <v>248</v>
       </c>
       <c r="L77" t="s">
         <v>248</v>
       </c>
       <c r="M77" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="N77" t="s">
         <v>251</v>
       </c>
       <c r="O77" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P77" t="s">
         <v>248</v>
@@ -14629,86 +14594,91 @@
         <v>21</v>
       </c>
       <c r="S77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T77" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U77" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W77" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X77" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="AA77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB77">
         <v>2</v>
       </c>
       <c r="AC77">
-        <v>2</v>
-      </c>
-      <c r="AE77" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD77" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="AE77" s="4" t="s">
+        <v>705</v>
+      </c>
       <c r="AF77" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH77" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI77" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK77" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL77" s="4" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="AM77" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO77" s="4" t="s">
-        <v>468</v>
+        <v>162</v>
       </c>
       <c r="AQ77" t="s">
         <v>164</v>
       </c>
       <c r="AR77" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS77" t="s">
-        <v>176</v>
+        <v>190</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>702</v>
       </c>
       <c r="AU77" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="AV77" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AW77" t="s">
         <v>208</v>
       </c>
       <c r="AX77" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="78" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -14828,10 +14798,10 @@
         <v>164</v>
       </c>
       <c r="AR78" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU78" t="s">
         <v>709</v>
@@ -14963,10 +14933,10 @@
         <v>164</v>
       </c>
       <c r="AR79" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU79" t="s">
         <v>709</v>
@@ -14983,76 +14953,76 @@
     </row>
     <row r="80" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B80" t="s">
         <v>243</v>
       </c>
       <c r="C80" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D80" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E80">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F80" t="s">
-        <v>649</v>
+        <v>459</v>
       </c>
       <c r="G80" t="s">
-        <v>599</v>
+        <v>321</v>
       </c>
       <c r="H80" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="I80" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="J80" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="K80" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="L80" t="s">
         <v>248</v>
       </c>
       <c r="M80" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="N80" t="s">
         <v>251</v>
       </c>
       <c r="O80" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="P80" t="s">
-        <v>654</v>
+        <v>248</v>
       </c>
       <c r="Q80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S80" t="s">
         <v>25</v>
       </c>
       <c r="T80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U80" t="s">
         <v>48</v>
       </c>
       <c r="V80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W80" t="s">
         <v>48</v>
       </c>
       <c r="X80" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AA80">
         <v>2</v>
@@ -15074,13 +15044,16 @@
         <v>120</v>
       </c>
       <c r="AI80" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>113</v>
       </c>
       <c r="AK80" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL80" s="4" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="AM80" s="4" t="s">
         <v>232</v>
@@ -15089,7 +15062,7 @@
         <v>161</v>
       </c>
       <c r="AO80" s="4" t="s">
-        <v>713</v>
+        <v>468</v>
       </c>
       <c r="AQ80" t="s">
         <v>164</v>
@@ -15101,90 +15074,90 @@
         <v>178</v>
       </c>
       <c r="AU80" t="s">
-        <v>468</v>
+        <v>709</v>
       </c>
       <c r="AV80" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW80" t="s">
         <v>208</v>
       </c>
       <c r="AX80" s="4" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="81" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B81" t="s">
         <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D81" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E81">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F81" t="s">
-        <v>649</v>
+        <v>459</v>
       </c>
       <c r="G81" t="s">
-        <v>599</v>
+        <v>321</v>
       </c>
       <c r="H81" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="I81" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="J81" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="K81" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="L81" t="s">
         <v>248</v>
       </c>
       <c r="M81" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="N81" t="s">
         <v>251</v>
       </c>
       <c r="O81" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="P81" t="s">
-        <v>654</v>
+        <v>248</v>
       </c>
       <c r="Q81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S81" t="s">
         <v>25</v>
       </c>
       <c r="T81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U81" t="s">
         <v>48</v>
       </c>
       <c r="V81" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W81" t="s">
         <v>48</v>
       </c>
       <c r="X81" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z81" s="4" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AA81">
         <v>2</v>
@@ -15206,22 +15179,25 @@
         <v>120</v>
       </c>
       <c r="AI81" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>113</v>
       </c>
       <c r="AK81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL81" s="4" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="AM81" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO81" s="4" t="s">
-        <v>713</v>
+        <v>468</v>
       </c>
       <c r="AQ81" t="s">
         <v>164</v>
@@ -15233,16 +15209,16 @@
         <v>178</v>
       </c>
       <c r="AU81" t="s">
-        <v>468</v>
+        <v>709</v>
       </c>
       <c r="AV81" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AW81" t="s">
         <v>208</v>
       </c>
       <c r="AX81" s="4" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="82" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15335,16 +15311,16 @@
         <v>107</v>
       </c>
       <c r="AH82" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AI82" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AK82" t="s">
         <v>148</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>715</v>
+        <v>680</v>
       </c>
       <c r="AM82" s="4" t="s">
         <v>232</v>
@@ -15374,7 +15350,7 @@
         <v>208</v>
       </c>
       <c r="AX82" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="83" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15445,7 +15421,7 @@
         <v>48</v>
       </c>
       <c r="X83" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z83" s="4" t="s">
         <v>719</v>
@@ -15470,19 +15446,19 @@
         <v>120</v>
       </c>
       <c r="AI83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK83" t="s">
         <v>148</v>
       </c>
       <c r="AL83" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AM83" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO83" s="4" t="s">
         <v>713</v>
@@ -15506,7 +15482,7 @@
         <v>208</v>
       </c>
       <c r="AX83" s="4" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="84" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15577,10 +15553,10 @@
         <v>48</v>
       </c>
       <c r="X84" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>722</v>
+        <v>69</v>
+      </c>
+      <c r="Z84" s="4" t="s">
+        <v>719</v>
       </c>
       <c r="AA84">
         <v>2</v>
@@ -15591,6 +15567,7 @@
       <c r="AC84">
         <v>2</v>
       </c>
+      <c r="AE84" s="4"/>
       <c r="AF84" t="s">
         <v>335</v>
       </c>
@@ -15598,19 +15575,22 @@
         <v>107</v>
       </c>
       <c r="AH84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI84" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="AK84" t="s">
         <v>148</v>
       </c>
       <c r="AL84" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="AM84" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>161</v>
       </c>
       <c r="AO84" s="4" t="s">
         <v>713</v>
@@ -15625,15 +15605,275 @@
         <v>178</v>
       </c>
       <c r="AU84" t="s">
-        <v>721</v>
+        <v>468</v>
       </c>
       <c r="AV84" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="AW84" t="s">
         <v>208</v>
       </c>
       <c r="AX84" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="85" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>646</v>
+      </c>
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>647</v>
+      </c>
+      <c r="D85" t="s">
+        <v>648</v>
+      </c>
+      <c r="E85">
+        <v>2003</v>
+      </c>
+      <c r="F85" t="s">
+        <v>649</v>
+      </c>
+      <c r="G85" t="s">
+        <v>599</v>
+      </c>
+      <c r="H85" t="s">
+        <v>297</v>
+      </c>
+      <c r="I85" t="s">
+        <v>650</v>
+      </c>
+      <c r="J85" t="s">
+        <v>651</v>
+      </c>
+      <c r="K85" t="s">
+        <v>652</v>
+      </c>
+      <c r="L85" t="s">
+        <v>248</v>
+      </c>
+      <c r="M85" t="s">
+        <v>653</v>
+      </c>
+      <c r="N85" t="s">
+        <v>251</v>
+      </c>
+      <c r="O85" t="s">
+        <v>252</v>
+      </c>
+      <c r="P85" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>22</v>
+      </c>
+      <c r="S85" t="s">
+        <v>25</v>
+      </c>
+      <c r="T85" t="s">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s">
+        <v>48</v>
+      </c>
+      <c r="V85" t="s">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s">
+        <v>48</v>
+      </c>
+      <c r="X85" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z85" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA85">
+        <v>2</v>
+      </c>
+      <c r="AB85">
+        <v>2</v>
+      </c>
+      <c r="AC85">
+        <v>2</v>
+      </c>
+      <c r="AE85" s="4"/>
+      <c r="AF85" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL85" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AM85" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO85" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="AQ85" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>468</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW85" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX85" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="86" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>646</v>
+      </c>
+      <c r="B86" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" t="s">
+        <v>647</v>
+      </c>
+      <c r="D86" t="s">
+        <v>648</v>
+      </c>
+      <c r="E86">
+        <v>2003</v>
+      </c>
+      <c r="F86" t="s">
+        <v>649</v>
+      </c>
+      <c r="G86" t="s">
+        <v>599</v>
+      </c>
+      <c r="H86" t="s">
+        <v>297</v>
+      </c>
+      <c r="I86" t="s">
+        <v>650</v>
+      </c>
+      <c r="J86" t="s">
+        <v>651</v>
+      </c>
+      <c r="K86" t="s">
+        <v>652</v>
+      </c>
+      <c r="L86" t="s">
+        <v>248</v>
+      </c>
+      <c r="M86" t="s">
+        <v>653</v>
+      </c>
+      <c r="N86" t="s">
+        <v>251</v>
+      </c>
+      <c r="O86" t="s">
+        <v>252</v>
+      </c>
+      <c r="P86" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>22</v>
+      </c>
+      <c r="S86" t="s">
+        <v>25</v>
+      </c>
+      <c r="T86" t="s">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s">
+        <v>48</v>
+      </c>
+      <c r="V86" t="s">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s">
+        <v>48</v>
+      </c>
+      <c r="X86" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>722</v>
+      </c>
+      <c r="AA86">
+        <v>2</v>
+      </c>
+      <c r="AB86">
+        <v>2</v>
+      </c>
+      <c r="AC86">
+        <v>2</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL86" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="AM86" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO86" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR86" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS86" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU86" t="s">
+        <v>721</v>
+      </c>
+      <c r="AV86" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW86" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX86" s="4" t="s">
         <v>723</v>
       </c>
     </row>
@@ -17866,18 +18106,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17897,24 +18137,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/Taken from github and not from SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08542F34-F42B-4E07-A84F-FE66F4176110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{08542F34-F42B-4E07-A84F-FE66F4176110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6209D432-62B1-4522-B1EA-18B12C37F939}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -5380,32 +5380,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AX86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AH92" sqref="AH92"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AX31" sqref="AX31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="18.08984375" customWidth="1"/>
-    <col min="24" max="25" width="32.6328125" customWidth="1"/>
-    <col min="30" max="30" width="17.90625" customWidth="1"/>
-    <col min="34" max="35" width="17.6328125" customWidth="1"/>
-    <col min="36" max="36" width="18.6328125" customWidth="1"/>
-    <col min="37" max="37" width="19.08984375" customWidth="1"/>
-    <col min="38" max="38" width="17.6328125" customWidth="1"/>
-    <col min="39" max="39" width="14.36328125" style="4" customWidth="1"/>
-    <col min="40" max="40" width="15.90625" customWidth="1"/>
-    <col min="41" max="41" width="15.90625" style="4" customWidth="1"/>
-    <col min="42" max="42" width="15.453125" customWidth="1"/>
-    <col min="46" max="46" width="15.08984375" customWidth="1"/>
-    <col min="47" max="47" width="18.6328125" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="24" max="25" width="32.5703125" customWidth="1"/>
+    <col min="30" max="30" width="17.85546875" customWidth="1"/>
+    <col min="34" max="35" width="17.5703125" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="17.5703125" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="4" customWidth="1"/>
+    <col min="40" max="40" width="15.85546875" customWidth="1"/>
+    <col min="41" max="41" width="15.85546875" style="4" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" customWidth="1"/>
+    <col min="47" max="47" width="18.5703125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
-    <col min="50" max="50" width="44.81640625" customWidth="1"/>
+    <col min="50" max="50" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -5471,7 +5472,7 @@
       <c r="AW1" s="14"/>
       <c r="AX1" s="14"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>276</v>
       </c>
@@ -6397,7 +6398,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>284</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>292</v>
       </c>
@@ -6584,7 +6585,7 @@
       </c>
       <c r="AX10" s="4"/>
     </row>
-    <row r="11" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -6713,7 +6714,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>309</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>318</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>325</v>
       </c>
@@ -7019,7 +7020,7 @@
       </c>
       <c r="AX14" s="4"/>
     </row>
-    <row r="15" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -7265,7 +7266,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>343</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>351</v>
       </c>
@@ -7511,7 +7512,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>360</v>
       </c>
@@ -7572,7 +7573,7 @@
       </c>
       <c r="AX19" s="4"/>
     </row>
-    <row r="20" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>378</v>
       </c>
@@ -7762,7 +7763,7 @@
       </c>
       <c r="AX21" s="4"/>
     </row>
-    <row r="22" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>387</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="24" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>396</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>402</v>
       </c>
@@ -8248,7 +8249,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>402</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>402</v>
       </c>
@@ -8488,7 +8489,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>402</v>
       </c>
@@ -8608,7 +8609,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>412</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="30" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>421</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>431</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="32" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>431</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>431</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>431</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>431</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>431</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>456</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>456</v>
       </c>
@@ -9890,7 +9891,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>456</v>
       </c>
@@ -10018,7 +10019,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="40" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>472</v>
       </c>
@@ -10143,7 +10144,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>486</v>
       </c>
@@ -10280,7 +10281,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>486</v>
       </c>
@@ -10414,7 +10415,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>502</v>
       </c>
@@ -10475,7 +10476,7 @@
       </c>
       <c r="AX43" s="4"/>
     </row>
-    <row r="44" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>511</v>
       </c>
@@ -10600,7 +10601,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="45" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>511</v>
       </c>
@@ -10725,7 +10726,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>511</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="47" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>511</v>
       </c>
@@ -10975,7 +10976,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="48" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>511</v>
       </c>
@@ -11100,7 +11101,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>511</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>511</v>
       </c>
@@ -11350,7 +11351,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>511</v>
       </c>
@@ -11475,7 +11476,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>533</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>533</v>
       </c>
@@ -11725,7 +11726,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>533</v>
       </c>
@@ -11848,7 +11849,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>533</v>
       </c>
@@ -11971,7 +11972,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>533</v>
       </c>
@@ -12100,7 +12101,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>533</v>
       </c>
@@ -12223,7 +12224,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>533</v>
       </c>
@@ -12346,7 +12347,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>559</v>
       </c>
@@ -12475,7 +12476,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>559</v>
       </c>
@@ -12604,7 +12605,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>655</v>
       </c>
@@ -12730,7 +12731,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="62" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>655</v>
       </c>
@@ -12856,7 +12857,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>655</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="64" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>655</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="65" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>570</v>
       </c>
@@ -13240,7 +13241,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="66" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>570</v>
       </c>
@@ -13372,7 +13373,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="67" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>570</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="68" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>579</v>
       </c>
@@ -13564,7 +13565,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>588</v>
       </c>
@@ -13690,7 +13691,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="70" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>588</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="71" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>596</v>
       </c>
@@ -13950,7 +13951,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="72" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>605</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="73" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>605</v>
       </c>
@@ -14218,7 +14219,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="74" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>613</v>
       </c>
@@ -14278,7 +14279,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>621</v>
       </c>
@@ -14401,7 +14402,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="76" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>630</v>
       </c>
@@ -14541,7 +14542,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="77" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>630</v>
       </c>
@@ -14681,7 +14682,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="78" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>639</v>
       </c>
@@ -14816,7 +14817,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="79" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>639</v>
       </c>
@@ -14951,7 +14952,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="80" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>639</v>
       </c>
@@ -15086,7 +15087,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="81" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>639</v>
       </c>
@@ -15221,7 +15222,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="82" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>646</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="83" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>646</v>
       </c>
@@ -15485,7 +15486,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="84" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>646</v>
       </c>
@@ -15617,7 +15618,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="85" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>646</v>
       </c>
@@ -15749,7 +15750,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="86" spans="1:50" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>646</v>
       </c>
@@ -15878,6 +15879,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AX86" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SW4_1034"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
@@ -16009,17 +16017,17 @@
       <selection activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.08984375" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" customWidth="1"/>
-    <col min="33" max="33" width="26.36328125" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" customWidth="1"/>
+    <col min="33" max="33" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -16085,7 +16093,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -16237,7 +16245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -16294,7 +16302,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -16351,7 +16359,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -16407,7 +16415,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -16452,7 +16460,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -16494,7 +16502,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -16532,7 +16540,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -16570,7 +16578,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -16602,7 +16610,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -16637,7 +16645,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -16669,7 +16677,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -16704,7 +16712,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -16733,7 +16741,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -16762,7 +16770,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -16782,7 +16790,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -16790,22 +16798,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -16840,7 +16848,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -16866,7 +16874,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -16889,7 +16897,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -16900,7 +16908,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -16911,7 +16919,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -16919,12 +16927,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -16947,7 +16955,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -16973,7 +16981,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -16999,7 +17007,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -17019,7 +17027,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -17034,7 +17042,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -17048,7 +17056,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -17056,10 +17064,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -17087,38 +17095,38 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.90625" customWidth="1"/>
-    <col min="19" max="19" width="17.81640625" customWidth="1"/>
-    <col min="20" max="20" width="19.36328125" customWidth="1"/>
-    <col min="21" max="21" width="17.81640625" customWidth="1"/>
-    <col min="22" max="22" width="18.6328125" customWidth="1"/>
-    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="15.1796875" customWidth="1"/>
-    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.81640625" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" customWidth="1"/>
+    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -17165,7 +17173,7 @@
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -17266,7 +17274,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -17332,7 +17340,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -17383,7 +17391,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -17437,7 +17445,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -17479,7 +17487,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -17524,7 +17532,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -17562,7 +17570,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -17600,7 +17608,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -17635,7 +17643,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -17667,7 +17675,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -17699,7 +17707,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -17728,7 +17736,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -17751,7 +17759,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -17777,7 +17785,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -17794,7 +17802,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -17805,7 +17813,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -17819,7 +17827,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -17833,7 +17841,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -17844,7 +17852,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -17858,7 +17866,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -17869,7 +17877,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -17880,7 +17888,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -17888,7 +17896,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -17896,7 +17904,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -17904,7 +17912,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -17918,7 +17926,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -17929,7 +17937,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -17940,7 +17948,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -17951,7 +17959,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -17959,7 +17967,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -17967,12 +17975,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -18106,18 +18114,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18137,14 +18145,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -18157,4 +18157,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/Taken from github and not from SP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded_SP issues Nov22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{08542F34-F42B-4E07-A84F-FE66F4176110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6209D432-62B1-4522-B1EA-18B12C37F939}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{08542F34-F42B-4E07-A84F-FE66F4176110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D475C2-345E-415B-ACCD-DB6649AD28D0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$88</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="816">
   <si>
     <t>SearchID</t>
   </si>
@@ -3719,58 +3719,16 @@
     <t>Paramuricea clavata</t>
   </si>
   <si>
-    <t>Epibiosis</t>
-  </si>
-  <si>
-    <t>Between 10 and 33% of the colonies in the un - protected populations were affected by epibionts (Table 1), whereas protected populations differed significantly, as only 4 to 10% of the colonies were affected (χ2 = 15.6, p = 0.0004, df = 2).The highest proportion of corals colonized by
-this parasitic octocoral were found at the stations that
-are known to be favorite SCUBA diving sites</t>
-  </si>
-  <si>
     <t>Damage from fishing</t>
   </si>
   <si>
-    <t>Between 10 and 33% of the colonies in the un - protected populations were affected by epibionts (Table 1), whereas protected populations differed significantly, as only 4 to 10% of the colonies were affected (χ2 = 15.6, p = 0.0004, df = 2). Monofilament fishing lines were most frequent at
-certain sites that are easily accessible to, or very popular among, recreational cast fishermen</t>
-  </si>
-  <si>
     <t>PERMANOVA</t>
   </si>
   <si>
-    <t>Lipid content _ carbohydrats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The concentration of lipids in apical branches was
-significantly higher in unaffected female colonies
-(Fig. 2) than in affected female colonies (i.e. colonies
-that are colonized by epibionts). Carbo hydrate concentration was significantly higher in unaffected than in affected
-colonies of both sexes (univariate 3-way PERM -
-ANOVA: N = 78, F2,65 = 12.39, p = 0.0003).</t>
-  </si>
-  <si>
     <t>Lipid content _ Carbohydrats _ proteins</t>
   </si>
   <si>
-    <t>The concentration of lipids in apical branches was
-significantly higher in unaffected female colonies
-(Fig. 2) than in affected female colonies (i.e. colonies
-that are colonized by epibionts). Carbo hydrate concentration was significantly higher in unaffected than in affected
-colonies of both sexes (univariate 3-way PERM -
-ANOVA: N = 78, F2,65 = 12.39, p = 0.0003).</t>
-  </si>
-  <si>
-    <t>Damage from divers</t>
-  </si>
-  <si>
     <t>Gonads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">However, the mean number of gonads per polyp was significantly lower in affected male and female colonies than in unaffected ones (N = 78, F2,64 = 10.73, p = 0.001; Fig. 4). The comparison of the sum of gonadal volumes per sampled colony showed an effect of the factors epibiosis and sex (Fig. 5). Unaffected colonies showed significantly higher gonadal volumes than affected ones (F2,64 = 7.1504, p = 0.009, N = 65), and male colonies showed a higher gonadal volume than female ones (F2,64 = 11.295, p = 0.001, N = 65). However, &lt;3 l of air bubbles released ca. 20 cm below the branches instantly detached &gt;90% of the larvae
-from the colony </t>
-  </si>
-  <si>
-    <t>However, the mean number of gonads per polyp was significantly lower in affected male and female colonies than in unaffected ones (N = 78, F2,64 = 10.73, p = 0.001; Fig. 4). The comparison of the sum of go na dal volumes per sampled colony showed an effect of the factors epibiosis and sex (Fig. 5). Unaffected colonies showed significantly higher gonadal volumes than affected ones (F2,64 = 7.1504, p = 0.009, N = 65), and male colonies showed a higher gonadal volume than female ones (F2,64 = 11.295, p = 0.001, N = 65).</t>
   </si>
   <si>
     <t>SW4_1164</t>
@@ -4428,9 +4386,6 @@
   </si>
   <si>
     <t>Crustaceans</t>
-  </si>
-  <si>
-    <t>Damage from diving</t>
   </si>
   <si>
     <t>Univariate tests</t>
@@ -4905,6 +4860,50 @@
   </si>
   <si>
     <t>Larus audouinii _ Larus cachinnans</t>
+  </si>
+  <si>
+    <t>Monofilament fishing lines were most frequent at certain sites that are easily accessible to, or very popular among, recreational cast fishermen (Table 1). These were Illa Cullero (5% of the colonies were entangled in fishing lines) and Punta de sa Oliguera (11%), which are accessible by land, and Maca d’Or (6%), which is accessible by boat. Branches with pale tissue were observed, in some cases next to where fishing lines were in contact with the tissue.</t>
+  </si>
+  <si>
+    <t>Entanglement</t>
+  </si>
+  <si>
+    <t>However, the mean number of gonads per polyp was significantly lower in affected male and female colonies than in unaffected ones (N = 78, F2,64 = 10.73, p = 0.001; Fig. 4). The comparison of the sum of gonadal volumes per sampled colony showed an effect of the factors epibiosis and sex (Fig. 5). Unaffected colonies showed significantly higher gonadal volumes than affected ones (F2,64 = 7.1504, p = 0.009, N = 65), and male colonies showed a higher gonadal volume than female ones (F2,64 = 11.295, p = 0.001, N = 65). Overall, the results therefore confirm that colonies that are colonised by epibionts following injuries are not able to invest as much into reproduction as unaffected colonies, which indicates a compensation response by allocating energy resources that would normally be used for reproduction into recovery of injured tissue.</t>
+  </si>
+  <si>
+    <t>The concentration of lipids in apical branches was significantly higher in unaffected female colonies (Fig. 2) than in affected female colonies (i.e. colonies that are colonized by epibionts). Carbo hydrate concentration was significantly higher in unaffected than in affected colonies of both sexes (univariate 3-way PERMANOVA: N = 78, F2,65 = 12.39, p = 0.0003). Colonies affected by epibionts contained significantly lower protein levels. Injured colonies therefore appear to reduce the transport of food from apical
+polyps to central ones, in favor of investing the resources into recovery of injured tissue (or growth of new branches) rather than growth of the central part.</t>
+  </si>
+  <si>
+    <t>SCUBA diving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between 10 and 33% of the colonies in the unprotected populations were affected by epibionts (Table 1), whereas protected populations differed significantly, as only 4 to 10% of the colonies were affected (χ2 = 15.6, p = 0.0004, df = 2). Monofilament fishing lines were most frequent at certain sites that are easily accessible to, or very popular among, recreational cast fishermen. The highest epibiont rates (24% and 33%) were found in populations that are exposed to a high intensity of SCUBA diving (Cap Norfeu), a combination of fishing and SCUBA (e.g. in Punta de sa Oliguera), or anchoring (at the islet of Maca d’Or). The 2 stations showing the highest colonization rate with the parasitic octocoral Parerythropodium coralloides were 2 stations with intensive diving activity and no direct fishing impact (Cap Norfeu and Cova de la Vaca). </t>
+  </si>
+  <si>
+    <t>% colonies affected by epibiosis</t>
+  </si>
+  <si>
+    <t>Damage from fishing causing injuries, followed by epibiosis</t>
+  </si>
+  <si>
+    <t>Lobster</t>
+  </si>
+  <si>
+    <t>Between 10 and 33% of the colonies in the unprotected populations were affected by epibionts (Table 1), whereas protected populations differed significantly, as only 4 to 10% of the colonies were affected (χ2 = 15.6, p = 0.0004, df = 2). Monofilament fishing lines were most frequent at certain sites that are easily accessible to, or very popular among, recreational cast fishermen. The highest epibiont rates (24% and 33%) were found in populations that are exposed to a high intensity of SCUBA diving (Cap Norfeu), a combination of fishing and SCUBA (e.g. in Punta de sa Oliguera), or anchoring (at the islet of Maca d’Or). The 2 stations showing the highest colonization rate with the parasitic octocoral Parerythropodium coralloides were 2 stations with intensive diving activity and no direct fishing impact (Cap Norfeu and Cova de la Vaca). The remains of animal bones that are usually used as bait indicate illegally deployed lobster pots, which caused tissue abrasion with their connecting ropes when retrieving the traps.</t>
+  </si>
+  <si>
+    <t>The concentration of lipids in apical branches was significantly higher in unaffected female colonies (Fig. 2) than in affected female colonies (i.e. colonies that are colonized by epibionts). Carbo hydrate concentration was significantly higher in unaffected than in affected colonies of both sexes (univariate 3-way PERMANOVA: N = 78, F2,65 = 12.39, p = 0.0003). Colonies affected by epibionts contained significantly lower protein levels. Injured colonies therefore appear to reduce the transport of food from apical
+polyps to central ones, in favor of investing the resources into recovery of injured tissue (or growth of new branches) rather than growth of the central part. The remains of animal bones that are usually used as bait indicate illegally deployed lobster pots, which caused tissue abrasion with their connecting ropes when retrieving the traps.</t>
+  </si>
+  <si>
+    <t>However, the mean number of gonads per polyp was significantly lower in affected male and female colonies than in unaffected ones (N = 78, F2,64 = 10.73, p = 0.001; Fig. 4). The comparison of the sum of gonadal volumes per sampled colony showed an effect of the factors epibiosis and sex (Fig. 5). Unaffected colonies showed significantly higher gonadal volumes than affected ones (F2,64 = 7.1504, p = 0.009, N = 65), and male colonies showed a higher gonadal volume than female ones (F2,64 = 11.295, p = 0.001, N = 65). Overall, the results therefore confirm that colonies that are colonised by epibionts following injuries are not able to invest as much into reproduction as unaffected colonies, which indicates a compensation response by allocating energy resources that would normally be used for reproduction into recovery of injured tissue. The remains of animal bones that are usually used as bait indicate illegally deployed lobster pots, which caused tissue abrasion with their connecting ropes when retrieving the traps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one site was studied where spearfishing took place, being the only pressure. Epibiont cover was 19%. Between 10 and 33% of the colonies in the unprotected populations were affected by epibionts (Table 1), whereas protected populations differed significantly, as only 4 to 10% of the colonies were affected (χ2 = 15.6, p = 0.0004, df = 2). Monofilament fishing lines were most frequent at certain sites that are easily accessible to, or very popular among, recreational cast fishermen. The highest epibiont rates (24% and 33%) were found in populations that are exposed to a high intensity of SCUBA diving (Cap Norfeu), a combination of fishing and SCUBA (e.g. in Punta de sa Oliguera), or anchoring (at the islet of Maca d’Or). The 2 stations showing the highest colonization rate with the parasitic octocoral Parerythropodium coralloides were 2 stations with intensive diving activity and no direct fishing impact (Cap Norfeu and Cova de la Vaca). </t>
+  </si>
+  <si>
+    <t>Observation of pale tissue</t>
   </si>
 </sst>
 </file>
@@ -5051,7 +5050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5073,6 +5072,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5115,6 +5120,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5380,11 +5389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AX86"/>
+  <dimension ref="A1:AX88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AX31" sqref="AX31"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV34" sqref="AV34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5407,70 +5415,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="16" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="19" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="14" t="s">
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5624,7 +5632,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5695,7 +5703,7 @@
         <v>215</v>
       </c>
       <c r="Z3" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5720,7 +5728,7 @@
         <v>145</v>
       </c>
       <c r="AL3" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="AM3" s="4" t="s">
         <v>232</v>
@@ -5729,10 +5737,10 @@
         <v>161</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="AP3" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -5741,7 +5749,7 @@
         <v>239</v>
       </c>
       <c r="AU3" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="AV3" t="s">
         <v>202</v>
@@ -5750,10 +5758,10 @@
         <v>209</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -5824,7 +5832,7 @@
         <v>69</v>
       </c>
       <c r="Z4" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5849,7 +5857,7 @@
         <v>130</v>
       </c>
       <c r="AL4" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="AM4" s="4" t="s">
         <v>232</v>
@@ -5858,7 +5866,7 @@
         <v>160</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5870,7 +5878,7 @@
         <v>176</v>
       </c>
       <c r="AU4" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -5879,10 +5887,10 @@
         <v>208</v>
       </c>
       <c r="AX4" s="4" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -5950,7 +5958,7 @@
         <v>69</v>
       </c>
       <c r="Z5" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -5978,7 +5986,7 @@
         <v>148</v>
       </c>
       <c r="AL5" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="AM5" s="4" t="s">
         <v>232</v>
@@ -5987,7 +5995,7 @@
         <v>161</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5999,7 +6007,7 @@
         <v>176</v>
       </c>
       <c r="AU5" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="AV5" t="s">
         <v>199</v>
@@ -6008,10 +6016,10 @@
         <v>208</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -6082,10 +6090,10 @@
         <v>113</v>
       </c>
       <c r="Y6" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="Z6" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -6116,7 +6124,7 @@
         <v>150</v>
       </c>
       <c r="AL6" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AM6" s="4" t="s">
         <v>232</v>
@@ -6125,7 +6133,7 @@
         <v>161</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -6143,10 +6151,10 @@
         <v>209</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -6217,7 +6225,7 @@
         <v>69</v>
       </c>
       <c r="Z7" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -6239,7 +6247,7 @@
         <v>124</v>
       </c>
       <c r="AL7" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="AM7" s="4" t="s">
         <v>232</v>
@@ -6248,7 +6256,7 @@
         <v>160</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -6263,10 +6271,10 @@
         <v>207</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>276</v>
       </c>
@@ -6337,10 +6345,10 @@
         <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="Z8" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -6365,7 +6373,7 @@
         <v>147</v>
       </c>
       <c r="AL8" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="AM8" s="4" t="s">
         <v>232</v>
@@ -6374,7 +6382,7 @@
         <v>160</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -6386,7 +6394,7 @@
         <v>181</v>
       </c>
       <c r="AU8" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="AV8" t="s">
         <v>238</v>
@@ -6395,10 +6403,10 @@
         <v>207</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>284</v>
       </c>
@@ -6469,10 +6477,10 @@
         <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="Z9" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="AA9">
         <v>2</v>
@@ -6497,13 +6505,13 @@
         <v>140</v>
       </c>
       <c r="AL9" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="AM9" s="4" t="s">
         <v>231</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
@@ -6512,7 +6520,7 @@
         <v>113</v>
       </c>
       <c r="AU9" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="AV9" t="s">
         <v>199</v>
@@ -6521,10 +6529,10 @@
         <v>207</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>292</v>
       </c>
@@ -6585,7 +6593,7 @@
       </c>
       <c r="AX10" s="4"/>
     </row>
-    <row r="11" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -6656,7 +6664,7 @@
         <v>216</v>
       </c>
       <c r="Z11" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -6681,7 +6689,7 @@
         <v>132</v>
       </c>
       <c r="AL11" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="AM11" s="4" t="s">
         <v>232</v>
@@ -6690,7 +6698,7 @@
         <v>161</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -6702,7 +6710,7 @@
         <v>175</v>
       </c>
       <c r="AU11" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="AV11" t="s">
         <v>237</v>
@@ -6711,10 +6719,10 @@
         <v>208</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>309</v>
       </c>
@@ -6785,10 +6793,10 @@
         <v>113</v>
       </c>
       <c r="Y12" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="Z12" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -6800,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="AF12" t="s">
         <v>291</v>
@@ -6815,13 +6823,13 @@
         <v>140</v>
       </c>
       <c r="AL12" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="AM12" s="4" t="s">
         <v>231</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -6830,7 +6838,7 @@
         <v>113</v>
       </c>
       <c r="AU12" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="AV12" t="s">
         <v>206</v>
@@ -6839,10 +6847,10 @@
         <v>207</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>318</v>
       </c>
@@ -6913,7 +6921,7 @@
         <v>215</v>
       </c>
       <c r="Z13" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -6941,13 +6949,13 @@
         <v>160</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
       </c>
       <c r="AU13" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="AV13" t="s">
         <v>199</v>
@@ -6956,10 +6964,10 @@
         <v>208</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>325</v>
       </c>
@@ -7020,7 +7028,7 @@
       </c>
       <c r="AX14" s="4"/>
     </row>
-    <row r="15" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -7085,7 +7093,7 @@
         <v>216</v>
       </c>
       <c r="Z15" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -7097,7 +7105,7 @@
         <v>3</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AF15" t="s">
@@ -7110,7 +7118,7 @@
         <v>116</v>
       </c>
       <c r="AL15" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="AM15" s="4" t="s">
         <v>232</v>
@@ -7119,7 +7127,7 @@
         <v>162</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -7140,10 +7148,10 @@
         <v>210</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -7214,7 +7222,7 @@
         <v>216</v>
       </c>
       <c r="Z16" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -7236,13 +7244,13 @@
         <v>117</v>
       </c>
       <c r="AL16" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="AM16" s="4" t="s">
         <v>234</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -7254,7 +7262,7 @@
         <v>176</v>
       </c>
       <c r="AU16" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="AV16" t="s">
         <v>199</v>
@@ -7263,10 +7271,10 @@
         <v>208</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>343</v>
       </c>
@@ -7337,7 +7345,7 @@
         <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -7359,13 +7367,13 @@
         <v>120</v>
       </c>
       <c r="AL17" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="AM17" s="4" t="s">
         <v>234</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -7377,7 +7385,7 @@
         <v>176</v>
       </c>
       <c r="AU17" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="AV17" t="s">
         <v>199</v>
@@ -7386,10 +7394,10 @@
         <v>208</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>351</v>
       </c>
@@ -7460,7 +7468,7 @@
         <v>69</v>
       </c>
       <c r="Z18" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -7488,7 +7496,7 @@
         <v>162</v>
       </c>
       <c r="AO18" s="4" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -7500,7 +7508,7 @@
         <v>175</v>
       </c>
       <c r="AU18" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="AV18" t="s">
         <v>199</v>
@@ -7509,10 +7517,10 @@
         <v>207</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>360</v>
       </c>
@@ -7573,7 +7581,7 @@
       </c>
       <c r="AX19" s="4"/>
     </row>
-    <row r="20" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -7644,7 +7652,7 @@
         <v>216</v>
       </c>
       <c r="Z20" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7669,7 +7677,7 @@
         <v>140</v>
       </c>
       <c r="AL20" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="AM20" s="4" t="s">
         <v>232</v>
@@ -7678,7 +7686,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -7690,7 +7698,7 @@
         <v>176</v>
       </c>
       <c r="AU20" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="AV20" t="s">
         <v>206</v>
@@ -7699,10 +7707,10 @@
         <v>208</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>378</v>
       </c>
@@ -7763,7 +7771,7 @@
       </c>
       <c r="AX21" s="4"/>
     </row>
-    <row r="22" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>387</v>
       </c>
@@ -7834,7 +7842,7 @@
         <v>69</v>
       </c>
       <c r="Z22" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7856,7 +7864,7 @@
         <v>120</v>
       </c>
       <c r="AL22" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="AM22" s="4" t="s">
         <v>232</v>
@@ -7865,7 +7873,7 @@
         <v>160</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7874,7 +7882,7 @@
         <v>113</v>
       </c>
       <c r="AU22" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="AV22" t="s">
         <v>200</v>
@@ -7883,10 +7891,10 @@
         <v>208</v>
       </c>
       <c r="AX22" s="4" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -7957,7 +7965,7 @@
         <v>69</v>
       </c>
       <c r="Z23" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7982,7 +7990,7 @@
         <v>233</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7991,7 +7999,7 @@
         <v>113</v>
       </c>
       <c r="AU23" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="AV23" t="s">
         <v>113</v>
@@ -8000,10 +8008,10 @@
         <v>208</v>
       </c>
       <c r="AX23" s="4" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
-    <row r="24" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>396</v>
       </c>
@@ -8074,7 +8082,7 @@
         <v>218</v>
       </c>
       <c r="Z24" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -8096,7 +8104,7 @@
         <v>116</v>
       </c>
       <c r="AL24" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="AM24" s="4" t="s">
         <v>232</v>
@@ -8105,7 +8113,7 @@
         <v>162</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -8126,10 +8134,10 @@
         <v>207</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>402</v>
       </c>
@@ -8200,7 +8208,7 @@
         <v>69</v>
       </c>
       <c r="Z25" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -8222,7 +8230,7 @@
         <v>117</v>
       </c>
       <c r="AL25" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="AM25" s="4" t="s">
         <v>232</v>
@@ -8231,13 +8239,13 @@
         <v>160</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
       <c r="AU25" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="AV25" t="s">
         <v>206</v>
@@ -8246,10 +8254,10 @@
         <v>208</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>402</v>
       </c>
@@ -8320,7 +8328,7 @@
         <v>69</v>
       </c>
       <c r="Z26" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -8342,7 +8350,7 @@
         <v>220</v>
       </c>
       <c r="AL26" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="AM26" s="4" t="s">
         <v>232</v>
@@ -8351,13 +8359,13 @@
         <v>160</v>
       </c>
       <c r="AO26" s="4" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
       </c>
       <c r="AU26" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="AV26" t="s">
         <v>206</v>
@@ -8366,10 +8374,10 @@
         <v>208</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>402</v>
       </c>
@@ -8440,7 +8448,7 @@
         <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8462,7 +8470,7 @@
         <v>117</v>
       </c>
       <c r="AL27" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="AM27" s="4" t="s">
         <v>232</v>
@@ -8471,13 +8479,13 @@
         <v>160</v>
       </c>
       <c r="AO27" s="4" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
       <c r="AU27" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="AV27" t="s">
         <v>200</v>
@@ -8486,10 +8494,10 @@
         <v>208</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>402</v>
       </c>
@@ -8560,7 +8568,7 @@
         <v>69</v>
       </c>
       <c r="Z28" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8582,7 +8590,7 @@
         <v>220</v>
       </c>
       <c r="AL28" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="AM28" s="4" t="s">
         <v>232</v>
@@ -8591,13 +8599,13 @@
         <v>160</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
       <c r="AU28" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="AV28" t="s">
         <v>200</v>
@@ -8606,10 +8614,10 @@
         <v>208</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>412</v>
       </c>
@@ -8680,7 +8688,7 @@
         <v>69</v>
       </c>
       <c r="Z29" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8705,7 +8713,7 @@
         <v>132</v>
       </c>
       <c r="AL29" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="AM29" s="4" t="s">
         <v>232</v>
@@ -8714,7 +8722,7 @@
         <v>162</v>
       </c>
       <c r="AO29" s="4" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8729,10 +8737,10 @@
         <v>207</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
-    <row r="30" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>421</v>
       </c>
@@ -8803,7 +8811,7 @@
         <v>215</v>
       </c>
       <c r="Z30" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8831,7 +8839,7 @@
         <v>162</v>
       </c>
       <c r="AO30" s="4" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
@@ -8843,7 +8851,7 @@
         <v>176</v>
       </c>
       <c r="AU30" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="AV30" t="s">
         <v>205</v>
@@ -8852,7 +8860,7 @@
         <v>208</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8959,29 +8967,35 @@
       <c r="AL31" t="s">
         <v>442</v>
       </c>
-      <c r="AM31" s="4" t="s">
+      <c r="AM31" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="AO31" s="4" t="s">
-        <v>672</v>
+      <c r="AO31" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>806</v>
       </c>
       <c r="AQ31" t="s">
         <v>165</v>
       </c>
       <c r="AR31" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>211</v>
       </c>
       <c r="AU31" t="s">
-        <v>443</v>
+        <v>808</v>
       </c>
       <c r="AV31" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="AW31" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX31" s="4" t="s">
-        <v>444</v>
+        <v>207</v>
+      </c>
+      <c r="AX31" s="13" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9055,7 +9069,7 @@
         <v>72</v>
       </c>
       <c r="Z32" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AA32">
         <v>3</v>
@@ -9088,11 +9102,14 @@
       <c r="AL32" t="s">
         <v>442</v>
       </c>
-      <c r="AM32" s="4" t="s">
+      <c r="AM32" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="AO32" s="4" t="s">
-        <v>445</v>
+      <c r="AO32" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>806</v>
       </c>
       <c r="AQ32" t="s">
         <v>165</v>
@@ -9104,7 +9121,7 @@
         <v>211</v>
       </c>
       <c r="AU32" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AV32" t="s">
         <v>213</v>
@@ -9112,8 +9129,8 @@
       <c r="AW32" t="s">
         <v>208</v>
       </c>
-      <c r="AX32" s="4" t="s">
-        <v>446</v>
+      <c r="AX32" s="13" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="33" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9187,7 +9204,7 @@
         <v>72</v>
       </c>
       <c r="Z33" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AA33">
         <v>3</v>
@@ -9220,29 +9237,35 @@
       <c r="AL33" t="s">
         <v>442</v>
       </c>
-      <c r="AM33" s="4" t="s">
+      <c r="AM33" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="AO33" s="4" t="s">
-        <v>672</v>
+      <c r="AO33" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>806</v>
       </c>
       <c r="AQ33" t="s">
         <v>165</v>
       </c>
       <c r="AR33" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>211</v>
       </c>
       <c r="AU33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AV33" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AW33" t="s">
         <v>208</v>
       </c>
-      <c r="AX33" s="4" t="s">
-        <v>449</v>
+      <c r="AX33" s="13" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9316,7 +9339,7 @@
         <v>72</v>
       </c>
       <c r="Z34" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AA34">
         <v>3</v>
@@ -9349,11 +9372,14 @@
       <c r="AL34" t="s">
         <v>442</v>
       </c>
-      <c r="AM34" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO34" s="4" t="s">
-        <v>445</v>
+      <c r="AM34" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO34" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>806</v>
       </c>
       <c r="AQ34" t="s">
         <v>165</v>
@@ -9365,16 +9391,16 @@
         <v>211</v>
       </c>
       <c r="AU34" t="s">
-        <v>450</v>
+        <v>815</v>
       </c>
       <c r="AV34" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="AW34" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX34" s="4" t="s">
-        <v>451</v>
+        <v>207</v>
+      </c>
+      <c r="AX34" s="13" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9448,7 +9474,7 @@
         <v>72</v>
       </c>
       <c r="Z35" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AA35">
         <v>3</v>
@@ -9481,29 +9507,35 @@
       <c r="AL35" t="s">
         <v>442</v>
       </c>
-      <c r="AM35" s="4" t="s">
+      <c r="AM35" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="AO35" s="4" t="s">
-        <v>452</v>
+      <c r="AO35" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>806</v>
       </c>
       <c r="AQ35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR35" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>810</v>
       </c>
       <c r="AU35" t="s">
-        <v>453</v>
+        <v>808</v>
       </c>
       <c r="AV35" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AW35" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX35" s="4" t="s">
-        <v>454</v>
+        <v>207</v>
+      </c>
+      <c r="AX35" s="13" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9577,7 +9609,7 @@
         <v>72</v>
       </c>
       <c r="Z36" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AA36">
         <v>3</v>
@@ -9610,73 +9642,76 @@
       <c r="AL36" t="s">
         <v>442</v>
       </c>
-      <c r="AM36" s="4" t="s">
+      <c r="AM36" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="AO36" s="4" t="s">
+      <c r="AO36" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>806</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>810</v>
+      </c>
+      <c r="AU36" t="s">
         <v>445</v>
       </c>
-      <c r="AQ36" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>211</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>453</v>
-      </c>
       <c r="AV36" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AW36" t="s">
         <v>208</v>
       </c>
-      <c r="AX36" s="4" t="s">
-        <v>455</v>
+      <c r="AX36" s="13" t="s">
+        <v>812</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="B37" t="s">
         <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D37" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F37" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="G37" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="H37" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I37" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="J37" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="K37" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="L37" t="s">
         <v>248</v>
       </c>
       <c r="M37" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="N37" t="s">
         <v>251</v>
@@ -9685,126 +9720,133 @@
         <v>252</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q37" t="s">
         <v>21</v>
       </c>
       <c r="S37" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s">
         <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W37" t="s">
         <v>55</v>
       </c>
       <c r="X37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC37">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="4" t="s">
-        <v>466</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE37" s="4"/>
       <c r="AF37" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH37" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>150</v>
       </c>
       <c r="AL37" t="s">
-        <v>467</v>
-      </c>
-      <c r="AM37" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO37" s="4" t="s">
-        <v>468</v>
+        <v>442</v>
+      </c>
+      <c r="AM37" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO37" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>806</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
       </c>
       <c r="AR37" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>181</v>
+        <v>171</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>810</v>
       </c>
       <c r="AU37" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="AV37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AW37" t="s">
         <v>208</v>
       </c>
-      <c r="AX37" s="4" t="s">
-        <v>470</v>
+      <c r="AX37" s="13" t="s">
+        <v>813</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="B38" t="s">
         <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D38" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E38">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F38" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="G38" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="H38" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I38" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="J38" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="K38" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="L38" t="s">
         <v>248</v>
       </c>
       <c r="M38" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="N38" t="s">
         <v>251</v>
@@ -9813,123 +9855,130 @@
         <v>252</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q38" t="s">
         <v>21</v>
       </c>
       <c r="S38" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s">
         <v>55</v>
       </c>
       <c r="V38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W38" t="s">
         <v>55</v>
       </c>
       <c r="X38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC38">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="4" t="s">
-        <v>807</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE38" s="4"/>
       <c r="AF38" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH38" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>150</v>
       </c>
       <c r="AL38" t="s">
-        <v>471</v>
-      </c>
-      <c r="AM38" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO38" s="4" t="s">
-        <v>468</v>
+        <v>442</v>
+      </c>
+      <c r="AM38" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO38" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>806</v>
       </c>
       <c r="AQ38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR38" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="AU38" t="s">
-        <v>469</v>
+        <v>808</v>
       </c>
       <c r="AV38" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AW38" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX38" s="4" t="s">
-        <v>470</v>
+        <v>207</v>
+      </c>
+      <c r="AX38" s="13" t="s">
+        <v>814</v>
       </c>
     </row>
-    <row r="39" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B39" t="s">
         <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D39" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E39">
         <v>2010</v>
       </c>
       <c r="F39" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G39" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H39" t="s">
         <v>406</v>
       </c>
       <c r="I39" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="J39" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="K39" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L39" t="s">
         <v>248</v>
       </c>
       <c r="M39" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="N39" t="s">
         <v>251</v>
@@ -9962,7 +10011,7 @@
         <v>75</v>
       </c>
       <c r="Z39" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AA39">
         <v>1</v>
@@ -9974,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>808</v>
+        <v>457</v>
       </c>
       <c r="AF39" t="s">
         <v>275</v>
@@ -9986,7 +10035,7 @@
         <v>124</v>
       </c>
       <c r="AL39" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="AM39" s="4" t="s">
         <v>232</v>
@@ -9995,19 +10044,19 @@
         <v>160</v>
       </c>
       <c r="AO39" s="4" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
       </c>
       <c r="AR39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS39" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AU39" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AV39" t="s">
         <v>203</v>
@@ -10016,48 +10065,48 @@
         <v>208</v>
       </c>
       <c r="AX39" s="4" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="40" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="B40" t="s">
         <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="D40" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="E40">
         <v>2010</v>
       </c>
       <c r="F40" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="G40" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="H40" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="I40" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="J40" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="K40" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="L40" t="s">
         <v>248</v>
       </c>
       <c r="M40" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="N40" t="s">
         <v>251</v>
@@ -10072,7 +10121,7 @@
         <v>21</v>
       </c>
       <c r="S40" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T40" t="s">
         <v>45</v>
@@ -10081,19 +10130,19 @@
         <v>55</v>
       </c>
       <c r="V40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W40" t="s">
         <v>55</v>
       </c>
       <c r="X40" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="AA40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>2</v>
@@ -10102,87 +10151,87 @@
         <v>1</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>481</v>
+        <v>797</v>
       </c>
       <c r="AF40" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="AG40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH40" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="AL40" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AM40" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO40" s="4" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="AQ40" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>239</v>
       </c>
       <c r="AU40" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="AV40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AW40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX40" s="4" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="41" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="B41" t="s">
         <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="D41" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="E41">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F41" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="G41" t="s">
-        <v>280</v>
+        <v>451</v>
       </c>
       <c r="H41" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="I41" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="J41" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="K41" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="L41" t="s">
         <v>248</v>
       </c>
       <c r="M41" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="N41" t="s">
         <v>251</v>
@@ -10197,7 +10246,7 @@
         <v>21</v>
       </c>
       <c r="S41" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="T41" t="s">
         <v>45</v>
@@ -10206,19 +10255,19 @@
         <v>55</v>
       </c>
       <c r="V41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W41" t="s">
         <v>55</v>
       </c>
       <c r="X41" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="AA41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>2</v>
@@ -10227,34 +10276,28 @@
         <v>1</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>495</v>
+        <v>798</v>
       </c>
       <c r="AF41" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="AL41" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="AM41" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO41" s="4" t="s">
-        <v>162</v>
+        <v>459</v>
       </c>
       <c r="AQ41" t="s">
         <v>164</v>
@@ -10263,63 +10306,60 @@
         <v>170</v>
       </c>
       <c r="AS41" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>497</v>
+        <v>189</v>
       </c>
       <c r="AU41" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="AV41" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW41" t="s">
         <v>208</v>
       </c>
       <c r="AX41" s="4" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="B42" t="s">
         <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="D42" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="E42">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F42" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="G42" t="s">
-        <v>280</v>
+        <v>467</v>
       </c>
       <c r="H42" t="s">
         <v>297</v>
       </c>
       <c r="I42" t="s">
-        <v>490</v>
+        <v>383</v>
       </c>
       <c r="J42" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="K42" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="L42" t="s">
         <v>248</v>
       </c>
       <c r="M42" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="N42" t="s">
         <v>251</v>
@@ -10334,7 +10374,7 @@
         <v>21</v>
       </c>
       <c r="S42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T42" t="s">
         <v>45</v>
@@ -10343,16 +10383,16 @@
         <v>55</v>
       </c>
       <c r="V42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W42" t="s">
         <v>55</v>
       </c>
       <c r="X42" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z42" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="AA42">
         <v>2</v>
@@ -10364,96 +10404,87 @@
         <v>1</v>
       </c>
       <c r="AE42" s="4" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="AF42" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AG42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH42" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI42" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AL42" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="AM42" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO42" s="4" t="s">
-        <v>162</v>
+        <v>474</v>
       </c>
       <c r="AQ42" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>497</v>
+        <v>150</v>
       </c>
       <c r="AU42" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="AV42" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AW42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX42" s="4" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="43" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="B43" t="s">
         <v>243</v>
       </c>
       <c r="C43" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="D43" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="E43">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F43" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="G43" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="H43" t="s">
-        <v>506</v>
+        <v>297</v>
       </c>
       <c r="I43" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="J43" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="K43" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="L43" t="s">
         <v>248</v>
       </c>
       <c r="M43" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="N43" t="s">
         <v>251</v>
@@ -10462,83 +10493,159 @@
         <v>252</v>
       </c>
       <c r="P43" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q43" t="s">
         <v>21</v>
       </c>
-      <c r="R43" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE43" s="4"/>
+      <c r="S43" t="s">
+        <v>35</v>
+      </c>
+      <c r="T43" t="s">
+        <v>45</v>
+      </c>
+      <c r="U43" t="s">
+        <v>55</v>
+      </c>
+      <c r="V43" t="s">
+        <v>44</v>
+      </c>
+      <c r="W43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X43" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>2</v>
+      </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="4" t="s">
+        <v>486</v>
+      </c>
       <c r="AF43" t="s">
         <v>267</v>
       </c>
-      <c r="AX43" s="4"/>
+      <c r="AG43" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>487</v>
+      </c>
+      <c r="AM43" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO43" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>488</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>489</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX43" s="4" t="s">
+        <v>490</v>
+      </c>
     </row>
-    <row r="44" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="B44" t="s">
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="D44" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="E44">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F44" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="G44" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H44" t="s">
-        <v>515</v>
+        <v>297</v>
       </c>
       <c r="I44" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="J44" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="K44" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="L44" t="s">
         <v>248</v>
       </c>
       <c r="M44" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="N44" t="s">
         <v>251</v>
       </c>
       <c r="O44" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P44" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="Q44" t="s">
         <v>21</v>
       </c>
       <c r="S44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T44" t="s">
         <v>45</v>
       </c>
       <c r="U44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W44" t="s">
         <v>55</v>
@@ -10547,7 +10654,7 @@
         <v>69</v>
       </c>
       <c r="Z44" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -10556,221 +10663,166 @@
         <v>2</v>
       </c>
       <c r="AC44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE44" s="4" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="AF44" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AG44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH44" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI44" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AL44" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="AM44" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO44" s="4" t="s">
-        <v>483</v>
+        <v>162</v>
       </c>
       <c r="AQ44" t="s">
-        <v>809</v>
+        <v>164</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>488</v>
       </c>
       <c r="AU44" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="AV44" t="s">
         <v>199</v>
       </c>
       <c r="AW44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX44" s="4" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="45" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B45" t="s">
         <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="D45" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="E45">
         <v>2008</v>
       </c>
       <c r="F45" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="G45" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="H45" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="I45" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="J45" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="K45" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="L45" t="s">
         <v>248</v>
       </c>
       <c r="M45" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="N45" t="s">
         <v>251</v>
       </c>
       <c r="O45" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P45" t="s">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="Q45" t="s">
         <v>21</v>
       </c>
-      <c r="S45" t="s">
-        <v>31</v>
-      </c>
-      <c r="T45" t="s">
-        <v>45</v>
-      </c>
-      <c r="U45" t="s">
-        <v>56</v>
-      </c>
-      <c r="V45" t="s">
-        <v>41</v>
-      </c>
-      <c r="W45" t="s">
-        <v>55</v>
-      </c>
-      <c r="X45" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>521</v>
-      </c>
-      <c r="AA45">
-        <v>2</v>
-      </c>
-      <c r="AB45">
-        <v>2</v>
-      </c>
-      <c r="AC45">
-        <v>2</v>
-      </c>
-      <c r="AE45" s="4" t="s">
-        <v>522</v>
-      </c>
+      <c r="R45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE45" s="4"/>
       <c r="AF45" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>526</v>
-      </c>
-      <c r="AM45" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO45" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="AQ45" t="s">
-        <v>809</v>
-      </c>
-      <c r="AU45" t="s">
-        <v>524</v>
-      </c>
-      <c r="AV45" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW45" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX45" s="4" t="s">
-        <v>527</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AX45" s="4"/>
     </row>
-    <row r="46" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B46" t="s">
         <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D46" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E46">
         <v>2008</v>
       </c>
       <c r="F46" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G46" t="s">
         <v>296</v>
       </c>
       <c r="H46" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="I46" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J46" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K46" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L46" t="s">
         <v>248</v>
       </c>
       <c r="M46" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N46" t="s">
         <v>251</v>
       </c>
       <c r="O46" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="P46" t="s">
         <v>334</v>
@@ -10797,7 +10849,7 @@
         <v>69</v>
       </c>
       <c r="Z46" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="AA46">
         <v>2</v>
@@ -10809,7 +10861,7 @@
         <v>2</v>
       </c>
       <c r="AE46" s="4" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AF46" t="s">
         <v>275</v>
@@ -10824,7 +10876,7 @@
         <v>144</v>
       </c>
       <c r="AL46" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AM46" s="4" t="s">
         <v>232</v>
@@ -10833,69 +10885,69 @@
         <v>160</v>
       </c>
       <c r="AO46" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ46" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="AU46" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="AV46" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW46" t="s">
         <v>207</v>
       </c>
       <c r="AX46" s="4" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="47" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B47" t="s">
         <v>243</v>
       </c>
       <c r="C47" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D47" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E47">
         <v>2008</v>
       </c>
       <c r="F47" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G47" t="s">
         <v>296</v>
       </c>
       <c r="H47" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="I47" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J47" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K47" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L47" t="s">
         <v>248</v>
       </c>
       <c r="M47" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N47" t="s">
         <v>251</v>
       </c>
       <c r="O47" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="P47" t="s">
         <v>334</v>
@@ -10922,7 +10974,7 @@
         <v>69</v>
       </c>
       <c r="Z47" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -10934,7 +10986,7 @@
         <v>2</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AF47" t="s">
         <v>275</v>
@@ -10949,7 +11001,7 @@
         <v>144</v>
       </c>
       <c r="AL47" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AM47" s="4" t="s">
         <v>232</v>
@@ -10958,69 +11010,69 @@
         <v>162</v>
       </c>
       <c r="AO47" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ47" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="AU47" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="AV47" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW47" t="s">
         <v>207</v>
       </c>
       <c r="AX47" s="4" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="48" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B48" t="s">
         <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D48" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E48">
         <v>2008</v>
       </c>
       <c r="F48" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G48" t="s">
         <v>296</v>
       </c>
       <c r="H48" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="I48" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J48" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K48" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L48" t="s">
         <v>248</v>
       </c>
       <c r="M48" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N48" t="s">
         <v>251</v>
       </c>
       <c r="O48" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="P48" t="s">
         <v>334</v>
@@ -11041,13 +11093,13 @@
         <v>41</v>
       </c>
       <c r="W48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z48" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -11059,7 +11111,7 @@
         <v>2</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AF48" t="s">
         <v>275</v>
@@ -11074,7 +11126,7 @@
         <v>144</v>
       </c>
       <c r="AL48" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AM48" s="4" t="s">
         <v>232</v>
@@ -11083,69 +11135,69 @@
         <v>160</v>
       </c>
       <c r="AO48" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ48" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="AU48" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AV48" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW48" t="s">
         <v>207</v>
       </c>
       <c r="AX48" s="4" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B49" t="s">
         <v>243</v>
       </c>
       <c r="C49" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D49" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E49">
         <v>2008</v>
       </c>
       <c r="F49" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G49" t="s">
         <v>296</v>
       </c>
       <c r="H49" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="I49" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J49" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K49" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L49" t="s">
         <v>248</v>
       </c>
       <c r="M49" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N49" t="s">
         <v>251</v>
       </c>
       <c r="O49" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="P49" t="s">
         <v>334</v>
@@ -11166,13 +11218,13 @@
         <v>41</v>
       </c>
       <c r="W49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z49" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -11184,7 +11236,7 @@
         <v>2</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AF49" t="s">
         <v>275</v>
@@ -11199,7 +11251,7 @@
         <v>144</v>
       </c>
       <c r="AL49" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AM49" s="4" t="s">
         <v>232</v>
@@ -11208,69 +11260,69 @@
         <v>162</v>
       </c>
       <c r="AO49" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ49" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="AU49" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AV49" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW49" t="s">
         <v>207</v>
       </c>
       <c r="AX49" s="4" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B50" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D50" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E50">
         <v>2008</v>
       </c>
       <c r="F50" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G50" t="s">
         <v>296</v>
       </c>
       <c r="H50" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="I50" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J50" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K50" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L50" t="s">
         <v>248</v>
       </c>
       <c r="M50" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N50" t="s">
         <v>251</v>
       </c>
       <c r="O50" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="P50" t="s">
         <v>334</v>
@@ -11297,7 +11349,7 @@
         <v>72</v>
       </c>
       <c r="Z50" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AA50">
         <v>2</v>
@@ -11309,7 +11361,7 @@
         <v>2</v>
       </c>
       <c r="AE50" s="4" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AF50" t="s">
         <v>275</v>
@@ -11324,7 +11376,7 @@
         <v>144</v>
       </c>
       <c r="AL50" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AM50" s="4" t="s">
         <v>232</v>
@@ -11333,69 +11385,69 @@
         <v>160</v>
       </c>
       <c r="AO50" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ50" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="AU50" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="AV50" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW50" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX50" s="4" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B51" t="s">
         <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D51" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E51">
         <v>2008</v>
       </c>
       <c r="F51" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G51" t="s">
         <v>296</v>
       </c>
       <c r="H51" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="I51" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="J51" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K51" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L51" t="s">
         <v>248</v>
       </c>
       <c r="M51" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N51" t="s">
         <v>251</v>
       </c>
       <c r="O51" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="P51" t="s">
         <v>334</v>
@@ -11422,7 +11474,7 @@
         <v>72</v>
       </c>
       <c r="Z51" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AA51">
         <v>2</v>
@@ -11434,7 +11486,7 @@
         <v>2</v>
       </c>
       <c r="AE51" s="4" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AF51" t="s">
         <v>275</v>
@@ -11449,7 +11501,7 @@
         <v>144</v>
       </c>
       <c r="AL51" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AM51" s="4" t="s">
         <v>232</v>
@@ -11458,313 +11510,313 @@
         <v>162</v>
       </c>
       <c r="AO51" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ51" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="AU51" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="AV51" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX51" s="4" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="B52" t="s">
         <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="D52" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="E52">
         <v>2008</v>
       </c>
       <c r="F52" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="G52" t="s">
-        <v>537</v>
+        <v>296</v>
       </c>
       <c r="H52" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="I52" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="J52" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="K52" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="L52" t="s">
         <v>248</v>
       </c>
       <c r="M52" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="N52" t="s">
         <v>251</v>
       </c>
       <c r="O52" t="s">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="P52" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q52" t="s">
         <v>21</v>
       </c>
       <c r="S52" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V52" t="s">
         <v>41</v>
       </c>
       <c r="W52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X52" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z52" t="s">
-        <v>543</v>
+        <v>444</v>
       </c>
       <c r="AA52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE52" s="4" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="AF52" t="s">
         <v>275</v>
       </c>
       <c r="AG52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH52" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI52" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AL52" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="AM52" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO52" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ52" t="s">
-        <v>164</v>
+        <v>799</v>
       </c>
       <c r="AU52" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="AV52" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW52" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX52" s="4" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="B53" t="s">
         <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="D53" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="E53">
         <v>2008</v>
       </c>
       <c r="F53" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="G53" t="s">
-        <v>537</v>
+        <v>296</v>
       </c>
       <c r="H53" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="I53" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="J53" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="K53" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="L53" t="s">
         <v>248</v>
       </c>
       <c r="M53" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="N53" t="s">
         <v>251</v>
       </c>
       <c r="O53" t="s">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="P53" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q53" t="s">
         <v>21</v>
       </c>
       <c r="S53" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V53" t="s">
         <v>41</v>
       </c>
       <c r="W53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X53" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z53" t="s">
-        <v>543</v>
+        <v>444</v>
       </c>
       <c r="AA53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE53" s="4" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="AF53" t="s">
         <v>275</v>
       </c>
       <c r="AG53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH53" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL53" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="AM53" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO53" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ53" t="s">
-        <v>164</v>
+        <v>799</v>
       </c>
       <c r="AU53" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="AV53" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX53" s="4" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B54" t="s">
         <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D54" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E54">
         <v>2008</v>
       </c>
       <c r="F54" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G54" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H54" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="I54" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="J54" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="K54" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="L54" t="s">
         <v>248</v>
       </c>
       <c r="M54" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="N54" t="s">
         <v>251</v>
@@ -11797,7 +11849,7 @@
         <v>215</v>
       </c>
       <c r="Z54" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="AA54">
         <v>3</v>
@@ -11806,9 +11858,11 @@
         <v>3</v>
       </c>
       <c r="AC54">
-        <v>2</v>
-      </c>
-      <c r="AE54" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="AF54" t="s">
         <v>275</v>
       </c>
@@ -11816,28 +11870,28 @@
         <v>110</v>
       </c>
       <c r="AH54" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI54" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AL54" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="AM54" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO54" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ54" t="s">
         <v>164</v>
       </c>
       <c r="AU54" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="AV54" t="s">
         <v>199</v>
@@ -11846,48 +11900,48 @@
         <v>207</v>
       </c>
       <c r="AX54" s="4" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B55" t="s">
         <v>243</v>
       </c>
       <c r="C55" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D55" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E55">
         <v>2008</v>
       </c>
       <c r="F55" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G55" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H55" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="I55" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="J55" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="K55" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="L55" t="s">
         <v>248</v>
       </c>
       <c r="M55" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="N55" t="s">
         <v>251</v>
@@ -11920,7 +11974,7 @@
         <v>215</v>
       </c>
       <c r="Z55" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="AA55">
         <v>3</v>
@@ -11929,9 +11983,11 @@
         <v>3</v>
       </c>
       <c r="AC55">
-        <v>2</v>
-      </c>
-      <c r="AE55" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE55" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="AF55" t="s">
         <v>275</v>
       </c>
@@ -11939,28 +11995,28 @@
         <v>110</v>
       </c>
       <c r="AH55" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI55" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AL55" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="AM55" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO55" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ55" t="s">
         <v>164</v>
       </c>
       <c r="AU55" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="AV55" t="s">
         <v>199</v>
@@ -11969,48 +12025,48 @@
         <v>207</v>
       </c>
       <c r="AX55" s="4" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B56" t="s">
         <v>243</v>
       </c>
       <c r="C56" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D56" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E56">
         <v>2008</v>
       </c>
       <c r="F56" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G56" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H56" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="I56" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="J56" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="K56" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="L56" t="s">
         <v>248</v>
       </c>
       <c r="M56" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="N56" t="s">
         <v>251</v>
@@ -12043,7 +12099,7 @@
         <v>215</v>
       </c>
       <c r="Z56" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="AA56">
         <v>3</v>
@@ -12062,34 +12118,28 @@
         <v>110</v>
       </c>
       <c r="AH56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI56" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL56" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="AM56" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO56" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ56" t="s">
         <v>164</v>
       </c>
       <c r="AU56" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="AV56" t="s">
         <v>199</v>
@@ -12098,48 +12148,48 @@
         <v>207</v>
       </c>
       <c r="AX56" s="4" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B57" t="s">
         <v>243</v>
       </c>
       <c r="C57" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D57" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E57">
         <v>2008</v>
       </c>
       <c r="F57" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G57" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H57" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="I57" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="J57" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="K57" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="L57" t="s">
         <v>248</v>
       </c>
       <c r="M57" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="N57" t="s">
         <v>251</v>
@@ -12172,7 +12222,7 @@
         <v>215</v>
       </c>
       <c r="Z57" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="AA57">
         <v>3</v>
@@ -12191,78 +12241,78 @@
         <v>110</v>
       </c>
       <c r="AH57" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI57" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AL57" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AM57" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO57" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ57" t="s">
         <v>164</v>
       </c>
       <c r="AU57" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="AV57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW57" t="s">
         <v>207</v>
       </c>
       <c r="AX57" s="4" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B58" t="s">
         <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D58" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
       <c r="F58" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G58" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H58" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="I58" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="J58" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="K58" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="L58" t="s">
         <v>248</v>
       </c>
       <c r="M58" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="N58" t="s">
         <v>251</v>
@@ -12295,7 +12345,7 @@
         <v>215</v>
       </c>
       <c r="Z58" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="AA58">
         <v>3</v>
@@ -12314,10 +12364,16 @@
         <v>110</v>
       </c>
       <c r="AH58" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI58" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>150</v>
       </c>
       <c r="AL58" t="s">
         <v>545</v>
@@ -12329,63 +12385,63 @@
         <v>161</v>
       </c>
       <c r="AO58" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AQ58" t="s">
         <v>164</v>
       </c>
       <c r="AU58" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="AV58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW58" t="s">
         <v>207</v>
       </c>
       <c r="AX58" s="4" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="B59" t="s">
         <v>243</v>
       </c>
       <c r="C59" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="D59" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="E59">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F59" t="s">
-        <v>346</v>
+        <v>527</v>
       </c>
       <c r="G59" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="H59" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="I59" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="J59" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="K59" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="L59" t="s">
         <v>248</v>
       </c>
       <c r="M59" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="N59" t="s">
         <v>251</v>
@@ -12400,7 +12456,7 @@
         <v>21</v>
       </c>
       <c r="S59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T59" t="s">
         <v>46</v>
@@ -12409,22 +12465,22 @@
         <v>59</v>
       </c>
       <c r="V59" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W59" t="s">
         <v>55</v>
       </c>
       <c r="X59" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z59" t="s">
-        <v>663</v>
+        <v>547</v>
       </c>
       <c r="AA59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC59">
         <v>2</v>
@@ -12434,87 +12490,81 @@
         <v>275</v>
       </c>
       <c r="AG59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH59" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI59" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AL59" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM59" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AM59" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO59" s="4" t="s">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="AQ59" t="s">
         <v>164</v>
       </c>
-      <c r="AR59" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS59" t="s">
-        <v>175</v>
-      </c>
       <c r="AU59" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="AV59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX59" s="4" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="B60" t="s">
         <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="D60" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="E60">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F60" t="s">
-        <v>346</v>
+        <v>527</v>
       </c>
       <c r="G60" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="H60" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="I60" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="J60" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="K60" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="L60" t="s">
         <v>248</v>
       </c>
       <c r="M60" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="N60" t="s">
         <v>251</v>
@@ -12529,7 +12579,7 @@
         <v>21</v>
       </c>
       <c r="S60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T60" t="s">
         <v>46</v>
@@ -12538,22 +12588,22 @@
         <v>59</v>
       </c>
       <c r="V60" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W60" t="s">
         <v>55</v>
       </c>
       <c r="X60" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z60" t="s">
-        <v>663</v>
+        <v>547</v>
       </c>
       <c r="AA60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC60">
         <v>2</v>
@@ -12563,81 +12613,81 @@
         <v>275</v>
       </c>
       <c r="AG60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH60" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL60" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM60" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AM60" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO60" s="4" t="s">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="AQ60" t="s">
         <v>164</v>
       </c>
-      <c r="AR60" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS60" t="s">
-        <v>176</v>
-      </c>
       <c r="AU60" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="AV60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX60" s="4" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>655</v>
+        <v>550</v>
       </c>
       <c r="B61" t="s">
         <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>656</v>
+        <v>551</v>
       </c>
       <c r="D61" t="s">
-        <v>657</v>
+        <v>552</v>
       </c>
       <c r="E61">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F61" t="s">
-        <v>434</v>
-      </c>
-      <c r="G61">
-        <v>318</v>
-      </c>
-      <c r="I61">
-        <v>31</v>
-      </c>
-      <c r="J61">
-        <v>45</v>
+        <v>346</v>
+      </c>
+      <c r="G61" t="s">
+        <v>553</v>
+      </c>
+      <c r="H61" t="s">
+        <v>497</v>
+      </c>
+      <c r="I61" t="s">
+        <v>554</v>
+      </c>
+      <c r="J61" t="s">
+        <v>555</v>
       </c>
       <c r="K61" t="s">
-        <v>658</v>
+        <v>556</v>
+      </c>
+      <c r="L61" t="s">
+        <v>248</v>
       </c>
       <c r="M61" t="s">
-        <v>659</v>
+        <v>557</v>
       </c>
       <c r="N61" t="s">
         <v>251</v>
@@ -12646,7 +12696,7 @@
         <v>252</v>
       </c>
       <c r="P61" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q61" t="s">
         <v>21</v>
@@ -12658,56 +12708,53 @@
         <v>46</v>
       </c>
       <c r="U61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X61" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z61" s="4" t="s">
-        <v>664</v>
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>654</v>
       </c>
       <c r="AA61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE61" s="4"/>
-      <c r="AF61" s="11">
-        <v>4.3</v>
+      <c r="AF61" t="s">
+        <v>275</v>
       </c>
       <c r="AG61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI61" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AL61" t="s">
-        <v>681</v>
-      </c>
-      <c r="AM61" s="4" t="s">
-        <v>233</v>
+        <v>558</v>
+      </c>
+      <c r="AM61" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>162</v>
       </c>
       <c r="AO61" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AQ61" t="s">
         <v>164</v>
@@ -12719,51 +12766,57 @@
         <v>175</v>
       </c>
       <c r="AU61" t="s">
-        <v>661</v>
+        <v>559</v>
       </c>
       <c r="AV61" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX61" s="4" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="62" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>655</v>
+        <v>550</v>
       </c>
       <c r="B62" t="s">
         <v>243</v>
       </c>
       <c r="C62" t="s">
-        <v>656</v>
+        <v>551</v>
       </c>
       <c r="D62" t="s">
-        <v>657</v>
+        <v>552</v>
       </c>
       <c r="E62">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F62" t="s">
-        <v>434</v>
-      </c>
-      <c r="G62">
-        <v>318</v>
-      </c>
-      <c r="I62">
-        <v>31</v>
-      </c>
-      <c r="J62">
-        <v>45</v>
+        <v>346</v>
+      </c>
+      <c r="G62" t="s">
+        <v>553</v>
+      </c>
+      <c r="H62" t="s">
+        <v>497</v>
+      </c>
+      <c r="I62" t="s">
+        <v>554</v>
+      </c>
+      <c r="J62" t="s">
+        <v>555</v>
       </c>
       <c r="K62" t="s">
-        <v>658</v>
+        <v>556</v>
+      </c>
+      <c r="L62" t="s">
+        <v>248</v>
       </c>
       <c r="M62" t="s">
-        <v>659</v>
+        <v>557</v>
       </c>
       <c r="N62" t="s">
         <v>251</v>
@@ -12772,7 +12825,7 @@
         <v>252</v>
       </c>
       <c r="P62" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q62" t="s">
         <v>21</v>
@@ -12784,56 +12837,53 @@
         <v>46</v>
       </c>
       <c r="U62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V62" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X62" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z62" s="4" t="s">
-        <v>664</v>
+        <v>80</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>654</v>
       </c>
       <c r="AA62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE62" s="4"/>
-      <c r="AF62" s="11">
-        <v>4.3</v>
+      <c r="AF62" t="s">
+        <v>275</v>
       </c>
       <c r="AG62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI62" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AL62" t="s">
-        <v>680</v>
-      </c>
-      <c r="AM62" s="4" t="s">
-        <v>233</v>
+        <v>558</v>
+      </c>
+      <c r="AM62" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>162</v>
       </c>
       <c r="AO62" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AQ62" t="s">
         <v>164</v>
@@ -12842,33 +12892,33 @@
         <v>239</v>
       </c>
       <c r="AS62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU62" t="s">
-        <v>661</v>
+        <v>559</v>
       </c>
       <c r="AV62" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX62" s="4" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="63" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B63" t="s">
         <v>243</v>
       </c>
       <c r="C63" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D63" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E63">
         <v>2006</v>
@@ -12886,10 +12936,10 @@
         <v>45</v>
       </c>
       <c r="K63" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="M63" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="N63" t="s">
         <v>251</v>
@@ -12922,7 +12972,7 @@
         <v>216</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="AA63">
         <v>3</v>
@@ -12944,7 +12994,7 @@
         <v>120</v>
       </c>
       <c r="AI63" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AJ63" t="s">
         <v>113</v>
@@ -12953,13 +13003,13 @@
         <v>148</v>
       </c>
       <c r="AL63" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="AM63" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO63" s="4" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="AQ63" t="s">
         <v>164</v>
@@ -12968,10 +13018,10 @@
         <v>239</v>
       </c>
       <c r="AS63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU63" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="AV63" t="s">
         <v>206</v>
@@ -12980,21 +13030,21 @@
         <v>209</v>
       </c>
       <c r="AX63" s="4" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
-    <row r="64" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B64" t="s">
         <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D64" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E64">
         <v>2006</v>
@@ -13012,10 +13062,10 @@
         <v>45</v>
       </c>
       <c r="K64" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="M64" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="N64" t="s">
         <v>251</v>
@@ -13048,7 +13098,7 @@
         <v>216</v>
       </c>
       <c r="Z64" s="4" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="AA64">
         <v>3</v>
@@ -13070,7 +13120,7 @@
         <v>120</v>
       </c>
       <c r="AI64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AJ64" t="s">
         <v>113</v>
@@ -13079,13 +13129,13 @@
         <v>148</v>
       </c>
       <c r="AL64" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="AM64" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO64" s="4" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="AQ64" t="s">
         <v>164</v>
@@ -13094,10 +13144,10 @@
         <v>239</v>
       </c>
       <c r="AS64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU64" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="AV64" t="s">
         <v>206</v>
@@ -13106,48 +13156,42 @@
         <v>209</v>
       </c>
       <c r="AX64" s="4" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
-    <row r="65" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="B65" t="s">
         <v>243</v>
       </c>
       <c r="C65" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="D65" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F65" t="s">
-        <v>573</v>
-      </c>
-      <c r="G65" t="s">
-        <v>574</v>
-      </c>
-      <c r="H65" t="s">
-        <v>280</v>
-      </c>
-      <c r="I65" t="s">
-        <v>575</v>
-      </c>
-      <c r="J65" t="s">
-        <v>576</v>
+        <v>434</v>
+      </c>
+      <c r="G65">
+        <v>318</v>
+      </c>
+      <c r="I65">
+        <v>31</v>
+      </c>
+      <c r="J65">
+        <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>577</v>
-      </c>
-      <c r="L65" t="s">
-        <v>248</v>
+        <v>649</v>
       </c>
       <c r="M65" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="N65" t="s">
         <v>251</v>
@@ -13156,31 +13200,31 @@
         <v>252</v>
       </c>
       <c r="P65" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q65" t="s">
         <v>21</v>
       </c>
       <c r="S65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T65" t="s">
+        <v>46</v>
+      </c>
+      <c r="U65" t="s">
+        <v>57</v>
+      </c>
+      <c r="V65" t="s">
         <v>41</v>
       </c>
-      <c r="U65" t="s">
-        <v>52</v>
-      </c>
-      <c r="V65" t="s">
-        <v>44</v>
-      </c>
       <c r="W65" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X65" t="s">
         <v>216</v>
       </c>
       <c r="Z65" s="4" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="AA65">
         <v>3</v>
@@ -13192,94 +13236,88 @@
         <v>3</v>
       </c>
       <c r="AE65" s="4"/>
-      <c r="AF65" t="s">
-        <v>335</v>
+      <c r="AF65" s="11">
+        <v>4.3</v>
       </c>
       <c r="AG65" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH65" t="s">
         <v>120</v>
       </c>
       <c r="AI65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AJ65" t="s">
         <v>113</v>
       </c>
       <c r="AK65" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL65" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AM65" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO65" s="4" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="AQ65" t="s">
         <v>164</v>
       </c>
       <c r="AR65" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AU65" t="s">
-        <v>524</v>
+        <v>652</v>
       </c>
       <c r="AV65" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX65" s="4" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
-    <row r="66" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="B66" t="s">
         <v>243</v>
       </c>
       <c r="C66" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="D66" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
       <c r="E66">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F66" t="s">
-        <v>573</v>
-      </c>
-      <c r="G66" t="s">
-        <v>574</v>
-      </c>
-      <c r="H66" t="s">
-        <v>280</v>
-      </c>
-      <c r="I66" t="s">
-        <v>575</v>
-      </c>
-      <c r="J66" t="s">
-        <v>576</v>
+        <v>434</v>
+      </c>
+      <c r="G66">
+        <v>318</v>
+      </c>
+      <c r="I66">
+        <v>31</v>
+      </c>
+      <c r="J66">
+        <v>45</v>
       </c>
       <c r="K66" t="s">
-        <v>577</v>
-      </c>
-      <c r="L66" t="s">
-        <v>248</v>
+        <v>649</v>
       </c>
       <c r="M66" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="N66" t="s">
         <v>251</v>
@@ -13288,31 +13326,31 @@
         <v>252</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q66" t="s">
         <v>21</v>
       </c>
       <c r="S66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T66" t="s">
+        <v>46</v>
+      </c>
+      <c r="U66" t="s">
+        <v>57</v>
+      </c>
+      <c r="V66" t="s">
         <v>41</v>
       </c>
-      <c r="U66" t="s">
-        <v>52</v>
-      </c>
-      <c r="V66" t="s">
-        <v>44</v>
-      </c>
       <c r="W66" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X66" t="s">
         <v>216</v>
       </c>
       <c r="Z66" s="4" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="AA66">
         <v>3</v>
@@ -13324,94 +13362,94 @@
         <v>3</v>
       </c>
       <c r="AE66" s="4"/>
-      <c r="AF66" t="s">
-        <v>335</v>
+      <c r="AF66" s="11">
+        <v>4.3</v>
       </c>
       <c r="AG66" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH66" t="s">
         <v>120</v>
       </c>
       <c r="AI66" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AJ66" t="s">
         <v>113</v>
       </c>
       <c r="AK66" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL66" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM66" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO66" s="4" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="AQ66" t="s">
         <v>164</v>
       </c>
       <c r="AR66" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS66" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AU66" t="s">
-        <v>524</v>
+        <v>652</v>
       </c>
       <c r="AV66" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX66" s="4" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
-    <row r="67" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B67" t="s">
         <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D67" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="E67">
         <v>2005</v>
       </c>
       <c r="F67" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="G67" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="H67" t="s">
         <v>280</v>
       </c>
       <c r="I67" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="J67" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K67" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L67" t="s">
         <v>248</v>
       </c>
       <c r="M67" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="N67" t="s">
         <v>251</v>
@@ -13444,7 +13482,7 @@
         <v>216</v>
       </c>
       <c r="Z67" s="4" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="AA67">
         <v>3</v>
@@ -13474,14 +13512,14 @@
       <c r="AK67" t="s">
         <v>141</v>
       </c>
-      <c r="AL67" s="4" t="s">
-        <v>669</v>
+      <c r="AL67" t="s">
+        <v>662</v>
       </c>
       <c r="AM67" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO67" s="4" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="AQ67" t="s">
         <v>164</v>
@@ -13493,57 +13531,57 @@
         <v>179</v>
       </c>
       <c r="AU67" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="AV67" t="s">
         <v>199</v>
       </c>
       <c r="AW67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX67" s="4" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
-    <row r="68" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B68" t="s">
         <v>243</v>
       </c>
       <c r="C68" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="D68" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="E68">
         <v>2005</v>
       </c>
       <c r="F68" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="G68" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="H68" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="I68" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="J68" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="K68" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="L68" t="s">
         <v>248</v>
       </c>
       <c r="M68" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="N68" t="s">
         <v>251</v>
@@ -13557,59 +13595,131 @@
       <c r="Q68" t="s">
         <v>21</v>
       </c>
-      <c r="R68" t="s">
-        <v>84</v>
+      <c r="S68" t="s">
+        <v>26</v>
+      </c>
+      <c r="T68" t="s">
+        <v>41</v>
+      </c>
+      <c r="U68" t="s">
+        <v>52</v>
+      </c>
+      <c r="V68" t="s">
+        <v>44</v>
+      </c>
+      <c r="W68" t="s">
+        <v>51</v>
+      </c>
+      <c r="X68" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z68" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA68">
+        <v>3</v>
+      </c>
+      <c r="AB68">
+        <v>3</v>
+      </c>
+      <c r="AC68">
+        <v>3</v>
       </c>
       <c r="AE68" s="4"/>
       <c r="AF68" t="s">
-        <v>253</v>
+        <v>335</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>661</v>
+      </c>
+      <c r="AM68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO68" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>515</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX68" s="4" t="s">
+        <v>657</v>
       </c>
     </row>
-    <row r="69" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="B69" t="s">
         <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="D69" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E69">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F69" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="G69" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="H69" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="I69" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="J69" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="K69" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="L69" t="s">
         <v>248</v>
       </c>
       <c r="M69" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="N69" t="s">
         <v>251</v>
       </c>
       <c r="O69" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P69" t="s">
         <v>248</v>
@@ -13621,31 +13731,31 @@
         <v>26</v>
       </c>
       <c r="T69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U69" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V69" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X69" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="Z69" s="4" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="AA69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE69" s="4"/>
       <c r="AF69" t="s">
@@ -13655,87 +13765,93 @@
         <v>107</v>
       </c>
       <c r="AH69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI69" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>113</v>
       </c>
       <c r="AK69" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="AL69" s="4" t="s">
+        <v>660</v>
       </c>
       <c r="AM69" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO69" s="4" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="AQ69" t="s">
         <v>164</v>
       </c>
       <c r="AR69" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS69" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AU69" t="s">
-        <v>674</v>
+        <v>515</v>
       </c>
       <c r="AV69" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW69" t="s">
         <v>209</v>
       </c>
       <c r="AX69" s="4" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
     </row>
-    <row r="70" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="B70" t="s">
         <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="D70" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="E70">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F70" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G70" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="H70" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="I70" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="J70" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="K70" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="L70" t="s">
         <v>248</v>
       </c>
       <c r="M70" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="N70" t="s">
         <v>251</v>
       </c>
       <c r="O70" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P70" t="s">
         <v>248</v>
@@ -13743,191 +13859,117 @@
       <c r="Q70" t="s">
         <v>21</v>
       </c>
-      <c r="S70" t="s">
-        <v>26</v>
-      </c>
-      <c r="T70" t="s">
-        <v>42</v>
-      </c>
-      <c r="U70" t="s">
-        <v>56</v>
-      </c>
-      <c r="V70" t="s">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s">
-        <v>52</v>
-      </c>
-      <c r="X70" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z70" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA70">
-        <v>2</v>
-      </c>
-      <c r="AB70">
-        <v>2</v>
-      </c>
-      <c r="AC70">
-        <v>2</v>
-      </c>
-      <c r="AD70" s="4" t="s">
-        <v>684</v>
+      <c r="R70" t="s">
+        <v>84</v>
       </c>
       <c r="AE70" s="4"/>
       <c r="AF70" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK70" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM70" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO70" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="AQ70" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR70" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS70" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU70" t="s">
-        <v>674</v>
-      </c>
-      <c r="AV70" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW70" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX70" s="4" t="s">
-        <v>677</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="B71" t="s">
         <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="D71" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="E71">
         <v>2003</v>
       </c>
       <c r="F71" t="s">
-        <v>390</v>
+        <v>573</v>
       </c>
       <c r="G71" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="H71" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="I71" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="J71" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="K71" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="L71" t="s">
         <v>248</v>
       </c>
       <c r="M71" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="N71" t="s">
         <v>251</v>
       </c>
       <c r="O71" t="s">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="P71" t="s">
-        <v>604</v>
+        <v>248</v>
       </c>
       <c r="Q71" t="s">
         <v>21</v>
       </c>
       <c r="S71" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T71" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U71" t="s">
         <v>56</v>
       </c>
       <c r="V71" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X71" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z71" s="4" t="s">
         <v>663</v>
       </c>
       <c r="AA71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC71">
         <v>2</v>
       </c>
-      <c r="AE71" s="4" t="s">
-        <v>682</v>
-      </c>
+      <c r="AE71" s="4"/>
       <c r="AF71" t="s">
         <v>335</v>
       </c>
       <c r="AG71" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH71" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK71" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL71" t="s">
-        <v>680</v>
+        <v>134</v>
       </c>
       <c r="AM71" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO71" s="4" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="AQ71" t="s">
         <v>164</v>
@@ -13936,96 +13978,93 @@
         <v>239</v>
       </c>
       <c r="AS71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU71" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="AV71" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="AW71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX71" s="4" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
-    <row r="72" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="B72" t="s">
         <v>243</v>
       </c>
       <c r="C72" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="D72" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="E72">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F72" t="s">
-        <v>434</v>
+        <v>573</v>
       </c>
       <c r="G72" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="H72" t="s">
         <v>248</v>
       </c>
       <c r="I72" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="J72" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="K72" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="L72" t="s">
         <v>248</v>
       </c>
       <c r="M72" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="N72" t="s">
         <v>251</v>
       </c>
       <c r="O72" t="s">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="P72" t="s">
-        <v>604</v>
+        <v>248</v>
       </c>
       <c r="Q72" t="s">
         <v>21</v>
       </c>
       <c r="S72" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U72" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X72" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y72" s="4" t="s">
-        <v>685</v>
+        <v>72</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="AA72">
         <v>2</v>
@@ -14037,28 +14076,29 @@
         <v>2</v>
       </c>
       <c r="AD72" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="AE72" s="4" t="s">
-        <v>687</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="AE72" s="4"/>
       <c r="AF72" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="AG72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH72" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL72" s="4" t="s">
-        <v>688</v>
+        <v>121</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>146</v>
       </c>
       <c r="AM72" s="4" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO72" s="4" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="AQ72" t="s">
         <v>164</v>
@@ -14069,61 +14109,58 @@
       <c r="AS72" t="s">
         <v>175</v>
       </c>
-      <c r="AT72" t="s">
-        <v>690</v>
-      </c>
       <c r="AU72" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
       <c r="AV72" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="AW72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX72" s="4" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
     </row>
-    <row r="73" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="B73" t="s">
         <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="D73" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="E73">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F73" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="G73" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="H73" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="I73" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="J73" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="K73" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="L73" t="s">
         <v>248</v>
       </c>
       <c r="M73" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="N73" t="s">
         <v>251</v>
@@ -14132,7 +14169,7 @@
         <v>252</v>
       </c>
       <c r="P73" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="Q73" t="s">
         <v>21</v>
@@ -14141,58 +14178,58 @@
         <v>24</v>
       </c>
       <c r="T73" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U73" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W73" t="s">
         <v>51</v>
       </c>
       <c r="X73" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y73" s="4" t="s">
-        <v>685</v>
+        <v>80</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
       <c r="AA73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC73">
         <v>2</v>
       </c>
-      <c r="AD73" s="4" t="s">
-        <v>693</v>
-      </c>
       <c r="AE73" s="4" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="AF73" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="AG73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH73" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL73" s="4" t="s">
-        <v>688</v>
+        <v>120</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>670</v>
       </c>
       <c r="AM73" s="4" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO73" s="4" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="AQ73" t="s">
         <v>164</v>
@@ -14201,63 +14238,60 @@
         <v>239</v>
       </c>
       <c r="AS73" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>690</v>
+        <v>176</v>
       </c>
       <c r="AU73" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="AV73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AW73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX73" s="4" t="s">
-        <v>695</v>
+        <v>668</v>
       </c>
     </row>
-    <row r="74" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="B74" t="s">
         <v>243</v>
       </c>
       <c r="C74" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="D74" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="E74">
         <v>2000</v>
       </c>
       <c r="F74" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G74" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="H74" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="I74" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="J74" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="K74" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="L74" t="s">
         <v>248</v>
       </c>
       <c r="M74" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="N74" t="s">
         <v>251</v>
@@ -14266,58 +14300,132 @@
         <v>252</v>
       </c>
       <c r="P74" t="s">
-        <v>334</v>
+        <v>595</v>
       </c>
       <c r="Q74" t="s">
         <v>21</v>
       </c>
-      <c r="R74" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE74" s="4"/>
+      <c r="S74" t="s">
+        <v>24</v>
+      </c>
+      <c r="T74" t="s">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s">
+        <v>53</v>
+      </c>
+      <c r="V74" t="s">
+        <v>39</v>
+      </c>
+      <c r="W74" t="s">
+        <v>51</v>
+      </c>
+      <c r="X74" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y74" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z74" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA74">
+        <v>2</v>
+      </c>
+      <c r="AB74">
+        <v>2</v>
+      </c>
+      <c r="AC74">
+        <v>2</v>
+      </c>
+      <c r="AD74" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE74" s="4" t="s">
+        <v>677</v>
+      </c>
       <c r="AF74" t="s">
         <v>253</v>
       </c>
+      <c r="AG74" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL74" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AM74" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO74" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>680</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>681</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX74" s="4" t="s">
+        <v>682</v>
+      </c>
     </row>
-    <row r="75" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="B75" t="s">
         <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="D75" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="E75">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F75" t="s">
-        <v>624</v>
+        <v>434</v>
       </c>
       <c r="G75" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="H75" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="I75" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="J75" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="K75" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="L75" t="s">
         <v>248</v>
       </c>
       <c r="M75" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="N75" t="s">
         <v>251</v>
@@ -14326,31 +14434,34 @@
         <v>252</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>595</v>
       </c>
       <c r="Q75" t="s">
         <v>21</v>
       </c>
       <c r="S75" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T75" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W75" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X75" t="s">
-        <v>75</v>
+        <v>216</v>
+      </c>
+      <c r="Y75" s="4" t="s">
+        <v>675</v>
       </c>
       <c r="Z75" s="4" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="AA75">
         <v>2</v>
@@ -14361,36 +14472,44 @@
       <c r="AC75">
         <v>2</v>
       </c>
-      <c r="AE75" s="4"/>
+      <c r="AD75" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE75" s="4" t="s">
+        <v>677</v>
+      </c>
       <c r="AF75" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="AG75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AH75" t="s">
         <v>116</v>
       </c>
       <c r="AL75" s="4" t="s">
-        <v>811</v>
+        <v>678</v>
       </c>
       <c r="AM75" s="4" t="s">
         <v>159</v>
       </c>
       <c r="AO75" s="4" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="AQ75" t="s">
         <v>164</v>
       </c>
       <c r="AR75" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="AS75" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU75" s="4" t="s">
-        <v>698</v>
+        <v>175</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>680</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>684</v>
       </c>
       <c r="AV75" t="s">
         <v>203</v>
@@ -14399,48 +14518,48 @@
         <v>209</v>
       </c>
       <c r="AX75" s="4" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
-    <row r="76" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="B76" t="s">
         <v>243</v>
       </c>
       <c r="C76" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="D76" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="E76">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="F76" t="s">
-        <v>633</v>
+        <v>390</v>
       </c>
       <c r="G76" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="H76" t="s">
-        <v>635</v>
+        <v>416</v>
       </c>
       <c r="I76" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="J76" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="K76" t="s">
-        <v>248</v>
+        <v>610</v>
       </c>
       <c r="L76" t="s">
         <v>248</v>
       </c>
       <c r="M76" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
       <c r="N76" t="s">
         <v>251</v>
@@ -14449,138 +14568,58 @@
         <v>252</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q76" t="s">
         <v>21</v>
       </c>
-      <c r="S76" t="s">
-        <v>24</v>
-      </c>
-      <c r="T76" t="s">
-        <v>46</v>
-      </c>
-      <c r="U76" t="s">
-        <v>57</v>
-      </c>
-      <c r="V76" t="s">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s">
-        <v>55</v>
-      </c>
-      <c r="X76" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z76" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="AA76">
-        <v>1</v>
-      </c>
-      <c r="AB76">
-        <v>2</v>
-      </c>
-      <c r="AC76">
-        <v>1</v>
-      </c>
-      <c r="AD76" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="AE76" s="4" t="s">
-        <v>705</v>
-      </c>
+      <c r="R76" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE76" s="4"/>
       <c r="AF76" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL76" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="AM76" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN76" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO76" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ76" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR76" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS76" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT76" t="s">
-        <v>702</v>
-      </c>
-      <c r="AU76" t="s">
-        <v>703</v>
-      </c>
-      <c r="AV76" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW76" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX76" s="4" t="s">
-        <v>706</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="B77" t="s">
         <v>243</v>
       </c>
       <c r="C77" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="D77" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="E77">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F77" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="G77" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="H77" t="s">
-        <v>635</v>
+        <v>281</v>
       </c>
       <c r="I77" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="J77" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="K77" t="s">
-        <v>248</v>
+        <v>619</v>
       </c>
       <c r="L77" t="s">
         <v>248</v>
       </c>
       <c r="M77" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="N77" t="s">
         <v>251</v>
@@ -14595,138 +14634,121 @@
         <v>21</v>
       </c>
       <c r="S77" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T77" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X77" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB77">
         <v>2</v>
       </c>
       <c r="AC77">
-        <v>1</v>
-      </c>
-      <c r="AD77" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="AE77" s="4" t="s">
-        <v>705</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AE77" s="4"/>
       <c r="AF77" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG77" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AH77" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="AL77" s="4" t="s">
-        <v>701</v>
+        <v>801</v>
       </c>
       <c r="AM77" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AO77" s="4" t="s">
-        <v>162</v>
+        <v>687</v>
       </c>
       <c r="AQ77" t="s">
         <v>164</v>
       </c>
       <c r="AR77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS77" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>702</v>
-      </c>
-      <c r="AU77" t="s">
-        <v>703</v>
+        <v>181</v>
+      </c>
+      <c r="AU77" s="4" t="s">
+        <v>688</v>
       </c>
       <c r="AV77" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="AW77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX77" s="4" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
     </row>
-    <row r="78" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="B78" t="s">
         <v>243</v>
       </c>
       <c r="C78" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="D78" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="E78">
         <v>1996</v>
       </c>
       <c r="F78" t="s">
-        <v>459</v>
+        <v>624</v>
       </c>
       <c r="G78" t="s">
-        <v>321</v>
+        <v>625</v>
       </c>
       <c r="H78" t="s">
-        <v>416</v>
+        <v>626</v>
       </c>
       <c r="I78" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="J78" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="K78" t="s">
-        <v>644</v>
+        <v>248</v>
       </c>
       <c r="L78" t="s">
         <v>248</v>
       </c>
       <c r="M78" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="N78" t="s">
         <v>251</v>
       </c>
       <c r="O78" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P78" t="s">
         <v>248</v>
@@ -14735,133 +14757,138 @@
         <v>21</v>
       </c>
       <c r="S78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T78" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U78" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W78" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X78" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="AA78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB78">
         <v>2</v>
       </c>
       <c r="AC78">
-        <v>2</v>
-      </c>
-      <c r="AE78" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD78" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE78" s="4" t="s">
+        <v>695</v>
+      </c>
       <c r="AF78" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH78" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI78" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ78" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK78" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL78" s="4" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="AM78" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO78" s="4" t="s">
-        <v>468</v>
+        <v>162</v>
       </c>
       <c r="AQ78" t="s">
         <v>164</v>
       </c>
       <c r="AR78" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS78" t="s">
-        <v>176</v>
+        <v>190</v>
+      </c>
+      <c r="AT78" t="s">
+        <v>692</v>
       </c>
       <c r="AU78" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="AV78" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW78" t="s">
         <v>208</v>
       </c>
       <c r="AX78" s="4" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
     </row>
-    <row r="79" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="B79" t="s">
         <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="D79" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="E79">
         <v>1996</v>
       </c>
       <c r="F79" t="s">
-        <v>459</v>
+        <v>624</v>
       </c>
       <c r="G79" t="s">
-        <v>321</v>
+        <v>625</v>
       </c>
       <c r="H79" t="s">
-        <v>416</v>
+        <v>626</v>
       </c>
       <c r="I79" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="J79" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="K79" t="s">
-        <v>644</v>
+        <v>248</v>
       </c>
       <c r="L79" t="s">
         <v>248</v>
       </c>
       <c r="M79" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="N79" t="s">
         <v>251</v>
       </c>
       <c r="O79" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="P79" t="s">
         <v>248</v>
@@ -14870,106 +14897,111 @@
         <v>21</v>
       </c>
       <c r="S79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T79" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U79" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W79" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X79" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z79" s="4" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="AA79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB79">
         <v>2</v>
       </c>
       <c r="AC79">
-        <v>2</v>
-      </c>
-      <c r="AE79" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD79" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE79" s="4" t="s">
+        <v>695</v>
+      </c>
       <c r="AF79" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG79" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH79" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI79" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ79" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK79" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL79" s="4" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="AM79" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO79" s="4" t="s">
-        <v>468</v>
+        <v>162</v>
       </c>
       <c r="AQ79" t="s">
         <v>164</v>
       </c>
       <c r="AR79" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS79" t="s">
-        <v>176</v>
+        <v>190</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>692</v>
       </c>
       <c r="AU79" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="AV79" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AW79" t="s">
         <v>208</v>
       </c>
       <c r="AX79" s="4" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
     </row>
-    <row r="80" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B80" t="s">
         <v>243</v>
       </c>
       <c r="C80" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D80" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E80">
         <v>1996</v>
       </c>
       <c r="F80" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
@@ -14978,25 +15010,25 @@
         <v>416</v>
       </c>
       <c r="I80" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="J80" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="K80" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="L80" t="s">
         <v>248</v>
       </c>
       <c r="M80" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="N80" t="s">
         <v>251</v>
       </c>
       <c r="O80" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="P80" t="s">
         <v>248</v>
@@ -15023,7 +15055,7 @@
         <v>216</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="AA80">
         <v>2</v>
@@ -15054,7 +15086,7 @@
         <v>150</v>
       </c>
       <c r="AL80" s="4" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="AM80" s="4" t="s">
         <v>232</v>
@@ -15063,19 +15095,19 @@
         <v>161</v>
       </c>
       <c r="AO80" s="4" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AQ80" t="s">
         <v>164</v>
       </c>
       <c r="AR80" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU80" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="AV80" t="s">
         <v>199</v>
@@ -15084,27 +15116,27 @@
         <v>208</v>
       </c>
       <c r="AX80" s="4" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="81" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B81" t="s">
         <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D81" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E81">
         <v>1996</v>
       </c>
       <c r="F81" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G81" t="s">
         <v>321</v>
@@ -15113,25 +15145,25 @@
         <v>416</v>
       </c>
       <c r="I81" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="J81" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="K81" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="L81" t="s">
         <v>248</v>
       </c>
       <c r="M81" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="N81" t="s">
         <v>251</v>
       </c>
       <c r="O81" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="P81" t="s">
         <v>248</v>
@@ -15158,7 +15190,7 @@
         <v>216</v>
       </c>
       <c r="Z81" s="4" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="AA81">
         <v>2</v>
@@ -15189,7 +15221,7 @@
         <v>150</v>
       </c>
       <c r="AL81" s="4" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="AM81" s="4" t="s">
         <v>232</v>
@@ -15198,19 +15230,19 @@
         <v>161</v>
       </c>
       <c r="AO81" s="4" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AQ81" t="s">
         <v>164</v>
       </c>
       <c r="AR81" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS81" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU81" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="AV81" t="s">
         <v>206</v>
@@ -15219,81 +15251,81 @@
         <v>208</v>
       </c>
       <c r="AX81" s="4" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
-    <row r="82" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B82" t="s">
         <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D82" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="E82">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F82" t="s">
-        <v>649</v>
+        <v>450</v>
       </c>
       <c r="G82" t="s">
-        <v>599</v>
+        <v>321</v>
       </c>
       <c r="H82" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="I82" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="J82" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="K82" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="L82" t="s">
         <v>248</v>
       </c>
       <c r="M82" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="N82" t="s">
         <v>251</v>
       </c>
       <c r="O82" t="s">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="P82" t="s">
-        <v>654</v>
+        <v>248</v>
       </c>
       <c r="Q82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S82" t="s">
         <v>25</v>
       </c>
       <c r="T82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U82" t="s">
         <v>48</v>
       </c>
       <c r="V82" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W82" t="s">
         <v>48</v>
       </c>
       <c r="X82" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z82" s="4" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="AA82">
         <v>2</v>
@@ -15315,13 +15347,16 @@
         <v>120</v>
       </c>
       <c r="AI82" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>113</v>
       </c>
       <c r="AK82" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="AM82" s="4" t="s">
         <v>232</v>
@@ -15330,7 +15365,7 @@
         <v>161</v>
       </c>
       <c r="AO82" s="4" t="s">
-        <v>713</v>
+        <v>459</v>
       </c>
       <c r="AQ82" t="s">
         <v>164</v>
@@ -15342,90 +15377,90 @@
         <v>178</v>
       </c>
       <c r="AU82" t="s">
-        <v>468</v>
+        <v>699</v>
       </c>
       <c r="AV82" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW82" t="s">
         <v>208</v>
       </c>
       <c r="AX82" s="4" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="83" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B83" t="s">
         <v>243</v>
       </c>
       <c r="C83" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D83" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="E83">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F83" t="s">
-        <v>649</v>
+        <v>450</v>
       </c>
       <c r="G83" t="s">
-        <v>599</v>
+        <v>321</v>
       </c>
       <c r="H83" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="I83" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="J83" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="K83" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="L83" t="s">
         <v>248</v>
       </c>
       <c r="M83" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="N83" t="s">
         <v>251</v>
       </c>
       <c r="O83" t="s">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="P83" t="s">
-        <v>654</v>
+        <v>248</v>
       </c>
       <c r="Q83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S83" t="s">
         <v>25</v>
       </c>
       <c r="T83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U83" t="s">
         <v>48</v>
       </c>
       <c r="V83" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W83" t="s">
         <v>48</v>
       </c>
       <c r="X83" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z83" s="4" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="AA83">
         <v>2</v>
@@ -15447,22 +15482,25 @@
         <v>120</v>
       </c>
       <c r="AI83" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>113</v>
       </c>
       <c r="AK83" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL83" s="4" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="AM83" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO83" s="4" t="s">
-        <v>713</v>
+        <v>459</v>
       </c>
       <c r="AQ83" t="s">
         <v>164</v>
@@ -15474,57 +15512,57 @@
         <v>178</v>
       </c>
       <c r="AU83" t="s">
-        <v>468</v>
+        <v>699</v>
       </c>
       <c r="AV83" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AW83" t="s">
         <v>208</v>
       </c>
       <c r="AX83" s="4" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
     </row>
-    <row r="84" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B84" t="s">
         <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D84" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E84">
         <v>2003</v>
       </c>
       <c r="F84" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G84" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="H84" t="s">
         <v>297</v>
       </c>
       <c r="I84" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="J84" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="K84" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="L84" t="s">
         <v>248</v>
       </c>
       <c r="M84" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="N84" t="s">
         <v>251</v>
@@ -15533,7 +15571,7 @@
         <v>252</v>
       </c>
       <c r="P84" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="Q84" t="s">
         <v>22</v>
@@ -15557,7 +15595,7 @@
         <v>69</v>
       </c>
       <c r="Z84" s="4" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="AA84">
         <v>2</v>
@@ -15576,16 +15614,16 @@
         <v>107</v>
       </c>
       <c r="AH84" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AI84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AK84" t="s">
         <v>148</v>
       </c>
       <c r="AL84" s="4" t="s">
-        <v>715</v>
+        <v>670</v>
       </c>
       <c r="AM84" s="4" t="s">
         <v>232</v>
@@ -15594,7 +15632,7 @@
         <v>161</v>
       </c>
       <c r="AO84" s="4" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="AQ84" t="s">
         <v>164</v>
@@ -15606,7 +15644,7 @@
         <v>178</v>
       </c>
       <c r="AU84" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AV84" t="s">
         <v>237</v>
@@ -15615,48 +15653,48 @@
         <v>208</v>
       </c>
       <c r="AX84" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
-    <row r="85" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B85" t="s">
         <v>243</v>
       </c>
       <c r="C85" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D85" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E85">
         <v>2003</v>
       </c>
       <c r="F85" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G85" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="H85" t="s">
         <v>297</v>
       </c>
       <c r="I85" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="J85" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="K85" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="L85" t="s">
         <v>248</v>
       </c>
       <c r="M85" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="N85" t="s">
         <v>251</v>
@@ -15665,7 +15703,7 @@
         <v>252</v>
       </c>
       <c r="P85" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="Q85" t="s">
         <v>22</v>
@@ -15686,10 +15724,10 @@
         <v>48</v>
       </c>
       <c r="X85" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z85" s="4" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="AA85">
         <v>2</v>
@@ -15711,22 +15749,22 @@
         <v>120</v>
       </c>
       <c r="AI85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK85" t="s">
         <v>148</v>
       </c>
       <c r="AL85" s="4" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="AM85" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO85" s="4" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="AQ85" t="s">
         <v>164</v>
@@ -15738,7 +15776,7 @@
         <v>178</v>
       </c>
       <c r="AU85" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AV85" t="s">
         <v>237</v>
@@ -15747,48 +15785,48 @@
         <v>208</v>
       </c>
       <c r="AX85" s="4" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
-    <row r="86" spans="1:50" ht="16.350000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B86" t="s">
         <v>243</v>
       </c>
       <c r="C86" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D86" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E86">
         <v>2003</v>
       </c>
       <c r="F86" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G86" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="H86" t="s">
         <v>297</v>
       </c>
       <c r="I86" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="J86" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="K86" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="L86" t="s">
         <v>248</v>
       </c>
       <c r="M86" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="N86" t="s">
         <v>251</v>
@@ -15797,7 +15835,7 @@
         <v>252</v>
       </c>
       <c r="P86" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="Q86" t="s">
         <v>22</v>
@@ -15818,10 +15856,10 @@
         <v>48</v>
       </c>
       <c r="X86" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>722</v>
+        <v>69</v>
+      </c>
+      <c r="Z86" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="AA86">
         <v>2</v>
@@ -15832,6 +15870,7 @@
       <c r="AC86">
         <v>2</v>
       </c>
+      <c r="AE86" s="4"/>
       <c r="AF86" t="s">
         <v>335</v>
       </c>
@@ -15839,22 +15878,25 @@
         <v>107</v>
       </c>
       <c r="AH86" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI86" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="AK86" t="s">
         <v>148</v>
       </c>
       <c r="AL86" s="4" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="AM86" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>161</v>
       </c>
       <c r="AO86" s="4" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="AQ86" t="s">
         <v>164</v>
@@ -15866,26 +15908,279 @@
         <v>178</v>
       </c>
       <c r="AU86" t="s">
-        <v>721</v>
+        <v>459</v>
       </c>
       <c r="AV86" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="AW86" t="s">
         <v>208</v>
       </c>
       <c r="AX86" s="4" t="s">
-        <v>723</v>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>637</v>
+      </c>
+      <c r="B87" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" t="s">
+        <v>638</v>
+      </c>
+      <c r="D87" t="s">
+        <v>639</v>
+      </c>
+      <c r="E87">
+        <v>2003</v>
+      </c>
+      <c r="F87" t="s">
+        <v>640</v>
+      </c>
+      <c r="G87" t="s">
+        <v>590</v>
+      </c>
+      <c r="H87" t="s">
+        <v>297</v>
+      </c>
+      <c r="I87" t="s">
+        <v>641</v>
+      </c>
+      <c r="J87" t="s">
+        <v>642</v>
+      </c>
+      <c r="K87" t="s">
+        <v>643</v>
+      </c>
+      <c r="L87" t="s">
+        <v>248</v>
+      </c>
+      <c r="M87" t="s">
+        <v>644</v>
+      </c>
+      <c r="N87" t="s">
+        <v>251</v>
+      </c>
+      <c r="O87" t="s">
+        <v>252</v>
+      </c>
+      <c r="P87" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>22</v>
+      </c>
+      <c r="S87" t="s">
+        <v>25</v>
+      </c>
+      <c r="T87" t="s">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s">
+        <v>48</v>
+      </c>
+      <c r="V87" t="s">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s">
+        <v>48</v>
+      </c>
+      <c r="X87" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z87" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA87">
+        <v>2</v>
+      </c>
+      <c r="AB87">
+        <v>2</v>
+      </c>
+      <c r="AC87">
+        <v>2</v>
+      </c>
+      <c r="AE87" s="4"/>
+      <c r="AF87" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL87" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="AM87" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO87" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR87" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS87" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU87" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV87" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW87" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX87" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="88" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>637</v>
+      </c>
+      <c r="B88" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" t="s">
+        <v>638</v>
+      </c>
+      <c r="D88" t="s">
+        <v>639</v>
+      </c>
+      <c r="E88">
+        <v>2003</v>
+      </c>
+      <c r="F88" t="s">
+        <v>640</v>
+      </c>
+      <c r="G88" t="s">
+        <v>590</v>
+      </c>
+      <c r="H88" t="s">
+        <v>297</v>
+      </c>
+      <c r="I88" t="s">
+        <v>641</v>
+      </c>
+      <c r="J88" t="s">
+        <v>642</v>
+      </c>
+      <c r="K88" t="s">
+        <v>643</v>
+      </c>
+      <c r="L88" t="s">
+        <v>248</v>
+      </c>
+      <c r="M88" t="s">
+        <v>644</v>
+      </c>
+      <c r="N88" t="s">
+        <v>251</v>
+      </c>
+      <c r="O88" t="s">
+        <v>252</v>
+      </c>
+      <c r="P88" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>22</v>
+      </c>
+      <c r="S88" t="s">
+        <v>25</v>
+      </c>
+      <c r="T88" t="s">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s">
+        <v>48</v>
+      </c>
+      <c r="V88" t="s">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s">
+        <v>48</v>
+      </c>
+      <c r="X88" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA88">
+        <v>2</v>
+      </c>
+      <c r="AB88">
+        <v>2</v>
+      </c>
+      <c r="AC88">
+        <v>2</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL88" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="AM88" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO88" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU88" t="s">
+        <v>711</v>
+      </c>
+      <c r="AV88" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW88" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX88" s="4" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AX86" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SW4_1034"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
@@ -15903,7 +16198,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AR3:AS1048576 AI3:AJ1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AR3:AS1048576 AN3:AN1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -16028,64 +16323,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="16" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -16534,7 +16829,7 @@
         <v>233</v>
       </c>
       <c r="AQ8" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="AV8" t="s">
         <v>204</v>
@@ -17127,51 +17422,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
     </row>
     <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -18114,18 +18409,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18145,6 +18440,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -18157,12 +18460,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -18295,8 +18295,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -18408,7 +18414,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18417,47 +18423,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E4DF9E-7F1E-4972-89F4-4FEF38D7FA95}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}"/>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded_SP issues Nov22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{08542F34-F42B-4E07-A84F-FE66F4176110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D475C2-345E-415B-ACCD-DB6649AD28D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33E017D-635B-4355-A115-37D49CBFD392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$89</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3734" uniqueCount="814">
   <si>
     <t>SearchID</t>
   </si>
@@ -4744,9 +4744,6 @@
     <t>Pleuronectes platessa _ Limanda limanda _ Merlangius merlangus _ Gadus morhua</t>
   </si>
   <si>
-    <t>catch</t>
-  </si>
-  <si>
     <t>Change in numbers</t>
   </si>
   <si>
@@ -4783,16 +4780,7 @@
     <t>Nephrops norvegicus</t>
   </si>
   <si>
-    <t>change in fishing gear</t>
-  </si>
-  <si>
-    <t>Landings</t>
-  </si>
-  <si>
     <t>In Swedish fisheries, we show that creeling offers a substantial reduction of fishing mortality of both undersized Nephrops and fish and a reduced seafloor pressure per landed kilo of Nephrops.</t>
-  </si>
-  <si>
-    <t>fishing effort_trawl</t>
   </si>
   <si>
     <t>Swept area of seafloor</t>
@@ -4904,6 +4892,12 @@
   </si>
   <si>
     <t>Observation of pale tissue</t>
+  </si>
+  <si>
+    <t>change from trawling to creeling</t>
+  </si>
+  <si>
+    <t>pulse trawl vs. beam trawl</t>
   </si>
 </sst>
 </file>
@@ -5120,10 +5114,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5389,32 +5379,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX88"/>
+  <dimension ref="A1:AX89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV34" sqref="AV34"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AP92" sqref="AP92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="24" max="25" width="32.5703125" customWidth="1"/>
-    <col min="30" max="30" width="17.85546875" customWidth="1"/>
-    <col min="34" max="35" width="17.5703125" customWidth="1"/>
-    <col min="36" max="36" width="18.5703125" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.5703125" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="4" customWidth="1"/>
-    <col min="40" max="40" width="15.85546875" customWidth="1"/>
-    <col min="41" max="41" width="15.85546875" style="4" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.54296875" customWidth="1"/>
+    <col min="30" max="30" width="17.81640625" customWidth="1"/>
+    <col min="34" max="35" width="17.54296875" customWidth="1"/>
+    <col min="36" max="36" width="18.54296875" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.54296875" customWidth="1"/>
+    <col min="39" max="39" width="14.453125" style="4" customWidth="1"/>
+    <col min="40" max="40" width="15.81640625" customWidth="1"/>
+    <col min="41" max="41" width="15.81640625" style="4" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.54296875" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
-    <col min="50" max="50" width="44.85546875" customWidth="1"/>
+    <col min="50" max="50" width="44.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
@@ -5480,7 +5470,7 @@
       <c r="AW1" s="16"/>
       <c r="AX1" s="16"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5632,7 +5622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5761,7 +5751,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -5890,7 +5880,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -6019,7 +6009,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -6154,7 +6144,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -6274,7 +6264,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>276</v>
       </c>
@@ -6406,7 +6396,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>284</v>
       </c>
@@ -6505,7 +6495,7 @@
         <v>140</v>
       </c>
       <c r="AL9" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="AM9" s="4" t="s">
         <v>231</v>
@@ -6532,7 +6522,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>292</v>
       </c>
@@ -6593,7 +6583,7 @@
       </c>
       <c r="AX10" s="4"/>
     </row>
-    <row r="11" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -6722,7 +6712,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>309</v>
       </c>
@@ -6850,7 +6840,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>318</v>
       </c>
@@ -6967,7 +6957,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>325</v>
       </c>
@@ -7028,7 +7018,7 @@
       </c>
       <c r="AX14" s="4"/>
     </row>
-    <row r="15" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -7151,7 +7141,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -7247,10 +7237,13 @@
         <v>762</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO16" s="4" t="s">
-        <v>763</v>
+        <v>232</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO16" s="12" t="s">
+        <v>813</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -7258,23 +7251,20 @@
       <c r="AR16" t="s">
         <v>239</v>
       </c>
-      <c r="AS16" t="s">
-        <v>176</v>
-      </c>
       <c r="AU16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AV16" t="s">
         <v>199</v>
       </c>
       <c r="AW16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>343</v>
       </c>
@@ -7367,13 +7357,16 @@
         <v>120</v>
       </c>
       <c r="AL17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AM17" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO17" s="4" t="s">
-        <v>763</v>
+        <v>232</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO17" s="12" t="s">
+        <v>813</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -7381,23 +7374,20 @@
       <c r="AR17" t="s">
         <v>239</v>
       </c>
-      <c r="AS17" t="s">
-        <v>176</v>
-      </c>
       <c r="AU17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AV17" t="s">
         <v>199</v>
       </c>
       <c r="AW17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>351</v>
       </c>
@@ -7508,7 +7498,7 @@
         <v>175</v>
       </c>
       <c r="AU18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AV18" t="s">
         <v>199</v>
@@ -7517,10 +7507,10 @@
         <v>207</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>360</v>
       </c>
@@ -7581,7 +7571,7 @@
       </c>
       <c r="AX19" s="4"/>
     </row>
-    <row r="20" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -7652,7 +7642,7 @@
         <v>216</v>
       </c>
       <c r="Z20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7677,7 +7667,7 @@
         <v>140</v>
       </c>
       <c r="AL20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AM20" s="4" t="s">
         <v>232</v>
@@ -7686,7 +7676,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -7707,10 +7697,10 @@
         <v>208</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>378</v>
       </c>
@@ -7771,7 +7761,7 @@
       </c>
       <c r="AX21" s="4"/>
     </row>
-    <row r="22" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>387</v>
       </c>
@@ -7842,7 +7832,7 @@
         <v>69</v>
       </c>
       <c r="Z22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7864,7 +7854,7 @@
         <v>120</v>
       </c>
       <c r="AL22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AM22" s="4" t="s">
         <v>232</v>
@@ -7873,7 +7863,7 @@
         <v>160</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>776</v>
+        <v>812</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7881,20 +7871,23 @@
       <c r="AR22" t="s">
         <v>113</v>
       </c>
+      <c r="AT22" t="s">
+        <v>774</v>
+      </c>
       <c r="AU22" t="s">
-        <v>777</v>
+        <v>658</v>
       </c>
       <c r="AV22" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AW22" t="s">
         <v>208</v>
       </c>
       <c r="AX22" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -7965,7 +7958,7 @@
         <v>69</v>
       </c>
       <c r="Z23" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7984,13 +7977,19 @@
         <v>109</v>
       </c>
       <c r="AH23" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>130</v>
       </c>
       <c r="AM23" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>161</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7998,58 +7997,61 @@
       <c r="AR23" t="s">
         <v>113</v>
       </c>
+      <c r="AT23" t="s">
+        <v>774</v>
+      </c>
       <c r="AU23" t="s">
-        <v>780</v>
+        <v>658</v>
       </c>
       <c r="AV23" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="AW23" t="s">
         <v>208</v>
       </c>
       <c r="AX23" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
-    <row r="24" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B24" t="s">
         <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D24" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F24" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G24" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="I24" t="s">
-        <v>248</v>
+        <v>392</v>
       </c>
       <c r="J24" t="s">
-        <v>248</v>
+        <v>393</v>
       </c>
       <c r="K24" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L24" t="s">
         <v>248</v>
       </c>
       <c r="M24" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N24" t="s">
         <v>251</v>
@@ -8058,13 +8060,13 @@
         <v>252</v>
       </c>
       <c r="P24" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="Q24" t="s">
         <v>21</v>
       </c>
       <c r="S24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T24" t="s">
         <v>46</v>
@@ -8073,16 +8075,16 @@
         <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W24" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X24" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="Z24" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -8095,87 +8097,81 @@
       </c>
       <c r="AE24" s="4"/>
       <c r="AF24" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s">
         <v>109</v>
       </c>
       <c r="AH24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>782</v>
+        <v>121</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
       </c>
       <c r="AR24" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>192</v>
+        <v>113</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>774</v>
       </c>
       <c r="AU24" t="s">
-        <v>238</v>
+        <v>776</v>
       </c>
       <c r="AV24" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="AW24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B25" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D25" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E25">
         <v>2016</v>
       </c>
       <c r="F25" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G25" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="H25" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I25" t="s">
-        <v>407</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>408</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L25" t="s">
         <v>248</v>
       </c>
       <c r="M25" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="N25" t="s">
         <v>251</v>
@@ -8184,31 +8180,31 @@
         <v>252</v>
       </c>
       <c r="P25" t="s">
-        <v>411</v>
+        <v>266</v>
       </c>
       <c r="Q25" t="s">
         <v>21</v>
       </c>
       <c r="S25" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T25" t="s">
         <v>46</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X25" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="Z25" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -8221,43 +8217,49 @@
       </c>
       <c r="AE25" s="4"/>
       <c r="AF25" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL25" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="AM25" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
+      <c r="AR25" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>192</v>
+      </c>
       <c r="AU25" t="s">
-        <v>788</v>
+        <v>238</v>
       </c>
       <c r="AV25" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AW25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>402</v>
       </c>
@@ -8328,7 +8330,7 @@
         <v>69</v>
       </c>
       <c r="Z26" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -8347,10 +8349,10 @@
         <v>112</v>
       </c>
       <c r="AH26" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AL26" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="AM26" s="4" t="s">
         <v>232</v>
@@ -8359,13 +8361,13 @@
         <v>160</v>
       </c>
       <c r="AO26" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
       </c>
       <c r="AU26" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AV26" t="s">
         <v>206</v>
@@ -8374,10 +8376,10 @@
         <v>208</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>402</v>
       </c>
@@ -8448,7 +8450,7 @@
         <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8467,10 +8469,10 @@
         <v>112</v>
       </c>
       <c r="AH27" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AL27" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="AM27" s="4" t="s">
         <v>232</v>
@@ -8479,25 +8481,25 @@
         <v>160</v>
       </c>
       <c r="AO27" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
       <c r="AU27" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AV27" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AW27" t="s">
         <v>208</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>402</v>
       </c>
@@ -8568,7 +8570,7 @@
         <v>69</v>
       </c>
       <c r="Z28" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8587,10 +8589,10 @@
         <v>112</v>
       </c>
       <c r="AH28" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AL28" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="AM28" s="4" t="s">
         <v>232</v>
@@ -8599,13 +8601,13 @@
         <v>160</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
       <c r="AU28" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AV28" t="s">
         <v>200</v>
@@ -8614,48 +8616,48 @@
         <v>208</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D29" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E29">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F29" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G29" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="H29" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="I29" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="J29" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K29" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L29" t="s">
         <v>248</v>
       </c>
       <c r="M29" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="N29" t="s">
         <v>251</v>
@@ -8664,31 +8666,31 @@
         <v>252</v>
       </c>
       <c r="P29" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="Q29" t="s">
         <v>21</v>
       </c>
       <c r="S29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T29" t="s">
         <v>46</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
         <v>41</v>
       </c>
       <c r="W29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X29" t="s">
         <v>69</v>
       </c>
       <c r="Z29" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8697,88 +8699,85 @@
         <v>2</v>
       </c>
       <c r="AC29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29" s="4"/>
       <c r="AF29" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AH29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="AM29" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO29" s="4" t="s">
-        <v>716</v>
+        <v>783</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
       </c>
       <c r="AU29" t="s">
-        <v>238</v>
+        <v>784</v>
       </c>
       <c r="AV29" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="AW29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
-    <row r="30" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D30" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E30">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F30" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G30" t="s">
-        <v>425</v>
+        <v>314</v>
       </c>
       <c r="H30" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="I30" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="J30" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K30" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L30" t="s">
         <v>248</v>
       </c>
       <c r="M30" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="N30" t="s">
         <v>251</v>
@@ -8787,13 +8786,13 @@
         <v>252</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T30" t="s">
         <v>46</v>
@@ -8802,16 +8801,16 @@
         <v>57</v>
       </c>
       <c r="V30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W30" t="s">
         <v>51</v>
       </c>
       <c r="X30" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z30" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8820,17 +8819,23 @@
         <v>2</v>
       </c>
       <c r="AC30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="4"/>
       <c r="AF30" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH30" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>787</v>
       </c>
       <c r="AM30" s="4" t="s">
         <v>232</v>
@@ -8839,69 +8844,63 @@
         <v>162</v>
       </c>
       <c r="AO30" s="4" t="s">
-        <v>794</v>
+        <v>716</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
-      <c r="AR30" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>176</v>
-      </c>
       <c r="AU30" t="s">
-        <v>795</v>
+        <v>238</v>
       </c>
       <c r="AV30" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="AW30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D31" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E31">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F31" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G31" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H31" t="s">
-        <v>248</v>
+        <v>426</v>
       </c>
       <c r="I31" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="J31" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K31" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L31" t="s">
         <v>248</v>
       </c>
       <c r="M31" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N31" t="s">
         <v>251</v>
@@ -8910,37 +8909,37 @@
         <v>252</v>
       </c>
       <c r="P31" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
       <c r="S31" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X31" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="Z31" t="s">
-        <v>441</v>
+        <v>789</v>
       </c>
       <c r="AA31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC31">
         <v>3</v>
@@ -8955,50 +8954,38 @@
       <c r="AH31" t="s">
         <v>120</v>
       </c>
-      <c r="AI31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM31" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO31" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>806</v>
+      <c r="AM31" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO31" s="4" t="s">
+        <v>790</v>
       </c>
       <c r="AQ31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR31" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS31" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="AU31" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="AV31" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="AW31" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX31" s="13" t="s">
-        <v>807</v>
+        <v>208</v>
+      </c>
+      <c r="AX31" s="4" t="s">
+        <v>792</v>
       </c>
     </row>
-    <row r="32" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>431</v>
       </c>
@@ -9069,7 +9056,7 @@
         <v>72</v>
       </c>
       <c r="Z32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AA32">
         <v>3</v>
@@ -9106,10 +9093,10 @@
         <v>233</v>
       </c>
       <c r="AO32" s="13" t="s">
-        <v>809</v>
+        <v>443</v>
       </c>
       <c r="AP32" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AQ32" t="s">
         <v>165</v>
@@ -9121,19 +9108,19 @@
         <v>211</v>
       </c>
       <c r="AU32" t="s">
-        <v>445</v>
+        <v>804</v>
       </c>
       <c r="AV32" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="AW32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX32" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>431</v>
       </c>
@@ -9241,10 +9228,10 @@
         <v>233</v>
       </c>
       <c r="AO33" s="13" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="AP33" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AQ33" t="s">
         <v>165</v>
@@ -9256,19 +9243,19 @@
         <v>211</v>
       </c>
       <c r="AU33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AV33" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AW33" t="s">
         <v>208</v>
       </c>
       <c r="AX33" s="13" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>431</v>
       </c>
@@ -9373,13 +9360,13 @@
         <v>442</v>
       </c>
       <c r="AM34" s="14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AO34" s="13" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AP34" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AQ34" t="s">
         <v>165</v>
@@ -9391,19 +9378,19 @@
         <v>211</v>
       </c>
       <c r="AU34" t="s">
-        <v>815</v>
+        <v>446</v>
       </c>
       <c r="AV34" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="AW34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX34" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>431</v>
       </c>
@@ -9474,7 +9461,7 @@
         <v>72</v>
       </c>
       <c r="Z35" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AA35">
         <v>3</v>
@@ -9508,37 +9495,37 @@
         <v>442</v>
       </c>
       <c r="AM35" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO35" s="13" t="s">
-        <v>443</v>
+        <v>799</v>
       </c>
       <c r="AP35" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AQ35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>810</v>
+        <v>170</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>211</v>
       </c>
       <c r="AU35" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AV35" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="AW35" t="s">
         <v>207</v>
       </c>
       <c r="AX35" s="13" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>431</v>
       </c>
@@ -9609,7 +9596,7 @@
         <v>72</v>
       </c>
       <c r="Z36" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AA36">
         <v>3</v>
@@ -9646,10 +9633,10 @@
         <v>233</v>
       </c>
       <c r="AO36" s="13" t="s">
-        <v>809</v>
+        <v>443</v>
       </c>
       <c r="AP36" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -9658,22 +9645,22 @@
         <v>171</v>
       </c>
       <c r="AT36" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AU36" t="s">
-        <v>445</v>
+        <v>804</v>
       </c>
       <c r="AV36" t="s">
         <v>213</v>
       </c>
       <c r="AW36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX36" s="13" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>431</v>
       </c>
@@ -9781,10 +9768,10 @@
         <v>233</v>
       </c>
       <c r="AO37" s="13" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="AP37" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
@@ -9793,22 +9780,22 @@
         <v>171</v>
       </c>
       <c r="AT37" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AU37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AV37" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AW37" t="s">
         <v>208</v>
       </c>
       <c r="AX37" s="13" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>431</v>
       </c>
@@ -9879,7 +9866,7 @@
         <v>72</v>
       </c>
       <c r="Z38" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AA38">
         <v>3</v>
@@ -9916,69 +9903,72 @@
         <v>233</v>
       </c>
       <c r="AO38" s="13" t="s">
-        <v>443</v>
+        <v>805</v>
       </c>
       <c r="AP38" t="s">
+        <v>802</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT38" t="s">
         <v>806</v>
       </c>
-      <c r="AQ38" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>173</v>
-      </c>
       <c r="AU38" t="s">
-        <v>808</v>
+        <v>446</v>
       </c>
       <c r="AV38" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AW38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX38" s="13" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
-    <row r="39" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B39" t="s">
         <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="D39" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="E39">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F39" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G39" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H39" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I39" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="J39" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="K39" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="L39" t="s">
         <v>248</v>
       </c>
       <c r="M39" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="N39" t="s">
         <v>251</v>
@@ -9987,88 +9977,92 @@
         <v>252</v>
       </c>
       <c r="P39" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q39" t="s">
         <v>21</v>
       </c>
       <c r="S39" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U39" t="s">
         <v>55</v>
       </c>
       <c r="V39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W39" t="s">
         <v>55</v>
       </c>
       <c r="X39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z39" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC39">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="4" t="s">
-        <v>457</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE39" s="4"/>
       <c r="AF39" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH39" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>150</v>
       </c>
       <c r="AL39" t="s">
-        <v>458</v>
-      </c>
-      <c r="AM39" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO39" s="4" t="s">
-        <v>459</v>
+        <v>442</v>
+      </c>
+      <c r="AM39" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO39" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>802</v>
       </c>
       <c r="AQ39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR39" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AU39" t="s">
-        <v>460</v>
+        <v>804</v>
       </c>
       <c r="AV39" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AW39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX39" s="4" t="s">
-        <v>461</v>
+        <v>207</v>
+      </c>
+      <c r="AX39" s="13" t="s">
+        <v>810</v>
       </c>
     </row>
-    <row r="40" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>447</v>
       </c>
@@ -10151,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>797</v>
+        <v>457</v>
       </c>
       <c r="AF40" t="s">
         <v>275</v>
@@ -10163,7 +10157,7 @@
         <v>124</v>
       </c>
       <c r="AL40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AM40" s="4" t="s">
         <v>232</v>
@@ -10178,7 +10172,10 @@
         <v>164</v>
       </c>
       <c r="AR40" t="s">
-        <v>239</v>
+        <v>169</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>181</v>
       </c>
       <c r="AU40" t="s">
         <v>460</v>
@@ -10193,7 +10190,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="41" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>447</v>
       </c>
@@ -10276,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="AF41" t="s">
         <v>275</v>
@@ -10303,10 +10300,7 @@
         <v>164</v>
       </c>
       <c r="AR41" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS41" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="AU41" t="s">
         <v>460</v>
@@ -10321,45 +10315,45 @@
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B42" t="s">
         <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D42" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="E42">
         <v>2010</v>
       </c>
       <c r="F42" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="G42" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="H42" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="I42" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="J42" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="K42" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="L42" t="s">
         <v>248</v>
       </c>
       <c r="M42" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N42" t="s">
         <v>251</v>
@@ -10374,7 +10368,7 @@
         <v>21</v>
       </c>
       <c r="S42" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T42" t="s">
         <v>45</v>
@@ -10383,19 +10377,19 @@
         <v>55</v>
       </c>
       <c r="V42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W42" t="s">
         <v>55</v>
       </c>
       <c r="X42" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z42" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="AA42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>2</v>
@@ -10404,87 +10398,90 @@
         <v>1</v>
       </c>
       <c r="AE42" s="4" t="s">
-        <v>472</v>
+        <v>794</v>
       </c>
       <c r="AF42" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="AG42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH42" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="AL42" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="AM42" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO42" s="4" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="AQ42" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>189</v>
       </c>
       <c r="AU42" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="AV42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AW42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX42" s="4" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="43" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B43" t="s">
         <v>243</v>
       </c>
       <c r="C43" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D43" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="E43">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F43" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="G43" t="s">
-        <v>280</v>
+        <v>467</v>
       </c>
       <c r="H43" t="s">
         <v>297</v>
       </c>
       <c r="I43" t="s">
-        <v>481</v>
+        <v>383</v>
       </c>
       <c r="J43" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="K43" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="L43" t="s">
         <v>248</v>
       </c>
       <c r="M43" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="N43" t="s">
         <v>251</v>
@@ -10499,7 +10496,7 @@
         <v>21</v>
       </c>
       <c r="S43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T43" t="s">
         <v>45</v>
@@ -10508,16 +10505,16 @@
         <v>55</v>
       </c>
       <c r="V43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W43" t="s">
         <v>55</v>
       </c>
       <c r="X43" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z43" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="AA43">
         <v>2</v>
@@ -10529,25 +10526,22 @@
         <v>1</v>
       </c>
       <c r="AE43" s="4" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="AF43" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AG43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI43" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AL43" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="AM43" s="4" t="s">
         <v>232</v>
@@ -10556,34 +10550,25 @@
         <v>162</v>
       </c>
       <c r="AO43" s="4" t="s">
-        <v>162</v>
+        <v>474</v>
       </c>
       <c r="AQ43" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS43" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT43" t="s">
-        <v>488</v>
+        <v>150</v>
       </c>
       <c r="AU43" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="AV43" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AW43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX43" s="4" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="44" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>477</v>
       </c>
@@ -10675,19 +10660,22 @@
         <v>107</v>
       </c>
       <c r="AH44" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="AI44" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>155</v>
       </c>
       <c r="AL44" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM44" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO44" s="4" t="s">
         <v>162</v>
@@ -10714,48 +10702,48 @@
         <v>208</v>
       </c>
       <c r="AX44" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
-    <row r="45" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B45" t="s">
         <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="D45" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="E45">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F45" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="G45" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="H45" t="s">
-        <v>497</v>
+        <v>297</v>
       </c>
       <c r="I45" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="J45" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="K45" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="L45" t="s">
         <v>248</v>
       </c>
       <c r="M45" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="N45" t="s">
         <v>251</v>
@@ -10764,146 +10752,155 @@
         <v>252</v>
       </c>
       <c r="P45" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q45" t="s">
         <v>21</v>
       </c>
-      <c r="R45" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE45" s="4"/>
+      <c r="S45" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" t="s">
+        <v>45</v>
+      </c>
+      <c r="U45" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" t="s">
+        <v>44</v>
+      </c>
+      <c r="W45" t="s">
+        <v>55</v>
+      </c>
+      <c r="X45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA45">
+        <v>2</v>
+      </c>
+      <c r="AB45">
+        <v>2</v>
+      </c>
+      <c r="AC45">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="4" t="s">
+        <v>486</v>
+      </c>
       <c r="AF45" t="s">
         <v>267</v>
       </c>
-      <c r="AX45" s="4"/>
+      <c r="AG45" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>491</v>
+      </c>
+      <c r="AM45" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>488</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>489</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX45" s="4" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="46" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B46" t="s">
         <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D46" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="E46">
         <v>2008</v>
       </c>
       <c r="F46" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="G46" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="H46" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="I46" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="J46" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K46" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="L46" t="s">
         <v>248</v>
       </c>
       <c r="M46" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="N46" t="s">
         <v>251</v>
       </c>
       <c r="O46" t="s">
-        <v>511</v>
+        <v>252</v>
       </c>
       <c r="P46" t="s">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="Q46" t="s">
         <v>21</v>
       </c>
-      <c r="S46" t="s">
-        <v>31</v>
-      </c>
-      <c r="T46" t="s">
-        <v>45</v>
-      </c>
-      <c r="U46" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" t="s">
-        <v>41</v>
-      </c>
-      <c r="W46" t="s">
-        <v>55</v>
-      </c>
-      <c r="X46" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>512</v>
-      </c>
-      <c r="AA46">
-        <v>2</v>
-      </c>
-      <c r="AB46">
-        <v>2</v>
-      </c>
-      <c r="AC46">
-        <v>2</v>
-      </c>
-      <c r="AE46" s="4" t="s">
-        <v>513</v>
-      </c>
+      <c r="R46" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE46" s="4"/>
       <c r="AF46" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>514</v>
-      </c>
-      <c r="AM46" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO46" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="AQ46" t="s">
-        <v>799</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>515</v>
-      </c>
-      <c r="AV46" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW46" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX46" s="4" t="s">
-        <v>516</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AX46" s="4"/>
     </row>
-    <row r="47" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>502</v>
       </c>
@@ -11001,19 +10998,19 @@
         <v>144</v>
       </c>
       <c r="AL47" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM47" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO47" s="4" t="s">
         <v>474</v>
       </c>
       <c r="AQ47" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AU47" t="s">
         <v>515</v>
@@ -11025,10 +11022,10 @@
         <v>207</v>
       </c>
       <c r="AX47" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="48" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>502</v>
       </c>
@@ -11126,34 +11123,34 @@
         <v>144</v>
       </c>
       <c r="AL48" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AM48" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN48" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO48" s="4" t="s">
         <v>474</v>
       </c>
       <c r="AQ48" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AU48" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AV48" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW48" t="s">
         <v>207</v>
       </c>
       <c r="AX48" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>502</v>
       </c>
@@ -11251,19 +11248,19 @@
         <v>144</v>
       </c>
       <c r="AL49" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM49" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO49" s="4" t="s">
         <v>474</v>
       </c>
       <c r="AQ49" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AU49" t="s">
         <v>519</v>
@@ -11278,7 +11275,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>502</v>
       </c>
@@ -11343,13 +11340,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z50" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="AA50">
         <v>2</v>
@@ -11376,34 +11373,34 @@
         <v>144</v>
       </c>
       <c r="AL50" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AM50" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO50" s="4" t="s">
         <v>474</v>
       </c>
       <c r="AQ50" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AU50" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AV50" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW50" t="s">
         <v>207</v>
       </c>
       <c r="AX50" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>502</v>
       </c>
@@ -11501,19 +11498,19 @@
         <v>144</v>
       </c>
       <c r="AL51" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM51" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO51" s="4" t="s">
         <v>474</v>
       </c>
       <c r="AQ51" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AU51" t="s">
         <v>520</v>
@@ -11528,7 +11525,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>502</v>
       </c>
@@ -11626,34 +11623,34 @@
         <v>144</v>
       </c>
       <c r="AL52" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AM52" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO52" s="4" t="s">
         <v>474</v>
       </c>
       <c r="AQ52" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AU52" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AV52" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX52" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>502</v>
       </c>
@@ -11751,19 +11748,19 @@
         <v>144</v>
       </c>
       <c r="AL53" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM53" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO53" s="4" t="s">
         <v>474</v>
       </c>
       <c r="AQ53" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AU53" t="s">
         <v>522</v>
@@ -11778,132 +11775,132 @@
         <v>523</v>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="B54" t="s">
         <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="D54" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="E54">
         <v>2008</v>
       </c>
       <c r="F54" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="G54" t="s">
-        <v>528</v>
+        <v>296</v>
       </c>
       <c r="H54" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="I54" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="J54" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="K54" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="L54" t="s">
         <v>248</v>
       </c>
       <c r="M54" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="N54" t="s">
         <v>251</v>
       </c>
       <c r="O54" t="s">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="P54" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q54" t="s">
         <v>21</v>
       </c>
       <c r="S54" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V54" t="s">
         <v>41</v>
       </c>
       <c r="W54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X54" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z54" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="AA54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE54" s="4" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="AF54" t="s">
         <v>275</v>
       </c>
       <c r="AG54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH54" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI54" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AL54" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="AM54" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO54" s="4" t="s">
         <v>474</v>
       </c>
       <c r="AQ54" t="s">
-        <v>164</v>
+        <v>795</v>
       </c>
       <c r="AU54" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="AV54" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW54" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX54" s="4" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>524</v>
       </c>
@@ -11998,10 +11995,10 @@
         <v>220</v>
       </c>
       <c r="AI55" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AL55" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AM55" s="4" t="s">
         <v>232</v>
@@ -12028,7 +12025,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>524</v>
       </c>
@@ -12099,7 +12096,7 @@
         <v>215</v>
       </c>
       <c r="Z56" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AA56">
         <v>3</v>
@@ -12108,9 +12105,11 @@
         <v>3</v>
       </c>
       <c r="AC56">
-        <v>2</v>
-      </c>
-      <c r="AE56" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE56" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="AF56" t="s">
         <v>275</v>
       </c>
@@ -12118,19 +12117,19 @@
         <v>110</v>
       </c>
       <c r="AH56" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AL56" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AM56" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO56" s="4" t="s">
         <v>474</v>
@@ -12139,7 +12138,7 @@
         <v>164</v>
       </c>
       <c r="AU56" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AV56" t="s">
         <v>199</v>
@@ -12148,10 +12147,10 @@
         <v>207</v>
       </c>
       <c r="AX56" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>524</v>
       </c>
@@ -12247,13 +12246,13 @@
         <v>149</v>
       </c>
       <c r="AL57" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AM57" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO57" s="4" t="s">
         <v>474</v>
@@ -12274,7 +12273,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>524</v>
       </c>
@@ -12364,25 +12363,19 @@
         <v>110</v>
       </c>
       <c r="AH58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI58" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL58" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM58" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO58" s="4" t="s">
         <v>474</v>
@@ -12400,10 +12393,10 @@
         <v>207</v>
       </c>
       <c r="AX58" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>524</v>
       </c>
@@ -12474,7 +12467,7 @@
         <v>215</v>
       </c>
       <c r="Z59" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AA59">
         <v>3</v>
@@ -12493,13 +12486,19 @@
         <v>110</v>
       </c>
       <c r="AH59" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI59" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>150</v>
       </c>
       <c r="AL59" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="AM59" s="4" t="s">
         <v>232</v>
@@ -12514,19 +12513,19 @@
         <v>164</v>
       </c>
       <c r="AU59" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AV59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW59" t="s">
         <v>207</v>
       </c>
       <c r="AX59" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>524</v>
       </c>
@@ -12619,10 +12618,10 @@
         <v>220</v>
       </c>
       <c r="AI60" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AL60" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AM60" s="4" t="s">
         <v>232</v>
@@ -12649,45 +12648,45 @@
         <v>549</v>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="B61" t="s">
         <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="D61" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="E61">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F61" t="s">
-        <v>346</v>
+        <v>527</v>
       </c>
       <c r="G61" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="H61" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="I61" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="J61" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="K61" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="L61" t="s">
         <v>248</v>
       </c>
       <c r="M61" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="N61" t="s">
         <v>251</v>
@@ -12702,7 +12701,7 @@
         <v>21</v>
       </c>
       <c r="S61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T61" t="s">
         <v>46</v>
@@ -12711,22 +12710,22 @@
         <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W61" t="s">
         <v>55</v>
       </c>
       <c r="X61" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z61" t="s">
-        <v>654</v>
+        <v>547</v>
       </c>
       <c r="AA61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC61">
         <v>2</v>
@@ -12736,49 +12735,43 @@
         <v>275</v>
       </c>
       <c r="AG61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH61" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL61" t="s">
-        <v>558</v>
-      </c>
-      <c r="AM61" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AM61" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO61" s="4" t="s">
-        <v>658</v>
+        <v>474</v>
       </c>
       <c r="AQ61" t="s">
         <v>164</v>
       </c>
-      <c r="AR61" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS61" t="s">
-        <v>175</v>
-      </c>
       <c r="AU61" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="AV61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX61" s="4" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="62" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>550</v>
       </c>
@@ -12892,7 +12885,7 @@
         <v>239</v>
       </c>
       <c r="AS62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU62" t="s">
         <v>559</v>
@@ -12907,39 +12900,45 @@
         <v>560</v>
       </c>
     </row>
-    <row r="63" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>646</v>
+        <v>550</v>
       </c>
       <c r="B63" t="s">
         <v>243</v>
       </c>
       <c r="C63" t="s">
-        <v>647</v>
+        <v>551</v>
       </c>
       <c r="D63" t="s">
-        <v>648</v>
+        <v>552</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F63" t="s">
-        <v>434</v>
-      </c>
-      <c r="G63">
-        <v>318</v>
-      </c>
-      <c r="I63">
-        <v>31</v>
-      </c>
-      <c r="J63">
-        <v>45</v>
+        <v>346</v>
+      </c>
+      <c r="G63" t="s">
+        <v>553</v>
+      </c>
+      <c r="H63" t="s">
+        <v>497</v>
+      </c>
+      <c r="I63" t="s">
+        <v>554</v>
+      </c>
+      <c r="J63" t="s">
+        <v>555</v>
       </c>
       <c r="K63" t="s">
-        <v>649</v>
+        <v>556</v>
+      </c>
+      <c r="L63" t="s">
+        <v>248</v>
       </c>
       <c r="M63" t="s">
-        <v>650</v>
+        <v>557</v>
       </c>
       <c r="N63" t="s">
         <v>251</v>
@@ -12948,7 +12947,7 @@
         <v>252</v>
       </c>
       <c r="P63" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q63" t="s">
         <v>21</v>
@@ -12960,56 +12959,53 @@
         <v>46</v>
       </c>
       <c r="U63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V63" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X63" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z63" s="4" t="s">
-        <v>655</v>
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>654</v>
       </c>
       <c r="AA63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE63" s="4"/>
-      <c r="AF63" s="11">
-        <v>4.3</v>
+      <c r="AF63" t="s">
+        <v>275</v>
       </c>
       <c r="AG63" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI63" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AL63" t="s">
-        <v>671</v>
-      </c>
-      <c r="AM63" s="4" t="s">
-        <v>233</v>
+        <v>558</v>
+      </c>
+      <c r="AM63" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>162</v>
       </c>
       <c r="AO63" s="4" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="AQ63" t="s">
         <v>164</v>
@@ -13018,22 +13014,22 @@
         <v>239</v>
       </c>
       <c r="AS63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU63" t="s">
-        <v>652</v>
+        <v>559</v>
       </c>
       <c r="AV63" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX63" s="4" t="s">
-        <v>653</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="64" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>646</v>
       </c>
@@ -13120,7 +13116,7 @@
         <v>120</v>
       </c>
       <c r="AI64" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AJ64" t="s">
         <v>113</v>
@@ -13129,7 +13125,7 @@
         <v>148</v>
       </c>
       <c r="AL64" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM64" s="4" t="s">
         <v>233</v>
@@ -13159,7 +13155,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="65" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>646</v>
       </c>
@@ -13270,7 +13266,7 @@
         <v>239</v>
       </c>
       <c r="AS65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU65" t="s">
         <v>652</v>
@@ -13285,7 +13281,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="66" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>646</v>
       </c>
@@ -13372,7 +13368,7 @@
         <v>120</v>
       </c>
       <c r="AI66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AJ66" t="s">
         <v>113</v>
@@ -13381,7 +13377,7 @@
         <v>148</v>
       </c>
       <c r="AL66" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AM66" s="4" t="s">
         <v>233</v>
@@ -13411,45 +13407,39 @@
         <v>653</v>
       </c>
     </row>
-    <row r="67" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>561</v>
+        <v>646</v>
       </c>
       <c r="B67" t="s">
         <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
       <c r="D67" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
       <c r="E67">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F67" t="s">
-        <v>564</v>
-      </c>
-      <c r="G67" t="s">
-        <v>565</v>
-      </c>
-      <c r="H67" t="s">
-        <v>280</v>
-      </c>
-      <c r="I67" t="s">
-        <v>566</v>
-      </c>
-      <c r="J67" t="s">
-        <v>567</v>
+        <v>434</v>
+      </c>
+      <c r="G67">
+        <v>318</v>
+      </c>
+      <c r="I67">
+        <v>31</v>
+      </c>
+      <c r="J67">
+        <v>45</v>
       </c>
       <c r="K67" t="s">
-        <v>568</v>
-      </c>
-      <c r="L67" t="s">
-        <v>248</v>
+        <v>649</v>
       </c>
       <c r="M67" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
       <c r="N67" t="s">
         <v>251</v>
@@ -13458,31 +13448,31 @@
         <v>252</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q67" t="s">
         <v>21</v>
       </c>
       <c r="S67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T67" t="s">
+        <v>46</v>
+      </c>
+      <c r="U67" t="s">
+        <v>57</v>
+      </c>
+      <c r="V67" t="s">
         <v>41</v>
       </c>
-      <c r="U67" t="s">
-        <v>52</v>
-      </c>
-      <c r="V67" t="s">
-        <v>44</v>
-      </c>
       <c r="W67" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X67" t="s">
         <v>216</v>
       </c>
       <c r="Z67" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AA67">
         <v>3</v>
@@ -13494,11 +13484,11 @@
         <v>3</v>
       </c>
       <c r="AE67" s="4"/>
-      <c r="AF67" t="s">
-        <v>335</v>
+      <c r="AF67" s="11">
+        <v>4.3</v>
       </c>
       <c r="AG67" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH67" t="s">
         <v>120</v>
@@ -13510,40 +13500,40 @@
         <v>113</v>
       </c>
       <c r="AK67" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL67" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="AM67" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO67" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="AQ67" t="s">
         <v>164</v>
       </c>
       <c r="AR67" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS67" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AU67" t="s">
-        <v>515</v>
+        <v>652</v>
       </c>
       <c r="AV67" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX67" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
-    <row r="68" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>561</v>
       </c>
@@ -13636,7 +13626,7 @@
         <v>120</v>
       </c>
       <c r="AI68" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AJ68" t="s">
         <v>113</v>
@@ -13645,7 +13635,7 @@
         <v>141</v>
       </c>
       <c r="AL68" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AM68" s="4" t="s">
         <v>233</v>
@@ -13675,7 +13665,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="69" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>561</v>
       </c>
@@ -13768,7 +13758,7 @@
         <v>120</v>
       </c>
       <c r="AI69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AJ69" t="s">
         <v>113</v>
@@ -13776,8 +13766,8 @@
       <c r="AK69" t="s">
         <v>141</v>
       </c>
-      <c r="AL69" s="4" t="s">
-        <v>660</v>
+      <c r="AL69" t="s">
+        <v>661</v>
       </c>
       <c r="AM69" s="4" t="s">
         <v>233</v>
@@ -13801,51 +13791,51 @@
         <v>199</v>
       </c>
       <c r="AW69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX69" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
-    <row r="70" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B70" t="s">
         <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D70" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="E70">
         <v>2005</v>
       </c>
       <c r="F70" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="G70" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="H70" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="I70" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="J70" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K70" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L70" t="s">
         <v>248</v>
       </c>
       <c r="M70" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="N70" t="s">
         <v>251</v>
@@ -13859,59 +13849,131 @@
       <c r="Q70" t="s">
         <v>21</v>
       </c>
-      <c r="R70" t="s">
-        <v>84</v>
+      <c r="S70" t="s">
+        <v>26</v>
+      </c>
+      <c r="T70" t="s">
+        <v>41</v>
+      </c>
+      <c r="U70" t="s">
+        <v>52</v>
+      </c>
+      <c r="V70" t="s">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s">
+        <v>51</v>
+      </c>
+      <c r="X70" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z70" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA70">
+        <v>3</v>
+      </c>
+      <c r="AB70">
+        <v>3</v>
+      </c>
+      <c r="AC70">
+        <v>3</v>
       </c>
       <c r="AE70" s="4"/>
       <c r="AF70" t="s">
-        <v>253</v>
+        <v>335</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL70" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="AM70" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO70" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>515</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX70" s="4" t="s">
+        <v>659</v>
       </c>
     </row>
-    <row r="71" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B71" t="s">
         <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D71" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="E71">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F71" t="s">
         <v>573</v>
       </c>
       <c r="G71" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H71" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="I71" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="J71" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="K71" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="L71" t="s">
         <v>248</v>
       </c>
       <c r="M71" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="N71" t="s">
         <v>251</v>
       </c>
       <c r="O71" t="s">
-        <v>511</v>
+        <v>252</v>
       </c>
       <c r="P71" t="s">
         <v>248</v>
@@ -13919,81 +13981,15 @@
       <c r="Q71" t="s">
         <v>21</v>
       </c>
-      <c r="S71" t="s">
-        <v>26</v>
-      </c>
-      <c r="T71" t="s">
-        <v>42</v>
-      </c>
-      <c r="U71" t="s">
-        <v>56</v>
-      </c>
-      <c r="V71" t="s">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s">
-        <v>52</v>
-      </c>
-      <c r="X71" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z71" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AA71">
-        <v>2</v>
-      </c>
-      <c r="AB71">
-        <v>2</v>
-      </c>
-      <c r="AC71">
-        <v>2</v>
+      <c r="R71" t="s">
+        <v>84</v>
       </c>
       <c r="AE71" s="4"/>
       <c r="AF71" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK71" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM71" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO71" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AQ71" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR71" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS71" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU71" t="s">
-        <v>664</v>
-      </c>
-      <c r="AV71" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW71" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX71" s="4" t="s">
-        <v>666</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="72" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>579</v>
       </c>
@@ -14074,9 +14070,6 @@
       </c>
       <c r="AC72">
         <v>2</v>
-      </c>
-      <c r="AD72" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="AE72" s="4"/>
       <c r="AF72" t="s">
@@ -14089,10 +14082,10 @@
         <v>121</v>
       </c>
       <c r="AI72" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AK72" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AM72" s="4" t="s">
         <v>233</v>
@@ -14116,120 +14109,118 @@
         <v>113</v>
       </c>
       <c r="AW72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX72" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
-    <row r="73" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B73" t="s">
         <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D73" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E73">
         <v>2003</v>
       </c>
       <c r="F73" t="s">
-        <v>390</v>
+        <v>573</v>
       </c>
       <c r="G73" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="H73" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="I73" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="J73" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="K73" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="L73" t="s">
         <v>248</v>
       </c>
       <c r="M73" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="N73" t="s">
         <v>251</v>
       </c>
       <c r="O73" t="s">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="P73" t="s">
-        <v>595</v>
+        <v>248</v>
       </c>
       <c r="Q73" t="s">
         <v>21</v>
       </c>
       <c r="S73" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T73" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U73" t="s">
         <v>56</v>
       </c>
       <c r="V73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X73" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="AA73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC73">
         <v>2</v>
       </c>
-      <c r="AE73" s="4" t="s">
-        <v>672</v>
-      </c>
+      <c r="AD73" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="AE73" s="4"/>
       <c r="AF73" t="s">
         <v>335</v>
       </c>
       <c r="AG73" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI73" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AK73" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>670</v>
+        <v>146</v>
       </c>
       <c r="AM73" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO73" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="AQ73" t="s">
         <v>164</v>
@@ -14238,60 +14229,60 @@
         <v>239</v>
       </c>
       <c r="AS73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU73" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="AV73" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="AW73" t="s">
         <v>208</v>
       </c>
       <c r="AX73" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
-    <row r="74" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B74" t="s">
         <v>243</v>
       </c>
       <c r="C74" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D74" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="E74">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F74" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="G74" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="H74" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="I74" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="J74" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="K74" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="L74" t="s">
         <v>248</v>
       </c>
       <c r="M74" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="N74" t="s">
         <v>251</v>
@@ -14309,58 +14300,58 @@
         <v>24</v>
       </c>
       <c r="T74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U74" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W74" t="s">
         <v>51</v>
       </c>
       <c r="X74" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y74" s="4" t="s">
-        <v>675</v>
+        <v>80</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="AA74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC74">
         <v>2</v>
       </c>
-      <c r="AD74" s="4" t="s">
-        <v>683</v>
-      </c>
       <c r="AE74" s="4" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AF74" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="AG74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH74" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL74" s="4" t="s">
-        <v>678</v>
+        <v>120</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>670</v>
       </c>
       <c r="AM74" s="4" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO74" s="4" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="AQ74" t="s">
         <v>164</v>
@@ -14369,25 +14360,22 @@
         <v>239</v>
       </c>
       <c r="AS74" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT74" t="s">
-        <v>680</v>
+        <v>176</v>
       </c>
       <c r="AU74" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="AV74" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AW74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX74" s="4" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
     </row>
-    <row r="75" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>596</v>
       </c>
@@ -14509,57 +14497,57 @@
         <v>680</v>
       </c>
       <c r="AU75" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AV75" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AW75" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX75" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
-    <row r="76" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B76" t="s">
         <v>243</v>
       </c>
       <c r="C76" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D76" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E76">
         <v>2000</v>
       </c>
       <c r="F76" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G76" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="H76" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="I76" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="J76" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="K76" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="L76" t="s">
         <v>248</v>
       </c>
       <c r="M76" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="N76" t="s">
         <v>251</v>
@@ -14568,58 +14556,132 @@
         <v>252</v>
       </c>
       <c r="P76" t="s">
-        <v>334</v>
+        <v>595</v>
       </c>
       <c r="Q76" t="s">
         <v>21</v>
       </c>
-      <c r="R76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE76" s="4"/>
+      <c r="S76" t="s">
+        <v>24</v>
+      </c>
+      <c r="T76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s">
+        <v>53</v>
+      </c>
+      <c r="V76" t="s">
+        <v>39</v>
+      </c>
+      <c r="W76" t="s">
+        <v>51</v>
+      </c>
+      <c r="X76" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y76" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z76" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA76">
+        <v>2</v>
+      </c>
+      <c r="AB76">
+        <v>2</v>
+      </c>
+      <c r="AC76">
+        <v>2</v>
+      </c>
+      <c r="AD76" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE76" s="4" t="s">
+        <v>677</v>
+      </c>
       <c r="AF76" t="s">
         <v>253</v>
       </c>
+      <c r="AG76" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL76" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AM76" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO76" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>680</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>684</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX76" s="4" t="s">
+        <v>685</v>
+      </c>
     </row>
-    <row r="77" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B77" t="s">
         <v>243</v>
       </c>
       <c r="C77" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D77" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E77">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F77" t="s">
-        <v>615</v>
+        <v>390</v>
       </c>
       <c r="G77" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="I77" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="J77" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="K77" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="L77" t="s">
         <v>248</v>
       </c>
       <c r="M77" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="N77" t="s">
         <v>251</v>
@@ -14628,121 +14690,58 @@
         <v>252</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q77" t="s">
         <v>21</v>
       </c>
-      <c r="S77" t="s">
-        <v>31</v>
-      </c>
-      <c r="T77" t="s">
-        <v>41</v>
-      </c>
-      <c r="U77" t="s">
-        <v>56</v>
-      </c>
-      <c r="V77" t="s">
-        <v>42</v>
-      </c>
-      <c r="W77" t="s">
-        <v>56</v>
-      </c>
-      <c r="X77" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z77" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="AA77">
-        <v>2</v>
-      </c>
-      <c r="AB77">
-        <v>2</v>
-      </c>
-      <c r="AC77">
-        <v>2</v>
+      <c r="R77" t="s">
+        <v>84</v>
       </c>
       <c r="AE77" s="4"/>
       <c r="AF77" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL77" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="AM77" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO77" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="AQ77" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR77" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS77" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU77" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AV77" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW77" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX77" s="4" t="s">
-        <v>689</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="78" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B78" t="s">
         <v>243</v>
       </c>
       <c r="C78" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D78" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="E78">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F78" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G78" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="H78" t="s">
-        <v>626</v>
+        <v>281</v>
       </c>
       <c r="I78" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="J78" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="K78" t="s">
-        <v>248</v>
+        <v>619</v>
       </c>
       <c r="L78" t="s">
         <v>248</v>
       </c>
       <c r="M78" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="N78" t="s">
         <v>251</v>
@@ -14757,94 +14756,77 @@
         <v>21</v>
       </c>
       <c r="S78" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X78" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB78">
         <v>2</v>
       </c>
       <c r="AC78">
-        <v>1</v>
-      </c>
-      <c r="AD78" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="AE78" s="4" t="s">
-        <v>695</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AE78" s="4"/>
       <c r="AF78" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG78" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AH78" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI78" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="AL78" s="4" t="s">
-        <v>691</v>
+        <v>797</v>
       </c>
       <c r="AM78" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN78" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AO78" s="4" t="s">
-        <v>162</v>
+        <v>687</v>
       </c>
       <c r="AQ78" t="s">
         <v>164</v>
       </c>
       <c r="AR78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS78" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT78" t="s">
-        <v>692</v>
-      </c>
-      <c r="AU78" t="s">
-        <v>693</v>
+        <v>181</v>
+      </c>
+      <c r="AU78" s="4" t="s">
+        <v>688</v>
       </c>
       <c r="AV78" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="AW78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX78" s="4" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
-    <row r="79" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>621</v>
       </c>
@@ -14897,7 +14879,7 @@
         <v>21</v>
       </c>
       <c r="S79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T79" t="s">
         <v>46</v>
@@ -14981,54 +14963,54 @@
         <v>208</v>
       </c>
       <c r="AX79" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
-    <row r="80" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B80" t="s">
         <v>243</v>
       </c>
       <c r="C80" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D80" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E80">
         <v>1996</v>
       </c>
       <c r="F80" t="s">
-        <v>450</v>
+        <v>624</v>
       </c>
       <c r="G80" t="s">
-        <v>321</v>
+        <v>625</v>
       </c>
       <c r="H80" t="s">
-        <v>416</v>
+        <v>626</v>
       </c>
       <c r="I80" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="J80" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K80" t="s">
-        <v>635</v>
+        <v>248</v>
       </c>
       <c r="L80" t="s">
         <v>248</v>
       </c>
       <c r="M80" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="N80" t="s">
         <v>251</v>
       </c>
       <c r="O80" t="s">
-        <v>511</v>
+        <v>252</v>
       </c>
       <c r="P80" t="s">
         <v>248</v>
@@ -15037,89 +15019,94 @@
         <v>21</v>
       </c>
       <c r="S80" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T80" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U80" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W80" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X80" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="AA80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB80">
         <v>2</v>
       </c>
       <c r="AC80">
-        <v>2</v>
-      </c>
-      <c r="AE80" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD80" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE80" s="4" t="s">
+        <v>695</v>
+      </c>
       <c r="AF80" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG80" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI80" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ80" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK80" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL80" s="4" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="AM80" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO80" s="4" t="s">
-        <v>459</v>
+        <v>162</v>
       </c>
       <c r="AQ80" t="s">
         <v>164</v>
       </c>
       <c r="AR80" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS80" t="s">
-        <v>176</v>
+        <v>190</v>
+      </c>
+      <c r="AT80" t="s">
+        <v>692</v>
       </c>
       <c r="AU80" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="AV80" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW80" t="s">
         <v>208</v>
       </c>
       <c r="AX80" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
-    <row r="81" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>630</v>
       </c>
@@ -15245,16 +15232,16 @@
         <v>699</v>
       </c>
       <c r="AV81" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW81" t="s">
         <v>208</v>
       </c>
       <c r="AX81" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="82" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>630</v>
       </c>
@@ -15371,25 +15358,25 @@
         <v>164</v>
       </c>
       <c r="AR82" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS82" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU82" t="s">
         <v>699</v>
       </c>
       <c r="AV82" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW82" t="s">
         <v>208</v>
       </c>
       <c r="AX82" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
-    <row r="83" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>630</v>
       </c>
@@ -15515,87 +15502,87 @@
         <v>699</v>
       </c>
       <c r="AV83" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW83" t="s">
         <v>208</v>
       </c>
       <c r="AX83" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="84" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B84" t="s">
         <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D84" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E84">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F84" t="s">
-        <v>640</v>
+        <v>450</v>
       </c>
       <c r="G84" t="s">
-        <v>590</v>
+        <v>321</v>
       </c>
       <c r="H84" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="I84" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="J84" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="K84" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="L84" t="s">
         <v>248</v>
       </c>
       <c r="M84" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="N84" t="s">
         <v>251</v>
       </c>
       <c r="O84" t="s">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="P84" t="s">
-        <v>645</v>
+        <v>248</v>
       </c>
       <c r="Q84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S84" t="s">
         <v>25</v>
       </c>
       <c r="T84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U84" t="s">
         <v>48</v>
       </c>
       <c r="V84" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W84" t="s">
         <v>48</v>
       </c>
       <c r="X84" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z84" s="4" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="AA84">
         <v>2</v>
@@ -15617,13 +15604,16 @@
         <v>120</v>
       </c>
       <c r="AI84" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>113</v>
       </c>
       <c r="AK84" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL84" s="4" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="AM84" s="4" t="s">
         <v>232</v>
@@ -15632,7 +15622,7 @@
         <v>161</v>
       </c>
       <c r="AO84" s="4" t="s">
-        <v>703</v>
+        <v>459</v>
       </c>
       <c r="AQ84" t="s">
         <v>164</v>
@@ -15644,19 +15634,19 @@
         <v>178</v>
       </c>
       <c r="AU84" t="s">
-        <v>459</v>
+        <v>699</v>
       </c>
       <c r="AV84" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AW84" t="s">
         <v>208</v>
       </c>
       <c r="AX84" s="4" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
-    <row r="85" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>637</v>
       </c>
@@ -15761,7 +15751,7 @@
         <v>232</v>
       </c>
       <c r="AN85" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO85" s="4" t="s">
         <v>703</v>
@@ -15785,10 +15775,10 @@
         <v>208</v>
       </c>
       <c r="AX85" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
-    <row r="86" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>637</v>
       </c>
@@ -15878,22 +15868,22 @@
         <v>107</v>
       </c>
       <c r="AH86" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AI86" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AK86" t="s">
         <v>148</v>
       </c>
       <c r="AL86" s="4" t="s">
-        <v>705</v>
+        <v>670</v>
       </c>
       <c r="AM86" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO86" s="4" t="s">
         <v>703</v>
@@ -15917,10 +15907,10 @@
         <v>208</v>
       </c>
       <c r="AX86" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
-    <row r="87" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>637</v>
       </c>
@@ -15988,7 +15978,7 @@
         <v>48</v>
       </c>
       <c r="X87" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z87" s="4" t="s">
         <v>709</v>
@@ -16010,16 +16000,16 @@
         <v>107</v>
       </c>
       <c r="AH87" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI87" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AK87" t="s">
         <v>148</v>
       </c>
       <c r="AL87" s="4" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="AM87" s="4" t="s">
         <v>232</v>
@@ -16049,10 +16039,10 @@
         <v>208</v>
       </c>
       <c r="AX87" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
-    <row r="88" spans="1:50" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>637</v>
       </c>
@@ -16122,8 +16112,8 @@
       <c r="X88" t="s">
         <v>72</v>
       </c>
-      <c r="Z88" t="s">
-        <v>712</v>
+      <c r="Z88" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="AA88">
         <v>2</v>
@@ -16134,6 +16124,7 @@
       <c r="AC88">
         <v>2</v>
       </c>
+      <c r="AE88" s="4"/>
       <c r="AF88" t="s">
         <v>335</v>
       </c>
@@ -16141,19 +16132,22 @@
         <v>107</v>
       </c>
       <c r="AH88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI88" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AK88" t="s">
         <v>148</v>
       </c>
       <c r="AL88" s="4" t="s">
-        <v>710</v>
+        <v>671</v>
       </c>
       <c r="AM88" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN88" t="s">
+        <v>161</v>
       </c>
       <c r="AO88" s="4" t="s">
         <v>703</v>
@@ -16168,15 +16162,143 @@
         <v>178</v>
       </c>
       <c r="AU88" t="s">
-        <v>711</v>
+        <v>459</v>
       </c>
       <c r="AV88" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="AW88" t="s">
         <v>208</v>
       </c>
       <c r="AX88" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>637</v>
+      </c>
+      <c r="B89" t="s">
+        <v>243</v>
+      </c>
+      <c r="C89" t="s">
+        <v>638</v>
+      </c>
+      <c r="D89" t="s">
+        <v>639</v>
+      </c>
+      <c r="E89">
+        <v>2003</v>
+      </c>
+      <c r="F89" t="s">
+        <v>640</v>
+      </c>
+      <c r="G89" t="s">
+        <v>590</v>
+      </c>
+      <c r="H89" t="s">
+        <v>297</v>
+      </c>
+      <c r="I89" t="s">
+        <v>641</v>
+      </c>
+      <c r="J89" t="s">
+        <v>642</v>
+      </c>
+      <c r="K89" t="s">
+        <v>643</v>
+      </c>
+      <c r="L89" t="s">
+        <v>248</v>
+      </c>
+      <c r="M89" t="s">
+        <v>644</v>
+      </c>
+      <c r="N89" t="s">
+        <v>251</v>
+      </c>
+      <c r="O89" t="s">
+        <v>252</v>
+      </c>
+      <c r="P89" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>22</v>
+      </c>
+      <c r="S89" t="s">
+        <v>25</v>
+      </c>
+      <c r="T89" t="s">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s">
+        <v>48</v>
+      </c>
+      <c r="V89" t="s">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s">
+        <v>48</v>
+      </c>
+      <c r="X89" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA89">
+        <v>2</v>
+      </c>
+      <c r="AB89">
+        <v>2</v>
+      </c>
+      <c r="AC89">
+        <v>2</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL89" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="AM89" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO89" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="AQ89" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS89" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU89" t="s">
+        <v>711</v>
+      </c>
+      <c r="AV89" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW89" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX89" s="4" t="s">
         <v>713</v>
       </c>
     </row>
@@ -16312,17 +16434,17 @@
       <selection activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" customWidth="1"/>
-    <col min="33" max="33" width="26.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.54296875" customWidth="1"/>
+    <col min="33" max="33" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
@@ -16388,7 +16510,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -16540,7 +16662,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -16597,7 +16719,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -16654,7 +16776,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -16710,7 +16832,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -16755,7 +16877,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -16797,7 +16919,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -16829,13 +16951,13 @@
         <v>233</v>
       </c>
       <c r="AQ8" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AV8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -16873,7 +16995,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -16905,7 +17027,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -16940,7 +17062,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -16972,7 +17094,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -17007,7 +17129,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -17036,7 +17158,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -17065,7 +17187,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -17085,7 +17207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -17093,22 +17215,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -17143,7 +17265,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -17169,7 +17291,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -17192,7 +17314,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -17203,7 +17325,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -17214,7 +17336,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -17222,12 +17344,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -17250,7 +17372,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -17276,7 +17398,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -17302,7 +17424,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -17322,7 +17444,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -17337,7 +17459,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -17351,7 +17473,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -17359,10 +17481,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -17390,38 +17512,38 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="19.453125" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="18.54296875" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" customWidth="1"/>
-    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" customWidth="1"/>
+    <col min="31" max="31" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
@@ -17468,7 +17590,7 @@
       <c r="AF1" s="16"/>
       <c r="AG1" s="16"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -17569,7 +17691,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -17635,7 +17757,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -17686,7 +17808,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -17740,7 +17862,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -17782,7 +17904,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -17827,7 +17949,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -17865,7 +17987,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -17903,7 +18025,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -17938,7 +18060,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -17970,7 +18092,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -18002,7 +18124,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -18031,7 +18153,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -18054,7 +18176,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -18080,7 +18202,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -18097,7 +18219,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -18108,7 +18230,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -18122,7 +18244,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -18136,7 +18258,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -18147,7 +18269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -18161,7 +18283,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -18172,7 +18294,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -18183,7 +18305,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -18191,7 +18313,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -18199,7 +18321,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -18207,7 +18329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -18221,7 +18343,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -18232,7 +18354,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -18243,7 +18365,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -18254,7 +18376,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -18262,7 +18384,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -18270,12 +18392,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -18295,12 +18417,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -18414,23 +18545,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E4DF9E-7F1E-4972-89F4-4FEF38D7FA95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E4DF9E-7F1E-4972-89F4-4FEF38D7FA95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33E017D-635B-4355-A115-37D49CBFD392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0981BAB-7CE6-4F0A-87BE-9D5D64D4529D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5044,7 +5044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5058,14 +5058,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5381,8 +5379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AP92" sqref="AP92"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU35" sqref="AU35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5405,70 +5403,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="20" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="18" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="21" t="s">
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="15" t="s">
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="16" t="s">
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -7242,7 +7240,7 @@
       <c r="AN16" t="s">
         <v>162</v>
       </c>
-      <c r="AO16" s="12" t="s">
+      <c r="AO16" t="s">
         <v>813</v>
       </c>
       <c r="AQ16" t="s">
@@ -7365,7 +7363,7 @@
       <c r="AN17" t="s">
         <v>162</v>
       </c>
-      <c r="AO17" s="12" t="s">
+      <c r="AO17" t="s">
         <v>813</v>
       </c>
       <c r="AQ17" t="s">
@@ -9089,10 +9087,10 @@
       <c r="AL32" t="s">
         <v>442</v>
       </c>
-      <c r="AM32" s="14" t="s">
+      <c r="AM32" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AO32" s="13" t="s">
+      <c r="AO32" s="11" t="s">
         <v>443</v>
       </c>
       <c r="AP32" t="s">
@@ -9111,12 +9109,12 @@
         <v>804</v>
       </c>
       <c r="AV32" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="AW32" t="s">
         <v>207</v>
       </c>
-      <c r="AX32" s="13" t="s">
+      <c r="AX32" s="11" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9224,10 +9222,10 @@
       <c r="AL33" t="s">
         <v>442</v>
       </c>
-      <c r="AM33" s="14" t="s">
+      <c r="AM33" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AO33" s="13" t="s">
+      <c r="AO33" s="11" t="s">
         <v>805</v>
       </c>
       <c r="AP33" t="s">
@@ -9251,7 +9249,7 @@
       <c r="AW33" t="s">
         <v>208</v>
       </c>
-      <c r="AX33" s="13" t="s">
+      <c r="AX33" s="11" t="s">
         <v>801</v>
       </c>
     </row>
@@ -9359,10 +9357,10 @@
       <c r="AL34" t="s">
         <v>442</v>
       </c>
-      <c r="AM34" s="14" t="s">
+      <c r="AM34" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AO34" s="13" t="s">
+      <c r="AO34" s="11" t="s">
         <v>805</v>
       </c>
       <c r="AP34" t="s">
@@ -9386,7 +9384,7 @@
       <c r="AW34" t="s">
         <v>208</v>
       </c>
-      <c r="AX34" s="13" t="s">
+      <c r="AX34" s="11" t="s">
         <v>800</v>
       </c>
     </row>
@@ -9494,10 +9492,10 @@
       <c r="AL35" t="s">
         <v>442</v>
       </c>
-      <c r="AM35" s="14" t="s">
+      <c r="AM35" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="AO35" s="13" t="s">
+      <c r="AO35" s="11" t="s">
         <v>799</v>
       </c>
       <c r="AP35" t="s">
@@ -9521,7 +9519,7 @@
       <c r="AW35" t="s">
         <v>207</v>
       </c>
-      <c r="AX35" s="13" t="s">
+      <c r="AX35" s="11" t="s">
         <v>798</v>
       </c>
     </row>
@@ -9629,10 +9627,10 @@
       <c r="AL36" t="s">
         <v>442</v>
       </c>
-      <c r="AM36" s="14" t="s">
+      <c r="AM36" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AO36" s="13" t="s">
+      <c r="AO36" s="11" t="s">
         <v>443</v>
       </c>
       <c r="AP36" t="s">
@@ -9656,7 +9654,7 @@
       <c r="AW36" t="s">
         <v>207</v>
       </c>
-      <c r="AX36" s="13" t="s">
+      <c r="AX36" s="11" t="s">
         <v>807</v>
       </c>
     </row>
@@ -9764,10 +9762,10 @@
       <c r="AL37" t="s">
         <v>442</v>
       </c>
-      <c r="AM37" s="14" t="s">
+      <c r="AM37" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AO37" s="13" t="s">
+      <c r="AO37" s="11" t="s">
         <v>805</v>
       </c>
       <c r="AP37" t="s">
@@ -9791,7 +9789,7 @@
       <c r="AW37" t="s">
         <v>208</v>
       </c>
-      <c r="AX37" s="13" t="s">
+      <c r="AX37" s="11" t="s">
         <v>808</v>
       </c>
     </row>
@@ -9899,10 +9897,10 @@
       <c r="AL38" t="s">
         <v>442</v>
       </c>
-      <c r="AM38" s="14" t="s">
+      <c r="AM38" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AO38" s="13" t="s">
+      <c r="AO38" s="11" t="s">
         <v>805</v>
       </c>
       <c r="AP38" t="s">
@@ -9926,7 +9924,7 @@
       <c r="AW38" t="s">
         <v>208</v>
       </c>
-      <c r="AX38" s="13" t="s">
+      <c r="AX38" s="11" t="s">
         <v>809</v>
       </c>
     </row>
@@ -10034,10 +10032,10 @@
       <c r="AL39" t="s">
         <v>442</v>
       </c>
-      <c r="AM39" s="14" t="s">
+      <c r="AM39" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AO39" s="13" t="s">
+      <c r="AO39" s="11" t="s">
         <v>443</v>
       </c>
       <c r="AP39" t="s">
@@ -10058,7 +10056,7 @@
       <c r="AW39" t="s">
         <v>207</v>
       </c>
-      <c r="AX39" s="13" t="s">
+      <c r="AX39" s="11" t="s">
         <v>810</v>
       </c>
     </row>
@@ -12869,7 +12867,7 @@
       <c r="AL62" t="s">
         <v>558</v>
       </c>
-      <c r="AM62" s="12" t="s">
+      <c r="AM62" t="s">
         <v>232</v>
       </c>
       <c r="AN62" t="s">
@@ -12998,7 +12996,7 @@
       <c r="AL63" t="s">
         <v>558</v>
       </c>
-      <c r="AM63" s="12" t="s">
+      <c r="AM63" t="s">
         <v>232</v>
       </c>
       <c r="AN63" t="s">
@@ -13106,7 +13104,7 @@
         <v>3</v>
       </c>
       <c r="AE64" s="4"/>
-      <c r="AF64" s="11">
+      <c r="AF64" s="10">
         <v>4.3</v>
       </c>
       <c r="AG64" t="s">
@@ -13232,7 +13230,7 @@
         <v>3</v>
       </c>
       <c r="AE65" s="4"/>
-      <c r="AF65" s="11">
+      <c r="AF65" s="10">
         <v>4.3</v>
       </c>
       <c r="AG65" t="s">
@@ -13358,7 +13356,7 @@
         <v>3</v>
       </c>
       <c r="AE66" s="4"/>
-      <c r="AF66" s="11">
+      <c r="AF66" s="10">
         <v>4.3</v>
       </c>
       <c r="AG66" t="s">
@@ -13484,7 +13482,7 @@
         <v>3</v>
       </c>
       <c r="AE67" s="4"/>
-      <c r="AF67" s="11">
+      <c r="AF67" s="10">
         <v>4.3</v>
       </c>
       <c r="AG67" t="s">
@@ -16428,7 +16426,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="AB2" workbookViewId="0">
       <selection activeCell="AR7" sqref="AR7"/>
@@ -16445,70 +16443,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="20" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="18" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="15" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -16830,7 +16828,7 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
@@ -17221,7 +17219,7 @@
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
-      <c r="AQ19" s="7" t="s">
+      <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -17424,7 +17422,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -17444,7 +17442,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -17457,9 +17455,8 @@
       <c r="AV34" t="s">
         <v>194</v>
       </c>
-      <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -17473,7 +17470,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -17481,10 +17478,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -17544,51 +17541,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="19" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="15" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -18111,7 +18108,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -18426,12 +18423,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -18545,6 +18536,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -18554,21 +18551,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E4DF9E-7F1E-4972-89F4-4FEF38D7FA95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18582,4 +18564,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6686709-0CBD-4C7F-AE4B-AB64956BF761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC85CDC-1F29-42C3-85F1-C5BB948AD4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$95</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="824">
   <si>
     <t>SearchID</t>
   </si>
@@ -4908,6 +4908,27 @@
   </si>
   <si>
     <t>We showed that the protection of juveniles, by imposing selectivity improvements or space-time closures on trawlers, slightly reduced the unwanted catch.</t>
+  </si>
+  <si>
+    <t>Grid trawling and creeling both had zero discard rates of elasmobranchs</t>
+  </si>
+  <si>
+    <t>change from mixed trawling to grid trawling or creeling</t>
+  </si>
+  <si>
+    <t>Mixed trawling has highest discard rate of elasmobranchs compared to creeling and grid trawling</t>
+  </si>
+  <si>
+    <t>Gadus morhua</t>
+  </si>
+  <si>
+    <t>Mixed trawling has highest discard rate of cod compared to creeling and grid trawling</t>
+  </si>
+  <si>
+    <t>Grid trawling and creeling had similar discard rates of cod</t>
+  </si>
+  <si>
+    <t>change from grid trawling to creeling</t>
   </si>
 </sst>
 </file>
@@ -5387,10 +5408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX91"/>
+  <dimension ref="A1:AX95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8351,13 +8372,16 @@
         <v>109</v>
       </c>
       <c r="AH26" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>161</v>
       </c>
       <c r="AO26" s="4" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -8369,57 +8393,57 @@
         <v>771</v>
       </c>
       <c r="AU26" t="s">
-        <v>773</v>
+        <v>657</v>
       </c>
       <c r="AV26" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="AW26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>772</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D27" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E27">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F27" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G27" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>392</v>
       </c>
       <c r="J27" t="s">
-        <v>248</v>
+        <v>393</v>
       </c>
       <c r="K27" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L27" t="s">
         <v>248</v>
       </c>
       <c r="M27" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N27" t="s">
         <v>251</v>
@@ -8428,13 +8452,13 @@
         <v>252</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="Q27" t="s">
         <v>21</v>
       </c>
       <c r="S27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T27" t="s">
         <v>46</v>
@@ -8443,16 +8467,16 @@
         <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W27" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X27" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8465,87 +8489,90 @@
       </c>
       <c r="AE27" s="4"/>
       <c r="AF27" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s">
         <v>109</v>
       </c>
       <c r="AH27" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>138</v>
       </c>
       <c r="AL27" t="s">
-        <v>775</v>
+        <v>820</v>
       </c>
       <c r="AM27" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO27" s="4" t="s">
-        <v>776</v>
+        <v>823</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
       <c r="AR27" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>192</v>
+        <v>113</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>771</v>
       </c>
       <c r="AU27" t="s">
-        <v>238</v>
+        <v>657</v>
       </c>
       <c r="AV27" t="s">
         <v>238</v>
       </c>
       <c r="AW27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>777</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D28" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E28">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F28" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="G28" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="H28" t="s">
-        <v>406</v>
+        <v>281</v>
       </c>
       <c r="I28" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="J28" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="K28" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="L28" t="s">
         <v>248</v>
       </c>
       <c r="M28" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="N28" t="s">
         <v>251</v>
@@ -8554,22 +8581,22 @@
         <v>252</v>
       </c>
       <c r="P28" t="s">
-        <v>411</v>
+        <v>248</v>
       </c>
       <c r="Q28" t="s">
         <v>21</v>
       </c>
       <c r="S28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="T28" t="s">
         <v>46</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W28" t="s">
         <v>55</v>
@@ -8578,7 +8605,7 @@
         <v>69</v>
       </c>
       <c r="Z28" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8591,81 +8618,84 @@
       </c>
       <c r="AE28" s="4"/>
       <c r="AF28" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH28" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>779</v>
+        <v>220</v>
       </c>
       <c r="AM28" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
+      <c r="AR28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>771</v>
+      </c>
       <c r="AU28" t="s">
-        <v>781</v>
+        <v>657</v>
       </c>
       <c r="AV28" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AW28" t="s">
         <v>208</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>782</v>
+        <v>819</v>
       </c>
     </row>
     <row r="29" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D29" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E29">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F29" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="G29" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="H29" t="s">
-        <v>406</v>
+        <v>281</v>
       </c>
       <c r="I29" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="J29" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="K29" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="L29" t="s">
         <v>248</v>
       </c>
       <c r="M29" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="N29" t="s">
         <v>251</v>
@@ -8674,22 +8704,22 @@
         <v>252</v>
       </c>
       <c r="P29" t="s">
-        <v>411</v>
+        <v>248</v>
       </c>
       <c r="Q29" t="s">
         <v>21</v>
       </c>
       <c r="S29" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="T29" t="s">
         <v>46</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W29" t="s">
         <v>55</v>
@@ -8698,7 +8728,7 @@
         <v>69</v>
       </c>
       <c r="Z29" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8711,81 +8741,90 @@
       </c>
       <c r="AE29" s="4"/>
       <c r="AF29" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH29" t="s">
-        <v>220</v>
+        <v>117</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>138</v>
       </c>
       <c r="AL29" t="s">
-        <v>779</v>
+        <v>820</v>
       </c>
       <c r="AM29" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO29" s="4" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
       </c>
+      <c r="AR29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>771</v>
+      </c>
       <c r="AU29" t="s">
-        <v>781</v>
+        <v>657</v>
       </c>
       <c r="AV29" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AW29" t="s">
         <v>208</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>782</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D30" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E30">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F30" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="G30" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="H30" t="s">
-        <v>406</v>
+        <v>281</v>
       </c>
       <c r="I30" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="J30" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="K30" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="L30" t="s">
         <v>248</v>
       </c>
       <c r="M30" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="N30" t="s">
         <v>251</v>
@@ -8794,22 +8833,22 @@
         <v>252</v>
       </c>
       <c r="P30" t="s">
-        <v>411</v>
+        <v>248</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="T30" t="s">
         <v>46</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W30" t="s">
         <v>55</v>
@@ -8818,7 +8857,7 @@
         <v>69</v>
       </c>
       <c r="Z30" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8831,81 +8870,81 @@
       </c>
       <c r="AE30" s="4"/>
       <c r="AF30" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>779</v>
+        <v>121</v>
       </c>
       <c r="AM30" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO30" s="4" t="s">
-        <v>780</v>
+        <v>809</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
+      <c r="AR30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>771</v>
+      </c>
       <c r="AU30" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="AV30" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW30" t="s">
         <v>208</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="31" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D31" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E31">
         <v>2016</v>
       </c>
       <c r="F31" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G31" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="H31" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I31" t="s">
-        <v>407</v>
+        <v>248</v>
       </c>
       <c r="J31" t="s">
-        <v>408</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L31" t="s">
         <v>248</v>
       </c>
       <c r="M31" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="N31" t="s">
         <v>251</v>
@@ -8914,31 +8953,31 @@
         <v>252</v>
       </c>
       <c r="P31" t="s">
-        <v>411</v>
+        <v>266</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
       <c r="S31" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T31" t="s">
         <v>46</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W31" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X31" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="Z31" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8951,81 +8990,87 @@
       </c>
       <c r="AE31" s="4"/>
       <c r="AF31" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH31" t="s">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="AL31" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="AM31" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO31" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
+      <c r="AR31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>192</v>
+      </c>
       <c r="AU31" t="s">
-        <v>781</v>
+        <v>238</v>
       </c>
       <c r="AV31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AW31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX31" s="4" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="32" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B32" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D32" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E32">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F32" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G32" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="H32" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="I32" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="J32" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K32" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L32" t="s">
         <v>248</v>
       </c>
       <c r="M32" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="N32" t="s">
         <v>251</v>
@@ -9034,31 +9079,31 @@
         <v>252</v>
       </c>
       <c r="P32" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
       </c>
       <c r="S32" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T32" t="s">
         <v>46</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
         <v>41</v>
       </c>
       <c r="W32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X32" t="s">
         <v>69</v>
       </c>
       <c r="Z32" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -9067,88 +9112,85 @@
         <v>2</v>
       </c>
       <c r="AC32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE32" s="4"/>
       <c r="AF32" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AH32" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="AL32" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="AM32" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO32" s="4" t="s">
-        <v>715</v>
+        <v>780</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
       <c r="AU32" t="s">
-        <v>238</v>
+        <v>781</v>
       </c>
       <c r="AV32" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AW32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B33" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="D33" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E33">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F33" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G33" t="s">
-        <v>425</v>
+        <v>364</v>
       </c>
       <c r="H33" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="I33" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="J33" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="K33" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="L33" t="s">
         <v>248</v>
       </c>
       <c r="M33" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="N33" t="s">
         <v>251</v>
@@ -9157,7 +9199,7 @@
         <v>252</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>411</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
@@ -9169,19 +9211,19 @@
         <v>46</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X33" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z33" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -9194,84 +9236,81 @@
       </c>
       <c r="AE33" s="4"/>
       <c r="AF33" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="AG33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH33" t="s">
-        <v>120</v>
+        <v>220</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>779</v>
       </c>
       <c r="AM33" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO33" s="4" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
-      <c r="AR33" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>176</v>
-      </c>
       <c r="AU33" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="AV33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW33" t="s">
         <v>208</v>
       </c>
       <c r="AX33" s="4" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="B34" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="D34" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="E34">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="F34" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="G34" t="s">
-        <v>435</v>
+        <v>364</v>
       </c>
       <c r="H34" t="s">
-        <v>248</v>
+        <v>406</v>
       </c>
       <c r="I34" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="J34" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="K34" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="L34" t="s">
         <v>248</v>
       </c>
       <c r="M34" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="N34" t="s">
         <v>251</v>
@@ -9280,133 +9319,118 @@
         <v>252</v>
       </c>
       <c r="P34" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="Q34" t="s">
         <v>21</v>
       </c>
       <c r="S34" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" t="s">
         <v>41</v>
-      </c>
-      <c r="U34" t="s">
-        <v>55</v>
-      </c>
-      <c r="V34" t="s">
-        <v>43</v>
       </c>
       <c r="W34" t="s">
         <v>55</v>
       </c>
       <c r="X34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z34" t="s">
-        <v>441</v>
+        <v>778</v>
       </c>
       <c r="AA34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC34">
         <v>3</v>
       </c>
       <c r="AE34" s="4"/>
       <c r="AF34" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="AG34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH34" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="AL34" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM34" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO34" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>799</v>
+        <v>779</v>
+      </c>
+      <c r="AM34" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO34" s="4" t="s">
+        <v>780</v>
       </c>
       <c r="AQ34" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="AU34" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="AV34" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AW34" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX34" s="11" t="s">
-        <v>800</v>
+        <v>208</v>
+      </c>
+      <c r="AX34" s="4" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="B35" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="D35" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="E35">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="F35" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="G35" t="s">
-        <v>435</v>
+        <v>364</v>
       </c>
       <c r="H35" t="s">
-        <v>248</v>
+        <v>406</v>
       </c>
       <c r="I35" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="J35" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="K35" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="L35" t="s">
         <v>248</v>
       </c>
       <c r="M35" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="N35" t="s">
         <v>251</v>
@@ -9415,133 +9439,118 @@
         <v>252</v>
       </c>
       <c r="P35" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="Q35" t="s">
         <v>21</v>
       </c>
       <c r="S35" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35" t="s">
         <v>41</v>
-      </c>
-      <c r="U35" t="s">
-        <v>55</v>
-      </c>
-      <c r="V35" t="s">
-        <v>43</v>
       </c>
       <c r="W35" t="s">
         <v>55</v>
       </c>
       <c r="X35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z35" t="s">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="AA35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC35">
         <v>3</v>
       </c>
       <c r="AE35" s="4"/>
       <c r="AF35" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH35" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="AL35" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM35" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO35" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>799</v>
+        <v>779</v>
+      </c>
+      <c r="AM35" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO35" s="4" t="s">
+        <v>780</v>
       </c>
       <c r="AQ35" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="AU35" t="s">
-        <v>811</v>
+        <v>781</v>
       </c>
       <c r="AV35" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AW35" t="s">
         <v>208</v>
       </c>
-      <c r="AX35" s="11" t="s">
-        <v>798</v>
+      <c r="AX35" s="4" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B36" t="s">
         <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="E36">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F36" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="G36" t="s">
-        <v>435</v>
+        <v>314</v>
       </c>
       <c r="H36" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="I36" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="J36" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="K36" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="L36" t="s">
         <v>248</v>
       </c>
       <c r="M36" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="N36" t="s">
         <v>251</v>
@@ -9550,7 +9559,7 @@
         <v>252</v>
       </c>
       <c r="P36" t="s">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="Q36" t="s">
         <v>21</v>
@@ -9559,124 +9568,112 @@
         <v>31</v>
       </c>
       <c r="T36" t="s">
+        <v>46</v>
+      </c>
+      <c r="U36" t="s">
+        <v>57</v>
+      </c>
+      <c r="V36" t="s">
         <v>41</v>
       </c>
-      <c r="U36" t="s">
-        <v>55</v>
-      </c>
-      <c r="V36" t="s">
-        <v>43</v>
-      </c>
       <c r="W36" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z36" t="s">
-        <v>444</v>
+        <v>783</v>
       </c>
       <c r="AA36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE36" s="4"/>
       <c r="AF36" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI36" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="AL36" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM36" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO36" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>799</v>
+        <v>784</v>
+      </c>
+      <c r="AM36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO36" s="4" t="s">
+        <v>715</v>
       </c>
       <c r="AQ36" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="AU36" t="s">
-        <v>445</v>
+        <v>238</v>
       </c>
       <c r="AV36" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="AW36" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX36" s="11" t="s">
-        <v>797</v>
+        <v>207</v>
+      </c>
+      <c r="AX36" s="4" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B37" t="s">
         <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D37" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E37">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F37" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G37" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H37" t="s">
-        <v>248</v>
+        <v>426</v>
       </c>
       <c r="I37" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="J37" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K37" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L37" t="s">
         <v>248</v>
       </c>
       <c r="M37" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N37" t="s">
         <v>251</v>
@@ -9685,37 +9682,37 @@
         <v>252</v>
       </c>
       <c r="P37" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q37" t="s">
         <v>21</v>
       </c>
       <c r="S37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T37" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X37" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="Z37" t="s">
-        <v>444</v>
+        <v>786</v>
       </c>
       <c r="AA37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC37">
         <v>3</v>
@@ -9730,47 +9727,35 @@
       <c r="AH37" t="s">
         <v>120</v>
       </c>
-      <c r="AI37" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM37" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO37" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>799</v>
+      <c r="AM37" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO37" s="4" t="s">
+        <v>787</v>
       </c>
       <c r="AQ37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR37" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS37" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="AU37" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="AV37" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="AW37" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX37" s="11" t="s">
-        <v>795</v>
+        <v>208</v>
+      </c>
+      <c r="AX37" s="4" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -9887,13 +9872,13 @@
         <v>799</v>
       </c>
       <c r="AQ38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR38" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>803</v>
+        <v>170</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>211</v>
       </c>
       <c r="AU38" t="s">
         <v>801</v>
@@ -9905,7 +9890,7 @@
         <v>207</v>
       </c>
       <c r="AX38" s="11" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10022,13 +10007,13 @@
         <v>799</v>
       </c>
       <c r="AQ39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR39" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>803</v>
+        <v>170</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>211</v>
       </c>
       <c r="AU39" t="s">
         <v>811</v>
@@ -10040,7 +10025,7 @@
         <v>208</v>
       </c>
       <c r="AX39" s="11" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10157,13 +10142,13 @@
         <v>799</v>
       </c>
       <c r="AQ40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR40" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>803</v>
+        <v>170</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>211</v>
       </c>
       <c r="AU40" t="s">
         <v>445</v>
@@ -10175,7 +10160,7 @@
         <v>208</v>
       </c>
       <c r="AX40" s="11" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="41" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10249,7 +10234,7 @@
         <v>72</v>
       </c>
       <c r="Z41" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AA41">
         <v>3</v>
@@ -10283,10 +10268,10 @@
         <v>442</v>
       </c>
       <c r="AM41" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO41" s="11" t="s">
-        <v>443</v>
+        <v>796</v>
       </c>
       <c r="AP41" t="s">
         <v>799</v>
@@ -10295,60 +10280,63 @@
         <v>165</v>
       </c>
       <c r="AR41" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>211</v>
       </c>
       <c r="AU41" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="AV41" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="AW41" t="s">
         <v>207</v>
       </c>
       <c r="AX41" s="11" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="42" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B42" t="s">
         <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D42" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="E42">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F42" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="G42" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H42" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I42" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="J42" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="K42" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L42" t="s">
         <v>248</v>
       </c>
       <c r="M42" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="N42" t="s">
         <v>251</v>
@@ -10357,126 +10345,133 @@
         <v>252</v>
       </c>
       <c r="P42" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q42" t="s">
         <v>21</v>
       </c>
       <c r="S42" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U42" t="s">
         <v>55</v>
       </c>
       <c r="V42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W42" t="s">
         <v>55</v>
       </c>
       <c r="X42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z42" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC42">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="4" t="s">
-        <v>456</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE42" s="4"/>
       <c r="AF42" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH42" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>150</v>
       </c>
       <c r="AL42" t="s">
-        <v>457</v>
-      </c>
-      <c r="AM42" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO42" s="4" t="s">
-        <v>458</v>
+        <v>442</v>
+      </c>
+      <c r="AM42" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO42" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>799</v>
       </c>
       <c r="AQ42" t="s">
         <v>164</v>
       </c>
       <c r="AR42" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>181</v>
+        <v>171</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>803</v>
       </c>
       <c r="AU42" t="s">
-        <v>459</v>
+        <v>801</v>
       </c>
       <c r="AV42" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AW42" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX42" s="4" t="s">
-        <v>460</v>
+        <v>207</v>
+      </c>
+      <c r="AX42" s="11" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="43" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B43" t="s">
         <v>243</v>
       </c>
       <c r="C43" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D43" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="E43">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F43" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="G43" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H43" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I43" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="J43" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="K43" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L43" t="s">
         <v>248</v>
       </c>
       <c r="M43" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="N43" t="s">
         <v>251</v>
@@ -10485,123 +10480,133 @@
         <v>252</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q43" t="s">
         <v>21</v>
       </c>
       <c r="S43" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U43" t="s">
         <v>55</v>
       </c>
       <c r="V43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W43" t="s">
         <v>55</v>
       </c>
       <c r="X43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z43" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="AA43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC43">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="4" t="s">
-        <v>790</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE43" s="4"/>
       <c r="AF43" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH43" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>150</v>
       </c>
       <c r="AL43" t="s">
-        <v>461</v>
-      </c>
-      <c r="AM43" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO43" s="4" t="s">
-        <v>458</v>
+        <v>442</v>
+      </c>
+      <c r="AM43" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO43" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>799</v>
       </c>
       <c r="AQ43" t="s">
         <v>164</v>
       </c>
       <c r="AR43" t="s">
-        <v>239</v>
+        <v>171</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>803</v>
       </c>
       <c r="AU43" t="s">
-        <v>459</v>
+        <v>811</v>
       </c>
       <c r="AV43" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AW43" t="s">
         <v>208</v>
       </c>
-      <c r="AX43" s="4" t="s">
-        <v>460</v>
+      <c r="AX43" s="11" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B44" t="s">
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D44" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="E44">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F44" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="G44" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H44" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="I44" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="K44" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L44" t="s">
         <v>248</v>
       </c>
       <c r="M44" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="N44" t="s">
         <v>251</v>
@@ -10610,126 +10615,133 @@
         <v>252</v>
       </c>
       <c r="P44" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q44" t="s">
         <v>21</v>
       </c>
       <c r="S44" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U44" t="s">
         <v>55</v>
       </c>
       <c r="V44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W44" t="s">
         <v>55</v>
       </c>
       <c r="X44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z44" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC44">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="4" t="s">
-        <v>791</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE44" s="4"/>
       <c r="AF44" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH44" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>150</v>
       </c>
       <c r="AL44" t="s">
-        <v>461</v>
-      </c>
-      <c r="AM44" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO44" s="4" t="s">
-        <v>458</v>
+        <v>442</v>
+      </c>
+      <c r="AM44" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO44" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>799</v>
       </c>
       <c r="AQ44" t="s">
         <v>164</v>
       </c>
       <c r="AR44" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS44" t="s">
-        <v>189</v>
+        <v>171</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>803</v>
       </c>
       <c r="AU44" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="AV44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AW44" t="s">
         <v>208</v>
       </c>
-      <c r="AX44" s="4" t="s">
-        <v>460</v>
+      <c r="AX44" s="11" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s">
         <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="D45" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="E45">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F45" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="G45" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="H45" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="I45" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="J45" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="K45" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="L45" t="s">
         <v>248</v>
       </c>
       <c r="M45" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="N45" t="s">
         <v>251</v>
@@ -10738,7 +10750,7 @@
         <v>252</v>
       </c>
       <c r="P45" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q45" t="s">
         <v>21</v>
@@ -10747,7 +10759,7 @@
         <v>31</v>
       </c>
       <c r="T45" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U45" t="s">
         <v>55</v>
@@ -10759,102 +10771,109 @@
         <v>55</v>
       </c>
       <c r="X45" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="Z45" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="AA45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC45">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="4" t="s">
-        <v>471</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE45" s="4"/>
       <c r="AF45" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="AG45" t="s">
         <v>110</v>
       </c>
       <c r="AH45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI45" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>150</v>
       </c>
       <c r="AL45" t="s">
-        <v>472</v>
-      </c>
-      <c r="AM45" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO45" s="4" t="s">
-        <v>473</v>
+        <v>442</v>
+      </c>
+      <c r="AM45" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO45" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>799</v>
       </c>
       <c r="AQ45" t="s">
-        <v>150</v>
+        <v>165</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>173</v>
       </c>
       <c r="AU45" t="s">
-        <v>474</v>
+        <v>801</v>
       </c>
       <c r="AV45" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AW45" t="s">
         <v>207</v>
       </c>
-      <c r="AX45" s="4" t="s">
-        <v>475</v>
+      <c r="AX45" s="11" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="46" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="B46" t="s">
         <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="D46" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="E46">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F46" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="G46" t="s">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="H46" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="I46" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="J46" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="K46" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="L46" t="s">
         <v>248</v>
       </c>
       <c r="M46" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="N46" t="s">
         <v>251</v>
@@ -10869,7 +10888,7 @@
         <v>21</v>
       </c>
       <c r="S46" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="T46" t="s">
         <v>45</v>
@@ -10878,19 +10897,19 @@
         <v>55</v>
       </c>
       <c r="V46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W46" t="s">
         <v>55</v>
       </c>
       <c r="X46" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z46" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="AA46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>2</v>
@@ -10899,99 +10918,90 @@
         <v>1</v>
       </c>
       <c r="AE46" s="4" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="AF46" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH46" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="AL46" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="AM46" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO46" s="4" t="s">
-        <v>162</v>
+        <v>458</v>
       </c>
       <c r="AQ46" t="s">
         <v>164</v>
       </c>
       <c r="AR46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS46" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT46" t="s">
-        <v>487</v>
+        <v>181</v>
       </c>
       <c r="AU46" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="AV46" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW46" t="s">
         <v>208</v>
       </c>
       <c r="AX46" s="4" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="B47" t="s">
         <v>243</v>
       </c>
       <c r="C47" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="D47" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="E47">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F47" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="G47" t="s">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="H47" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="I47" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="J47" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="K47" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="L47" t="s">
         <v>248</v>
       </c>
       <c r="M47" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="N47" t="s">
         <v>251</v>
@@ -11006,7 +11016,7 @@
         <v>21</v>
       </c>
       <c r="S47" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="T47" t="s">
         <v>45</v>
@@ -11015,19 +11025,19 @@
         <v>55</v>
       </c>
       <c r="V47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W47" t="s">
         <v>55</v>
       </c>
       <c r="X47" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="AA47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB47">
         <v>2</v>
@@ -11036,96 +11046,87 @@
         <v>1</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>485</v>
+        <v>790</v>
       </c>
       <c r="AF47" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH47" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="AL47" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="AM47" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO47" s="4" t="s">
-        <v>162</v>
+        <v>458</v>
       </c>
       <c r="AQ47" t="s">
         <v>164</v>
       </c>
       <c r="AR47" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS47" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT47" t="s">
-        <v>487</v>
+        <v>239</v>
       </c>
       <c r="AU47" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="AV47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW47" t="s">
         <v>208</v>
       </c>
       <c r="AX47" s="4" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="B48" t="s">
         <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="D48" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="E48">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F48" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="G48" t="s">
+        <v>450</v>
+      </c>
+      <c r="H48" t="s">
         <v>406</v>
       </c>
-      <c r="H48" t="s">
-        <v>496</v>
-      </c>
       <c r="I48" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="J48" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="K48" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="L48" t="s">
         <v>248</v>
       </c>
       <c r="M48" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="N48" t="s">
         <v>251</v>
@@ -11134,68 +11135,135 @@
         <v>252</v>
       </c>
       <c r="P48" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q48" t="s">
         <v>21</v>
       </c>
-      <c r="R48" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE48" s="4"/>
+      <c r="S48" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" t="s">
+        <v>45</v>
+      </c>
+      <c r="U48" t="s">
+        <v>55</v>
+      </c>
+      <c r="V48" t="s">
+        <v>45</v>
+      </c>
+      <c r="W48" t="s">
+        <v>55</v>
+      </c>
+      <c r="X48" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="4" t="s">
+        <v>791</v>
+      </c>
       <c r="AF48" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX48" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM48" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO48" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX48" s="4" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="49" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="B49" t="s">
         <v>243</v>
       </c>
       <c r="C49" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="D49" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="E49">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F49" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="G49" t="s">
-        <v>296</v>
+        <v>466</v>
       </c>
       <c r="H49" t="s">
-        <v>505</v>
+        <v>297</v>
       </c>
       <c r="I49" t="s">
-        <v>506</v>
+        <v>383</v>
       </c>
       <c r="J49" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="K49" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="L49" t="s">
         <v>248</v>
       </c>
       <c r="M49" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="N49" t="s">
         <v>251</v>
       </c>
       <c r="O49" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="P49" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="Q49" t="s">
         <v>21</v>
@@ -11207,19 +11275,19 @@
         <v>45</v>
       </c>
       <c r="U49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W49" t="s">
         <v>55</v>
       </c>
       <c r="X49" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z49" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -11228,16 +11296,16 @@
         <v>2</v>
       </c>
       <c r="AC49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="AF49" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="AG49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH49" t="s">
         <v>117</v>
@@ -11246,96 +11314,96 @@
         <v>144</v>
       </c>
       <c r="AL49" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="AM49" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO49" s="4" t="s">
         <v>473</v>
       </c>
       <c r="AQ49" t="s">
-        <v>792</v>
+        <v>150</v>
       </c>
       <c r="AU49" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="AV49" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AW49" t="s">
         <v>207</v>
       </c>
       <c r="AX49" s="4" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="B50" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="D50" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="E50">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F50" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G50" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H50" t="s">
-        <v>505</v>
+        <v>297</v>
       </c>
       <c r="I50" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="J50" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="K50" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="L50" t="s">
         <v>248</v>
       </c>
       <c r="M50" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="N50" t="s">
         <v>251</v>
       </c>
       <c r="O50" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="P50" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="Q50" t="s">
         <v>21</v>
       </c>
       <c r="S50" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T50" t="s">
         <v>45</v>
       </c>
       <c r="U50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W50" t="s">
         <v>55</v>
@@ -11344,7 +11412,7 @@
         <v>69</v>
       </c>
       <c r="Z50" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="AA50">
         <v>2</v>
@@ -11353,25 +11421,28 @@
         <v>2</v>
       </c>
       <c r="AC50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="4" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="AF50" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AG50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI50" t="s">
-        <v>144</v>
+        <v>129</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>155</v>
       </c>
       <c r="AL50" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="AM50" s="4" t="s">
         <v>232</v>
@@ -11380,87 +11451,96 @@
         <v>162</v>
       </c>
       <c r="AO50" s="4" t="s">
-        <v>473</v>
+        <v>162</v>
       </c>
       <c r="AQ50" t="s">
-        <v>792</v>
+        <v>164</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>487</v>
       </c>
       <c r="AU50" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="AV50" t="s">
         <v>199</v>
       </c>
       <c r="AW50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX50" s="4" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="B51" t="s">
         <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="D51" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="E51">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F51" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G51" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H51" t="s">
-        <v>505</v>
+        <v>297</v>
       </c>
       <c r="I51" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="J51" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="K51" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="L51" t="s">
         <v>248</v>
       </c>
       <c r="M51" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="N51" t="s">
         <v>251</v>
       </c>
       <c r="O51" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="P51" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="Q51" t="s">
         <v>21</v>
       </c>
       <c r="S51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T51" t="s">
         <v>45</v>
       </c>
       <c r="U51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W51" t="s">
         <v>55</v>
@@ -11469,7 +11549,7 @@
         <v>69</v>
       </c>
       <c r="Z51" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="AA51">
         <v>2</v>
@@ -11478,175 +11558,120 @@
         <v>2</v>
       </c>
       <c r="AC51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE51" s="4" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="AF51" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AG51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH51" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI51" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AL51" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="AM51" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO51" s="4" t="s">
-        <v>473</v>
+        <v>162</v>
       </c>
       <c r="AQ51" t="s">
-        <v>792</v>
+        <v>164</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>487</v>
       </c>
       <c r="AU51" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="AV51" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX51" s="4" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B52" t="s">
         <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D52" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E52">
         <v>2008</v>
       </c>
       <c r="F52" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G52" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="H52" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="I52" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="J52" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="K52" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="L52" t="s">
         <v>248</v>
       </c>
       <c r="M52" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="N52" t="s">
         <v>251</v>
       </c>
       <c r="O52" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="P52" t="s">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="Q52" t="s">
         <v>21</v>
       </c>
-      <c r="S52" t="s">
-        <v>31</v>
-      </c>
-      <c r="T52" t="s">
-        <v>45</v>
-      </c>
-      <c r="U52" t="s">
-        <v>56</v>
-      </c>
-      <c r="V52" t="s">
-        <v>41</v>
-      </c>
-      <c r="W52" t="s">
-        <v>55</v>
-      </c>
-      <c r="X52" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA52">
-        <v>2</v>
-      </c>
-      <c r="AB52">
-        <v>2</v>
-      </c>
-      <c r="AC52">
-        <v>2</v>
-      </c>
-      <c r="AE52" s="4" t="s">
-        <v>512</v>
-      </c>
+      <c r="R52" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE52" s="4"/>
       <c r="AF52" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>516</v>
-      </c>
-      <c r="AM52" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN52" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO52" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="AQ52" t="s">
-        <v>792</v>
-      </c>
-      <c r="AU52" t="s">
-        <v>518</v>
-      </c>
-      <c r="AV52" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW52" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX52" s="4" t="s">
-        <v>515</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AX52" s="4"/>
     </row>
     <row r="53" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -11713,13 +11738,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X53" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z53" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="AA53">
         <v>2</v>
@@ -11761,7 +11786,7 @@
         <v>792</v>
       </c>
       <c r="AU53" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AV53" t="s">
         <v>199</v>
@@ -11770,7 +11795,7 @@
         <v>207</v>
       </c>
       <c r="AX53" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -11838,13 +11863,13 @@
         <v>41</v>
       </c>
       <c r="W54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z54" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="AA54">
         <v>2</v>
@@ -11886,7 +11911,7 @@
         <v>792</v>
       </c>
       <c r="AU54" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AV54" t="s">
         <v>199</v>
@@ -11895,7 +11920,7 @@
         <v>207</v>
       </c>
       <c r="AX54" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -11963,13 +11988,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z55" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="AA55">
         <v>2</v>
@@ -12011,16 +12036,16 @@
         <v>792</v>
       </c>
       <c r="AU55" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AV55" t="s">
         <v>205</v>
       </c>
       <c r="AW55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX55" s="4" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -12088,13 +12113,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z56" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="AA56">
         <v>2</v>
@@ -12136,132 +12161,132 @@
         <v>792</v>
       </c>
       <c r="AU56" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AV56" t="s">
         <v>205</v>
       </c>
       <c r="AW56" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX56" s="4" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="B57" t="s">
         <v>243</v>
       </c>
       <c r="C57" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="D57" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="E57">
         <v>2008</v>
       </c>
       <c r="F57" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="G57" t="s">
-        <v>527</v>
+        <v>296</v>
       </c>
       <c r="H57" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="I57" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="J57" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="K57" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="L57" t="s">
         <v>248</v>
       </c>
       <c r="M57" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="N57" t="s">
         <v>251</v>
       </c>
       <c r="O57" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="P57" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q57" t="s">
         <v>21</v>
       </c>
       <c r="S57" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V57" t="s">
         <v>41</v>
       </c>
       <c r="W57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X57" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z57" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="AA57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="AF57" t="s">
         <v>275</v>
       </c>
       <c r="AG57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH57" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI57" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AL57" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="AM57" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO57" s="4" t="s">
         <v>473</v>
       </c>
       <c r="AQ57" t="s">
-        <v>164</v>
+        <v>792</v>
       </c>
       <c r="AU57" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="AV57" t="s">
         <v>199</v>
@@ -12270,123 +12295,123 @@
         <v>207</v>
       </c>
       <c r="AX57" s="4" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="B58" t="s">
         <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="D58" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
       <c r="F58" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="G58" t="s">
-        <v>527</v>
+        <v>296</v>
       </c>
       <c r="H58" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="I58" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="J58" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="K58" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="L58" t="s">
         <v>248</v>
       </c>
       <c r="M58" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="N58" t="s">
         <v>251</v>
       </c>
       <c r="O58" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="P58" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q58" t="s">
         <v>21</v>
       </c>
       <c r="S58" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V58" t="s">
         <v>41</v>
       </c>
       <c r="W58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X58" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z58" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="AA58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="AF58" t="s">
         <v>275</v>
       </c>
       <c r="AG58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH58" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL58" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="AM58" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO58" s="4" t="s">
         <v>473</v>
       </c>
       <c r="AQ58" t="s">
-        <v>164</v>
+        <v>792</v>
       </c>
       <c r="AU58" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="AV58" t="s">
         <v>199</v>
@@ -12395,106 +12420,108 @@
         <v>207</v>
       </c>
       <c r="AX58" s="4" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="B59" t="s">
         <v>243</v>
       </c>
       <c r="C59" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="D59" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="E59">
         <v>2008</v>
       </c>
       <c r="F59" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="G59" t="s">
-        <v>527</v>
+        <v>296</v>
       </c>
       <c r="H59" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="I59" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="J59" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="K59" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="L59" t="s">
         <v>248</v>
       </c>
       <c r="M59" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="N59" t="s">
         <v>251</v>
       </c>
       <c r="O59" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q59" t="s">
         <v>21</v>
       </c>
       <c r="S59" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U59" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V59" t="s">
         <v>41</v>
       </c>
       <c r="W59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X59" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z59" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
       <c r="AA59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC59">
         <v>2</v>
       </c>
-      <c r="AE59" s="4"/>
+      <c r="AE59" s="4" t="s">
+        <v>512</v>
+      </c>
       <c r="AF59" t="s">
         <v>275</v>
       </c>
       <c r="AG59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH59" t="s">
         <v>117</v>
       </c>
       <c r="AI59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AL59" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="AM59" s="4" t="s">
         <v>232</v>
@@ -12506,118 +12533,120 @@
         <v>473</v>
       </c>
       <c r="AQ59" t="s">
-        <v>164</v>
+        <v>792</v>
       </c>
       <c r="AU59" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="AV59" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW59" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX59" s="4" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="B60" t="s">
         <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="D60" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="E60">
         <v>2008</v>
       </c>
       <c r="F60" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="G60" t="s">
-        <v>527</v>
+        <v>296</v>
       </c>
       <c r="H60" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="I60" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="J60" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="K60" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="L60" t="s">
         <v>248</v>
       </c>
       <c r="M60" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="N60" t="s">
         <v>251</v>
       </c>
       <c r="O60" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q60" t="s">
         <v>21</v>
       </c>
       <c r="S60" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V60" t="s">
         <v>41</v>
       </c>
       <c r="W60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X60" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z60" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
       <c r="AA60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC60">
         <v>2</v>
       </c>
-      <c r="AE60" s="4"/>
+      <c r="AE60" s="4" t="s">
+        <v>512</v>
+      </c>
       <c r="AF60" t="s">
         <v>275</v>
       </c>
       <c r="AG60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH60" t="s">
         <v>117</v>
       </c>
       <c r="AI60" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AL60" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="AM60" s="4" t="s">
         <v>232</v>
@@ -12629,19 +12658,19 @@
         <v>473</v>
       </c>
       <c r="AQ60" t="s">
-        <v>164</v>
+        <v>792</v>
       </c>
       <c r="AU60" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="AV60" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX60" s="4" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
     <row r="61" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -12715,7 +12744,7 @@
         <v>215</v>
       </c>
       <c r="Z61" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AA61">
         <v>3</v>
@@ -12724,9 +12753,11 @@
         <v>3</v>
       </c>
       <c r="AC61">
-        <v>2</v>
-      </c>
-      <c r="AE61" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE61" s="4" t="s">
+        <v>534</v>
+      </c>
       <c r="AF61" t="s">
         <v>275</v>
       </c>
@@ -12734,19 +12765,13 @@
         <v>110</v>
       </c>
       <c r="AH61" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI61" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AL61" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="AM61" s="4" t="s">
         <v>232</v>
@@ -12761,7 +12786,7 @@
         <v>164</v>
       </c>
       <c r="AU61" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AV61" t="s">
         <v>199</v>
@@ -12770,7 +12795,7 @@
         <v>207</v>
       </c>
       <c r="AX61" s="4" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -12844,7 +12869,7 @@
         <v>215</v>
       </c>
       <c r="Z62" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="AA62">
         <v>3</v>
@@ -12853,9 +12878,11 @@
         <v>3</v>
       </c>
       <c r="AC62">
-        <v>2</v>
-      </c>
-      <c r="AE62" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE62" s="4" t="s">
+        <v>534</v>
+      </c>
       <c r="AF62" t="s">
         <v>275</v>
       </c>
@@ -12884,16 +12911,16 @@
         <v>164</v>
       </c>
       <c r="AU62" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="AV62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW62" t="s">
         <v>207</v>
       </c>
       <c r="AX62" s="4" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -12967,7 +12994,7 @@
         <v>215</v>
       </c>
       <c r="Z63" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AA63">
         <v>3</v>
@@ -12986,19 +13013,19 @@
         <v>110</v>
       </c>
       <c r="AH63" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI63" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AL63" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="AM63" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO63" s="4" t="s">
         <v>473</v>
@@ -13007,57 +13034,57 @@
         <v>164</v>
       </c>
       <c r="AU63" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AV63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW63" t="s">
         <v>207</v>
       </c>
       <c r="AX63" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="B64" t="s">
         <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="D64" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F64" t="s">
-        <v>346</v>
+        <v>526</v>
       </c>
       <c r="G64" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="H64" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="I64" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="J64" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="K64" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="L64" t="s">
         <v>248</v>
       </c>
       <c r="M64" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="N64" t="s">
         <v>251</v>
@@ -13072,7 +13099,7 @@
         <v>21</v>
       </c>
       <c r="S64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T64" t="s">
         <v>46</v>
@@ -13081,22 +13108,22 @@
         <v>59</v>
       </c>
       <c r="V64" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W64" t="s">
         <v>55</v>
       </c>
       <c r="X64" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z64" t="s">
-        <v>653</v>
+        <v>539</v>
       </c>
       <c r="AA64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC64">
         <v>2</v>
@@ -13106,87 +13133,81 @@
         <v>275</v>
       </c>
       <c r="AG64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH64" t="s">
         <v>117</v>
       </c>
       <c r="AI64" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AL64" t="s">
-        <v>557</v>
-      </c>
-      <c r="AM64" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM64" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN64" t="s">
         <v>162</v>
       </c>
       <c r="AO64" s="4" t="s">
-        <v>657</v>
+        <v>473</v>
       </c>
       <c r="AQ64" t="s">
         <v>164</v>
       </c>
-      <c r="AR64" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS64" t="s">
-        <v>175</v>
-      </c>
       <c r="AU64" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="AV64" t="s">
         <v>199</v>
       </c>
       <c r="AW64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX64" s="4" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="B65" t="s">
         <v>243</v>
       </c>
       <c r="C65" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="D65" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F65" t="s">
-        <v>346</v>
+        <v>526</v>
       </c>
       <c r="G65" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="H65" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="I65" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="J65" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="K65" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="L65" t="s">
         <v>248</v>
       </c>
       <c r="M65" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="N65" t="s">
         <v>251</v>
@@ -13201,7 +13222,7 @@
         <v>21</v>
       </c>
       <c r="S65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T65" t="s">
         <v>46</v>
@@ -13210,22 +13231,22 @@
         <v>59</v>
       </c>
       <c r="V65" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W65" t="s">
         <v>55</v>
       </c>
       <c r="X65" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z65" t="s">
-        <v>653</v>
+        <v>539</v>
       </c>
       <c r="AA65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC65">
         <v>2</v>
@@ -13235,81 +13256,87 @@
         <v>275</v>
       </c>
       <c r="AG65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH65" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI65" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>150</v>
       </c>
       <c r="AL65" t="s">
-        <v>557</v>
-      </c>
-      <c r="AM65" t="s">
+        <v>544</v>
+      </c>
+      <c r="AM65" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO65" s="4" t="s">
-        <v>657</v>
+        <v>473</v>
       </c>
       <c r="AQ65" t="s">
         <v>164</v>
       </c>
-      <c r="AR65" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS65" t="s">
-        <v>176</v>
-      </c>
       <c r="AU65" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="AV65" t="s">
         <v>199</v>
       </c>
       <c r="AW65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX65" s="4" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>645</v>
+        <v>523</v>
       </c>
       <c r="B66" t="s">
         <v>243</v>
       </c>
       <c r="C66" t="s">
-        <v>646</v>
+        <v>524</v>
       </c>
       <c r="D66" t="s">
-        <v>647</v>
+        <v>525</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F66" t="s">
-        <v>434</v>
-      </c>
-      <c r="G66">
-        <v>318</v>
-      </c>
-      <c r="I66">
-        <v>31</v>
-      </c>
-      <c r="J66">
-        <v>45</v>
+        <v>526</v>
+      </c>
+      <c r="G66" t="s">
+        <v>527</v>
+      </c>
+      <c r="H66" t="s">
+        <v>528</v>
+      </c>
+      <c r="I66" t="s">
+        <v>529</v>
+      </c>
+      <c r="J66" t="s">
+        <v>530</v>
       </c>
       <c r="K66" t="s">
-        <v>648</v>
+        <v>531</v>
+      </c>
+      <c r="L66" t="s">
+        <v>248</v>
       </c>
       <c r="M66" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="N66" t="s">
         <v>251</v>
@@ -13318,31 +13345,31 @@
         <v>252</v>
       </c>
       <c r="P66" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q66" t="s">
         <v>21</v>
       </c>
       <c r="S66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T66" t="s">
         <v>46</v>
       </c>
       <c r="U66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V66" t="s">
         <v>41</v>
       </c>
       <c r="W66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X66" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z66" s="4" t="s">
-        <v>654</v>
+        <v>215</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>546</v>
       </c>
       <c r="AA66">
         <v>3</v>
@@ -13351,91 +13378,88 @@
         <v>3</v>
       </c>
       <c r="AC66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE66" s="4"/>
-      <c r="AF66" s="10">
-        <v>4.3</v>
+      <c r="AF66" t="s">
+        <v>275</v>
       </c>
       <c r="AG66" t="s">
         <v>110</v>
       </c>
       <c r="AH66" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI66" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AL66" t="s">
-        <v>670</v>
+        <v>538</v>
       </c>
       <c r="AM66" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>161</v>
       </c>
       <c r="AO66" s="4" t="s">
-        <v>650</v>
+        <v>473</v>
       </c>
       <c r="AQ66" t="s">
         <v>164</v>
       </c>
-      <c r="AR66" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS66" t="s">
-        <v>175</v>
-      </c>
       <c r="AU66" t="s">
-        <v>651</v>
+        <v>547</v>
       </c>
       <c r="AV66" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW66" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX66" s="4" t="s">
-        <v>652</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>645</v>
+        <v>523</v>
       </c>
       <c r="B67" t="s">
         <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>646</v>
+        <v>524</v>
       </c>
       <c r="D67" t="s">
-        <v>647</v>
+        <v>525</v>
       </c>
       <c r="E67">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F67" t="s">
-        <v>434</v>
-      </c>
-      <c r="G67">
-        <v>318</v>
-      </c>
-      <c r="I67">
-        <v>31</v>
-      </c>
-      <c r="J67">
-        <v>45</v>
+        <v>526</v>
+      </c>
+      <c r="G67" t="s">
+        <v>527</v>
+      </c>
+      <c r="H67" t="s">
+        <v>528</v>
+      </c>
+      <c r="I67" t="s">
+        <v>529</v>
+      </c>
+      <c r="J67" t="s">
+        <v>530</v>
       </c>
       <c r="K67" t="s">
-        <v>648</v>
+        <v>531</v>
+      </c>
+      <c r="L67" t="s">
+        <v>248</v>
       </c>
       <c r="M67" t="s">
-        <v>649</v>
+        <v>532</v>
       </c>
       <c r="N67" t="s">
         <v>251</v>
@@ -13444,31 +13468,31 @@
         <v>252</v>
       </c>
       <c r="P67" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q67" t="s">
         <v>21</v>
       </c>
       <c r="S67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T67" t="s">
         <v>46</v>
       </c>
       <c r="U67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V67" t="s">
         <v>41</v>
       </c>
       <c r="W67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X67" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z67" s="4" t="s">
-        <v>654</v>
+        <v>215</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>546</v>
       </c>
       <c r="AA67">
         <v>3</v>
@@ -13477,91 +13501,88 @@
         <v>3</v>
       </c>
       <c r="AC67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE67" s="4"/>
-      <c r="AF67" s="10">
-        <v>4.3</v>
+      <c r="AF67" t="s">
+        <v>275</v>
       </c>
       <c r="AG67" t="s">
         <v>110</v>
       </c>
       <c r="AH67" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI67" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AL67" t="s">
-        <v>669</v>
+        <v>535</v>
       </c>
       <c r="AM67" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>161</v>
       </c>
       <c r="AO67" s="4" t="s">
-        <v>650</v>
+        <v>473</v>
       </c>
       <c r="AQ67" t="s">
         <v>164</v>
       </c>
-      <c r="AR67" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS67" t="s">
-        <v>175</v>
-      </c>
       <c r="AU67" t="s">
-        <v>651</v>
+        <v>547</v>
       </c>
       <c r="AV67" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX67" s="4" t="s">
-        <v>652</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>645</v>
+        <v>549</v>
       </c>
       <c r="B68" t="s">
         <v>243</v>
       </c>
       <c r="C68" t="s">
-        <v>646</v>
+        <v>550</v>
       </c>
       <c r="D68" t="s">
-        <v>647</v>
+        <v>551</v>
       </c>
       <c r="E68">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F68" t="s">
-        <v>434</v>
-      </c>
-      <c r="G68">
-        <v>318</v>
-      </c>
-      <c r="I68">
-        <v>31</v>
-      </c>
-      <c r="J68">
-        <v>45</v>
+        <v>346</v>
+      </c>
+      <c r="G68" t="s">
+        <v>552</v>
+      </c>
+      <c r="H68" t="s">
+        <v>496</v>
+      </c>
+      <c r="I68" t="s">
+        <v>553</v>
+      </c>
+      <c r="J68" t="s">
+        <v>554</v>
       </c>
       <c r="K68" t="s">
-        <v>648</v>
+        <v>555</v>
+      </c>
+      <c r="L68" t="s">
+        <v>248</v>
       </c>
       <c r="M68" t="s">
-        <v>649</v>
+        <v>556</v>
       </c>
       <c r="N68" t="s">
         <v>251</v>
@@ -13570,7 +13591,7 @@
         <v>252</v>
       </c>
       <c r="P68" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q68" t="s">
         <v>21</v>
@@ -13582,56 +13603,53 @@
         <v>46</v>
       </c>
       <c r="U68" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V68" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X68" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z68" s="4" t="s">
-        <v>654</v>
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>653</v>
       </c>
       <c r="AA68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE68" s="4"/>
-      <c r="AF68" s="10">
-        <v>4.3</v>
+      <c r="AF68" t="s">
+        <v>275</v>
       </c>
       <c r="AG68" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI68" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AL68" t="s">
-        <v>669</v>
-      </c>
-      <c r="AM68" s="4" t="s">
-        <v>233</v>
+        <v>557</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>162</v>
       </c>
       <c r="AO68" s="4" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="AQ68" t="s">
         <v>164</v>
@@ -13640,54 +13658,60 @@
         <v>239</v>
       </c>
       <c r="AS68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU68" t="s">
-        <v>651</v>
+        <v>558</v>
       </c>
       <c r="AV68" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX68" s="4" t="s">
-        <v>652</v>
+        <v>559</v>
       </c>
     </row>
     <row r="69" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>645</v>
+        <v>549</v>
       </c>
       <c r="B69" t="s">
         <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>646</v>
+        <v>550</v>
       </c>
       <c r="D69" t="s">
-        <v>647</v>
+        <v>551</v>
       </c>
       <c r="E69">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F69" t="s">
-        <v>434</v>
-      </c>
-      <c r="G69">
-        <v>318</v>
-      </c>
-      <c r="I69">
-        <v>31</v>
-      </c>
-      <c r="J69">
-        <v>45</v>
+        <v>346</v>
+      </c>
+      <c r="G69" t="s">
+        <v>552</v>
+      </c>
+      <c r="H69" t="s">
+        <v>496</v>
+      </c>
+      <c r="I69" t="s">
+        <v>553</v>
+      </c>
+      <c r="J69" t="s">
+        <v>554</v>
       </c>
       <c r="K69" t="s">
-        <v>648</v>
+        <v>555</v>
+      </c>
+      <c r="L69" t="s">
+        <v>248</v>
       </c>
       <c r="M69" t="s">
-        <v>649</v>
+        <v>556</v>
       </c>
       <c r="N69" t="s">
         <v>251</v>
@@ -13696,7 +13720,7 @@
         <v>252</v>
       </c>
       <c r="P69" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="Q69" t="s">
         <v>21</v>
@@ -13708,56 +13732,53 @@
         <v>46</v>
       </c>
       <c r="U69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V69" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X69" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z69" s="4" t="s">
-        <v>654</v>
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>653</v>
       </c>
       <c r="AA69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE69" s="4"/>
-      <c r="AF69" s="10">
-        <v>4.3</v>
+      <c r="AF69" t="s">
+        <v>275</v>
       </c>
       <c r="AG69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI69" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AL69" t="s">
-        <v>670</v>
-      </c>
-      <c r="AM69" s="4" t="s">
-        <v>233</v>
+        <v>557</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>162</v>
       </c>
       <c r="AO69" s="4" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="AQ69" t="s">
         <v>164</v>
@@ -13769,57 +13790,51 @@
         <v>176</v>
       </c>
       <c r="AU69" t="s">
-        <v>651</v>
+        <v>558</v>
       </c>
       <c r="AV69" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX69" s="4" t="s">
-        <v>652</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>560</v>
+        <v>645</v>
       </c>
       <c r="B70" t="s">
         <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>561</v>
+        <v>646</v>
       </c>
       <c r="D70" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
       <c r="E70">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F70" t="s">
-        <v>563</v>
-      </c>
-      <c r="G70" t="s">
-        <v>564</v>
-      </c>
-      <c r="H70" t="s">
-        <v>280</v>
-      </c>
-      <c r="I70" t="s">
-        <v>565</v>
-      </c>
-      <c r="J70" t="s">
-        <v>566</v>
+        <v>434</v>
+      </c>
+      <c r="G70">
+        <v>318</v>
+      </c>
+      <c r="I70">
+        <v>31</v>
+      </c>
+      <c r="J70">
+        <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>567</v>
-      </c>
-      <c r="L70" t="s">
-        <v>248</v>
+        <v>648</v>
       </c>
       <c r="M70" t="s">
-        <v>568</v>
+        <v>649</v>
       </c>
       <c r="N70" t="s">
         <v>251</v>
@@ -13828,31 +13843,31 @@
         <v>252</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q70" t="s">
         <v>21</v>
       </c>
       <c r="S70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T70" t="s">
+        <v>46</v>
+      </c>
+      <c r="U70" t="s">
+        <v>57</v>
+      </c>
+      <c r="V70" t="s">
         <v>41</v>
       </c>
-      <c r="U70" t="s">
-        <v>52</v>
-      </c>
-      <c r="V70" t="s">
-        <v>44</v>
-      </c>
       <c r="W70" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X70" t="s">
         <v>216</v>
       </c>
       <c r="Z70" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA70">
         <v>3</v>
@@ -13864,11 +13879,11 @@
         <v>3</v>
       </c>
       <c r="AE70" s="4"/>
-      <c r="AF70" t="s">
-        <v>335</v>
+      <c r="AF70" s="10">
+        <v>4.3</v>
       </c>
       <c r="AG70" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH70" t="s">
         <v>120</v>
@@ -13880,78 +13895,72 @@
         <v>113</v>
       </c>
       <c r="AK70" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL70" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="AM70" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO70" s="4" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AQ70" t="s">
         <v>164</v>
       </c>
       <c r="AR70" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS70" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AU70" t="s">
-        <v>514</v>
+        <v>651</v>
       </c>
       <c r="AV70" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX70" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>560</v>
+        <v>645</v>
       </c>
       <c r="B71" t="s">
         <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>561</v>
+        <v>646</v>
       </c>
       <c r="D71" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
       <c r="E71">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F71" t="s">
-        <v>563</v>
-      </c>
-      <c r="G71" t="s">
-        <v>564</v>
-      </c>
-      <c r="H71" t="s">
-        <v>280</v>
-      </c>
-      <c r="I71" t="s">
-        <v>565</v>
-      </c>
-      <c r="J71" t="s">
-        <v>566</v>
+        <v>434</v>
+      </c>
+      <c r="G71">
+        <v>318</v>
+      </c>
+      <c r="I71">
+        <v>31</v>
+      </c>
+      <c r="J71">
+        <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>567</v>
-      </c>
-      <c r="L71" t="s">
-        <v>248</v>
+        <v>648</v>
       </c>
       <c r="M71" t="s">
-        <v>568</v>
+        <v>649</v>
       </c>
       <c r="N71" t="s">
         <v>251</v>
@@ -13960,31 +13969,31 @@
         <v>252</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q71" t="s">
         <v>21</v>
       </c>
       <c r="S71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T71" t="s">
+        <v>46</v>
+      </c>
+      <c r="U71" t="s">
+        <v>57</v>
+      </c>
+      <c r="V71" t="s">
         <v>41</v>
       </c>
-      <c r="U71" t="s">
-        <v>52</v>
-      </c>
-      <c r="V71" t="s">
-        <v>44</v>
-      </c>
       <c r="W71" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X71" t="s">
         <v>216</v>
       </c>
       <c r="Z71" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA71">
         <v>3</v>
@@ -13996,11 +14005,11 @@
         <v>3</v>
       </c>
       <c r="AE71" s="4"/>
-      <c r="AF71" t="s">
-        <v>335</v>
+      <c r="AF71" s="10">
+        <v>4.3</v>
       </c>
       <c r="AG71" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH71" t="s">
         <v>120</v>
@@ -14012,78 +14021,72 @@
         <v>113</v>
       </c>
       <c r="AK71" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL71" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="AM71" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO71" s="4" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AQ71" t="s">
         <v>164</v>
       </c>
       <c r="AR71" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AU71" t="s">
-        <v>514</v>
+        <v>651</v>
       </c>
       <c r="AV71" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX71" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="72" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>560</v>
+        <v>645</v>
       </c>
       <c r="B72" t="s">
         <v>243</v>
       </c>
       <c r="C72" t="s">
-        <v>561</v>
+        <v>646</v>
       </c>
       <c r="D72" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
       <c r="E72">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F72" t="s">
-        <v>563</v>
-      </c>
-      <c r="G72" t="s">
-        <v>564</v>
-      </c>
-      <c r="H72" t="s">
-        <v>280</v>
-      </c>
-      <c r="I72" t="s">
-        <v>565</v>
-      </c>
-      <c r="J72" t="s">
-        <v>566</v>
+        <v>434</v>
+      </c>
+      <c r="G72">
+        <v>318</v>
+      </c>
+      <c r="I72">
+        <v>31</v>
+      </c>
+      <c r="J72">
+        <v>45</v>
       </c>
       <c r="K72" t="s">
-        <v>567</v>
-      </c>
-      <c r="L72" t="s">
-        <v>248</v>
+        <v>648</v>
       </c>
       <c r="M72" t="s">
-        <v>568</v>
+        <v>649</v>
       </c>
       <c r="N72" t="s">
         <v>251</v>
@@ -14092,31 +14095,31 @@
         <v>252</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q72" t="s">
         <v>21</v>
       </c>
       <c r="S72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T72" t="s">
+        <v>46</v>
+      </c>
+      <c r="U72" t="s">
+        <v>57</v>
+      </c>
+      <c r="V72" t="s">
         <v>41</v>
       </c>
-      <c r="U72" t="s">
-        <v>52</v>
-      </c>
-      <c r="V72" t="s">
-        <v>44</v>
-      </c>
       <c r="W72" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X72" t="s">
         <v>216</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA72">
         <v>3</v>
@@ -14128,94 +14131,88 @@
         <v>3</v>
       </c>
       <c r="AE72" s="4"/>
-      <c r="AF72" t="s">
-        <v>335</v>
+      <c r="AF72" s="10">
+        <v>4.3</v>
       </c>
       <c r="AG72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH72" t="s">
         <v>120</v>
       </c>
       <c r="AI72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AJ72" t="s">
         <v>113</v>
       </c>
       <c r="AK72" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL72" s="4" t="s">
-        <v>659</v>
+        <v>148</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>669</v>
       </c>
       <c r="AM72" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO72" s="4" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AQ72" t="s">
         <v>164</v>
       </c>
       <c r="AR72" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS72" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AU72" t="s">
-        <v>514</v>
+        <v>651</v>
       </c>
       <c r="AV72" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW72" t="s">
         <v>209</v>
       </c>
       <c r="AX72" s="4" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="B73" t="s">
         <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="D73" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="E73">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F73" t="s">
-        <v>572</v>
-      </c>
-      <c r="G73" t="s">
-        <v>573</v>
-      </c>
-      <c r="H73" t="s">
-        <v>297</v>
-      </c>
-      <c r="I73" t="s">
-        <v>574</v>
-      </c>
-      <c r="J73" t="s">
-        <v>575</v>
+        <v>434</v>
+      </c>
+      <c r="G73">
+        <v>318</v>
+      </c>
+      <c r="I73">
+        <v>31</v>
+      </c>
+      <c r="J73">
+        <v>45</v>
       </c>
       <c r="K73" t="s">
-        <v>576</v>
-      </c>
-      <c r="L73" t="s">
-        <v>248</v>
+        <v>648</v>
       </c>
       <c r="M73" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="N73" t="s">
         <v>251</v>
@@ -14224,64 +14221,136 @@
         <v>252</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="Q73" t="s">
         <v>21</v>
       </c>
-      <c r="R73" t="s">
-        <v>84</v>
+      <c r="S73" t="s">
+        <v>24</v>
+      </c>
+      <c r="T73" t="s">
+        <v>46</v>
+      </c>
+      <c r="U73" t="s">
+        <v>57</v>
+      </c>
+      <c r="V73" t="s">
+        <v>41</v>
+      </c>
+      <c r="W73" t="s">
+        <v>57</v>
+      </c>
+      <c r="X73" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z73" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="AA73">
+        <v>3</v>
+      </c>
+      <c r="AB73">
+        <v>3</v>
+      </c>
+      <c r="AC73">
+        <v>3</v>
       </c>
       <c r="AE73" s="4"/>
-      <c r="AF73" t="s">
-        <v>253</v>
+      <c r="AF73" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>670</v>
+      </c>
+      <c r="AM73" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO73" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>651</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX73" s="4" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="74" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="B74" t="s">
         <v>243</v>
       </c>
       <c r="C74" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="D74" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="E74">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F74" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G74" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="H74" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="I74" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="J74" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="K74" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="L74" t="s">
         <v>248</v>
       </c>
       <c r="M74" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="N74" t="s">
         <v>251</v>
       </c>
       <c r="O74" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="P74" t="s">
         <v>248</v>
@@ -14293,31 +14362,31 @@
         <v>26</v>
       </c>
       <c r="T74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U74" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V74" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X74" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="AA74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE74" s="4"/>
       <c r="AF74" t="s">
@@ -14327,87 +14396,93 @@
         <v>107</v>
       </c>
       <c r="AH74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI74" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>113</v>
       </c>
       <c r="AK74" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>661</v>
       </c>
       <c r="AM74" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO74" s="4" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="AQ74" t="s">
         <v>164</v>
       </c>
       <c r="AR74" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS74" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AU74" t="s">
-        <v>663</v>
+        <v>514</v>
       </c>
       <c r="AV74" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX74" s="4" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="B75" t="s">
         <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="D75" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="E75">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F75" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G75" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="H75" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="I75" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="J75" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="K75" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="L75" t="s">
         <v>248</v>
       </c>
       <c r="M75" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="N75" t="s">
         <v>251</v>
       </c>
       <c r="O75" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="P75" t="s">
         <v>248</v>
@@ -14419,34 +14494,31 @@
         <v>26</v>
       </c>
       <c r="T75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U75" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V75" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X75" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="Z75" s="4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="AA75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC75">
-        <v>2</v>
-      </c>
-      <c r="AD75" s="4" t="s">
-        <v>673</v>
+        <v>3</v>
       </c>
       <c r="AE75" s="4"/>
       <c r="AF75" t="s">
@@ -14456,81 +14528,87 @@
         <v>107</v>
       </c>
       <c r="AH75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI75" t="s">
-        <v>146</v>
+        <v>133</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>113</v>
       </c>
       <c r="AK75" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>660</v>
       </c>
       <c r="AM75" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO75" s="4" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="AQ75" t="s">
         <v>164</v>
       </c>
       <c r="AR75" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS75" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AU75" t="s">
-        <v>663</v>
+        <v>514</v>
       </c>
       <c r="AV75" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW75" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX75" s="4" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="76" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="B76" t="s">
         <v>243</v>
       </c>
       <c r="C76" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="D76" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="E76">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F76" t="s">
-        <v>390</v>
+        <v>563</v>
       </c>
       <c r="G76" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="H76" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="I76" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="J76" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="K76" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="L76" t="s">
         <v>248</v>
       </c>
       <c r="M76" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="N76" t="s">
         <v>251</v>
@@ -14539,31 +14617,31 @@
         <v>252</v>
       </c>
       <c r="P76" t="s">
-        <v>594</v>
+        <v>248</v>
       </c>
       <c r="Q76" t="s">
         <v>21</v>
       </c>
       <c r="S76" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T76" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U76" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V76" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="W76" t="s">
         <v>51</v>
       </c>
       <c r="X76" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AA76">
         <v>3</v>
@@ -14572,96 +14650,97 @@
         <v>3</v>
       </c>
       <c r="AC76">
-        <v>2</v>
-      </c>
-      <c r="AE76" s="4" t="s">
-        <v>671</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE76" s="4"/>
       <c r="AF76" t="s">
         <v>335</v>
       </c>
       <c r="AG76" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH76" t="s">
         <v>120</v>
       </c>
       <c r="AI76" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>113</v>
       </c>
       <c r="AK76" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL76" t="s">
-        <v>669</v>
+        <v>141</v>
+      </c>
+      <c r="AL76" s="4" t="s">
+        <v>659</v>
       </c>
       <c r="AM76" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO76" s="4" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="AQ76" t="s">
         <v>164</v>
       </c>
       <c r="AR76" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS76" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AU76" t="s">
-        <v>672</v>
+        <v>514</v>
       </c>
       <c r="AV76" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AW76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX76" s="4" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="B77" t="s">
         <v>243</v>
       </c>
       <c r="C77" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="D77" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="E77">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="F77" t="s">
-        <v>434</v>
+        <v>572</v>
       </c>
       <c r="G77" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="H77" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="I77" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="J77" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="K77" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="L77" t="s">
         <v>248</v>
       </c>
       <c r="M77" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="N77" t="s">
         <v>251</v>
@@ -14670,168 +14749,91 @@
         <v>252</v>
       </c>
       <c r="P77" t="s">
-        <v>594</v>
+        <v>248</v>
       </c>
       <c r="Q77" t="s">
         <v>21</v>
       </c>
-      <c r="S77" t="s">
-        <v>24</v>
-      </c>
-      <c r="T77" t="s">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s">
-        <v>53</v>
-      </c>
-      <c r="V77" t="s">
-        <v>39</v>
-      </c>
-      <c r="W77" t="s">
-        <v>51</v>
-      </c>
-      <c r="X77" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y77" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="Z77" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA77">
-        <v>2</v>
-      </c>
-      <c r="AB77">
-        <v>2</v>
-      </c>
-      <c r="AC77">
-        <v>2</v>
-      </c>
-      <c r="AD77" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="AE77" s="4" t="s">
-        <v>676</v>
-      </c>
+      <c r="R77" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE77" s="4"/>
       <c r="AF77" t="s">
         <v>253</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL77" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="AM77" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO77" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="AQ77" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR77" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS77" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>679</v>
-      </c>
-      <c r="AU77" t="s">
-        <v>680</v>
-      </c>
-      <c r="AV77" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW77" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX77" s="4" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="78" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="B78" t="s">
         <v>243</v>
       </c>
       <c r="C78" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="D78" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="E78">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F78" t="s">
-        <v>434</v>
+        <v>572</v>
       </c>
       <c r="G78" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H78" t="s">
         <v>248</v>
       </c>
       <c r="I78" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="J78" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="K78" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="L78" t="s">
         <v>248</v>
       </c>
       <c r="M78" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="N78" t="s">
         <v>251</v>
       </c>
       <c r="O78" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="P78" t="s">
-        <v>594</v>
+        <v>248</v>
       </c>
       <c r="Q78" t="s">
         <v>21</v>
       </c>
       <c r="S78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U78" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X78" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y78" s="4" t="s">
-        <v>674</v>
+        <v>72</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="AA78">
         <v>2</v>
@@ -14842,29 +14844,27 @@
       <c r="AC78">
         <v>2</v>
       </c>
-      <c r="AD78" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="AE78" s="4" t="s">
-        <v>676</v>
-      </c>
+      <c r="AE78" s="4"/>
       <c r="AF78" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="AG78" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH78" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL78" s="4" t="s">
-        <v>677</v>
+        <v>121</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>134</v>
       </c>
       <c r="AM78" s="4" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO78" s="4" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="AQ78" t="s">
         <v>164</v>
@@ -14875,121 +14875,187 @@
       <c r="AS78" t="s">
         <v>175</v>
       </c>
-      <c r="AT78" t="s">
-        <v>679</v>
-      </c>
       <c r="AU78" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="AV78" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="AW78" t="s">
         <v>209</v>
       </c>
       <c r="AX78" s="4" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="B79" t="s">
         <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="D79" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="E79">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F79" t="s">
-        <v>390</v>
+        <v>572</v>
       </c>
       <c r="G79" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="H79" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="I79" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="J79" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="K79" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="L79" t="s">
         <v>248</v>
       </c>
       <c r="M79" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="N79" t="s">
         <v>251</v>
       </c>
       <c r="O79" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="P79" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="Q79" t="s">
         <v>21</v>
       </c>
-      <c r="R79" t="s">
-        <v>84</v>
+      <c r="S79" t="s">
+        <v>26</v>
+      </c>
+      <c r="T79" t="s">
+        <v>42</v>
+      </c>
+      <c r="U79" t="s">
+        <v>56</v>
+      </c>
+      <c r="V79" t="s">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s">
+        <v>52</v>
+      </c>
+      <c r="X79" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z79" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA79">
+        <v>2</v>
+      </c>
+      <c r="AB79">
+        <v>2</v>
+      </c>
+      <c r="AC79">
+        <v>2</v>
+      </c>
+      <c r="AD79" s="4" t="s">
+        <v>673</v>
       </c>
       <c r="AE79" s="4"/>
       <c r="AF79" t="s">
-        <v>253</v>
+        <v>335</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM79" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO79" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ79" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>663</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW79" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX79" s="4" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="B80" t="s">
         <v>243</v>
       </c>
       <c r="C80" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="D80" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="E80">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="F80" t="s">
-        <v>614</v>
+        <v>390</v>
       </c>
       <c r="G80" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="H80" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="I80" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="J80" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="K80" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="L80" t="s">
         <v>248</v>
       </c>
       <c r="M80" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="N80" t="s">
         <v>251</v>
@@ -14998,121 +15064,129 @@
         <v>252</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>594</v>
       </c>
       <c r="Q80" t="s">
         <v>21</v>
       </c>
       <c r="S80" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T80" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U80" t="s">
         <v>56</v>
       </c>
       <c r="V80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W80" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X80" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="AA80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC80">
         <v>2</v>
       </c>
-      <c r="AE80" s="4"/>
+      <c r="AE80" s="4" t="s">
+        <v>671</v>
+      </c>
       <c r="AF80" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH80" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL80" s="4" t="s">
-        <v>794</v>
+        <v>120</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>669</v>
       </c>
       <c r="AM80" s="4" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO80" s="4" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="AQ80" t="s">
         <v>164</v>
       </c>
       <c r="AR80" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="AS80" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU80" s="4" t="s">
-        <v>687</v>
+        <v>176</v>
+      </c>
+      <c r="AU80" t="s">
+        <v>672</v>
       </c>
       <c r="AV80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AW80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX80" s="4" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
     </row>
     <row r="81" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="B81" t="s">
         <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="D81" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="E81">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="F81" t="s">
-        <v>623</v>
+        <v>434</v>
       </c>
       <c r="G81" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="H81" t="s">
-        <v>625</v>
+        <v>248</v>
       </c>
       <c r="I81" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="J81" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="K81" t="s">
-        <v>248</v>
+        <v>601</v>
       </c>
       <c r="L81" t="s">
         <v>248</v>
       </c>
       <c r="M81" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="N81" t="s">
         <v>251</v>
@@ -15121,7 +15195,7 @@
         <v>252</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>594</v>
       </c>
       <c r="Q81" t="s">
         <v>21</v>
@@ -15130,129 +15204,123 @@
         <v>24</v>
       </c>
       <c r="T81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U81" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V81" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W81" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X81" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y81" s="4" t="s">
+        <v>674</v>
       </c>
       <c r="Z81" s="4" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="AA81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB81">
         <v>2</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD81" s="4" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="AE81" s="4" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="AF81" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AG81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH81" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI81" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ81" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="AL81" s="4" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="AM81" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AO81" s="4" t="s">
-        <v>162</v>
+        <v>678</v>
       </c>
       <c r="AQ81" t="s">
         <v>164</v>
       </c>
       <c r="AR81" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS81" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="AT81" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="AU81" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="AV81" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="AW81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX81" s="4" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="82" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="B82" t="s">
         <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="D82" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="E82">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="F82" t="s">
-        <v>623</v>
+        <v>434</v>
       </c>
       <c r="G82" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="H82" t="s">
-        <v>625</v>
+        <v>248</v>
       </c>
       <c r="I82" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="J82" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="K82" t="s">
-        <v>248</v>
+        <v>601</v>
       </c>
       <c r="L82" t="s">
         <v>248</v>
       </c>
       <c r="M82" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="N82" t="s">
         <v>251</v>
@@ -15261,279 +15329,198 @@
         <v>252</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>594</v>
       </c>
       <c r="Q82" t="s">
         <v>21</v>
       </c>
       <c r="S82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U82" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V82" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="W82" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X82" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y82" s="4" t="s">
+        <v>674</v>
       </c>
       <c r="Z82" s="4" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB82">
         <v>2</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD82" s="4" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="AE82" s="4" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="AF82" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AG82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI82" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ82" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="AM82" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AO82" s="4" t="s">
-        <v>162</v>
+        <v>678</v>
       </c>
       <c r="AQ82" t="s">
         <v>164</v>
       </c>
       <c r="AR82" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS82" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="AT82" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="AU82" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="AV82" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="AW82" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX82" s="4" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="B83" t="s">
         <v>243</v>
       </c>
       <c r="C83" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="D83" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="F83" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="G83" t="s">
-        <v>321</v>
+        <v>606</v>
       </c>
       <c r="H83" t="s">
         <v>416</v>
       </c>
       <c r="I83" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="J83" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="K83" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="L83" t="s">
         <v>248</v>
       </c>
       <c r="M83" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="N83" t="s">
         <v>251</v>
       </c>
       <c r="O83" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="Q83" t="s">
         <v>21</v>
       </c>
-      <c r="S83" t="s">
-        <v>25</v>
-      </c>
-      <c r="T83" t="s">
-        <v>42</v>
-      </c>
-      <c r="U83" t="s">
-        <v>48</v>
-      </c>
-      <c r="V83" t="s">
-        <v>43</v>
-      </c>
-      <c r="W83" t="s">
-        <v>48</v>
-      </c>
-      <c r="X83" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z83" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA83">
-        <v>2</v>
-      </c>
-      <c r="AB83">
-        <v>2</v>
-      </c>
-      <c r="AC83">
-        <v>2</v>
+      <c r="R83" t="s">
+        <v>84</v>
       </c>
       <c r="AE83" s="4"/>
       <c r="AF83" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG83" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH83" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI83" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ83" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK83" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL83" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="AM83" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN83" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO83" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="AQ83" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR83" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS83" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU83" t="s">
-        <v>698</v>
-      </c>
-      <c r="AV83" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW83" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX83" s="4" t="s">
-        <v>699</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="B84" t="s">
         <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="D84" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F84" t="s">
-        <v>449</v>
+        <v>614</v>
       </c>
       <c r="G84" t="s">
-        <v>321</v>
+        <v>615</v>
       </c>
       <c r="H84" t="s">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="I84" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="J84" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="K84" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="L84" t="s">
         <v>248</v>
       </c>
       <c r="M84" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="N84" t="s">
         <v>251</v>
       </c>
       <c r="O84" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="P84" t="s">
         <v>248</v>
@@ -15542,25 +15529,25 @@
         <v>21</v>
       </c>
       <c r="S84" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T84" t="s">
+        <v>41</v>
+      </c>
+      <c r="U84" t="s">
+        <v>56</v>
+      </c>
+      <c r="V84" t="s">
         <v>42</v>
       </c>
-      <c r="U84" t="s">
-        <v>48</v>
-      </c>
-      <c r="V84" t="s">
-        <v>43</v>
-      </c>
       <c r="W84" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="X84" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z84" s="4" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="AA84">
         <v>2</v>
@@ -15573,102 +15560,90 @@
       </c>
       <c r="AE84" s="4"/>
       <c r="AF84" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="AG84" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AH84" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ84" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK84" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="AL84" s="4" t="s">
-        <v>701</v>
+        <v>794</v>
       </c>
       <c r="AM84" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AO84" s="4" t="s">
-        <v>458</v>
+        <v>686</v>
       </c>
       <c r="AQ84" t="s">
         <v>164</v>
       </c>
       <c r="AR84" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AS84" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU84" t="s">
-        <v>698</v>
+        <v>181</v>
+      </c>
+      <c r="AU84" s="4" t="s">
+        <v>687</v>
       </c>
       <c r="AV84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AW84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX84" s="4" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="85" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B85" t="s">
         <v>243</v>
       </c>
       <c r="C85" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D85" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="E85">
         <v>1996</v>
       </c>
       <c r="F85" t="s">
-        <v>449</v>
+        <v>623</v>
       </c>
       <c r="G85" t="s">
-        <v>321</v>
+        <v>624</v>
       </c>
       <c r="H85" t="s">
-        <v>416</v>
+        <v>625</v>
       </c>
       <c r="I85" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="J85" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="K85" t="s">
-        <v>634</v>
+        <v>248</v>
       </c>
       <c r="L85" t="s">
         <v>248</v>
       </c>
       <c r="M85" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="N85" t="s">
         <v>251</v>
       </c>
       <c r="O85" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="P85" t="s">
         <v>248</v>
@@ -15677,133 +15652,138 @@
         <v>21</v>
       </c>
       <c r="S85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T85" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U85" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W85" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X85" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z85" s="4" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="AA85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB85">
         <v>2</v>
       </c>
       <c r="AC85">
-        <v>2</v>
-      </c>
-      <c r="AE85" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD85" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AE85" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="AF85" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG85" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH85" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI85" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ85" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK85" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL85" s="4" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="AM85" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN85" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO85" s="4" t="s">
-        <v>458</v>
+        <v>162</v>
       </c>
       <c r="AQ85" t="s">
         <v>164</v>
       </c>
       <c r="AR85" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AS85" t="s">
-        <v>178</v>
+        <v>190</v>
+      </c>
+      <c r="AT85" t="s">
+        <v>691</v>
       </c>
       <c r="AU85" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="AV85" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW85" t="s">
         <v>208</v>
       </c>
       <c r="AX85" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B86" t="s">
         <v>243</v>
       </c>
       <c r="C86" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D86" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="E86">
         <v>1996</v>
       </c>
       <c r="F86" t="s">
-        <v>449</v>
+        <v>623</v>
       </c>
       <c r="G86" t="s">
-        <v>321</v>
+        <v>624</v>
       </c>
       <c r="H86" t="s">
-        <v>416</v>
+        <v>625</v>
       </c>
       <c r="I86" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="J86" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="K86" t="s">
-        <v>634</v>
+        <v>248</v>
       </c>
       <c r="L86" t="s">
         <v>248</v>
       </c>
       <c r="M86" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="N86" t="s">
         <v>251</v>
       </c>
       <c r="O86" t="s">
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="P86" t="s">
         <v>248</v>
@@ -15812,160 +15792,165 @@
         <v>21</v>
       </c>
       <c r="S86" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T86" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U86" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W86" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X86" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="AA86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB86">
         <v>2</v>
       </c>
       <c r="AC86">
-        <v>2</v>
-      </c>
-      <c r="AE86" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD86" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AE86" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="AF86" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="AG86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH86" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI86" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ86" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK86" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL86" s="4" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="AM86" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN86" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO86" s="4" t="s">
-        <v>458</v>
+        <v>162</v>
       </c>
       <c r="AQ86" t="s">
         <v>164</v>
       </c>
       <c r="AR86" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AS86" t="s">
-        <v>178</v>
+        <v>190</v>
+      </c>
+      <c r="AT86" t="s">
+        <v>691</v>
       </c>
       <c r="AU86" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="AV86" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AW86" t="s">
         <v>208</v>
       </c>
       <c r="AX86" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="87" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B87" t="s">
         <v>243</v>
       </c>
       <c r="C87" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D87" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E87">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F87" t="s">
-        <v>639</v>
+        <v>449</v>
       </c>
       <c r="G87" t="s">
-        <v>589</v>
+        <v>321</v>
       </c>
       <c r="H87" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="I87" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="J87" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="K87" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L87" t="s">
         <v>248</v>
       </c>
       <c r="M87" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="N87" t="s">
         <v>251</v>
       </c>
       <c r="O87" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="P87" t="s">
-        <v>644</v>
+        <v>248</v>
       </c>
       <c r="Q87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S87" t="s">
         <v>25</v>
       </c>
       <c r="T87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U87" t="s">
         <v>48</v>
       </c>
       <c r="V87" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W87" t="s">
         <v>48</v>
       </c>
       <c r="X87" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z87" s="4" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="AA87">
         <v>2</v>
@@ -15987,13 +15972,16 @@
         <v>120</v>
       </c>
       <c r="AI87" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>113</v>
       </c>
       <c r="AK87" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL87" s="4" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="AM87" s="4" t="s">
         <v>232</v>
@@ -16002,102 +15990,102 @@
         <v>161</v>
       </c>
       <c r="AO87" s="4" t="s">
-        <v>702</v>
+        <v>458</v>
       </c>
       <c r="AQ87" t="s">
         <v>164</v>
       </c>
       <c r="AR87" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS87" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU87" t="s">
-        <v>458</v>
+        <v>698</v>
       </c>
       <c r="AV87" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW87" t="s">
         <v>208</v>
       </c>
       <c r="AX87" s="4" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B88" t="s">
         <v>243</v>
       </c>
       <c r="C88" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D88" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E88">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F88" t="s">
-        <v>639</v>
+        <v>449</v>
       </c>
       <c r="G88" t="s">
-        <v>589</v>
+        <v>321</v>
       </c>
       <c r="H88" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="I88" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="J88" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="K88" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L88" t="s">
         <v>248</v>
       </c>
       <c r="M88" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="N88" t="s">
         <v>251</v>
       </c>
       <c r="O88" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="P88" t="s">
-        <v>644</v>
+        <v>248</v>
       </c>
       <c r="Q88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S88" t="s">
         <v>25</v>
       </c>
       <c r="T88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U88" t="s">
         <v>48</v>
       </c>
       <c r="V88" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W88" t="s">
         <v>48</v>
       </c>
       <c r="X88" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z88" s="4" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="AA88">
         <v>2</v>
@@ -16119,117 +16107,120 @@
         <v>120</v>
       </c>
       <c r="AI88" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>113</v>
       </c>
       <c r="AK88" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL88" s="4" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="AM88" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO88" s="4" t="s">
-        <v>702</v>
+        <v>458</v>
       </c>
       <c r="AQ88" t="s">
         <v>164</v>
       </c>
       <c r="AR88" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AU88" t="s">
-        <v>458</v>
+        <v>698</v>
       </c>
       <c r="AV88" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AW88" t="s">
         <v>208</v>
       </c>
       <c r="AX88" s="4" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B89" t="s">
         <v>243</v>
       </c>
       <c r="C89" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D89" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E89">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F89" t="s">
-        <v>639</v>
+        <v>449</v>
       </c>
       <c r="G89" t="s">
-        <v>589</v>
+        <v>321</v>
       </c>
       <c r="H89" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="I89" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="J89" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="K89" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L89" t="s">
         <v>248</v>
       </c>
       <c r="M89" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="N89" t="s">
         <v>251</v>
       </c>
       <c r="O89" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="P89" t="s">
-        <v>644</v>
+        <v>248</v>
       </c>
       <c r="Q89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S89" t="s">
         <v>25</v>
       </c>
       <c r="T89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U89" t="s">
         <v>48</v>
       </c>
       <c r="V89" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W89" t="s">
         <v>48</v>
       </c>
       <c r="X89" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z89" s="4" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="AA89">
         <v>2</v>
@@ -16248,16 +16239,19 @@
         <v>107</v>
       </c>
       <c r="AH89" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AI89" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>113</v>
       </c>
       <c r="AK89" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL89" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AM89" s="4" t="s">
         <v>232</v>
@@ -16266,7 +16260,7 @@
         <v>161</v>
       </c>
       <c r="AO89" s="4" t="s">
-        <v>702</v>
+        <v>458</v>
       </c>
       <c r="AQ89" t="s">
         <v>164</v>
@@ -16278,90 +16272,90 @@
         <v>178</v>
       </c>
       <c r="AU89" t="s">
-        <v>458</v>
+        <v>698</v>
       </c>
       <c r="AV89" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW89" t="s">
         <v>208</v>
       </c>
       <c r="AX89" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="90" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B90" t="s">
         <v>243</v>
       </c>
       <c r="C90" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D90" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="F90" t="s">
-        <v>639</v>
+        <v>449</v>
       </c>
       <c r="G90" t="s">
-        <v>589</v>
+        <v>321</v>
       </c>
       <c r="H90" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="I90" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="J90" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="K90" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L90" t="s">
         <v>248</v>
       </c>
       <c r="M90" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="N90" t="s">
         <v>251</v>
       </c>
       <c r="O90" t="s">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="P90" t="s">
-        <v>644</v>
+        <v>248</v>
       </c>
       <c r="Q90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S90" t="s">
         <v>25</v>
       </c>
       <c r="T90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U90" t="s">
         <v>48</v>
       </c>
       <c r="V90" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W90" t="s">
         <v>48</v>
       </c>
       <c r="X90" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="Z90" s="4" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="AA90">
         <v>2</v>
@@ -16385,11 +16379,14 @@
       <c r="AI90" t="s">
         <v>140</v>
       </c>
+      <c r="AJ90" t="s">
+        <v>113</v>
+      </c>
       <c r="AK90" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL90" s="4" t="s">
-        <v>670</v>
+        <v>701</v>
       </c>
       <c r="AM90" s="4" t="s">
         <v>232</v>
@@ -16398,7 +16395,7 @@
         <v>161</v>
       </c>
       <c r="AO90" s="4" t="s">
-        <v>702</v>
+        <v>458</v>
       </c>
       <c r="AQ90" t="s">
         <v>164</v>
@@ -16410,16 +16407,16 @@
         <v>178</v>
       </c>
       <c r="AU90" t="s">
-        <v>458</v>
+        <v>698</v>
       </c>
       <c r="AV90" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AW90" t="s">
         <v>208</v>
       </c>
       <c r="AX90" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="91" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -16490,10 +16487,10 @@
         <v>48</v>
       </c>
       <c r="X91" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>711</v>
+        <v>69</v>
+      </c>
+      <c r="Z91" s="4" t="s">
+        <v>708</v>
       </c>
       <c r="AA91">
         <v>2</v>
@@ -16504,6 +16501,7 @@
       <c r="AC91">
         <v>2</v>
       </c>
+      <c r="AE91" s="4"/>
       <c r="AF91" t="s">
         <v>335</v>
       </c>
@@ -16511,19 +16509,22 @@
         <v>107</v>
       </c>
       <c r="AH91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI91" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="AK91" t="s">
         <v>148</v>
       </c>
       <c r="AL91" s="4" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="AM91" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN91" t="s">
+        <v>161</v>
       </c>
       <c r="AO91" s="4" t="s">
         <v>702</v>
@@ -16538,15 +16539,539 @@
         <v>178</v>
       </c>
       <c r="AU91" t="s">
-        <v>710</v>
+        <v>458</v>
       </c>
       <c r="AV91" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="AW91" t="s">
         <v>208</v>
       </c>
       <c r="AX91" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="92" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>636</v>
+      </c>
+      <c r="B92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" t="s">
+        <v>637</v>
+      </c>
+      <c r="D92" t="s">
+        <v>638</v>
+      </c>
+      <c r="E92">
+        <v>2003</v>
+      </c>
+      <c r="F92" t="s">
+        <v>639</v>
+      </c>
+      <c r="G92" t="s">
+        <v>589</v>
+      </c>
+      <c r="H92" t="s">
+        <v>297</v>
+      </c>
+      <c r="I92" t="s">
+        <v>640</v>
+      </c>
+      <c r="J92" t="s">
+        <v>641</v>
+      </c>
+      <c r="K92" t="s">
+        <v>642</v>
+      </c>
+      <c r="L92" t="s">
+        <v>248</v>
+      </c>
+      <c r="M92" t="s">
+        <v>643</v>
+      </c>
+      <c r="N92" t="s">
+        <v>251</v>
+      </c>
+      <c r="O92" t="s">
+        <v>252</v>
+      </c>
+      <c r="P92" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>22</v>
+      </c>
+      <c r="S92" t="s">
+        <v>25</v>
+      </c>
+      <c r="T92" t="s">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s">
+        <v>48</v>
+      </c>
+      <c r="V92" t="s">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s">
+        <v>48</v>
+      </c>
+      <c r="X92" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z92" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA92">
+        <v>2</v>
+      </c>
+      <c r="AB92">
+        <v>2</v>
+      </c>
+      <c r="AC92">
+        <v>2</v>
+      </c>
+      <c r="AE92" s="4"/>
+      <c r="AF92" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL92" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="AM92" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN92" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO92" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AQ92" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR92" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS92" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU92" t="s">
+        <v>458</v>
+      </c>
+      <c r="AV92" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW92" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX92" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>636</v>
+      </c>
+      <c r="B93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" t="s">
+        <v>637</v>
+      </c>
+      <c r="D93" t="s">
+        <v>638</v>
+      </c>
+      <c r="E93">
+        <v>2003</v>
+      </c>
+      <c r="F93" t="s">
+        <v>639</v>
+      </c>
+      <c r="G93" t="s">
+        <v>589</v>
+      </c>
+      <c r="H93" t="s">
+        <v>297</v>
+      </c>
+      <c r="I93" t="s">
+        <v>640</v>
+      </c>
+      <c r="J93" t="s">
+        <v>641</v>
+      </c>
+      <c r="K93" t="s">
+        <v>642</v>
+      </c>
+      <c r="L93" t="s">
+        <v>248</v>
+      </c>
+      <c r="M93" t="s">
+        <v>643</v>
+      </c>
+      <c r="N93" t="s">
+        <v>251</v>
+      </c>
+      <c r="O93" t="s">
+        <v>252</v>
+      </c>
+      <c r="P93" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>22</v>
+      </c>
+      <c r="S93" t="s">
+        <v>25</v>
+      </c>
+      <c r="T93" t="s">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s">
+        <v>48</v>
+      </c>
+      <c r="V93" t="s">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s">
+        <v>48</v>
+      </c>
+      <c r="X93" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z93" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA93">
+        <v>2</v>
+      </c>
+      <c r="AB93">
+        <v>2</v>
+      </c>
+      <c r="AC93">
+        <v>2</v>
+      </c>
+      <c r="AE93" s="4"/>
+      <c r="AF93" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL93" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="AM93" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN93" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO93" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AQ93" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR93" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS93" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU93" t="s">
+        <v>458</v>
+      </c>
+      <c r="AV93" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW93" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX93" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>636</v>
+      </c>
+      <c r="B94" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" t="s">
+        <v>637</v>
+      </c>
+      <c r="D94" t="s">
+        <v>638</v>
+      </c>
+      <c r="E94">
+        <v>2003</v>
+      </c>
+      <c r="F94" t="s">
+        <v>639</v>
+      </c>
+      <c r="G94" t="s">
+        <v>589</v>
+      </c>
+      <c r="H94" t="s">
+        <v>297</v>
+      </c>
+      <c r="I94" t="s">
+        <v>640</v>
+      </c>
+      <c r="J94" t="s">
+        <v>641</v>
+      </c>
+      <c r="K94" t="s">
+        <v>642</v>
+      </c>
+      <c r="L94" t="s">
+        <v>248</v>
+      </c>
+      <c r="M94" t="s">
+        <v>643</v>
+      </c>
+      <c r="N94" t="s">
+        <v>251</v>
+      </c>
+      <c r="O94" t="s">
+        <v>252</v>
+      </c>
+      <c r="P94" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>22</v>
+      </c>
+      <c r="S94" t="s">
+        <v>25</v>
+      </c>
+      <c r="T94" t="s">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s">
+        <v>48</v>
+      </c>
+      <c r="V94" t="s">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s">
+        <v>48</v>
+      </c>
+      <c r="X94" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z94" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA94">
+        <v>2</v>
+      </c>
+      <c r="AB94">
+        <v>2</v>
+      </c>
+      <c r="AC94">
+        <v>2</v>
+      </c>
+      <c r="AE94" s="4"/>
+      <c r="AF94" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL94" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="AM94" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN94" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO94" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AQ94" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR94" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS94" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU94" t="s">
+        <v>458</v>
+      </c>
+      <c r="AV94" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW94" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX94" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="95" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>636</v>
+      </c>
+      <c r="B95" t="s">
+        <v>243</v>
+      </c>
+      <c r="C95" t="s">
+        <v>637</v>
+      </c>
+      <c r="D95" t="s">
+        <v>638</v>
+      </c>
+      <c r="E95">
+        <v>2003</v>
+      </c>
+      <c r="F95" t="s">
+        <v>639</v>
+      </c>
+      <c r="G95" t="s">
+        <v>589</v>
+      </c>
+      <c r="H95" t="s">
+        <v>297</v>
+      </c>
+      <c r="I95" t="s">
+        <v>640</v>
+      </c>
+      <c r="J95" t="s">
+        <v>641</v>
+      </c>
+      <c r="K95" t="s">
+        <v>642</v>
+      </c>
+      <c r="L95" t="s">
+        <v>248</v>
+      </c>
+      <c r="M95" t="s">
+        <v>643</v>
+      </c>
+      <c r="N95" t="s">
+        <v>251</v>
+      </c>
+      <c r="O95" t="s">
+        <v>252</v>
+      </c>
+      <c r="P95" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>22</v>
+      </c>
+      <c r="S95" t="s">
+        <v>25</v>
+      </c>
+      <c r="T95" t="s">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s">
+        <v>48</v>
+      </c>
+      <c r="V95" t="s">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s">
+        <v>48</v>
+      </c>
+      <c r="X95" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>711</v>
+      </c>
+      <c r="AA95">
+        <v>2</v>
+      </c>
+      <c r="AB95">
+        <v>2</v>
+      </c>
+      <c r="AC95">
+        <v>2</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL95" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="AM95" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO95" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS95" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU95" t="s">
+        <v>710</v>
+      </c>
+      <c r="AV95" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW95" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX95" s="4" t="s">
         <v>712</v>
       </c>
     </row>
@@ -16561,7 +17086,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P10:P1048576 Q3:Q9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q9 P10:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -18664,21 +19189,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -18792,30 +19302,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E4DF9E-7F1E-4972-89F4-4FEF38D7FA95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18829,4 +19331,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thuenen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC85CDC-1F29-42C3-85F1-C5BB948AD4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD39DA27-9589-47B4-933A-616DD23E46E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3811,9 +3811,6 @@
     <t>Higher egg abundance and production inside an MPA could also come from other causes than exclusion of fishing</t>
   </si>
   <si>
-    <t>Epinephelus spec</t>
-  </si>
-  <si>
     <t>MPA</t>
   </si>
   <si>
@@ -4929,6 +4926,9 @@
   </si>
   <si>
     <t>change from grid trawling to creeling</t>
+  </si>
+  <si>
+    <t>Epinephelus _ Coris julis _ Sciaena umbra _ Scorpaena</t>
   </si>
 </sst>
 </file>
@@ -5410,8 +5410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AX25" sqref="AX25"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AN99" sqref="AN99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5722,7 +5722,7 @@
         <v>215</v>
       </c>
       <c r="Z3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5747,7 +5747,7 @@
         <v>145</v>
       </c>
       <c r="AL3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AM3" s="4" t="s">
         <v>232</v>
@@ -5756,10 +5756,10 @@
         <v>161</v>
       </c>
       <c r="AO3" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="AP3" t="s">
         <v>715</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>716</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -5768,7 +5768,7 @@
         <v>239</v>
       </c>
       <c r="AU3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AV3" t="s">
         <v>202</v>
@@ -5777,7 +5777,7 @@
         <v>209</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5851,7 +5851,7 @@
         <v>69</v>
       </c>
       <c r="Z4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5876,7 +5876,7 @@
         <v>130</v>
       </c>
       <c r="AL4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AM4" s="4" t="s">
         <v>232</v>
@@ -5885,7 +5885,7 @@
         <v>160</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5897,7 +5897,7 @@
         <v>176</v>
       </c>
       <c r="AU4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -5906,7 +5906,7 @@
         <v>208</v>
       </c>
       <c r="AX4" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5977,7 +5977,7 @@
         <v>69</v>
       </c>
       <c r="Z5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -6005,7 +6005,7 @@
         <v>148</v>
       </c>
       <c r="AL5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AM5" s="4" t="s">
         <v>232</v>
@@ -6014,7 +6014,7 @@
         <v>161</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -6026,7 +6026,7 @@
         <v>176</v>
       </c>
       <c r="AU5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AV5" t="s">
         <v>199</v>
@@ -6035,7 +6035,7 @@
         <v>208</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6109,10 +6109,10 @@
         <v>113</v>
       </c>
       <c r="Y6" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z6" t="s">
         <v>724</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>725</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>161</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -6170,7 +6170,7 @@
         <v>209</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6244,7 +6244,7 @@
         <v>69</v>
       </c>
       <c r="Z7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -6266,7 +6266,7 @@
         <v>124</v>
       </c>
       <c r="AL7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AM7" s="4" t="s">
         <v>232</v>
@@ -6275,13 +6275,13 @@
         <v>160</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
       </c>
       <c r="AU7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AV7" t="s">
         <v>238</v>
@@ -6290,7 +6290,7 @@
         <v>207</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6364,7 +6364,7 @@
         <v>69</v>
       </c>
       <c r="Z8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -6386,7 +6386,7 @@
         <v>124</v>
       </c>
       <c r="AL8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AM8" s="4" t="s">
         <v>232</v>
@@ -6395,13 +6395,13 @@
         <v>160</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
       </c>
       <c r="AU8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AV8" t="s">
         <v>199</v>
@@ -6410,7 +6410,7 @@
         <v>209</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6484,7 +6484,7 @@
         <v>69</v>
       </c>
       <c r="Z9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA9">
         <v>2</v>
@@ -6506,7 +6506,7 @@
         <v>124</v>
       </c>
       <c r="AL9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AM9" s="4" t="s">
         <v>232</v>
@@ -6515,13 +6515,13 @@
         <v>160</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
       </c>
       <c r="AU9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AV9" t="s">
         <v>238</v>
@@ -6530,7 +6530,7 @@
         <v>208</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6604,10 +6604,10 @@
         <v>113</v>
       </c>
       <c r="Y10" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z10" t="s">
         <v>729</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>730</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -6632,7 +6632,7 @@
         <v>147</v>
       </c>
       <c r="AL10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AM10" s="4" t="s">
         <v>232</v>
@@ -6641,7 +6641,7 @@
         <v>160</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AQ10" t="s">
         <v>164</v>
@@ -6653,7 +6653,7 @@
         <v>181</v>
       </c>
       <c r="AU10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AV10" t="s">
         <v>238</v>
@@ -6662,7 +6662,7 @@
         <v>207</v>
       </c>
       <c r="AX10" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6736,10 +6736,10 @@
         <v>113</v>
       </c>
       <c r="Y11" t="s">
+        <v>734</v>
+      </c>
+      <c r="Z11" t="s">
         <v>735</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>736</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -6764,13 +6764,13 @@
         <v>140</v>
       </c>
       <c r="AL11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AM11" s="4" t="s">
         <v>231</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -6779,7 +6779,7 @@
         <v>113</v>
       </c>
       <c r="AU11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AV11" t="s">
         <v>199</v>
@@ -6788,7 +6788,7 @@
         <v>207</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6923,7 +6923,7 @@
         <v>216</v>
       </c>
       <c r="Z13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -6948,7 +6948,7 @@
         <v>132</v>
       </c>
       <c r="AL13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AM13" s="4" t="s">
         <v>232</v>
@@ -6957,7 +6957,7 @@
         <v>161</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
@@ -6969,7 +6969,7 @@
         <v>175</v>
       </c>
       <c r="AU13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AV13" t="s">
         <v>237</v>
@@ -6978,7 +6978,7 @@
         <v>208</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7052,10 +7052,10 @@
         <v>113</v>
       </c>
       <c r="Y14" t="s">
+        <v>744</v>
+      </c>
+      <c r="Z14" t="s">
         <v>745</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>746</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -7067,7 +7067,7 @@
         <v>2</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AF14" t="s">
         <v>291</v>
@@ -7082,13 +7082,13 @@
         <v>140</v>
       </c>
       <c r="AL14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AM14" s="4" t="s">
         <v>231</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -7097,7 +7097,7 @@
         <v>113</v>
       </c>
       <c r="AU14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AV14" t="s">
         <v>206</v>
@@ -7106,7 +7106,7 @@
         <v>207</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7180,7 +7180,7 @@
         <v>215</v>
       </c>
       <c r="Z15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -7208,13 +7208,13 @@
         <v>160</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
       </c>
       <c r="AU15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AV15" t="s">
         <v>199</v>
@@ -7223,7 +7223,7 @@
         <v>208</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7352,7 +7352,7 @@
         <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -7364,7 +7364,7 @@
         <v>3</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AE17" s="4"/>
       <c r="AF17" t="s">
@@ -7377,7 +7377,7 @@
         <v>116</v>
       </c>
       <c r="AL17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AM17" s="4" t="s">
         <v>232</v>
@@ -7386,7 +7386,7 @@
         <v>162</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -7407,7 +7407,7 @@
         <v>210</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7481,7 +7481,7 @@
         <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -7503,7 +7503,7 @@
         <v>117</v>
       </c>
       <c r="AL18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AM18" s="4" t="s">
         <v>232</v>
@@ -7512,7 +7512,7 @@
         <v>162</v>
       </c>
       <c r="AO18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -7521,7 +7521,7 @@
         <v>239</v>
       </c>
       <c r="AU18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AV18" t="s">
         <v>199</v>
@@ -7530,7 +7530,7 @@
         <v>207</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7604,7 +7604,7 @@
         <v>216</v>
       </c>
       <c r="Z19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -7626,7 +7626,7 @@
         <v>120</v>
       </c>
       <c r="AL19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AM19" s="4" t="s">
         <v>232</v>
@@ -7635,7 +7635,7 @@
         <v>162</v>
       </c>
       <c r="AO19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -7644,7 +7644,7 @@
         <v>239</v>
       </c>
       <c r="AU19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AV19" t="s">
         <v>199</v>
@@ -7653,7 +7653,7 @@
         <v>207</v>
       </c>
       <c r="AX19" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7727,7 +7727,7 @@
         <v>69</v>
       </c>
       <c r="Z20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7755,7 +7755,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -7767,7 +7767,7 @@
         <v>175</v>
       </c>
       <c r="AU20" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AV20" t="s">
         <v>199</v>
@@ -7776,7 +7776,7 @@
         <v>208</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7911,7 +7911,7 @@
         <v>216</v>
       </c>
       <c r="Z22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7936,7 +7936,7 @@
         <v>140</v>
       </c>
       <c r="AL22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AM22" s="4" t="s">
         <v>232</v>
@@ -7945,7 +7945,7 @@
         <v>162</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7957,7 +7957,7 @@
         <v>176</v>
       </c>
       <c r="AU22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AV22" t="s">
         <v>206</v>
@@ -7966,7 +7966,7 @@
         <v>208</v>
       </c>
       <c r="AX22" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -8101,7 +8101,7 @@
         <v>69</v>
       </c>
       <c r="Z24" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -8123,7 +8123,7 @@
         <v>120</v>
       </c>
       <c r="AL24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AM24" s="4" t="s">
         <v>232</v>
@@ -8132,7 +8132,7 @@
         <v>160</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -8141,10 +8141,10 @@
         <v>113</v>
       </c>
       <c r="AT24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AV24" t="s">
         <v>238</v>
@@ -8153,7 +8153,7 @@
         <v>208</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -8227,7 +8227,7 @@
         <v>69</v>
       </c>
       <c r="Z25" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>161</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
@@ -8267,10 +8267,10 @@
         <v>113</v>
       </c>
       <c r="AT25" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU25" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AV25" t="s">
         <v>238</v>
@@ -8279,7 +8279,7 @@
         <v>208</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -8353,7 +8353,7 @@
         <v>69</v>
       </c>
       <c r="Z26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -8381,7 +8381,7 @@
         <v>161</v>
       </c>
       <c r="AO26" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -8390,10 +8390,10 @@
         <v>113</v>
       </c>
       <c r="AT26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AV26" t="s">
         <v>238</v>
@@ -8402,7 +8402,7 @@
         <v>210</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -8476,7 +8476,7 @@
         <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8501,7 +8501,7 @@
         <v>138</v>
       </c>
       <c r="AL27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AM27" s="4" t="s">
         <v>232</v>
@@ -8510,7 +8510,7 @@
         <v>161</v>
       </c>
       <c r="AO27" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -8519,10 +8519,10 @@
         <v>113</v>
       </c>
       <c r="AT27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AV27" t="s">
         <v>238</v>
@@ -8531,7 +8531,7 @@
         <v>210</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="28" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -8605,7 +8605,7 @@
         <v>69</v>
       </c>
       <c r="Z28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8633,7 +8633,7 @@
         <v>161</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
@@ -8642,10 +8642,10 @@
         <v>113</v>
       </c>
       <c r="AT28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU28" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AV28" t="s">
         <v>238</v>
@@ -8654,7 +8654,7 @@
         <v>208</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -8728,7 +8728,7 @@
         <v>69</v>
       </c>
       <c r="Z29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8753,7 +8753,7 @@
         <v>138</v>
       </c>
       <c r="AL29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AM29" s="4" t="s">
         <v>232</v>
@@ -8762,7 +8762,7 @@
         <v>161</v>
       </c>
       <c r="AO29" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8771,10 +8771,10 @@
         <v>113</v>
       </c>
       <c r="AT29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AV29" t="s">
         <v>238</v>
@@ -8783,7 +8783,7 @@
         <v>208</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="30" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -8857,7 +8857,7 @@
         <v>69</v>
       </c>
       <c r="Z30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8882,7 +8882,7 @@
         <v>233</v>
       </c>
       <c r="AO30" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
@@ -8891,10 +8891,10 @@
         <v>113</v>
       </c>
       <c r="AT30" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU30" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AV30" t="s">
         <v>113</v>
@@ -8903,7 +8903,7 @@
         <v>208</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -8977,7 +8977,7 @@
         <v>218</v>
       </c>
       <c r="Z31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8999,7 +8999,7 @@
         <v>116</v>
       </c>
       <c r="AL31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AM31" s="4" t="s">
         <v>232</v>
@@ -9008,7 +9008,7 @@
         <v>162</v>
       </c>
       <c r="AO31" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
@@ -9029,7 +9029,7 @@
         <v>207</v>
       </c>
       <c r="AX31" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -9103,7 +9103,7 @@
         <v>69</v>
       </c>
       <c r="Z32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -9125,7 +9125,7 @@
         <v>117</v>
       </c>
       <c r="AL32" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AM32" s="4" t="s">
         <v>232</v>
@@ -9134,13 +9134,13 @@
         <v>160</v>
       </c>
       <c r="AO32" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
       <c r="AU32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AV32" t="s">
         <v>206</v>
@@ -9149,7 +9149,7 @@
         <v>208</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="33" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -9223,7 +9223,7 @@
         <v>69</v>
       </c>
       <c r="Z33" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -9245,7 +9245,7 @@
         <v>220</v>
       </c>
       <c r="AL33" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AM33" s="4" t="s">
         <v>232</v>
@@ -9254,13 +9254,13 @@
         <v>160</v>
       </c>
       <c r="AO33" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
       <c r="AU33" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AV33" t="s">
         <v>206</v>
@@ -9269,7 +9269,7 @@
         <v>208</v>
       </c>
       <c r="AX33" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -9343,7 +9343,7 @@
         <v>69</v>
       </c>
       <c r="Z34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -9365,7 +9365,7 @@
         <v>117</v>
       </c>
       <c r="AL34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AM34" s="4" t="s">
         <v>232</v>
@@ -9374,13 +9374,13 @@
         <v>160</v>
       </c>
       <c r="AO34" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
       </c>
       <c r="AU34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AV34" t="s">
         <v>200</v>
@@ -9389,7 +9389,7 @@
         <v>208</v>
       </c>
       <c r="AX34" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -9463,7 +9463,7 @@
         <v>69</v>
       </c>
       <c r="Z35" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9485,7 +9485,7 @@
         <v>220</v>
       </c>
       <c r="AL35" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AM35" s="4" t="s">
         <v>232</v>
@@ -9494,13 +9494,13 @@
         <v>160</v>
       </c>
       <c r="AO35" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
       </c>
       <c r="AU35" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AV35" t="s">
         <v>200</v>
@@ -9509,7 +9509,7 @@
         <v>208</v>
       </c>
       <c r="AX35" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -9583,7 +9583,7 @@
         <v>69</v>
       </c>
       <c r="Z36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9608,7 +9608,7 @@
         <v>132</v>
       </c>
       <c r="AL36" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AM36" s="4" t="s">
         <v>232</v>
@@ -9617,7 +9617,7 @@
         <v>162</v>
       </c>
       <c r="AO36" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -9632,7 +9632,7 @@
         <v>207</v>
       </c>
       <c r="AX36" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -9706,7 +9706,7 @@
         <v>215</v>
       </c>
       <c r="Z37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -9734,7 +9734,7 @@
         <v>162</v>
       </c>
       <c r="AO37" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
@@ -9746,7 +9746,7 @@
         <v>176</v>
       </c>
       <c r="AU37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AV37" t="s">
         <v>205</v>
@@ -9755,7 +9755,7 @@
         <v>208</v>
       </c>
       <c r="AX37" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -9869,7 +9869,7 @@
         <v>443</v>
       </c>
       <c r="AP38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AQ38" t="s">
         <v>165</v>
@@ -9881,7 +9881,7 @@
         <v>211</v>
       </c>
       <c r="AU38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AV38" t="s">
         <v>213</v>
@@ -9890,7 +9890,7 @@
         <v>207</v>
       </c>
       <c r="AX38" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="39" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10001,10 +10001,10 @@
         <v>233</v>
       </c>
       <c r="AO39" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AP39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AQ39" t="s">
         <v>165</v>
@@ -10016,7 +10016,7 @@
         <v>211</v>
       </c>
       <c r="AU39" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AV39" t="s">
         <v>213</v>
@@ -10025,7 +10025,7 @@
         <v>208</v>
       </c>
       <c r="AX39" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10136,10 +10136,10 @@
         <v>233</v>
       </c>
       <c r="AO40" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AP40" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AQ40" t="s">
         <v>165</v>
@@ -10160,7 +10160,7 @@
         <v>208</v>
       </c>
       <c r="AX40" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10271,10 +10271,10 @@
         <v>231</v>
       </c>
       <c r="AO41" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AP41" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AQ41" t="s">
         <v>165</v>
@@ -10286,7 +10286,7 @@
         <v>211</v>
       </c>
       <c r="AU41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AV41" t="s">
         <v>113</v>
@@ -10295,7 +10295,7 @@
         <v>207</v>
       </c>
       <c r="AX41" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10409,7 +10409,7 @@
         <v>443</v>
       </c>
       <c r="AP42" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AQ42" t="s">
         <v>164</v>
@@ -10418,10 +10418,10 @@
         <v>171</v>
       </c>
       <c r="AT42" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AU42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AV42" t="s">
         <v>213</v>
@@ -10430,7 +10430,7 @@
         <v>207</v>
       </c>
       <c r="AX42" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="43" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10541,10 +10541,10 @@
         <v>233</v>
       </c>
       <c r="AO43" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AP43" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AQ43" t="s">
         <v>164</v>
@@ -10553,10 +10553,10 @@
         <v>171</v>
       </c>
       <c r="AT43" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AU43" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AV43" t="s">
         <v>213</v>
@@ -10565,7 +10565,7 @@
         <v>208</v>
       </c>
       <c r="AX43" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10676,10 +10676,10 @@
         <v>233</v>
       </c>
       <c r="AO44" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AP44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AQ44" t="s">
         <v>164</v>
@@ -10688,7 +10688,7 @@
         <v>171</v>
       </c>
       <c r="AT44" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AU44" t="s">
         <v>445</v>
@@ -10700,7 +10700,7 @@
         <v>208</v>
       </c>
       <c r="AX44" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="45" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -10814,7 +10814,7 @@
         <v>443</v>
       </c>
       <c r="AP45" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AQ45" t="s">
         <v>165</v>
@@ -10823,7 +10823,7 @@
         <v>173</v>
       </c>
       <c r="AU45" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AV45" t="s">
         <v>213</v>
@@ -10832,7 +10832,7 @@
         <v>207</v>
       </c>
       <c r="AX45" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="46" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -11046,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AF47" t="s">
         <v>275</v>
@@ -11171,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="AE48" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF48" t="s">
         <v>275</v>
@@ -11314,22 +11314,22 @@
         <v>144</v>
       </c>
       <c r="AL49" t="s">
-        <v>472</v>
+        <v>823</v>
       </c>
       <c r="AM49" s="4" t="s">
         <v>232</v>
       </c>
       <c r="AN49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO49" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ49" t="s">
         <v>150</v>
       </c>
       <c r="AU49" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AV49" t="s">
         <v>204</v>
@@ -11338,27 +11338,27 @@
         <v>207</v>
       </c>
       <c r="AX49" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B50" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
+        <v>476</v>
+      </c>
+      <c r="D50" t="s">
         <v>477</v>
-      </c>
-      <c r="D50" t="s">
-        <v>478</v>
       </c>
       <c r="E50">
         <v>2009</v>
       </c>
       <c r="F50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G50" t="s">
         <v>280</v>
@@ -11367,19 +11367,19 @@
         <v>297</v>
       </c>
       <c r="I50" t="s">
+        <v>479</v>
+      </c>
+      <c r="J50" t="s">
         <v>480</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>481</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
+        <v>248</v>
+      </c>
+      <c r="M50" t="s">
         <v>482</v>
-      </c>
-      <c r="L50" t="s">
-        <v>248</v>
-      </c>
-      <c r="M50" t="s">
-        <v>483</v>
       </c>
       <c r="N50" t="s">
         <v>251</v>
@@ -11412,7 +11412,7 @@
         <v>69</v>
       </c>
       <c r="Z50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA50">
         <v>2</v>
@@ -11424,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="AE50" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF50" t="s">
         <v>267</v>
@@ -11442,7 +11442,7 @@
         <v>155</v>
       </c>
       <c r="AL50" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM50" s="4" t="s">
         <v>232</v>
@@ -11463,10 +11463,10 @@
         <v>188</v>
       </c>
       <c r="AT50" t="s">
+        <v>486</v>
+      </c>
+      <c r="AU50" t="s">
         <v>487</v>
-      </c>
-      <c r="AU50" t="s">
-        <v>488</v>
       </c>
       <c r="AV50" t="s">
         <v>199</v>
@@ -11475,27 +11475,27 @@
         <v>208</v>
       </c>
       <c r="AX50" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B51" t="s">
         <v>243</v>
       </c>
       <c r="C51" t="s">
+        <v>476</v>
+      </c>
+      <c r="D51" t="s">
         <v>477</v>
-      </c>
-      <c r="D51" t="s">
-        <v>478</v>
       </c>
       <c r="E51">
         <v>2009</v>
       </c>
       <c r="F51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G51" t="s">
         <v>280</v>
@@ -11504,19 +11504,19 @@
         <v>297</v>
       </c>
       <c r="I51" t="s">
+        <v>479</v>
+      </c>
+      <c r="J51" t="s">
         <v>480</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>481</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
+        <v>248</v>
+      </c>
+      <c r="M51" t="s">
         <v>482</v>
-      </c>
-      <c r="L51" t="s">
-        <v>248</v>
-      </c>
-      <c r="M51" t="s">
-        <v>483</v>
       </c>
       <c r="N51" t="s">
         <v>251</v>
@@ -11549,7 +11549,7 @@
         <v>69</v>
       </c>
       <c r="Z51" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA51">
         <v>2</v>
@@ -11561,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="AE51" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF51" t="s">
         <v>267</v>
@@ -11576,7 +11576,7 @@
         <v>139</v>
       </c>
       <c r="AL51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AM51" s="4" t="s">
         <v>232</v>
@@ -11597,10 +11597,10 @@
         <v>188</v>
       </c>
       <c r="AT51" t="s">
+        <v>486</v>
+      </c>
+      <c r="AU51" t="s">
         <v>487</v>
-      </c>
-      <c r="AU51" t="s">
-        <v>488</v>
       </c>
       <c r="AV51" t="s">
         <v>199</v>
@@ -11609,48 +11609,48 @@
         <v>208</v>
       </c>
       <c r="AX51" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B52" t="s">
         <v>243</v>
       </c>
       <c r="C52" t="s">
+        <v>492</v>
+      </c>
+      <c r="D52" t="s">
         <v>493</v>
-      </c>
-      <c r="D52" t="s">
-        <v>494</v>
       </c>
       <c r="E52">
         <v>2008</v>
       </c>
       <c r="F52" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G52" t="s">
         <v>406</v>
       </c>
       <c r="H52" t="s">
+        <v>495</v>
+      </c>
+      <c r="I52" t="s">
         <v>496</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>497</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>498</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" t="s">
         <v>499</v>
-      </c>
-      <c r="L52" t="s">
-        <v>248</v>
-      </c>
-      <c r="M52" t="s">
-        <v>500</v>
       </c>
       <c r="N52" t="s">
         <v>251</v>
@@ -11675,49 +11675,49 @@
     </row>
     <row r="53" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B53" t="s">
         <v>243</v>
       </c>
       <c r="C53" t="s">
+        <v>501</v>
+      </c>
+      <c r="D53" t="s">
         <v>502</v>
-      </c>
-      <c r="D53" t="s">
-        <v>503</v>
       </c>
       <c r="E53">
         <v>2008</v>
       </c>
       <c r="F53" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G53" t="s">
         <v>296</v>
       </c>
       <c r="H53" t="s">
+        <v>504</v>
+      </c>
+      <c r="I53" t="s">
         <v>505</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>506</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>507</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
+        <v>248</v>
+      </c>
+      <c r="M53" t="s">
         <v>508</v>
-      </c>
-      <c r="L53" t="s">
-        <v>248</v>
-      </c>
-      <c r="M53" t="s">
-        <v>509</v>
       </c>
       <c r="N53" t="s">
         <v>251</v>
       </c>
       <c r="O53" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P53" t="s">
         <v>334</v>
@@ -11744,7 +11744,7 @@
         <v>69</v>
       </c>
       <c r="Z53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA53">
         <v>2</v>
@@ -11756,7 +11756,7 @@
         <v>2</v>
       </c>
       <c r="AE53" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF53" t="s">
         <v>275</v>
@@ -11771,7 +11771,7 @@
         <v>144</v>
       </c>
       <c r="AL53" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AM53" s="4" t="s">
         <v>232</v>
@@ -11780,13 +11780,13 @@
         <v>160</v>
       </c>
       <c r="AO53" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ53" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AU53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AV53" t="s">
         <v>199</v>
@@ -11795,54 +11795,54 @@
         <v>207</v>
       </c>
       <c r="AX53" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B54" t="s">
         <v>243</v>
       </c>
       <c r="C54" t="s">
+        <v>501</v>
+      </c>
+      <c r="D54" t="s">
         <v>502</v>
-      </c>
-      <c r="D54" t="s">
-        <v>503</v>
       </c>
       <c r="E54">
         <v>2008</v>
       </c>
       <c r="F54" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G54" t="s">
         <v>296</v>
       </c>
       <c r="H54" t="s">
+        <v>504</v>
+      </c>
+      <c r="I54" t="s">
         <v>505</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>506</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>507</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
+        <v>248</v>
+      </c>
+      <c r="M54" t="s">
         <v>508</v>
-      </c>
-      <c r="L54" t="s">
-        <v>248</v>
-      </c>
-      <c r="M54" t="s">
-        <v>509</v>
       </c>
       <c r="N54" t="s">
         <v>251</v>
       </c>
       <c r="O54" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P54" t="s">
         <v>334</v>
@@ -11869,7 +11869,7 @@
         <v>69</v>
       </c>
       <c r="Z54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA54">
         <v>2</v>
@@ -11881,7 +11881,7 @@
         <v>2</v>
       </c>
       <c r="AE54" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF54" t="s">
         <v>275</v>
@@ -11896,7 +11896,7 @@
         <v>144</v>
       </c>
       <c r="AL54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM54" s="4" t="s">
         <v>232</v>
@@ -11905,13 +11905,13 @@
         <v>162</v>
       </c>
       <c r="AO54" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ54" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AU54" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AV54" t="s">
         <v>199</v>
@@ -11920,54 +11920,54 @@
         <v>207</v>
       </c>
       <c r="AX54" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B55" t="s">
         <v>243</v>
       </c>
       <c r="C55" t="s">
+        <v>501</v>
+      </c>
+      <c r="D55" t="s">
         <v>502</v>
-      </c>
-      <c r="D55" t="s">
-        <v>503</v>
       </c>
       <c r="E55">
         <v>2008</v>
       </c>
       <c r="F55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G55" t="s">
         <v>296</v>
       </c>
       <c r="H55" t="s">
+        <v>504</v>
+      </c>
+      <c r="I55" t="s">
         <v>505</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>506</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>507</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
+        <v>248</v>
+      </c>
+      <c r="M55" t="s">
         <v>508</v>
-      </c>
-      <c r="L55" t="s">
-        <v>248</v>
-      </c>
-      <c r="M55" t="s">
-        <v>509</v>
       </c>
       <c r="N55" t="s">
         <v>251</v>
       </c>
       <c r="O55" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P55" t="s">
         <v>334</v>
@@ -11994,7 +11994,7 @@
         <v>69</v>
       </c>
       <c r="Z55" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA55">
         <v>2</v>
@@ -12006,7 +12006,7 @@
         <v>2</v>
       </c>
       <c r="AE55" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF55" t="s">
         <v>275</v>
@@ -12021,7 +12021,7 @@
         <v>144</v>
       </c>
       <c r="AL55" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AM55" s="4" t="s">
         <v>232</v>
@@ -12030,13 +12030,13 @@
         <v>160</v>
       </c>
       <c r="AO55" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ55" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AU55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV55" t="s">
         <v>205</v>
@@ -12045,54 +12045,54 @@
         <v>207</v>
       </c>
       <c r="AX55" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B56" t="s">
         <v>243</v>
       </c>
       <c r="C56" t="s">
+        <v>501</v>
+      </c>
+      <c r="D56" t="s">
         <v>502</v>
-      </c>
-      <c r="D56" t="s">
-        <v>503</v>
       </c>
       <c r="E56">
         <v>2008</v>
       </c>
       <c r="F56" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G56" t="s">
         <v>296</v>
       </c>
       <c r="H56" t="s">
+        <v>504</v>
+      </c>
+      <c r="I56" t="s">
         <v>505</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>506</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>507</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
+        <v>248</v>
+      </c>
+      <c r="M56" t="s">
         <v>508</v>
-      </c>
-      <c r="L56" t="s">
-        <v>248</v>
-      </c>
-      <c r="M56" t="s">
-        <v>509</v>
       </c>
       <c r="N56" t="s">
         <v>251</v>
       </c>
       <c r="O56" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P56" t="s">
         <v>334</v>
@@ -12119,7 +12119,7 @@
         <v>69</v>
       </c>
       <c r="Z56" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA56">
         <v>2</v>
@@ -12131,7 +12131,7 @@
         <v>2</v>
       </c>
       <c r="AE56" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF56" t="s">
         <v>275</v>
@@ -12146,7 +12146,7 @@
         <v>144</v>
       </c>
       <c r="AL56" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM56" s="4" t="s">
         <v>232</v>
@@ -12155,13 +12155,13 @@
         <v>162</v>
       </c>
       <c r="AO56" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ56" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AU56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV56" t="s">
         <v>205</v>
@@ -12170,54 +12170,54 @@
         <v>207</v>
       </c>
       <c r="AX56" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B57" t="s">
         <v>243</v>
       </c>
       <c r="C57" t="s">
+        <v>501</v>
+      </c>
+      <c r="D57" t="s">
         <v>502</v>
-      </c>
-      <c r="D57" t="s">
-        <v>503</v>
       </c>
       <c r="E57">
         <v>2008</v>
       </c>
       <c r="F57" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G57" t="s">
         <v>296</v>
       </c>
       <c r="H57" t="s">
+        <v>504</v>
+      </c>
+      <c r="I57" t="s">
         <v>505</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>506</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>507</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
+        <v>248</v>
+      </c>
+      <c r="M57" t="s">
         <v>508</v>
-      </c>
-      <c r="L57" t="s">
-        <v>248</v>
-      </c>
-      <c r="M57" t="s">
-        <v>509</v>
       </c>
       <c r="N57" t="s">
         <v>251</v>
       </c>
       <c r="O57" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P57" t="s">
         <v>334</v>
@@ -12256,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="AE57" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF57" t="s">
         <v>275</v>
@@ -12271,7 +12271,7 @@
         <v>144</v>
       </c>
       <c r="AL57" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AM57" s="4" t="s">
         <v>232</v>
@@ -12280,13 +12280,13 @@
         <v>160</v>
       </c>
       <c r="AO57" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ57" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AU57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AV57" t="s">
         <v>199</v>
@@ -12295,54 +12295,54 @@
         <v>207</v>
       </c>
       <c r="AX57" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="58" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B58" t="s">
         <v>243</v>
       </c>
       <c r="C58" t="s">
+        <v>501</v>
+      </c>
+      <c r="D58" t="s">
         <v>502</v>
-      </c>
-      <c r="D58" t="s">
-        <v>503</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
       <c r="F58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G58" t="s">
         <v>296</v>
       </c>
       <c r="H58" t="s">
+        <v>504</v>
+      </c>
+      <c r="I58" t="s">
         <v>505</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>506</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>507</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
+        <v>248</v>
+      </c>
+      <c r="M58" t="s">
         <v>508</v>
-      </c>
-      <c r="L58" t="s">
-        <v>248</v>
-      </c>
-      <c r="M58" t="s">
-        <v>509</v>
       </c>
       <c r="N58" t="s">
         <v>251</v>
       </c>
       <c r="O58" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P58" t="s">
         <v>334</v>
@@ -12381,7 +12381,7 @@
         <v>2</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF58" t="s">
         <v>275</v>
@@ -12396,7 +12396,7 @@
         <v>144</v>
       </c>
       <c r="AL58" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM58" s="4" t="s">
         <v>232</v>
@@ -12405,13 +12405,13 @@
         <v>162</v>
       </c>
       <c r="AO58" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ58" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AU58" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AV58" t="s">
         <v>199</v>
@@ -12420,54 +12420,54 @@
         <v>207</v>
       </c>
       <c r="AX58" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="59" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B59" t="s">
         <v>243</v>
       </c>
       <c r="C59" t="s">
+        <v>501</v>
+      </c>
+      <c r="D59" t="s">
         <v>502</v>
-      </c>
-      <c r="D59" t="s">
-        <v>503</v>
       </c>
       <c r="E59">
         <v>2008</v>
       </c>
       <c r="F59" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G59" t="s">
         <v>296</v>
       </c>
       <c r="H59" t="s">
+        <v>504</v>
+      </c>
+      <c r="I59" t="s">
         <v>505</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>506</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>507</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
+        <v>248</v>
+      </c>
+      <c r="M59" t="s">
         <v>508</v>
-      </c>
-      <c r="L59" t="s">
-        <v>248</v>
-      </c>
-      <c r="M59" t="s">
-        <v>509</v>
       </c>
       <c r="N59" t="s">
         <v>251</v>
       </c>
       <c r="O59" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P59" t="s">
         <v>334</v>
@@ -12506,7 +12506,7 @@
         <v>2</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF59" t="s">
         <v>275</v>
@@ -12521,7 +12521,7 @@
         <v>144</v>
       </c>
       <c r="AL59" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AM59" s="4" t="s">
         <v>232</v>
@@ -12530,13 +12530,13 @@
         <v>160</v>
       </c>
       <c r="AO59" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ59" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AU59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AV59" t="s">
         <v>205</v>
@@ -12545,54 +12545,54 @@
         <v>210</v>
       </c>
       <c r="AX59" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B60" t="s">
         <v>243</v>
       </c>
       <c r="C60" t="s">
+        <v>501</v>
+      </c>
+      <c r="D60" t="s">
         <v>502</v>
-      </c>
-      <c r="D60" t="s">
-        <v>503</v>
       </c>
       <c r="E60">
         <v>2008</v>
       </c>
       <c r="F60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G60" t="s">
         <v>296</v>
       </c>
       <c r="H60" t="s">
+        <v>504</v>
+      </c>
+      <c r="I60" t="s">
         <v>505</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>506</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>507</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
+        <v>248</v>
+      </c>
+      <c r="M60" t="s">
         <v>508</v>
-      </c>
-      <c r="L60" t="s">
-        <v>248</v>
-      </c>
-      <c r="M60" t="s">
-        <v>509</v>
       </c>
       <c r="N60" t="s">
         <v>251</v>
       </c>
       <c r="O60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P60" t="s">
         <v>334</v>
@@ -12631,7 +12631,7 @@
         <v>2</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF60" t="s">
         <v>275</v>
@@ -12646,7 +12646,7 @@
         <v>144</v>
       </c>
       <c r="AL60" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM60" s="4" t="s">
         <v>232</v>
@@ -12655,13 +12655,13 @@
         <v>162</v>
       </c>
       <c r="AO60" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ60" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AU60" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AV60" t="s">
         <v>205</v>
@@ -12670,48 +12670,48 @@
         <v>210</v>
       </c>
       <c r="AX60" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B61" t="s">
         <v>243</v>
       </c>
       <c r="C61" t="s">
+        <v>523</v>
+      </c>
+      <c r="D61" t="s">
         <v>524</v>
-      </c>
-      <c r="D61" t="s">
-        <v>525</v>
       </c>
       <c r="E61">
         <v>2008</v>
       </c>
       <c r="F61" t="s">
+        <v>525</v>
+      </c>
+      <c r="G61" t="s">
         <v>526</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>527</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>528</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>529</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>530</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
+        <v>248</v>
+      </c>
+      <c r="M61" t="s">
         <v>531</v>
-      </c>
-      <c r="L61" t="s">
-        <v>248</v>
-      </c>
-      <c r="M61" t="s">
-        <v>532</v>
       </c>
       <c r="N61" t="s">
         <v>251</v>
@@ -12744,7 +12744,7 @@
         <v>215</v>
       </c>
       <c r="Z61" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA61">
         <v>3</v>
@@ -12756,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF61" t="s">
         <v>275</v>
@@ -12771,7 +12771,7 @@
         <v>139</v>
       </c>
       <c r="AL61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AM61" s="4" t="s">
         <v>232</v>
@@ -12780,13 +12780,13 @@
         <v>161</v>
       </c>
       <c r="AO61" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ61" t="s">
         <v>164</v>
       </c>
       <c r="AU61" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AV61" t="s">
         <v>199</v>
@@ -12795,48 +12795,48 @@
         <v>207</v>
       </c>
       <c r="AX61" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B62" t="s">
         <v>243</v>
       </c>
       <c r="C62" t="s">
+        <v>523</v>
+      </c>
+      <c r="D62" t="s">
         <v>524</v>
-      </c>
-      <c r="D62" t="s">
-        <v>525</v>
       </c>
       <c r="E62">
         <v>2008</v>
       </c>
       <c r="F62" t="s">
+        <v>525</v>
+      </c>
+      <c r="G62" t="s">
         <v>526</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>527</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>528</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>529</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>530</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
+        <v>248</v>
+      </c>
+      <c r="M62" t="s">
         <v>531</v>
-      </c>
-      <c r="L62" t="s">
-        <v>248</v>
-      </c>
-      <c r="M62" t="s">
-        <v>532</v>
       </c>
       <c r="N62" t="s">
         <v>251</v>
@@ -12869,7 +12869,7 @@
         <v>215</v>
       </c>
       <c r="Z62" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA62">
         <v>3</v>
@@ -12881,7 +12881,7 @@
         <v>1</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF62" t="s">
         <v>275</v>
@@ -12896,7 +12896,7 @@
         <v>145</v>
       </c>
       <c r="AL62" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AM62" s="4" t="s">
         <v>232</v>
@@ -12905,13 +12905,13 @@
         <v>161</v>
       </c>
       <c r="AO62" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ62" t="s">
         <v>164</v>
       </c>
       <c r="AU62" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AV62" t="s">
         <v>199</v>
@@ -12920,48 +12920,48 @@
         <v>207</v>
       </c>
       <c r="AX62" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B63" t="s">
         <v>243</v>
       </c>
       <c r="C63" t="s">
+        <v>523</v>
+      </c>
+      <c r="D63" t="s">
         <v>524</v>
-      </c>
-      <c r="D63" t="s">
-        <v>525</v>
       </c>
       <c r="E63">
         <v>2008</v>
       </c>
       <c r="F63" t="s">
+        <v>525</v>
+      </c>
+      <c r="G63" t="s">
         <v>526</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>527</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>528</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>529</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>530</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
+        <v>248</v>
+      </c>
+      <c r="M63" t="s">
         <v>531</v>
-      </c>
-      <c r="L63" t="s">
-        <v>248</v>
-      </c>
-      <c r="M63" t="s">
-        <v>532</v>
       </c>
       <c r="N63" t="s">
         <v>251</v>
@@ -12994,7 +12994,7 @@
         <v>215</v>
       </c>
       <c r="Z63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA63">
         <v>3</v>
@@ -13019,7 +13019,7 @@
         <v>149</v>
       </c>
       <c r="AL63" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AM63" s="4" t="s">
         <v>232</v>
@@ -13028,13 +13028,13 @@
         <v>160</v>
       </c>
       <c r="AO63" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ63" t="s">
         <v>164</v>
       </c>
       <c r="AU63" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AV63" t="s">
         <v>199</v>
@@ -13043,48 +13043,48 @@
         <v>207</v>
       </c>
       <c r="AX63" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="64" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B64" t="s">
         <v>243</v>
       </c>
       <c r="C64" t="s">
+        <v>523</v>
+      </c>
+      <c r="D64" t="s">
         <v>524</v>
-      </c>
-      <c r="D64" t="s">
-        <v>525</v>
       </c>
       <c r="E64">
         <v>2008</v>
       </c>
       <c r="F64" t="s">
+        <v>525</v>
+      </c>
+      <c r="G64" t="s">
         <v>526</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>527</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>528</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>529</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>530</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
+        <v>248</v>
+      </c>
+      <c r="M64" t="s">
         <v>531</v>
-      </c>
-      <c r="L64" t="s">
-        <v>248</v>
-      </c>
-      <c r="M64" t="s">
-        <v>532</v>
       </c>
       <c r="N64" t="s">
         <v>251</v>
@@ -13117,7 +13117,7 @@
         <v>215</v>
       </c>
       <c r="Z64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA64">
         <v>3</v>
@@ -13142,7 +13142,7 @@
         <v>149</v>
       </c>
       <c r="AL64" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AM64" s="4" t="s">
         <v>232</v>
@@ -13151,13 +13151,13 @@
         <v>162</v>
       </c>
       <c r="AO64" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ64" t="s">
         <v>164</v>
       </c>
       <c r="AU64" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AV64" t="s">
         <v>199</v>
@@ -13166,48 +13166,48 @@
         <v>207</v>
       </c>
       <c r="AX64" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B65" t="s">
         <v>243</v>
       </c>
       <c r="C65" t="s">
+        <v>523</v>
+      </c>
+      <c r="D65" t="s">
         <v>524</v>
-      </c>
-      <c r="D65" t="s">
-        <v>525</v>
       </c>
       <c r="E65">
         <v>2008</v>
       </c>
       <c r="F65" t="s">
+        <v>525</v>
+      </c>
+      <c r="G65" t="s">
         <v>526</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>527</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>528</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>529</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>530</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
+        <v>248</v>
+      </c>
+      <c r="M65" t="s">
         <v>531</v>
-      </c>
-      <c r="L65" t="s">
-        <v>248</v>
-      </c>
-      <c r="M65" t="s">
-        <v>532</v>
       </c>
       <c r="N65" t="s">
         <v>251</v>
@@ -13240,7 +13240,7 @@
         <v>215</v>
       </c>
       <c r="Z65" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA65">
         <v>3</v>
@@ -13271,7 +13271,7 @@
         <v>150</v>
       </c>
       <c r="AL65" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AM65" s="4" t="s">
         <v>232</v>
@@ -13280,13 +13280,13 @@
         <v>161</v>
       </c>
       <c r="AO65" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ65" t="s">
         <v>164</v>
       </c>
       <c r="AU65" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AV65" t="s">
         <v>199</v>
@@ -13295,48 +13295,48 @@
         <v>207</v>
       </c>
       <c r="AX65" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="66" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B66" t="s">
         <v>243</v>
       </c>
       <c r="C66" t="s">
+        <v>523</v>
+      </c>
+      <c r="D66" t="s">
         <v>524</v>
-      </c>
-      <c r="D66" t="s">
-        <v>525</v>
       </c>
       <c r="E66">
         <v>2008</v>
       </c>
       <c r="F66" t="s">
+        <v>525</v>
+      </c>
+      <c r="G66" t="s">
         <v>526</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>527</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>528</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>529</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>530</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
+        <v>248</v>
+      </c>
+      <c r="M66" t="s">
         <v>531</v>
-      </c>
-      <c r="L66" t="s">
-        <v>248</v>
-      </c>
-      <c r="M66" t="s">
-        <v>532</v>
       </c>
       <c r="N66" t="s">
         <v>251</v>
@@ -13369,7 +13369,7 @@
         <v>215</v>
       </c>
       <c r="Z66" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AA66">
         <v>3</v>
@@ -13394,7 +13394,7 @@
         <v>145</v>
       </c>
       <c r="AL66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AM66" s="4" t="s">
         <v>232</v>
@@ -13403,13 +13403,13 @@
         <v>161</v>
       </c>
       <c r="AO66" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ66" t="s">
         <v>164</v>
       </c>
       <c r="AU66" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AV66" t="s">
         <v>200</v>
@@ -13418,48 +13418,48 @@
         <v>207</v>
       </c>
       <c r="AX66" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B67" t="s">
         <v>243</v>
       </c>
       <c r="C67" t="s">
+        <v>523</v>
+      </c>
+      <c r="D67" t="s">
         <v>524</v>
-      </c>
-      <c r="D67" t="s">
-        <v>525</v>
       </c>
       <c r="E67">
         <v>2008</v>
       </c>
       <c r="F67" t="s">
+        <v>525</v>
+      </c>
+      <c r="G67" t="s">
         <v>526</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>527</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>528</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>529</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>530</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
+        <v>248</v>
+      </c>
+      <c r="M67" t="s">
         <v>531</v>
-      </c>
-      <c r="L67" t="s">
-        <v>248</v>
-      </c>
-      <c r="M67" t="s">
-        <v>532</v>
       </c>
       <c r="N67" t="s">
         <v>251</v>
@@ -13492,7 +13492,7 @@
         <v>215</v>
       </c>
       <c r="Z67" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AA67">
         <v>3</v>
@@ -13517,7 +13517,7 @@
         <v>139</v>
       </c>
       <c r="AL67" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AM67" s="4" t="s">
         <v>232</v>
@@ -13526,13 +13526,13 @@
         <v>161</v>
       </c>
       <c r="AO67" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ67" t="s">
         <v>164</v>
       </c>
       <c r="AU67" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AV67" t="s">
         <v>200</v>
@@ -13541,21 +13541,21 @@
         <v>207</v>
       </c>
       <c r="AX67" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B68" t="s">
         <v>243</v>
       </c>
       <c r="C68" t="s">
+        <v>549</v>
+      </c>
+      <c r="D68" t="s">
         <v>550</v>
-      </c>
-      <c r="D68" t="s">
-        <v>551</v>
       </c>
       <c r="E68">
         <v>2007</v>
@@ -13564,25 +13564,25 @@
         <v>346</v>
       </c>
       <c r="G68" t="s">
+        <v>551</v>
+      </c>
+      <c r="H68" t="s">
+        <v>495</v>
+      </c>
+      <c r="I68" t="s">
         <v>552</v>
       </c>
-      <c r="H68" t="s">
-        <v>496</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>553</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>554</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
+        <v>248</v>
+      </c>
+      <c r="M68" t="s">
         <v>555</v>
-      </c>
-      <c r="L68" t="s">
-        <v>248</v>
-      </c>
-      <c r="M68" t="s">
-        <v>556</v>
       </c>
       <c r="N68" t="s">
         <v>251</v>
@@ -13615,7 +13615,7 @@
         <v>80</v>
       </c>
       <c r="Z68" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AA68">
         <v>2</v>
@@ -13640,7 +13640,7 @@
         <v>138</v>
       </c>
       <c r="AL68" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AM68" t="s">
         <v>232</v>
@@ -13649,7 +13649,7 @@
         <v>162</v>
       </c>
       <c r="AO68" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AQ68" t="s">
         <v>164</v>
@@ -13661,7 +13661,7 @@
         <v>175</v>
       </c>
       <c r="AU68" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AV68" t="s">
         <v>199</v>
@@ -13670,21 +13670,21 @@
         <v>208</v>
       </c>
       <c r="AX68" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="69" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B69" t="s">
         <v>243</v>
       </c>
       <c r="C69" t="s">
+        <v>549</v>
+      </c>
+      <c r="D69" t="s">
         <v>550</v>
-      </c>
-      <c r="D69" t="s">
-        <v>551</v>
       </c>
       <c r="E69">
         <v>2007</v>
@@ -13693,25 +13693,25 @@
         <v>346</v>
       </c>
       <c r="G69" t="s">
+        <v>551</v>
+      </c>
+      <c r="H69" t="s">
+        <v>495</v>
+      </c>
+      <c r="I69" t="s">
         <v>552</v>
       </c>
-      <c r="H69" t="s">
-        <v>496</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>553</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>554</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
+        <v>248</v>
+      </c>
+      <c r="M69" t="s">
         <v>555</v>
-      </c>
-      <c r="L69" t="s">
-        <v>248</v>
-      </c>
-      <c r="M69" t="s">
-        <v>556</v>
       </c>
       <c r="N69" t="s">
         <v>251</v>
@@ -13744,7 +13744,7 @@
         <v>80</v>
       </c>
       <c r="Z69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AA69">
         <v>2</v>
@@ -13769,7 +13769,7 @@
         <v>138</v>
       </c>
       <c r="AL69" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AM69" t="s">
         <v>232</v>
@@ -13778,7 +13778,7 @@
         <v>162</v>
       </c>
       <c r="AO69" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AQ69" t="s">
         <v>164</v>
@@ -13790,7 +13790,7 @@
         <v>176</v>
       </c>
       <c r="AU69" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AV69" t="s">
         <v>199</v>
@@ -13799,21 +13799,21 @@
         <v>208</v>
       </c>
       <c r="AX69" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="70" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B70" t="s">
         <v>243</v>
       </c>
       <c r="C70" t="s">
+        <v>645</v>
+      </c>
+      <c r="D70" t="s">
         <v>646</v>
-      </c>
-      <c r="D70" t="s">
-        <v>647</v>
       </c>
       <c r="E70">
         <v>2006</v>
@@ -13831,10 +13831,10 @@
         <v>45</v>
       </c>
       <c r="K70" t="s">
+        <v>647</v>
+      </c>
+      <c r="M70" t="s">
         <v>648</v>
-      </c>
-      <c r="M70" t="s">
-        <v>649</v>
       </c>
       <c r="N70" t="s">
         <v>251</v>
@@ -13867,7 +13867,7 @@
         <v>216</v>
       </c>
       <c r="Z70" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AA70">
         <v>3</v>
@@ -13898,13 +13898,13 @@
         <v>148</v>
       </c>
       <c r="AL70" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AM70" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO70" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AQ70" t="s">
         <v>164</v>
@@ -13916,7 +13916,7 @@
         <v>175</v>
       </c>
       <c r="AU70" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AV70" t="s">
         <v>206</v>
@@ -13925,21 +13925,21 @@
         <v>209</v>
       </c>
       <c r="AX70" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B71" t="s">
         <v>243</v>
       </c>
       <c r="C71" t="s">
+        <v>645</v>
+      </c>
+      <c r="D71" t="s">
         <v>646</v>
-      </c>
-      <c r="D71" t="s">
-        <v>647</v>
       </c>
       <c r="E71">
         <v>2006</v>
@@ -13957,10 +13957,10 @@
         <v>45</v>
       </c>
       <c r="K71" t="s">
+        <v>647</v>
+      </c>
+      <c r="M71" t="s">
         <v>648</v>
-      </c>
-      <c r="M71" t="s">
-        <v>649</v>
       </c>
       <c r="N71" t="s">
         <v>251</v>
@@ -13993,7 +13993,7 @@
         <v>216</v>
       </c>
       <c r="Z71" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AA71">
         <v>3</v>
@@ -14024,13 +14024,13 @@
         <v>148</v>
       </c>
       <c r="AL71" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM71" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO71" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AQ71" t="s">
         <v>164</v>
@@ -14042,7 +14042,7 @@
         <v>175</v>
       </c>
       <c r="AU71" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AV71" t="s">
         <v>206</v>
@@ -14051,21 +14051,21 @@
         <v>209</v>
       </c>
       <c r="AX71" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="72" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B72" t="s">
         <v>243</v>
       </c>
       <c r="C72" t="s">
+        <v>645</v>
+      </c>
+      <c r="D72" t="s">
         <v>646</v>
-      </c>
-      <c r="D72" t="s">
-        <v>647</v>
       </c>
       <c r="E72">
         <v>2006</v>
@@ -14083,10 +14083,10 @@
         <v>45</v>
       </c>
       <c r="K72" t="s">
+        <v>647</v>
+      </c>
+      <c r="M72" t="s">
         <v>648</v>
-      </c>
-      <c r="M72" t="s">
-        <v>649</v>
       </c>
       <c r="N72" t="s">
         <v>251</v>
@@ -14119,7 +14119,7 @@
         <v>216</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AA72">
         <v>3</v>
@@ -14150,13 +14150,13 @@
         <v>148</v>
       </c>
       <c r="AL72" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM72" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO72" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AQ72" t="s">
         <v>164</v>
@@ -14168,7 +14168,7 @@
         <v>176</v>
       </c>
       <c r="AU72" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AV72" t="s">
         <v>206</v>
@@ -14177,21 +14177,21 @@
         <v>209</v>
       </c>
       <c r="AX72" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="73" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B73" t="s">
         <v>243</v>
       </c>
       <c r="C73" t="s">
+        <v>645</v>
+      </c>
+      <c r="D73" t="s">
         <v>646</v>
-      </c>
-      <c r="D73" t="s">
-        <v>647</v>
       </c>
       <c r="E73">
         <v>2006</v>
@@ -14209,10 +14209,10 @@
         <v>45</v>
       </c>
       <c r="K73" t="s">
+        <v>647</v>
+      </c>
+      <c r="M73" t="s">
         <v>648</v>
-      </c>
-      <c r="M73" t="s">
-        <v>649</v>
       </c>
       <c r="N73" t="s">
         <v>251</v>
@@ -14245,7 +14245,7 @@
         <v>216</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AA73">
         <v>3</v>
@@ -14276,13 +14276,13 @@
         <v>148</v>
       </c>
       <c r="AL73" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AM73" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO73" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AQ73" t="s">
         <v>164</v>
@@ -14294,7 +14294,7 @@
         <v>176</v>
       </c>
       <c r="AU73" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AV73" t="s">
         <v>206</v>
@@ -14303,48 +14303,48 @@
         <v>209</v>
       </c>
       <c r="AX73" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B74" t="s">
         <v>243</v>
       </c>
       <c r="C74" t="s">
+        <v>560</v>
+      </c>
+      <c r="D74" t="s">
         <v>561</v>
-      </c>
-      <c r="D74" t="s">
-        <v>562</v>
       </c>
       <c r="E74">
         <v>2005</v>
       </c>
       <c r="F74" t="s">
+        <v>562</v>
+      </c>
+      <c r="G74" t="s">
         <v>563</v>
-      </c>
-      <c r="G74" t="s">
-        <v>564</v>
       </c>
       <c r="H74" t="s">
         <v>280</v>
       </c>
       <c r="I74" t="s">
+        <v>564</v>
+      </c>
+      <c r="J74" t="s">
         <v>565</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>566</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
+        <v>248</v>
+      </c>
+      <c r="M74" t="s">
         <v>567</v>
-      </c>
-      <c r="L74" t="s">
-        <v>248</v>
-      </c>
-      <c r="M74" t="s">
-        <v>568</v>
       </c>
       <c r="N74" t="s">
         <v>251</v>
@@ -14377,7 +14377,7 @@
         <v>216</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA74">
         <v>3</v>
@@ -14408,13 +14408,13 @@
         <v>141</v>
       </c>
       <c r="AL74" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AM74" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO74" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AQ74" t="s">
         <v>164</v>
@@ -14426,7 +14426,7 @@
         <v>179</v>
       </c>
       <c r="AU74" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AV74" t="s">
         <v>199</v>
@@ -14435,48 +14435,48 @@
         <v>210</v>
       </c>
       <c r="AX74" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B75" t="s">
         <v>243</v>
       </c>
       <c r="C75" t="s">
+        <v>560</v>
+      </c>
+      <c r="D75" t="s">
         <v>561</v>
-      </c>
-      <c r="D75" t="s">
-        <v>562</v>
       </c>
       <c r="E75">
         <v>2005</v>
       </c>
       <c r="F75" t="s">
+        <v>562</v>
+      </c>
+      <c r="G75" t="s">
         <v>563</v>
-      </c>
-      <c r="G75" t="s">
-        <v>564</v>
       </c>
       <c r="H75" t="s">
         <v>280</v>
       </c>
       <c r="I75" t="s">
+        <v>564</v>
+      </c>
+      <c r="J75" t="s">
         <v>565</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>566</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
+        <v>248</v>
+      </c>
+      <c r="M75" t="s">
         <v>567</v>
-      </c>
-      <c r="L75" t="s">
-        <v>248</v>
-      </c>
-      <c r="M75" t="s">
-        <v>568</v>
       </c>
       <c r="N75" t="s">
         <v>251</v>
@@ -14509,7 +14509,7 @@
         <v>216</v>
       </c>
       <c r="Z75" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA75">
         <v>3</v>
@@ -14540,13 +14540,13 @@
         <v>141</v>
       </c>
       <c r="AL75" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AM75" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO75" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AQ75" t="s">
         <v>164</v>
@@ -14558,7 +14558,7 @@
         <v>179</v>
       </c>
       <c r="AU75" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AV75" t="s">
         <v>199</v>
@@ -14567,48 +14567,48 @@
         <v>210</v>
       </c>
       <c r="AX75" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B76" t="s">
         <v>243</v>
       </c>
       <c r="C76" t="s">
+        <v>560</v>
+      </c>
+      <c r="D76" t="s">
         <v>561</v>
-      </c>
-      <c r="D76" t="s">
-        <v>562</v>
       </c>
       <c r="E76">
         <v>2005</v>
       </c>
       <c r="F76" t="s">
+        <v>562</v>
+      </c>
+      <c r="G76" t="s">
         <v>563</v>
-      </c>
-      <c r="G76" t="s">
-        <v>564</v>
       </c>
       <c r="H76" t="s">
         <v>280</v>
       </c>
       <c r="I76" t="s">
+        <v>564</v>
+      </c>
+      <c r="J76" t="s">
         <v>565</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>566</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
+        <v>248</v>
+      </c>
+      <c r="M76" t="s">
         <v>567</v>
-      </c>
-      <c r="L76" t="s">
-        <v>248</v>
-      </c>
-      <c r="M76" t="s">
-        <v>568</v>
       </c>
       <c r="N76" t="s">
         <v>251</v>
@@ -14641,7 +14641,7 @@
         <v>216</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA76">
         <v>3</v>
@@ -14672,13 +14672,13 @@
         <v>141</v>
       </c>
       <c r="AL76" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AM76" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO76" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AQ76" t="s">
         <v>164</v>
@@ -14690,7 +14690,7 @@
         <v>179</v>
       </c>
       <c r="AU76" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AV76" t="s">
         <v>199</v>
@@ -14699,48 +14699,48 @@
         <v>209</v>
       </c>
       <c r="AX76" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B77" t="s">
         <v>243</v>
       </c>
       <c r="C77" t="s">
+        <v>569</v>
+      </c>
+      <c r="D77" t="s">
         <v>570</v>
-      </c>
-      <c r="D77" t="s">
-        <v>571</v>
       </c>
       <c r="E77">
         <v>2005</v>
       </c>
       <c r="F77" t="s">
+        <v>571</v>
+      </c>
+      <c r="G77" t="s">
         <v>572</v>
-      </c>
-      <c r="G77" t="s">
-        <v>573</v>
       </c>
       <c r="H77" t="s">
         <v>297</v>
       </c>
       <c r="I77" t="s">
+        <v>573</v>
+      </c>
+      <c r="J77" t="s">
         <v>574</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>575</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
+        <v>248</v>
+      </c>
+      <c r="M77" t="s">
         <v>576</v>
-      </c>
-      <c r="L77" t="s">
-        <v>248</v>
-      </c>
-      <c r="M77" t="s">
-        <v>577</v>
       </c>
       <c r="N77" t="s">
         <v>251</v>
@@ -14764,49 +14764,49 @@
     </row>
     <row r="78" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B78" t="s">
         <v>243</v>
       </c>
       <c r="C78" t="s">
+        <v>578</v>
+      </c>
+      <c r="D78" t="s">
         <v>579</v>
-      </c>
-      <c r="D78" t="s">
-        <v>580</v>
       </c>
       <c r="E78">
         <v>2003</v>
       </c>
       <c r="F78" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G78" t="s">
+        <v>580</v>
+      </c>
+      <c r="H78" t="s">
+        <v>248</v>
+      </c>
+      <c r="I78" t="s">
         <v>581</v>
       </c>
-      <c r="H78" t="s">
-        <v>248</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>582</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>583</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
+        <v>248</v>
+      </c>
+      <c r="M78" t="s">
         <v>584</v>
-      </c>
-      <c r="L78" t="s">
-        <v>248</v>
-      </c>
-      <c r="M78" t="s">
-        <v>585</v>
       </c>
       <c r="N78" t="s">
         <v>251</v>
       </c>
       <c r="O78" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P78" t="s">
         <v>248</v>
@@ -14833,7 +14833,7 @@
         <v>72</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AA78">
         <v>2</v>
@@ -14864,7 +14864,7 @@
         <v>233</v>
       </c>
       <c r="AO78" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AQ78" t="s">
         <v>164</v>
@@ -14876,7 +14876,7 @@
         <v>175</v>
       </c>
       <c r="AU78" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AV78" t="s">
         <v>113</v>
@@ -14885,54 +14885,54 @@
         <v>209</v>
       </c>
       <c r="AX78" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="79" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B79" t="s">
         <v>243</v>
       </c>
       <c r="C79" t="s">
+        <v>578</v>
+      </c>
+      <c r="D79" t="s">
         <v>579</v>
-      </c>
-      <c r="D79" t="s">
-        <v>580</v>
       </c>
       <c r="E79">
         <v>2003</v>
       </c>
       <c r="F79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G79" t="s">
+        <v>580</v>
+      </c>
+      <c r="H79" t="s">
+        <v>248</v>
+      </c>
+      <c r="I79" t="s">
         <v>581</v>
       </c>
-      <c r="H79" t="s">
-        <v>248</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>582</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>583</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
+        <v>248</v>
+      </c>
+      <c r="M79" t="s">
         <v>584</v>
-      </c>
-      <c r="L79" t="s">
-        <v>248</v>
-      </c>
-      <c r="M79" t="s">
-        <v>585</v>
       </c>
       <c r="N79" t="s">
         <v>251</v>
       </c>
       <c r="O79" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P79" t="s">
         <v>248</v>
@@ -14959,7 +14959,7 @@
         <v>72</v>
       </c>
       <c r="Z79" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AA79">
         <v>2</v>
@@ -14971,7 +14971,7 @@
         <v>2</v>
       </c>
       <c r="AD79" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AE79" s="4"/>
       <c r="AF79" t="s">
@@ -14993,7 +14993,7 @@
         <v>233</v>
       </c>
       <c r="AO79" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AQ79" t="s">
         <v>164</v>
@@ -15005,7 +15005,7 @@
         <v>175</v>
       </c>
       <c r="AU79" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AV79" t="s">
         <v>113</v>
@@ -15014,21 +15014,21 @@
         <v>208</v>
       </c>
       <c r="AX79" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="80" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B80" t="s">
         <v>243</v>
       </c>
       <c r="C80" t="s">
+        <v>586</v>
+      </c>
+      <c r="D80" t="s">
         <v>587</v>
-      </c>
-      <c r="D80" t="s">
-        <v>588</v>
       </c>
       <c r="E80">
         <v>2003</v>
@@ -15037,25 +15037,25 @@
         <v>390</v>
       </c>
       <c r="G80" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H80" t="s">
         <v>297</v>
       </c>
       <c r="I80" t="s">
+        <v>589</v>
+      </c>
+      <c r="J80" t="s">
         <v>590</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>591</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
+        <v>248</v>
+      </c>
+      <c r="M80" t="s">
         <v>592</v>
-      </c>
-      <c r="L80" t="s">
-        <v>248</v>
-      </c>
-      <c r="M80" t="s">
-        <v>593</v>
       </c>
       <c r="N80" t="s">
         <v>251</v>
@@ -15064,7 +15064,7 @@
         <v>252</v>
       </c>
       <c r="P80" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q80" t="s">
         <v>21</v>
@@ -15088,7 +15088,7 @@
         <v>80</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AA80">
         <v>3</v>
@@ -15100,7 +15100,7 @@
         <v>2</v>
       </c>
       <c r="AE80" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF80" t="s">
         <v>335</v>
@@ -15118,13 +15118,13 @@
         <v>148</v>
       </c>
       <c r="AL80" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM80" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO80" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AQ80" t="s">
         <v>164</v>
@@ -15136,7 +15136,7 @@
         <v>176</v>
       </c>
       <c r="AU80" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AV80" t="s">
         <v>204</v>
@@ -15145,21 +15145,21 @@
         <v>208</v>
       </c>
       <c r="AX80" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B81" t="s">
         <v>243</v>
       </c>
       <c r="C81" t="s">
+        <v>595</v>
+      </c>
+      <c r="D81" t="s">
         <v>596</v>
-      </c>
-      <c r="D81" t="s">
-        <v>597</v>
       </c>
       <c r="E81">
         <v>2000</v>
@@ -15168,25 +15168,25 @@
         <v>434</v>
       </c>
       <c r="G81" t="s">
+        <v>597</v>
+      </c>
+      <c r="H81" t="s">
+        <v>248</v>
+      </c>
+      <c r="I81" t="s">
         <v>598</v>
       </c>
-      <c r="H81" t="s">
-        <v>248</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>599</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>600</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
+        <v>248</v>
+      </c>
+      <c r="M81" t="s">
         <v>601</v>
-      </c>
-      <c r="L81" t="s">
-        <v>248</v>
-      </c>
-      <c r="M81" t="s">
-        <v>602</v>
       </c>
       <c r="N81" t="s">
         <v>251</v>
@@ -15195,7 +15195,7 @@
         <v>252</v>
       </c>
       <c r="P81" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q81" t="s">
         <v>21</v>
@@ -15219,10 +15219,10 @@
         <v>216</v>
       </c>
       <c r="Y81" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="Z81" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="Z81" s="4" t="s">
-        <v>675</v>
       </c>
       <c r="AA81">
         <v>2</v>
@@ -15234,10 +15234,10 @@
         <v>2</v>
       </c>
       <c r="AD81" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AE81" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AF81" t="s">
         <v>253</v>
@@ -15249,13 +15249,13 @@
         <v>116</v>
       </c>
       <c r="AL81" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AM81" s="4" t="s">
         <v>159</v>
       </c>
       <c r="AO81" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AQ81" t="s">
         <v>164</v>
@@ -15267,10 +15267,10 @@
         <v>175</v>
       </c>
       <c r="AT81" t="s">
+        <v>678</v>
+      </c>
+      <c r="AU81" t="s">
         <v>679</v>
-      </c>
-      <c r="AU81" t="s">
-        <v>680</v>
       </c>
       <c r="AV81" t="s">
         <v>213</v>
@@ -15279,21 +15279,21 @@
         <v>207</v>
       </c>
       <c r="AX81" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="82" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B82" t="s">
         <v>243</v>
       </c>
       <c r="C82" t="s">
+        <v>595</v>
+      </c>
+      <c r="D82" t="s">
         <v>596</v>
-      </c>
-      <c r="D82" t="s">
-        <v>597</v>
       </c>
       <c r="E82">
         <v>2000</v>
@@ -15302,25 +15302,25 @@
         <v>434</v>
       </c>
       <c r="G82" t="s">
+        <v>597</v>
+      </c>
+      <c r="H82" t="s">
+        <v>248</v>
+      </c>
+      <c r="I82" t="s">
         <v>598</v>
       </c>
-      <c r="H82" t="s">
-        <v>248</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>599</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>600</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
+        <v>248</v>
+      </c>
+      <c r="M82" t="s">
         <v>601</v>
-      </c>
-      <c r="L82" t="s">
-        <v>248</v>
-      </c>
-      <c r="M82" t="s">
-        <v>602</v>
       </c>
       <c r="N82" t="s">
         <v>251</v>
@@ -15329,7 +15329,7 @@
         <v>252</v>
       </c>
       <c r="P82" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q82" t="s">
         <v>21</v>
@@ -15353,10 +15353,10 @@
         <v>216</v>
       </c>
       <c r="Y82" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="Z82" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="Z82" s="4" t="s">
-        <v>675</v>
       </c>
       <c r="AA82">
         <v>2</v>
@@ -15368,10 +15368,10 @@
         <v>2</v>
       </c>
       <c r="AD82" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AE82" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AF82" t="s">
         <v>253</v>
@@ -15383,13 +15383,13 @@
         <v>116</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AM82" s="4" t="s">
         <v>159</v>
       </c>
       <c r="AO82" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AQ82" t="s">
         <v>164</v>
@@ -15401,10 +15401,10 @@
         <v>175</v>
       </c>
       <c r="AT82" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AU82" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AV82" t="s">
         <v>203</v>
@@ -15413,21 +15413,21 @@
         <v>209</v>
       </c>
       <c r="AX82" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="83" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B83" t="s">
         <v>243</v>
       </c>
       <c r="C83" t="s">
+        <v>603</v>
+      </c>
+      <c r="D83" t="s">
         <v>604</v>
-      </c>
-      <c r="D83" t="s">
-        <v>605</v>
       </c>
       <c r="E83">
         <v>2000</v>
@@ -15436,25 +15436,25 @@
         <v>390</v>
       </c>
       <c r="G83" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H83" t="s">
         <v>416</v>
       </c>
       <c r="I83" t="s">
+        <v>606</v>
+      </c>
+      <c r="J83" t="s">
         <v>607</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>608</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
+        <v>248</v>
+      </c>
+      <c r="M83" t="s">
         <v>609</v>
-      </c>
-      <c r="L83" t="s">
-        <v>248</v>
-      </c>
-      <c r="M83" t="s">
-        <v>610</v>
       </c>
       <c r="N83" t="s">
         <v>251</v>
@@ -15478,43 +15478,43 @@
     </row>
     <row r="84" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B84" t="s">
         <v>243</v>
       </c>
       <c r="C84" t="s">
+        <v>611</v>
+      </c>
+      <c r="D84" t="s">
         <v>612</v>
-      </c>
-      <c r="D84" t="s">
-        <v>613</v>
       </c>
       <c r="E84">
         <v>1997</v>
       </c>
       <c r="F84" t="s">
+        <v>613</v>
+      </c>
+      <c r="G84" t="s">
         <v>614</v>
-      </c>
-      <c r="G84" t="s">
-        <v>615</v>
       </c>
       <c r="H84" t="s">
         <v>281</v>
       </c>
       <c r="I84" t="s">
+        <v>615</v>
+      </c>
+      <c r="J84" t="s">
         <v>616</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>617</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
+        <v>248</v>
+      </c>
+      <c r="M84" t="s">
         <v>618</v>
-      </c>
-      <c r="L84" t="s">
-        <v>248</v>
-      </c>
-      <c r="M84" t="s">
-        <v>619</v>
       </c>
       <c r="N84" t="s">
         <v>251</v>
@@ -15547,7 +15547,7 @@
         <v>75</v>
       </c>
       <c r="Z84" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AA84">
         <v>2</v>
@@ -15569,13 +15569,13 @@
         <v>116</v>
       </c>
       <c r="AL84" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AM84" s="4" t="s">
         <v>159</v>
       </c>
       <c r="AO84" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AQ84" t="s">
         <v>164</v>
@@ -15587,7 +15587,7 @@
         <v>181</v>
       </c>
       <c r="AU84" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AV84" t="s">
         <v>203</v>
@@ -15596,48 +15596,48 @@
         <v>209</v>
       </c>
       <c r="AX84" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="85" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B85" t="s">
         <v>243</v>
       </c>
       <c r="C85" t="s">
+        <v>620</v>
+      </c>
+      <c r="D85" t="s">
         <v>621</v>
-      </c>
-      <c r="D85" t="s">
-        <v>622</v>
       </c>
       <c r="E85">
         <v>1996</v>
       </c>
       <c r="F85" t="s">
+        <v>622</v>
+      </c>
+      <c r="G85" t="s">
         <v>623</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>624</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>625</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>626</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
+        <v>248</v>
+      </c>
+      <c r="L85" t="s">
+        <v>248</v>
+      </c>
+      <c r="M85" t="s">
         <v>627</v>
-      </c>
-      <c r="K85" t="s">
-        <v>248</v>
-      </c>
-      <c r="L85" t="s">
-        <v>248</v>
-      </c>
-      <c r="M85" t="s">
-        <v>628</v>
       </c>
       <c r="N85" t="s">
         <v>251</v>
@@ -15670,7 +15670,7 @@
         <v>69</v>
       </c>
       <c r="Z85" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AA85">
         <v>1</v>
@@ -15682,10 +15682,10 @@
         <v>1</v>
       </c>
       <c r="AD85" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE85" s="4" t="s">
         <v>693</v>
-      </c>
-      <c r="AE85" s="4" t="s">
-        <v>694</v>
       </c>
       <c r="AF85" t="s">
         <v>267</v>
@@ -15703,7 +15703,7 @@
         <v>155</v>
       </c>
       <c r="AL85" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AM85" s="4" t="s">
         <v>232</v>
@@ -15724,10 +15724,10 @@
         <v>190</v>
       </c>
       <c r="AT85" t="s">
+        <v>690</v>
+      </c>
+      <c r="AU85" t="s">
         <v>691</v>
-      </c>
-      <c r="AU85" t="s">
-        <v>692</v>
       </c>
       <c r="AV85" t="s">
         <v>237</v>
@@ -15736,48 +15736,48 @@
         <v>208</v>
       </c>
       <c r="AX85" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B86" t="s">
         <v>243</v>
       </c>
       <c r="C86" t="s">
+        <v>620</v>
+      </c>
+      <c r="D86" t="s">
         <v>621</v>
-      </c>
-      <c r="D86" t="s">
-        <v>622</v>
       </c>
       <c r="E86">
         <v>1996</v>
       </c>
       <c r="F86" t="s">
+        <v>622</v>
+      </c>
+      <c r="G86" t="s">
         <v>623</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>624</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>625</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>626</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
+        <v>248</v>
+      </c>
+      <c r="L86" t="s">
+        <v>248</v>
+      </c>
+      <c r="M86" t="s">
         <v>627</v>
-      </c>
-      <c r="K86" t="s">
-        <v>248</v>
-      </c>
-      <c r="L86" t="s">
-        <v>248</v>
-      </c>
-      <c r="M86" t="s">
-        <v>628</v>
       </c>
       <c r="N86" t="s">
         <v>251</v>
@@ -15810,7 +15810,7 @@
         <v>69</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AA86">
         <v>1</v>
@@ -15822,10 +15822,10 @@
         <v>1</v>
       </c>
       <c r="AD86" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE86" s="4" t="s">
         <v>693</v>
-      </c>
-      <c r="AE86" s="4" t="s">
-        <v>694</v>
       </c>
       <c r="AF86" t="s">
         <v>267</v>
@@ -15843,7 +15843,7 @@
         <v>155</v>
       </c>
       <c r="AL86" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AM86" s="4" t="s">
         <v>232</v>
@@ -15864,10 +15864,10 @@
         <v>190</v>
       </c>
       <c r="AT86" t="s">
+        <v>690</v>
+      </c>
+      <c r="AU86" t="s">
         <v>691</v>
-      </c>
-      <c r="AU86" t="s">
-        <v>692</v>
       </c>
       <c r="AV86" t="s">
         <v>237</v>
@@ -15876,21 +15876,21 @@
         <v>208</v>
       </c>
       <c r="AX86" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B87" t="s">
         <v>243</v>
       </c>
       <c r="C87" t="s">
+        <v>629</v>
+      </c>
+      <c r="D87" t="s">
         <v>630</v>
-      </c>
-      <c r="D87" t="s">
-        <v>631</v>
       </c>
       <c r="E87">
         <v>1996</v>
@@ -15905,25 +15905,25 @@
         <v>416</v>
       </c>
       <c r="I87" t="s">
+        <v>631</v>
+      </c>
+      <c r="J87" t="s">
         <v>632</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>633</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
+        <v>248</v>
+      </c>
+      <c r="M87" t="s">
         <v>634</v>
-      </c>
-      <c r="L87" t="s">
-        <v>248</v>
-      </c>
-      <c r="M87" t="s">
-        <v>635</v>
       </c>
       <c r="N87" t="s">
         <v>251</v>
       </c>
       <c r="O87" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P87" t="s">
         <v>248</v>
@@ -15950,7 +15950,7 @@
         <v>216</v>
       </c>
       <c r="Z87" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA87">
         <v>2</v>
@@ -15981,7 +15981,7 @@
         <v>150</v>
       </c>
       <c r="AL87" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM87" s="4" t="s">
         <v>232</v>
@@ -16002,7 +16002,7 @@
         <v>176</v>
       </c>
       <c r="AU87" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AV87" t="s">
         <v>199</v>
@@ -16011,21 +16011,21 @@
         <v>208</v>
       </c>
       <c r="AX87" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="88" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B88" t="s">
         <v>243</v>
       </c>
       <c r="C88" t="s">
+        <v>629</v>
+      </c>
+      <c r="D88" t="s">
         <v>630</v>
-      </c>
-      <c r="D88" t="s">
-        <v>631</v>
       </c>
       <c r="E88">
         <v>1996</v>
@@ -16040,25 +16040,25 @@
         <v>416</v>
       </c>
       <c r="I88" t="s">
+        <v>631</v>
+      </c>
+      <c r="J88" t="s">
         <v>632</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>633</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
+        <v>248</v>
+      </c>
+      <c r="M88" t="s">
         <v>634</v>
-      </c>
-      <c r="L88" t="s">
-        <v>248</v>
-      </c>
-      <c r="M88" t="s">
-        <v>635</v>
       </c>
       <c r="N88" t="s">
         <v>251</v>
       </c>
       <c r="O88" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P88" t="s">
         <v>248</v>
@@ -16085,7 +16085,7 @@
         <v>216</v>
       </c>
       <c r="Z88" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA88">
         <v>2</v>
@@ -16116,7 +16116,7 @@
         <v>150</v>
       </c>
       <c r="AL88" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM88" s="4" t="s">
         <v>232</v>
@@ -16137,7 +16137,7 @@
         <v>176</v>
       </c>
       <c r="AU88" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AV88" t="s">
         <v>206</v>
@@ -16146,21 +16146,21 @@
         <v>208</v>
       </c>
       <c r="AX88" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="89" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B89" t="s">
         <v>243</v>
       </c>
       <c r="C89" t="s">
+        <v>629</v>
+      </c>
+      <c r="D89" t="s">
         <v>630</v>
-      </c>
-      <c r="D89" t="s">
-        <v>631</v>
       </c>
       <c r="E89">
         <v>1996</v>
@@ -16175,25 +16175,25 @@
         <v>416</v>
       </c>
       <c r="I89" t="s">
+        <v>631</v>
+      </c>
+      <c r="J89" t="s">
         <v>632</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>633</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
+        <v>248</v>
+      </c>
+      <c r="M89" t="s">
         <v>634</v>
-      </c>
-      <c r="L89" t="s">
-        <v>248</v>
-      </c>
-      <c r="M89" t="s">
-        <v>635</v>
       </c>
       <c r="N89" t="s">
         <v>251</v>
       </c>
       <c r="O89" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P89" t="s">
         <v>248</v>
@@ -16220,7 +16220,7 @@
         <v>216</v>
       </c>
       <c r="Z89" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA89">
         <v>2</v>
@@ -16251,7 +16251,7 @@
         <v>150</v>
       </c>
       <c r="AL89" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM89" s="4" t="s">
         <v>232</v>
@@ -16272,7 +16272,7 @@
         <v>178</v>
       </c>
       <c r="AU89" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AV89" t="s">
         <v>199</v>
@@ -16281,21 +16281,21 @@
         <v>208</v>
       </c>
       <c r="AX89" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="90" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B90" t="s">
         <v>243</v>
       </c>
       <c r="C90" t="s">
+        <v>629</v>
+      </c>
+      <c r="D90" t="s">
         <v>630</v>
-      </c>
-      <c r="D90" t="s">
-        <v>631</v>
       </c>
       <c r="E90">
         <v>1996</v>
@@ -16310,25 +16310,25 @@
         <v>416</v>
       </c>
       <c r="I90" t="s">
+        <v>631</v>
+      </c>
+      <c r="J90" t="s">
         <v>632</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>633</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
+        <v>248</v>
+      </c>
+      <c r="M90" t="s">
         <v>634</v>
-      </c>
-      <c r="L90" t="s">
-        <v>248</v>
-      </c>
-      <c r="M90" t="s">
-        <v>635</v>
       </c>
       <c r="N90" t="s">
         <v>251</v>
       </c>
       <c r="O90" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P90" t="s">
         <v>248</v>
@@ -16355,7 +16355,7 @@
         <v>216</v>
       </c>
       <c r="Z90" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA90">
         <v>2</v>
@@ -16386,7 +16386,7 @@
         <v>150</v>
       </c>
       <c r="AL90" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM90" s="4" t="s">
         <v>232</v>
@@ -16407,7 +16407,7 @@
         <v>178</v>
       </c>
       <c r="AU90" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AV90" t="s">
         <v>206</v>
@@ -16416,48 +16416,48 @@
         <v>208</v>
       </c>
       <c r="AX90" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="91" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B91" t="s">
         <v>243</v>
       </c>
       <c r="C91" t="s">
+        <v>636</v>
+      </c>
+      <c r="D91" t="s">
         <v>637</v>
-      </c>
-      <c r="D91" t="s">
-        <v>638</v>
       </c>
       <c r="E91">
         <v>2003</v>
       </c>
       <c r="F91" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G91" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H91" t="s">
         <v>297</v>
       </c>
       <c r="I91" t="s">
+        <v>639</v>
+      </c>
+      <c r="J91" t="s">
         <v>640</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>641</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
+        <v>248</v>
+      </c>
+      <c r="M91" t="s">
         <v>642</v>
-      </c>
-      <c r="L91" t="s">
-        <v>248</v>
-      </c>
-      <c r="M91" t="s">
-        <v>643</v>
       </c>
       <c r="N91" t="s">
         <v>251</v>
@@ -16466,7 +16466,7 @@
         <v>252</v>
       </c>
       <c r="P91" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q91" t="s">
         <v>22</v>
@@ -16490,7 +16490,7 @@
         <v>69</v>
       </c>
       <c r="Z91" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA91">
         <v>2</v>
@@ -16518,7 +16518,7 @@
         <v>148</v>
       </c>
       <c r="AL91" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM91" s="4" t="s">
         <v>232</v>
@@ -16527,7 +16527,7 @@
         <v>161</v>
       </c>
       <c r="AO91" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AQ91" t="s">
         <v>164</v>
@@ -16548,48 +16548,48 @@
         <v>208</v>
       </c>
       <c r="AX91" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="92" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B92" t="s">
         <v>243</v>
       </c>
       <c r="C92" t="s">
+        <v>636</v>
+      </c>
+      <c r="D92" t="s">
         <v>637</v>
-      </c>
-      <c r="D92" t="s">
-        <v>638</v>
       </c>
       <c r="E92">
         <v>2003</v>
       </c>
       <c r="F92" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G92" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H92" t="s">
         <v>297</v>
       </c>
       <c r="I92" t="s">
+        <v>639</v>
+      </c>
+      <c r="J92" t="s">
         <v>640</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>641</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
+        <v>248</v>
+      </c>
+      <c r="M92" t="s">
         <v>642</v>
-      </c>
-      <c r="L92" t="s">
-        <v>248</v>
-      </c>
-      <c r="M92" t="s">
-        <v>643</v>
       </c>
       <c r="N92" t="s">
         <v>251</v>
@@ -16598,7 +16598,7 @@
         <v>252</v>
       </c>
       <c r="P92" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q92" t="s">
         <v>22</v>
@@ -16622,7 +16622,7 @@
         <v>69</v>
       </c>
       <c r="Z92" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA92">
         <v>2</v>
@@ -16650,7 +16650,7 @@
         <v>148</v>
       </c>
       <c r="AL92" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM92" s="4" t="s">
         <v>232</v>
@@ -16659,7 +16659,7 @@
         <v>160</v>
       </c>
       <c r="AO92" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AQ92" t="s">
         <v>164</v>
@@ -16680,48 +16680,48 @@
         <v>208</v>
       </c>
       <c r="AX92" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="93" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B93" t="s">
         <v>243</v>
       </c>
       <c r="C93" t="s">
+        <v>636</v>
+      </c>
+      <c r="D93" t="s">
         <v>637</v>
-      </c>
-      <c r="D93" t="s">
-        <v>638</v>
       </c>
       <c r="E93">
         <v>2003</v>
       </c>
       <c r="F93" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G93" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H93" t="s">
         <v>297</v>
       </c>
       <c r="I93" t="s">
+        <v>639</v>
+      </c>
+      <c r="J93" t="s">
         <v>640</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>641</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
+        <v>248</v>
+      </c>
+      <c r="M93" t="s">
         <v>642</v>
-      </c>
-      <c r="L93" t="s">
-        <v>248</v>
-      </c>
-      <c r="M93" t="s">
-        <v>643</v>
       </c>
       <c r="N93" t="s">
         <v>251</v>
@@ -16730,7 +16730,7 @@
         <v>252</v>
       </c>
       <c r="P93" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q93" t="s">
         <v>22</v>
@@ -16754,7 +16754,7 @@
         <v>69</v>
       </c>
       <c r="Z93" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA93">
         <v>2</v>
@@ -16782,7 +16782,7 @@
         <v>148</v>
       </c>
       <c r="AL93" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AM93" s="4" t="s">
         <v>232</v>
@@ -16791,7 +16791,7 @@
         <v>161</v>
       </c>
       <c r="AO93" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AQ93" t="s">
         <v>164</v>
@@ -16812,48 +16812,48 @@
         <v>208</v>
       </c>
       <c r="AX93" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="94" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B94" t="s">
         <v>243</v>
       </c>
       <c r="C94" t="s">
+        <v>636</v>
+      </c>
+      <c r="D94" t="s">
         <v>637</v>
-      </c>
-      <c r="D94" t="s">
-        <v>638</v>
       </c>
       <c r="E94">
         <v>2003</v>
       </c>
       <c r="F94" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G94" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H94" t="s">
         <v>297</v>
       </c>
       <c r="I94" t="s">
+        <v>639</v>
+      </c>
+      <c r="J94" t="s">
         <v>640</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>641</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
+        <v>248</v>
+      </c>
+      <c r="M94" t="s">
         <v>642</v>
-      </c>
-      <c r="L94" t="s">
-        <v>248</v>
-      </c>
-      <c r="M94" t="s">
-        <v>643</v>
       </c>
       <c r="N94" t="s">
         <v>251</v>
@@ -16862,7 +16862,7 @@
         <v>252</v>
       </c>
       <c r="P94" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q94" t="s">
         <v>22</v>
@@ -16886,7 +16886,7 @@
         <v>72</v>
       </c>
       <c r="Z94" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA94">
         <v>2</v>
@@ -16914,7 +16914,7 @@
         <v>148</v>
       </c>
       <c r="AL94" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AM94" s="4" t="s">
         <v>232</v>
@@ -16923,7 +16923,7 @@
         <v>161</v>
       </c>
       <c r="AO94" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AQ94" t="s">
         <v>164</v>
@@ -16944,48 +16944,48 @@
         <v>208</v>
       </c>
       <c r="AX94" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="95" spans="1:50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B95" t="s">
         <v>243</v>
       </c>
       <c r="C95" t="s">
+        <v>636</v>
+      </c>
+      <c r="D95" t="s">
         <v>637</v>
-      </c>
-      <c r="D95" t="s">
-        <v>638</v>
       </c>
       <c r="E95">
         <v>2003</v>
       </c>
       <c r="F95" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G95" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H95" t="s">
         <v>297</v>
       </c>
       <c r="I95" t="s">
+        <v>639</v>
+      </c>
+      <c r="J95" t="s">
         <v>640</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>641</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
+        <v>248</v>
+      </c>
+      <c r="M95" t="s">
         <v>642</v>
-      </c>
-      <c r="L95" t="s">
-        <v>248</v>
-      </c>
-      <c r="M95" t="s">
-        <v>643</v>
       </c>
       <c r="N95" t="s">
         <v>251</v>
@@ -16994,7 +16994,7 @@
         <v>252</v>
       </c>
       <c r="P95" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q95" t="s">
         <v>22</v>
@@ -17018,7 +17018,7 @@
         <v>72</v>
       </c>
       <c r="Z95" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AA95">
         <v>2</v>
@@ -17045,13 +17045,13 @@
         <v>148</v>
       </c>
       <c r="AL95" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AM95" s="4" t="s">
         <v>233</v>
       </c>
       <c r="AO95" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AQ95" t="s">
         <v>164</v>
@@ -17063,7 +17063,7 @@
         <v>178</v>
       </c>
       <c r="AU95" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AV95" t="s">
         <v>113</v>
@@ -17072,7 +17072,7 @@
         <v>208</v>
       </c>
       <c r="AX95" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -17724,7 +17724,7 @@
         <v>233</v>
       </c>
       <c r="AQ8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AV8" t="s">
         <v>204</v>
@@ -19189,6 +19189,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -19302,22 +19317,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E4DF9E-7F1E-4972-89F4-4FEF38D7FA95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19331,27 +19354,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>